--- a/Jogos_da_Semana_FlashScore_2025-02-02.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-02.xlsx
@@ -710,10 +710,10 @@
         <v>3.4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O2" t="n">
         <v>1.1</v>
@@ -1137,10 +1137,10 @@
         <v>3.4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O5" t="n">
         <v>1.29</v>
@@ -1149,10 +1149,10 @@
         <v>3.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="R5" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
@@ -1548,10 +1548,10 @@
         <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J8" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K8" t="n">
         <v>2.2</v>
@@ -1572,18 +1572,18 @@
         <v>3.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="R8" t="n">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="V8" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W8" t="n">
         <v>1.4</v>
@@ -1622,7 +1622,7 @@
         <v>6.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ8" t="n">
         <v>41</v>
@@ -1643,7 +1643,7 @@
         <v>41</v>
       </c>
       <c r="AP8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ8" t="n">
         <v>34</v>
@@ -1719,16 +1719,16 @@
         <v>2.38</v>
       </c>
       <c r="S9" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="T9" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="U9" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V9" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W9" t="n">
         <v>1.29</v>
@@ -1852,10 +1852,10 @@
         <v>17</v>
       </c>
       <c r="O10" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P10" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q10" t="n">
         <v>1.53</v>
@@ -1864,10 +1864,10 @@
         <v>2.5</v>
       </c>
       <c r="S10" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="T10" t="n">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
       <c r="U10" t="n">
         <v>2.3</v>
@@ -1973,7 +1973,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="H11" t="n">
         <v>7</v>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="H12" t="n">
         <v>4.75</v>
@@ -2253,7 +2253,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H13" t="n">
         <v>3.9</v>
@@ -2990,16 +2990,16 @@
         <v>15</v>
       </c>
       <c r="O18" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P18" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R18" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S18" t="n">
         <v>1.98</v>
@@ -3008,10 +3008,10 @@
         <v>1.88</v>
       </c>
       <c r="U18" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V18" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W18" t="n">
         <v>1.33</v>
@@ -3141,10 +3141,10 @@
         <v>3.4</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R19" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
@@ -4114,10 +4114,10 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H26" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I26" t="n">
         <v>5</v>
@@ -4183,10 +4183,10 @@
         <v>9.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE26" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF26" t="n">
         <v>41</v>
@@ -4195,7 +4195,7 @@
         <v>6</v>
       </c>
       <c r="AH26" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI26" t="n">
         <v>23</v>
@@ -4442,10 +4442,10 @@
         <v>2.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R28" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S28" t="n">
         <v>4.2</v>
@@ -4454,10 +4454,10 @@
         <v>1.23</v>
       </c>
       <c r="U28" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="V28" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="W28" t="n">
         <v>1.57</v>
@@ -4523,10 +4523,10 @@
         <v>67</v>
       </c>
       <c r="AR28" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="29">
@@ -5768,16 +5768,16 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="H38" t="n">
         <v>3</v>
       </c>
       <c r="I38" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="J38" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K38" t="n">
         <v>1.95</v>
@@ -5786,10 +5786,10 @@
         <v>2.88</v>
       </c>
       <c r="M38" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N38" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O38" t="n">
         <v>1.44</v>
@@ -5816,10 +5816,10 @@
         <v>1.17</v>
       </c>
       <c r="W38" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="X38" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Y38" t="n">
         <v>2.1</v>
@@ -5840,10 +5840,10 @@
         <v>41</v>
       </c>
       <c r="AE38" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AF38" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG38" t="n">
         <v>6.5</v>
@@ -5852,7 +5852,7 @@
         <v>6</v>
       </c>
       <c r="AI38" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ38" t="n">
         <v>67</v>
@@ -5864,13 +5864,13 @@
         <v>6</v>
       </c>
       <c r="AM38" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AN38" t="n">
         <v>9.5</v>
       </c>
       <c r="AO38" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP38" t="n">
         <v>21</v>
@@ -5920,13 +5920,13 @@
         <v>1.57</v>
       </c>
       <c r="H39" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I39" t="n">
         <v>5.75</v>
       </c>
       <c r="J39" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K39" t="n">
         <v>2.1</v>
@@ -5938,7 +5938,7 @@
         <v>1.07</v>
       </c>
       <c r="N39" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O39" t="n">
         <v>1.4</v>
@@ -5995,7 +5995,7 @@
         <v>34</v>
       </c>
       <c r="AG39" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AH39" t="n">
         <v>7.5</v>
@@ -6010,7 +6010,7 @@
         <v>1250</v>
       </c>
       <c r="AL39" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM39" t="n">
         <v>29</v>
@@ -6096,10 +6096,10 @@
         <v>3.75</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R40" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S40" t="n">
         <v>2.47</v>
@@ -6108,10 +6108,10 @@
         <v>1.53</v>
       </c>
       <c r="U40" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V40" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W40" t="n">
         <v>1.36</v>
@@ -6364,19 +6364,19 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="H42" t="n">
         <v>3.4</v>
       </c>
       <c r="I42" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="J42" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K42" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L42" t="n">
         <v>2.5</v>
@@ -6385,27 +6385,27 @@
         <v>1.06</v>
       </c>
       <c r="N42" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O42" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P42" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R42" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="V42" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W42" t="n">
         <v>1.4</v>
@@ -6420,7 +6420,7 @@
         <v>1.83</v>
       </c>
       <c r="AA42" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB42" t="n">
         <v>21</v>
@@ -6438,7 +6438,7 @@
         <v>41</v>
       </c>
       <c r="AG42" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH42" t="n">
         <v>6.5</v>
@@ -6450,7 +6450,7 @@
         <v>51</v>
       </c>
       <c r="AK42" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AL42" t="n">
         <v>7</v>
@@ -6468,7 +6468,7 @@
         <v>15</v>
       </c>
       <c r="AQ42" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR42" t="inlineStr"/>
       <c r="AS42" t="inlineStr"/>
@@ -6787,22 +6787,22 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="H45" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I45" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="J45" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="K45" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="L45" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="M45" t="n">
         <v>1.06</v>
@@ -6817,7 +6817,7 @@
         <v>3.4</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="R45" t="n">
         <v>1.88</v>
@@ -6825,34 +6825,34 @@
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="V45" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="W45" t="n">
         <v>1.4</v>
       </c>
       <c r="X45" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="Y45" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="Z45" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="AA45" t="n">
         <v>5.9</v>
       </c>
       <c r="AB45" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AC45" t="n">
         <v>9</v>
       </c>
       <c r="AD45" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE45" t="n">
         <v>13.5</v>
@@ -6864,34 +6864,34 @@
         <v>8</v>
       </c>
       <c r="AH45" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AI45" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ45" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AK45" t="n">
         <v>101</v>
       </c>
       <c r="AL45" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AM45" t="n">
         <v>45</v>
       </c>
       <c r="AN45" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO45" t="n">
         <v>175</v>
       </c>
       <c r="AP45" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AQ45" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AR45" t="inlineStr"/>
       <c r="AS45" t="inlineStr"/>
@@ -6928,13 +6928,13 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="H46" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="I46" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="J46" t="n">
         <v>1.78</v>
@@ -6943,7 +6943,7 @@
         <v>2.42</v>
       </c>
       <c r="L46" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="M46" t="n">
         <v>1.04</v>
@@ -6990,10 +6990,10 @@
         <v>6.4</v>
       </c>
       <c r="AC46" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AD46" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AE46" t="n">
         <v>12</v>
@@ -7008,7 +7008,7 @@
         <v>10.5</v>
       </c>
       <c r="AI46" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ46" t="n">
         <v>150</v>
@@ -7020,10 +7020,10 @@
         <v>18.5</v>
       </c>
       <c r="AM46" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN46" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AO46" t="n">
         <v>250</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="H47" t="n">
         <v>3.5</v>
       </c>
       <c r="I47" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="J47" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="K47" t="n">
         <v>2.2</v>
       </c>
       <c r="L47" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="M47" t="n">
         <v>1.05</v>
@@ -7137,7 +7137,7 @@
         <v>51</v>
       </c>
       <c r="AE47" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AF47" t="n">
         <v>41</v>
@@ -7161,13 +7161,13 @@
         <v>7</v>
       </c>
       <c r="AM47" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AN47" t="n">
         <v>8.5</v>
       </c>
       <c r="AO47" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP47" t="n">
         <v>15</v>
@@ -7633,22 +7633,22 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="H51" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I51" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="J51" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="K51" t="n">
         <v>2.05</v>
       </c>
       <c r="L51" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="M51" t="n">
         <v>1.11</v>
@@ -7657,13 +7657,13 @@
         <v>5.7</v>
       </c>
       <c r="O51" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P51" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="R51" t="n">
         <v>1.5</v>
@@ -7671,7 +7671,7 @@
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="V51" t="n">
         <v>1.18</v>
@@ -7683,7 +7683,7 @@
         <v>2.4</v>
       </c>
       <c r="Y51" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="Z51" t="n">
         <v>1.5</v>
@@ -7704,16 +7704,16 @@
         <v>100</v>
       </c>
       <c r="AF51" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AG51" t="n">
         <v>5.7</v>
       </c>
       <c r="AH51" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AI51" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ51" t="n">
         <v>200</v>
@@ -7722,19 +7722,19 @@
         <v>101</v>
       </c>
       <c r="AL51" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="AM51" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AN51" t="n">
         <v>9</v>
       </c>
       <c r="AO51" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AP51" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AQ51" t="n">
         <v>45</v>
@@ -7915,13 +7915,13 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="H53" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I53" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="J53" t="n">
         <v>2.5</v>
@@ -7939,16 +7939,16 @@
         <v>15</v>
       </c>
       <c r="O53" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P53" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R53" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S53" t="n">
         <v>2.05</v>
@@ -7957,10 +7957,10 @@
         <v>1.8</v>
       </c>
       <c r="U53" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V53" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W53" t="n">
         <v>1.33</v>
@@ -7987,7 +7987,7 @@
         <v>17</v>
       </c>
       <c r="AE53" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF53" t="n">
         <v>21</v>
@@ -8023,7 +8023,7 @@
         <v>29</v>
       </c>
       <c r="AQ53" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR53" t="inlineStr"/>
       <c r="AS53" t="inlineStr"/>
@@ -8201,13 +8201,13 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H55" t="n">
         <v>4.1</v>
       </c>
       <c r="I55" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J55" t="n">
         <v>2.3</v>
@@ -8216,7 +8216,7 @@
         <v>2.4</v>
       </c>
       <c r="L55" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M55" t="n">
         <v>1.03</v>
@@ -8300,7 +8300,7 @@
         <v>23</v>
       </c>
       <c r="AN55" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO55" t="n">
         <v>41</v>
@@ -9250,10 +9250,10 @@
         <v>2.2</v>
       </c>
       <c r="Q62" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="R62" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S62" t="n">
         <v>4.7</v>
@@ -10348,7 +10348,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H70" t="n">
         <v>3.2</v>
@@ -10372,16 +10372,16 @@
         <v>11</v>
       </c>
       <c r="O70" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P70" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R70" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
@@ -10425,7 +10425,7 @@
         <v>11</v>
       </c>
       <c r="AH70" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI70" t="n">
         <v>13</v>
@@ -10434,7 +10434,7 @@
         <v>41</v>
       </c>
       <c r="AK70" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL70" t="n">
         <v>9</v>
@@ -10449,7 +10449,7 @@
         <v>23</v>
       </c>
       <c r="AP70" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ70" t="n">
         <v>29</v>
@@ -10789,10 +10789,10 @@
         <v>4</v>
       </c>
       <c r="M73" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N73" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O73" t="n">
         <v>1.57</v>
@@ -11038,7 +11038,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>00:10</t>
+          <t>00:15</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -11134,7 +11134,7 @@
         <v>13</v>
       </c>
       <c r="AH75" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI75" t="n">
         <v>12</v>
@@ -11369,10 +11369,10 @@
         <v>3.4</v>
       </c>
       <c r="Q77" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R77" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr"/>
@@ -11480,19 +11480,19 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="H78" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I78" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="J78" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K78" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="L78" t="n">
         <v>2.5</v>
@@ -11500,24 +11500,24 @@
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P78" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="Q78" t="n">
         <v>1.65</v>
       </c>
       <c r="R78" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S78" t="inlineStr"/>
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="n">
-        <v>2.47</v>
+        <v>2.55</v>
       </c>
       <c r="V78" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="W78" t="inlineStr"/>
       <c r="X78" t="inlineStr"/>
@@ -11525,13 +11525,13 @@
         <v>1.57</v>
       </c>
       <c r="Z78" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="AA78" t="n">
-        <v>13</v>
+        <v>11.75</v>
       </c>
       <c r="AB78" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC78" t="n">
         <v>11.75</v>
@@ -11540,40 +11540,40 @@
         <v>50</v>
       </c>
       <c r="AE78" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AF78" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AG78" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AH78" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AI78" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AJ78" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AK78" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AL78" t="n">
         <v>8.75</v>
       </c>
       <c r="AM78" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AN78" t="n">
         <v>8.25</v>
       </c>
       <c r="AO78" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AP78" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AQ78" t="n">
         <v>22</v>
@@ -12213,7 +12213,7 @@
         <v>1.5</v>
       </c>
       <c r="W83" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="X83" t="n">
         <v>3.4</v>
@@ -12310,16 +12310,16 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H84" t="n">
         <v>4.2</v>
       </c>
       <c r="I84" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J84" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K84" t="n">
         <v>2.3</v>
@@ -12354,22 +12354,22 @@
         <v>1.36</v>
       </c>
       <c r="W84" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X84" t="n">
         <v>3</v>
       </c>
       <c r="Y84" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="Z84" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AA84" t="n">
         <v>7</v>
       </c>
       <c r="AB84" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AC84" t="n">
         <v>8.5</v>
@@ -12378,7 +12378,7 @@
         <v>11</v>
       </c>
       <c r="AE84" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF84" t="n">
         <v>26</v>
@@ -12390,7 +12390,7 @@
         <v>8</v>
       </c>
       <c r="AI84" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ84" t="n">
         <v>51</v>
@@ -12405,7 +12405,7 @@
         <v>29</v>
       </c>
       <c r="AN84" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO84" t="n">
         <v>67</v>
@@ -12495,7 +12495,7 @@
         <v>1.67</v>
       </c>
       <c r="W85" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="X85" t="n">
         <v>4</v>
@@ -12640,7 +12640,7 @@
         <v>1.5</v>
       </c>
       <c r="W86" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="X86" t="n">
         <v>3.4</v>
@@ -12896,10 +12896,10 @@
         <v>4</v>
       </c>
       <c r="M88" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N88" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O88" t="n">
         <v>1.36</v>
@@ -14016,22 +14016,22 @@
         <v>3.7</v>
       </c>
       <c r="I96" t="n">
-        <v>4.25</v>
+        <v>4.15</v>
       </c>
       <c r="J96" t="n">
         <v>2.35</v>
       </c>
       <c r="K96" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="L96" t="n">
-        <v>4.65</v>
+        <v>4.55</v>
       </c>
       <c r="M96" t="n">
         <v>1.06</v>
       </c>
       <c r="N96" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="O96" t="n">
         <v>1.31</v>
@@ -14057,7 +14057,7 @@
         <v>1.42</v>
       </c>
       <c r="X96" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="Y96" t="n">
         <v>1.87</v>
@@ -14084,7 +14084,7 @@
         <v>28</v>
       </c>
       <c r="AG96" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AH96" t="n">
         <v>7.1</v>
@@ -14099,10 +14099,10 @@
         <v>700</v>
       </c>
       <c r="AL96" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AM96" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN96" t="n">
         <v>14</v>
@@ -14114,7 +14114,7 @@
         <v>40</v>
       </c>
       <c r="AQ96" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AR96" t="inlineStr"/>
       <c r="AS96" t="inlineStr"/>
@@ -14330,10 +14330,10 @@
       <c r="S98" t="inlineStr"/>
       <c r="T98" t="inlineStr"/>
       <c r="U98" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V98" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W98" t="n">
         <v>1.5</v>
@@ -14878,10 +14878,10 @@
         <v>4</v>
       </c>
       <c r="M102" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N102" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O102" t="n">
         <v>1.5</v>
@@ -16423,13 +16423,13 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="H113" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I113" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="J113" t="n">
         <v>1.8</v>
@@ -16453,28 +16453,28 @@
         <v>5.5</v>
       </c>
       <c r="Q113" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R113" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S113" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="T113" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="U113" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V113" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W113" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="X113" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Y113" t="n">
         <v>1.8</v>
@@ -16501,13 +16501,13 @@
         <v>23</v>
       </c>
       <c r="AG113" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH113" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI113" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ113" t="n">
         <v>51</v>
@@ -16568,7 +16568,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="H114" t="n">
         <v>3.5</v>
@@ -16612,10 +16612,10 @@
         <v>1.33</v>
       </c>
       <c r="W114" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X114" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y114" t="n">
         <v>1.73</v>
@@ -16666,7 +16666,7 @@
         <v>8.5</v>
       </c>
       <c r="AO114" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP114" t="n">
         <v>15</v>
@@ -16850,13 +16850,13 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="H116" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="I116" t="n">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="J116" t="n">
         <v>2.6</v>
@@ -17012,7 +17012,7 @@
         <v>1.06</v>
       </c>
       <c r="N117" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O117" t="n">
         <v>1.33</v>
@@ -17021,10 +17021,10 @@
         <v>3.25</v>
       </c>
       <c r="Q117" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R117" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S117" t="inlineStr"/>
       <c r="T117" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-02.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-02.xlsx
@@ -855,10 +855,10 @@
         <v>4.33</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O3" t="n">
         <v>1.29</v>
@@ -867,10 +867,10 @@
         <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R3" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
@@ -1137,10 +1137,10 @@
         <v>3.4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O5" t="n">
         <v>1.29</v>
@@ -1149,10 +1149,10 @@
         <v>3.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="R5" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
@@ -1401,13 +1401,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H7" t="n">
         <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J7" t="n">
         <v>2.88</v>
@@ -1422,7 +1422,7 @@
         <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.33</v>
@@ -1466,10 +1466,10 @@
         <v>9</v>
       </c>
       <c r="AD7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE7" t="n">
         <v>19</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>17</v>
       </c>
       <c r="AF7" t="n">
         <v>29</v>
@@ -1499,7 +1499,7 @@
         <v>12</v>
       </c>
       <c r="AO7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP7" t="n">
         <v>29</v>
@@ -1834,7 +1834,7 @@
         <v>3.8</v>
       </c>
       <c r="I10" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J10" t="n">
         <v>2.5</v>
@@ -1852,16 +1852,16 @@
         <v>17</v>
       </c>
       <c r="O10" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P10" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R10" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="S10" t="n">
         <v>1.84</v>
@@ -1870,10 +1870,10 @@
         <v>2.06</v>
       </c>
       <c r="U10" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W10" t="n">
         <v>1.25</v>
@@ -1891,7 +1891,7 @@
         <v>12</v>
       </c>
       <c r="AB10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC10" t="n">
         <v>9</v>
@@ -1936,7 +1936,7 @@
         <v>23</v>
       </c>
       <c r="AQ10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR10" t="inlineStr"/>
       <c r="AS10" t="inlineStr"/>
@@ -1973,7 +1973,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="H11" t="n">
         <v>7</v>
@@ -1997,10 +1997,10 @@
         <v>23</v>
       </c>
       <c r="O11" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="P11" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q11" t="n">
         <v>1.36</v>
@@ -2035,7 +2035,7 @@
         <v>8</v>
       </c>
       <c r="AC11" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD11" t="n">
         <v>8.5</v>
@@ -2044,13 +2044,13 @@
         <v>10</v>
       </c>
       <c r="AF11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG11" t="n">
         <v>23</v>
       </c>
       <c r="AH11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI11" t="n">
         <v>23</v>
@@ -2062,22 +2062,22 @@
         <v>201</v>
       </c>
       <c r="AL11" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM11" t="n">
         <v>51</v>
       </c>
       <c r="AN11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO11" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AP11" t="n">
         <v>51</v>
       </c>
       <c r="AQ11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="inlineStr"/>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="H12" t="n">
         <v>4.75</v>
@@ -2253,7 +2253,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H13" t="n">
         <v>3.9</v>
@@ -2845,16 +2845,16 @@
         <v>15</v>
       </c>
       <c r="O17" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P17" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R17" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="S17" t="n">
         <v>2.05</v>
@@ -2863,10 +2863,10 @@
         <v>1.8</v>
       </c>
       <c r="U17" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V17" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W17" t="n">
         <v>1.33</v>
@@ -2990,34 +2990,34 @@
         <v>15</v>
       </c>
       <c r="O18" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P18" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R18" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="S18" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="T18" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="U18" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V18" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W18" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X18" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Y18" t="n">
         <v>1.53</v>
@@ -3047,13 +3047,13 @@
         <v>15</v>
       </c>
       <c r="AH18" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI18" t="n">
         <v>12</v>
       </c>
       <c r="AJ18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK18" t="n">
         <v>126</v>
@@ -3129,30 +3129,30 @@
         <v>4.75</v>
       </c>
       <c r="M19" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O19" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P19" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="R19" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="V19" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W19" t="n">
         <v>1.44</v>
@@ -3393,7 +3393,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="H21" t="n">
         <v>7.5</v>
@@ -3405,7 +3405,7 @@
         <v>1.53</v>
       </c>
       <c r="K21" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L21" t="n">
         <v>9.5</v>
@@ -3458,7 +3458,7 @@
         <v>10</v>
       </c>
       <c r="AD21" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE21" t="n">
         <v>10</v>
@@ -3534,13 +3534,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H22" t="n">
         <v>3.1</v>
       </c>
       <c r="I22" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="J22" t="n">
         <v>3.1</v>
@@ -3549,7 +3549,7 @@
         <v>2</v>
       </c>
       <c r="L22" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M22" t="n">
         <v>1.08</v>
@@ -3593,7 +3593,7 @@
         <v>7</v>
       </c>
       <c r="AB22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC22" t="n">
         <v>9.5</v>
@@ -3983,10 +3983,10 @@
         <v>2.6</v>
       </c>
       <c r="M25" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N25" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O25" t="n">
         <v>1.5</v>
@@ -4076,10 +4076,10 @@
         <v>41</v>
       </c>
       <c r="AR25" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="26">
@@ -4132,10 +4132,10 @@
         <v>6</v>
       </c>
       <c r="M26" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N26" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O26" t="n">
         <v>1.57</v>
@@ -4709,43 +4709,109 @@
           <t>Qarabag</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="G30" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="J30" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="L30" t="n">
+        <v>2.1</v>
+      </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
+      <c r="O30" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.65</v>
+      </c>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr"/>
-      <c r="AA30" t="inlineStr"/>
-      <c r="AB30" t="inlineStr"/>
-      <c r="AC30" t="inlineStr"/>
-      <c r="AD30" t="inlineStr"/>
-      <c r="AE30" t="inlineStr"/>
-      <c r="AF30" t="inlineStr"/>
-      <c r="AG30" t="inlineStr"/>
-      <c r="AH30" t="inlineStr"/>
-      <c r="AI30" t="inlineStr"/>
-      <c r="AJ30" t="inlineStr"/>
-      <c r="AK30" t="inlineStr"/>
-      <c r="AL30" t="inlineStr"/>
-      <c r="AM30" t="inlineStr"/>
-      <c r="AN30" t="inlineStr"/>
-      <c r="AO30" t="inlineStr"/>
-      <c r="AP30" t="inlineStr"/>
-      <c r="AQ30" t="inlineStr"/>
+      <c r="U30" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W30" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X30" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>18</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>110</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>20</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>110</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>14</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>32</v>
+      </c>
       <c r="AR30" t="inlineStr"/>
       <c r="AS30" t="inlineStr"/>
     </row>
@@ -5063,22 +5129,22 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H33" t="n">
         <v>3.4</v>
       </c>
       <c r="I33" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J33" t="n">
         <v>3</v>
-      </c>
-      <c r="J33" t="n">
-        <v>2.88</v>
       </c>
       <c r="K33" t="n">
         <v>2.2</v>
       </c>
       <c r="L33" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M33" t="n">
         <v>1.04</v>
@@ -5125,16 +5191,16 @@
         <v>12</v>
       </c>
       <c r="AC33" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD33" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE33" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF33" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG33" t="n">
         <v>12</v>
@@ -5155,16 +5221,16 @@
         <v>11</v>
       </c>
       <c r="AM33" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN33" t="n">
         <v>11</v>
       </c>
       <c r="AO33" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP33" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ33" t="n">
         <v>29</v>
@@ -5953,10 +6019,10 @@
         <v>1.65</v>
       </c>
       <c r="S39" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T39" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="U39" t="n">
         <v>4</v>
@@ -6028,10 +6094,10 @@
         <v>51</v>
       </c>
       <c r="AR39" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.22</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="40">
@@ -6364,22 +6430,22 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="H42" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I42" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="J42" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="K42" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L42" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="M42" t="n">
         <v>1.06</v>
@@ -6388,30 +6454,30 @@
         <v>10</v>
       </c>
       <c r="O42" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="P42" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q42" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="R42" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V42" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W42" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X42" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y42" t="n">
         <v>1.83</v>
@@ -6420,13 +6486,13 @@
         <v>1.83</v>
       </c>
       <c r="AA42" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB42" t="n">
         <v>21</v>
       </c>
       <c r="AC42" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD42" t="n">
         <v>41</v>
@@ -6438,7 +6504,7 @@
         <v>41</v>
       </c>
       <c r="AG42" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH42" t="n">
         <v>6.5</v>
@@ -6450,7 +6516,7 @@
         <v>51</v>
       </c>
       <c r="AK42" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AL42" t="n">
         <v>7</v>
@@ -6459,16 +6525,16 @@
         <v>8.5</v>
       </c>
       <c r="AN42" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AO42" t="n">
         <v>15</v>
       </c>
       <c r="AP42" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ42" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR42" t="inlineStr"/>
       <c r="AS42" t="inlineStr"/>
@@ -6535,10 +6601,10 @@
         <v>4</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R43" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
@@ -6928,22 +6994,22 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="H46" t="n">
         <v>5</v>
       </c>
       <c r="I46" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="J46" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="K46" t="n">
         <v>2.42</v>
       </c>
       <c r="L46" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="M46" t="n">
         <v>1.04</v>
@@ -6987,7 +7053,7 @@
         <v>6.3</v>
       </c>
       <c r="AB46" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AC46" t="n">
         <v>9.25</v>
@@ -7005,7 +7071,7 @@
         <v>9</v>
       </c>
       <c r="AH46" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AI46" t="n">
         <v>26</v>
@@ -7017,22 +7083,22 @@
         <v>1250</v>
       </c>
       <c r="AL46" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AM46" t="n">
         <v>60</v>
       </c>
       <c r="AN46" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO46" t="n">
         <v>250</v>
       </c>
       <c r="AP46" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AQ46" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AR46" t="inlineStr"/>
       <c r="AS46" t="inlineStr"/>
@@ -7210,111 +7276,111 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H48" t="n">
         <v>3.5</v>
       </c>
       <c r="I48" t="n">
-        <v>4.45</v>
+        <v>4</v>
       </c>
       <c r="J48" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="K48" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="L48" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M48" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N48" t="n">
-        <v>9.25</v>
+        <v>11</v>
       </c>
       <c r="O48" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P48" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="Q48" t="n">
         <v>1.85</v>
       </c>
       <c r="R48" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="V48" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="W48" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="X48" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Y48" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Z48" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="AA48" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="AB48" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="AC48" t="n">
         <v>8.5</v>
       </c>
       <c r="AD48" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE48" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AF48" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG48" t="n">
-        <v>9.25</v>
+        <v>11</v>
       </c>
       <c r="AH48" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AI48" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AJ48" t="n">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AK48" t="n">
-        <v>600</v>
+        <v>201</v>
       </c>
       <c r="AL48" t="n">
-        <v>11.75</v>
+        <v>13</v>
       </c>
       <c r="AM48" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AN48" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AO48" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="AP48" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="AQ48" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AR48" t="inlineStr"/>
       <c r="AS48" t="inlineStr"/>
@@ -7351,7 +7417,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="H49" t="n">
         <v>7</v>
@@ -7360,19 +7426,19 @@
         <v>9.5</v>
       </c>
       <c r="J49" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="K49" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="L49" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M49" t="n">
         <v>1.02</v>
       </c>
       <c r="N49" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O49" t="n">
         <v>1.14</v>
@@ -7381,10 +7447,10 @@
         <v>5.5</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="R49" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="S49" t="n">
         <v>1.83</v>
@@ -7393,10 +7459,10 @@
         <v>2.03</v>
       </c>
       <c r="U49" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V49" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W49" t="n">
         <v>1.25</v>
@@ -7405,16 +7471,16 @@
         <v>3.75</v>
       </c>
       <c r="Y49" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Z49" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AA49" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB49" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AC49" t="n">
         <v>10</v>
@@ -7429,10 +7495,10 @@
         <v>29</v>
       </c>
       <c r="AG49" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH49" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI49" t="n">
         <v>29</v>
@@ -7456,7 +7522,7 @@
         <v>151</v>
       </c>
       <c r="AP49" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AQ49" t="n">
         <v>67</v>
@@ -7633,54 +7699,54 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="H51" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I51" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="J51" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="K51" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="L51" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="M51" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N51" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="O51" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P51" t="n">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.42</v>
+        <v>2.35</v>
       </c>
       <c r="R51" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="n">
-        <v>4.35</v>
+        <v>4.2</v>
       </c>
       <c r="V51" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W51" t="n">
         <v>1.5</v>
       </c>
       <c r="X51" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="Y51" t="n">
         <v>2.42</v>
@@ -7689,31 +7755,31 @@
         <v>1.5</v>
       </c>
       <c r="AA51" t="n">
-        <v>11.25</v>
+        <v>12.5</v>
       </c>
       <c r="AB51" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AC51" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AD51" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AE51" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AF51" t="n">
         <v>120</v>
       </c>
       <c r="AG51" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AH51" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AI51" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ51" t="n">
         <v>200</v>
@@ -7725,16 +7791,16 @@
         <v>4.7</v>
       </c>
       <c r="AM51" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="AN51" t="n">
         <v>9</v>
       </c>
       <c r="AO51" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="AP51" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AQ51" t="n">
         <v>45</v>
@@ -7939,10 +8005,10 @@
         <v>15</v>
       </c>
       <c r="O53" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P53" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q53" t="n">
         <v>1.65</v>
@@ -7957,10 +8023,10 @@
         <v>1.8</v>
       </c>
       <c r="U53" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V53" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W53" t="n">
         <v>1.33</v>
@@ -8779,7 +8845,7 @@
         <v>4.2</v>
       </c>
       <c r="I59" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="J59" t="n">
         <v>8</v>
@@ -8791,10 +8857,10 @@
         <v>1.95</v>
       </c>
       <c r="M59" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N59" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O59" t="n">
         <v>1.3</v>
@@ -8872,7 +8938,7 @@
         <v>6</v>
       </c>
       <c r="AN59" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AO59" t="n">
         <v>9</v>
@@ -8922,19 +8988,19 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="H60" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I60" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="J60" t="n">
         <v>4.5</v>
       </c>
       <c r="K60" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L60" t="n">
         <v>2.75</v>
@@ -8958,7 +9024,7 @@
         <v>1.62</v>
       </c>
       <c r="S60" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="T60" t="n">
         <v>1.32</v>
@@ -9000,7 +9066,7 @@
         <v>41</v>
       </c>
       <c r="AG60" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AH60" t="n">
         <v>6</v>
@@ -9027,16 +9093,16 @@
         <v>17</v>
       </c>
       <c r="AP60" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ60" t="n">
         <v>34</v>
       </c>
       <c r="AR60" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="AS60" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="61">
@@ -9071,22 +9137,22 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H61" t="n">
         <v>3.2</v>
       </c>
       <c r="I61" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J61" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K61" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L61" t="n">
         <v>3.4</v>
-      </c>
-      <c r="K61" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L61" t="n">
-        <v>3.25</v>
       </c>
       <c r="M61" t="n">
         <v>1.06</v>
@@ -9131,10 +9197,10 @@
         <v>1.95</v>
       </c>
       <c r="AA61" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB61" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC61" t="n">
         <v>10</v>
@@ -9173,10 +9239,10 @@
         <v>10</v>
       </c>
       <c r="AO61" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP61" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ61" t="n">
         <v>34</v>
@@ -9250,10 +9316,10 @@
         <v>2.2</v>
       </c>
       <c r="Q62" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="R62" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="S62" t="n">
         <v>4.7</v>
@@ -9369,19 +9435,19 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="H63" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I63" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J63" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K63" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L63" t="n">
         <v>4</v>
@@ -9399,10 +9465,10 @@
         <v>4</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R63" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
@@ -9428,13 +9494,13 @@
         <v>9</v>
       </c>
       <c r="AB63" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC63" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD63" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE63" t="n">
         <v>15</v>
@@ -9446,7 +9512,7 @@
         <v>13</v>
       </c>
       <c r="AH63" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI63" t="n">
         <v>13</v>
@@ -9458,7 +9524,7 @@
         <v>151</v>
       </c>
       <c r="AL63" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM63" t="n">
         <v>19</v>
@@ -9796,22 +9862,22 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="H66" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I66" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="J66" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K66" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L66" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="M66" t="n">
         <v>1.04</v>
@@ -9820,10 +9886,10 @@
         <v>13</v>
       </c>
       <c r="O66" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P66" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q66" t="n">
         <v>1.7</v>
@@ -9852,7 +9918,7 @@
         <v>2.2</v>
       </c>
       <c r="AA66" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB66" t="n">
         <v>19</v>
@@ -9861,7 +9927,7 @@
         <v>12</v>
       </c>
       <c r="AD66" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE66" t="n">
         <v>26</v>
@@ -9894,7 +9960,7 @@
         <v>9</v>
       </c>
       <c r="AO66" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP66" t="n">
         <v>15</v>
@@ -9937,30 +10003,30 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="H67" t="n">
         <v>4.1</v>
       </c>
       <c r="I67" t="n">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="J67" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="K67" t="n">
         <v>2.3</v>
       </c>
       <c r="L67" t="n">
-        <v>5.4</v>
+        <v>5.9</v>
       </c>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P67" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="Q67" t="n">
         <v>1.62</v>
@@ -9971,7 +10037,7 @@
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="V67" t="n">
         <v>1.42</v>
@@ -9983,37 +10049,37 @@
         <v>2.52</v>
       </c>
       <c r="Y67" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="Z67" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="AA67" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AB67" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AC67" t="n">
         <v>8</v>
       </c>
       <c r="AD67" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AE67" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AF67" t="n">
         <v>23</v>
       </c>
       <c r="AG67" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH67" t="n">
         <v>8.25</v>
       </c>
       <c r="AI67" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AJ67" t="n">
         <v>70</v>
@@ -10022,22 +10088,22 @@
         <v>500</v>
       </c>
       <c r="AL67" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM67" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AN67" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="AO67" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="AP67" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AQ67" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AR67" t="inlineStr"/>
       <c r="AS67" t="inlineStr"/>
@@ -10211,19 +10277,19 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H69" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I69" t="n">
-        <v>4.75</v>
+        <v>4.7</v>
       </c>
       <c r="J69" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="K69" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="L69" t="n">
         <v>5</v>
@@ -10231,75 +10297,75 @@
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="P69" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="R69" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="n">
-        <v>2.67</v>
+        <v>2.9</v>
       </c>
       <c r="V69" t="n">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="W69" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="X69" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="Y69" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="Z69" t="n">
-        <v>1.93</v>
+        <v>1.82</v>
       </c>
       <c r="AA69" t="n">
-        <v>7.5</v>
+        <v>6.8</v>
       </c>
       <c r="AB69" t="n">
-        <v>8.5</v>
+        <v>7.9</v>
       </c>
       <c r="AC69" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AD69" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE69" t="n">
         <v>13.5</v>
       </c>
-      <c r="AE69" t="n">
+      <c r="AF69" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AI69" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AJ69" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK69" t="n">
+        <v>600</v>
+      </c>
+      <c r="AL69" t="n">
         <v>12.5</v>
       </c>
-      <c r="AF69" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG69" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AH69" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI69" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AJ69" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK69" t="n">
-        <v>500</v>
-      </c>
-      <c r="AL69" t="n">
-        <v>13</v>
-      </c>
       <c r="AM69" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AN69" t="n">
         <v>15.5</v>
@@ -10489,16 +10555,16 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H71" t="n">
+        <v>3</v>
+      </c>
+      <c r="I71" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J71" t="n">
         <v>3.1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J71" t="n">
-        <v>3</v>
       </c>
       <c r="K71" t="n">
         <v>2</v>
@@ -10519,18 +10585,18 @@
         <v>2.75</v>
       </c>
       <c r="Q71" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R71" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="V71" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="W71" t="n">
         <v>1.5</v>
@@ -10545,7 +10611,7 @@
         <v>1.8</v>
       </c>
       <c r="AA71" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB71" t="n">
         <v>10</v>
@@ -10578,16 +10644,16 @@
         <v>351</v>
       </c>
       <c r="AL71" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM71" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN71" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO71" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP71" t="n">
         <v>29</v>
@@ -10789,30 +10855,30 @@
         <v>4</v>
       </c>
       <c r="M73" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N73" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O73" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P73" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q73" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="R73" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="V73" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="W73" t="n">
         <v>1.62</v>
@@ -11057,28 +11123,28 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="H75" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I75" t="n">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
       <c r="J75" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="K75" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L75" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M75" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N75" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O75" t="n">
         <v>1.2</v>
@@ -11107,61 +11173,61 @@
         <v>3.25</v>
       </c>
       <c r="Y75" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Z75" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AA75" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB75" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI75" t="n">
         <v>13</v>
-      </c>
-      <c r="AC75" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD75" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE75" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF75" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG75" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH75" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI75" t="n">
-        <v>12</v>
       </c>
       <c r="AJ75" t="n">
         <v>41</v>
       </c>
       <c r="AK75" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AL75" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AM75" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AN75" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO75" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP75" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ75" t="n">
         <v>29</v>
-      </c>
-      <c r="AP75" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ75" t="n">
-        <v>26</v>
       </c>
       <c r="AR75" t="inlineStr"/>
       <c r="AS75" t="inlineStr"/>
@@ -11480,7 +11546,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="H78" t="n">
         <v>3.45</v>
@@ -11500,32 +11566,32 @@
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P78" t="n">
         <v>3.4</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="R78" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S78" t="inlineStr"/>
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="V78" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="W78" t="inlineStr"/>
       <c r="X78" t="inlineStr"/>
       <c r="Y78" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="Z78" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="AA78" t="n">
         <v>11.75</v>
@@ -11549,10 +11615,10 @@
         <v>11.75</v>
       </c>
       <c r="AH78" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AI78" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AJ78" t="n">
         <v>50</v>
@@ -11570,7 +11636,7 @@
         <v>8.25</v>
       </c>
       <c r="AO78" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AP78" t="n">
         <v>14.5</v>
@@ -12054,10 +12120,10 @@
         <v>3.75</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R82" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr"/>
@@ -12165,22 +12231,22 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H83" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I83" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="J83" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K83" t="n">
         <v>2.38</v>
       </c>
       <c r="L83" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M83" t="n">
         <v>1.03</v>
@@ -12195,16 +12261,16 @@
         <v>4.5</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R83" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S83" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="T83" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="U83" t="n">
         <v>2.5</v>
@@ -12219,25 +12285,25 @@
         <v>3.4</v>
       </c>
       <c r="Y83" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Z83" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AA83" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB83" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AC83" t="n">
         <v>8.5</v>
       </c>
       <c r="AD83" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE83" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF83" t="n">
         <v>21</v>
@@ -12249,7 +12315,7 @@
         <v>8</v>
       </c>
       <c r="AI83" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ83" t="n">
         <v>41</v>
@@ -12261,16 +12327,16 @@
         <v>15</v>
       </c>
       <c r="AM83" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN83" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO83" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP83" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ83" t="n">
         <v>34</v>
@@ -12331,7 +12397,7 @@
         <v>1.04</v>
       </c>
       <c r="N84" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O84" t="n">
         <v>1.25</v>
@@ -12592,16 +12658,16 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="H86" t="n">
         <v>5.75</v>
       </c>
       <c r="I86" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="J86" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="K86" t="n">
         <v>2.6</v>
@@ -12646,10 +12712,10 @@
         <v>3.4</v>
       </c>
       <c r="Y86" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Z86" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AA86" t="n">
         <v>21</v>
@@ -12682,7 +12748,7 @@
         <v>67</v>
       </c>
       <c r="AK86" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AL86" t="n">
         <v>7.5</v>
@@ -12691,7 +12757,7 @@
         <v>6.5</v>
       </c>
       <c r="AN86" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AO86" t="n">
         <v>8</v>
@@ -12700,7 +12766,7 @@
         <v>11</v>
       </c>
       <c r="AQ86" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR86" t="inlineStr"/>
       <c r="AS86" t="inlineStr"/>
@@ -12737,28 +12803,28 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H87" t="n">
         <v>3.2</v>
       </c>
       <c r="I87" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="J87" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K87" t="n">
         <v>2.05</v>
       </c>
       <c r="L87" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M87" t="n">
         <v>1.07</v>
       </c>
       <c r="N87" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O87" t="n">
         <v>1.36</v>
@@ -12793,13 +12859,13 @@
         <v>1.83</v>
       </c>
       <c r="AA87" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB87" t="n">
         <v>17</v>
       </c>
       <c r="AC87" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD87" t="n">
         <v>41</v>
@@ -12811,7 +12877,7 @@
         <v>41</v>
       </c>
       <c r="AG87" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH87" t="n">
         <v>6.5</v>
@@ -12832,13 +12898,13 @@
         <v>9.5</v>
       </c>
       <c r="AN87" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AO87" t="n">
         <v>19</v>
       </c>
       <c r="AP87" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ87" t="n">
         <v>29</v>
@@ -13869,105 +13935,105 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="H95" t="n">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="I95" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="J95" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="K95" t="n">
-        <v>2.42</v>
+        <v>2.35</v>
       </c>
       <c r="L95" t="n">
         <v>9.5</v>
       </c>
       <c r="M95" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N95" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O95" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="P95" t="n">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="Q95" t="n">
-        <v>1.72</v>
+        <v>1.85</v>
       </c>
       <c r="R95" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="S95" t="inlineStr"/>
       <c r="T95" t="inlineStr"/>
       <c r="U95" t="n">
+        <v>3</v>
+      </c>
+      <c r="V95" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="W95" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X95" t="n">
         <v>2.75</v>
       </c>
-      <c r="V95" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="W95" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="X95" t="n">
-        <v>2.9</v>
-      </c>
       <c r="Y95" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="Z95" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AA95" t="n">
-        <v>6.1</v>
+        <v>5.6</v>
       </c>
       <c r="AB95" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AC95" t="n">
         <v>9.5</v>
       </c>
       <c r="AD95" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="AE95" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AF95" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AG95" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AH95" t="n">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="AI95" t="n">
         <v>32</v>
       </c>
       <c r="AJ95" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AK95" t="n">
         <v>900</v>
       </c>
       <c r="AL95" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AM95" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AN95" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AO95" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AP95" t="n">
         <v>200</v>
@@ -14010,87 +14076,87 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="H96" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="I96" t="n">
-        <v>4.15</v>
+        <v>3.85</v>
       </c>
       <c r="J96" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="K96" t="n">
         <v>2.15</v>
       </c>
       <c r="L96" t="n">
-        <v>4.55</v>
+        <v>4.25</v>
       </c>
       <c r="M96" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N96" t="n">
-        <v>7.4</v>
+        <v>6.9</v>
       </c>
       <c r="O96" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="P96" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q96" t="n">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="R96" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="S96" t="inlineStr"/>
       <c r="T96" t="inlineStr"/>
       <c r="U96" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="V96" t="n">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="W96" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="X96" t="n">
-        <v>2.67</v>
+        <v>2.75</v>
       </c>
       <c r="Y96" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="Z96" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="AA96" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="AB96" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="AC96" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AD96" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE96" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AF96" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AG96" t="n">
-        <v>7.4</v>
+        <v>6.9</v>
       </c>
       <c r="AH96" t="n">
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
       <c r="AI96" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AJ96" t="n">
         <v>80</v>
@@ -14099,19 +14165,19 @@
         <v>700</v>
       </c>
       <c r="AL96" t="n">
-        <v>11.25</v>
+        <v>10.25</v>
       </c>
       <c r="AM96" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AN96" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO96" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AP96" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AQ96" t="n">
         <v>45</v>
@@ -14292,22 +14358,22 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H98" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I98" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="J98" t="n">
         <v>2.75</v>
       </c>
       <c r="K98" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L98" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M98" t="n">
         <v>1.07</v>
@@ -14316,42 +14382,42 @@
         <v>9</v>
       </c>
       <c r="O98" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P98" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q98" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="R98" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S98" t="inlineStr"/>
       <c r="T98" t="inlineStr"/>
       <c r="U98" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V98" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W98" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X98" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Y98" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Z98" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AA98" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB98" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AC98" t="n">
         <v>9</v>
@@ -14363,22 +14429,22 @@
         <v>17</v>
       </c>
       <c r="AF98" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG98" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH98" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI98" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ98" t="n">
         <v>51</v>
       </c>
       <c r="AK98" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AL98" t="n">
         <v>10</v>
@@ -14387,7 +14453,7 @@
         <v>19</v>
       </c>
       <c r="AN98" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO98" t="n">
         <v>41</v>
@@ -14574,16 +14640,16 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="H100" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I100" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="J100" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K100" t="n">
         <v>2.1</v>
@@ -14654,7 +14720,7 @@
         <v>6.5</v>
       </c>
       <c r="AI100" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ100" t="n">
         <v>51</v>
@@ -14663,10 +14729,10 @@
         <v>301</v>
       </c>
       <c r="AL100" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AM100" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AN100" t="n">
         <v>9</v>
@@ -15035,16 +15101,16 @@
         <v>5</v>
       </c>
       <c r="Q103" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R103" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S103" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="T103" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="U103" t="n">
         <v>2.25</v>
@@ -15150,7 +15216,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H104" t="n">
         <v>3.3</v>
@@ -15165,33 +15231,33 @@
         <v>2.2</v>
       </c>
       <c r="L104" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M104" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N104" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O104" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P104" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q104" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="R104" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S104" t="inlineStr"/>
       <c r="T104" t="inlineStr"/>
       <c r="U104" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V104" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="W104" t="n">
         <v>1.36</v>
@@ -15206,7 +15272,7 @@
         <v>2.2</v>
       </c>
       <c r="AA104" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB104" t="n">
         <v>12</v>
@@ -15215,13 +15281,13 @@
         <v>9.5</v>
       </c>
       <c r="AD104" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE104" t="n">
         <v>17</v>
       </c>
       <c r="AF104" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG104" t="n">
         <v>12</v>
@@ -15242,7 +15308,7 @@
         <v>11</v>
       </c>
       <c r="AM104" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN104" t="n">
         <v>11</v>
@@ -15251,7 +15317,7 @@
         <v>29</v>
       </c>
       <c r="AP104" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ104" t="n">
         <v>29</v>
@@ -15432,72 +15498,72 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="H106" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="I106" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="J106" t="n">
         <v>1.65</v>
       </c>
       <c r="K106" t="n">
-        <v>2.65</v>
+        <v>2.72</v>
       </c>
       <c r="L106" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="M106" t="n">
         <v>1.03</v>
       </c>
       <c r="N106" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="O106" t="n">
         <v>1.15</v>
       </c>
       <c r="P106" t="n">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="Q106" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="R106" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="S106" t="inlineStr"/>
       <c r="T106" t="inlineStr"/>
       <c r="U106" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V106" t="n">
         <v>1.65</v>
       </c>
       <c r="W106" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="X106" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="Y106" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="Z106" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AA106" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB106" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="AC106" t="n">
         <v>9</v>
       </c>
       <c r="AD106" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="AE106" t="n">
         <v>10.25</v>
@@ -15506,10 +15572,10 @@
         <v>25</v>
       </c>
       <c r="AG106" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AH106" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AI106" t="n">
         <v>22</v>
@@ -15521,22 +15587,22 @@
         <v>600</v>
       </c>
       <c r="AL106" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AM106" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AN106" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AO106" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="AP106" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AQ106" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AR106" t="inlineStr"/>
       <c r="AS106" t="inlineStr"/>
@@ -15573,111 +15639,111 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="H107" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I107" t="n">
-        <v>7.3</v>
+        <v>7.7</v>
       </c>
       <c r="J107" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="K107" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="L107" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="M107" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N107" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="O107" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="P107" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="Q107" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="R107" t="n">
-        <v>2.52</v>
+        <v>2.67</v>
       </c>
       <c r="S107" t="inlineStr"/>
       <c r="T107" t="inlineStr"/>
       <c r="U107" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V107" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="W107" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="X107" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="Y107" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="Z107" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="AA107" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB107" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AC107" t="n">
         <v>8.25</v>
       </c>
       <c r="AD107" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AE107" t="n">
         <v>10</v>
       </c>
-      <c r="AE107" t="n">
+      <c r="AF107" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG107" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AH107" t="n">
         <v>10.25</v>
       </c>
-      <c r="AF107" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AG107" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AH107" t="n">
-        <v>9.75</v>
-      </c>
       <c r="AI107" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AJ107" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AK107" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="AL107" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AM107" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AN107" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO107" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AP107" t="n">
         <v>70</v>
       </c>
       <c r="AQ107" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AR107" t="inlineStr"/>
       <c r="AS107" t="inlineStr"/>
@@ -15999,66 +16065,66 @@
         <v>3.25</v>
       </c>
       <c r="H110" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I110" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="J110" t="n">
         <v>3.6</v>
       </c>
       <c r="K110" t="n">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="L110" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="M110" t="n">
         <v>1.04</v>
       </c>
       <c r="N110" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="O110" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="P110" t="n">
-        <v>4</v>
+        <v>4.15</v>
       </c>
       <c r="Q110" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R110" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="S110" t="inlineStr"/>
       <c r="T110" t="inlineStr"/>
       <c r="U110" t="n">
-        <v>2.5</v>
+        <v>2.37</v>
       </c>
       <c r="V110" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="W110" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="X110" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="Y110" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="Z110" t="n">
-        <v>2.32</v>
+        <v>2.37</v>
       </c>
       <c r="AA110" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AB110" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC110" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AD110" t="n">
         <v>45</v>
@@ -16067,13 +16133,13 @@
         <v>24</v>
       </c>
       <c r="AF110" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG110" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AH110" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="AI110" t="n">
         <v>11.75</v>
@@ -16085,10 +16151,10 @@
         <v>250</v>
       </c>
       <c r="AL110" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM110" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AN110" t="n">
         <v>8.5</v>
@@ -16097,10 +16163,10 @@
         <v>19.5</v>
       </c>
       <c r="AP110" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AQ110" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR110" t="inlineStr"/>
       <c r="AS110" t="inlineStr"/>
@@ -16282,40 +16348,40 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H112" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I112" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J112" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K112" t="n">
         <v>2.2</v>
       </c>
       <c r="L112" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M112" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N112" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O112" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P112" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q112" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R112" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S112" t="inlineStr"/>
       <c r="T112" t="inlineStr"/>
@@ -16332,22 +16398,22 @@
         <v>2.75</v>
       </c>
       <c r="Y112" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Z112" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AA112" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB112" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AC112" t="n">
         <v>8.5</v>
       </c>
       <c r="AD112" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE112" t="n">
         <v>15</v>
@@ -16356,7 +16422,7 @@
         <v>26</v>
       </c>
       <c r="AG112" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH112" t="n">
         <v>7</v>
@@ -16383,7 +16449,7 @@
         <v>51</v>
       </c>
       <c r="AP112" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ112" t="n">
         <v>41</v>
@@ -16568,22 +16634,22 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="H114" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I114" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="J114" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K114" t="n">
         <v>2.2</v>
       </c>
       <c r="L114" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="M114" t="n">
         <v>1.05</v>
@@ -16606,10 +16672,10 @@
       <c r="S114" t="inlineStr"/>
       <c r="T114" t="inlineStr"/>
       <c r="U114" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V114" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W114" t="n">
         <v>1.36</v>
@@ -16627,7 +16693,7 @@
         <v>12</v>
       </c>
       <c r="AB114" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC114" t="n">
         <v>13</v>
@@ -16645,28 +16711,28 @@
         <v>11</v>
       </c>
       <c r="AH114" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI114" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ114" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK114" t="n">
         <v>201</v>
       </c>
       <c r="AL114" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AM114" t="n">
+        <v>10</v>
+      </c>
+      <c r="AN114" t="n">
         <v>9</v>
       </c>
-      <c r="AN114" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AO114" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP114" t="n">
         <v>15</v>
@@ -16724,7 +16790,7 @@
         <v>2.2</v>
       </c>
       <c r="L115" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M115" t="n">
         <v>1.05</v>
@@ -16739,18 +16805,18 @@
         <v>3.75</v>
       </c>
       <c r="Q115" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R115" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S115" t="inlineStr"/>
       <c r="T115" t="inlineStr"/>
       <c r="U115" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V115" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W115" t="n">
         <v>1.4</v>
@@ -16850,13 +16916,13 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H116" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I116" t="n">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="J116" t="n">
         <v>2.6</v>
@@ -16894,10 +16960,10 @@
         <v>1.25</v>
       </c>
       <c r="W116" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="X116" t="n">
-        <v>2.77</v>
+        <v>2.7</v>
       </c>
       <c r="Y116" t="n">
         <v>1.91</v>
@@ -16991,16 +17057,16 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H117" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I117" t="n">
         <v>2.35</v>
       </c>
       <c r="J117" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K117" t="n">
         <v>2.1</v>
@@ -17015,39 +17081,39 @@
         <v>10</v>
       </c>
       <c r="O117" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P117" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q117" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="R117" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S117" t="inlineStr"/>
       <c r="T117" t="inlineStr"/>
       <c r="U117" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V117" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W117" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X117" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Y117" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Z117" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AA117" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB117" t="n">
         <v>13</v>
@@ -17065,7 +17131,7 @@
         <v>34</v>
       </c>
       <c r="AG117" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH117" t="n">
         <v>6.5</v>
@@ -17083,7 +17149,7 @@
         <v>8</v>
       </c>
       <c r="AM117" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN117" t="n">
         <v>9.5</v>
@@ -17141,13 +17207,13 @@
         <v>3.5</v>
       </c>
       <c r="J118" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K118" t="n">
         <v>2</v>
       </c>
       <c r="L118" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M118" t="n">
         <v>1.08</v>
@@ -17197,10 +17263,10 @@
         <v>9.5</v>
       </c>
       <c r="AD118" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE118" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF118" t="n">
         <v>34</v>
@@ -17212,16 +17278,16 @@
         <v>6</v>
       </c>
       <c r="AI118" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ118" t="n">
         <v>51</v>
       </c>
       <c r="AK118" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AL118" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AM118" t="n">
         <v>17</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-02.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-02.xlsx
@@ -855,10 +855,10 @@
         <v>4.33</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O3" t="n">
         <v>1.29</v>
@@ -867,10 +867,10 @@
         <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="R3" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
@@ -1137,10 +1137,10 @@
         <v>3.4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O5" t="n">
         <v>1.29</v>
@@ -1149,10 +1149,10 @@
         <v>3.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="R5" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
@@ -1419,10 +1419,10 @@
         <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
         <v>1.33</v>
@@ -1431,10 +1431,10 @@
         <v>3.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="R7" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
@@ -1719,16 +1719,16 @@
         <v>2.38</v>
       </c>
       <c r="S9" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="T9" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="U9" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V9" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W9" t="n">
         <v>1.29</v>
@@ -1976,13 +1976,13 @@
         <v>1.22</v>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="I11" t="n">
         <v>10</v>
       </c>
       <c r="J11" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="K11" t="n">
         <v>3</v>
@@ -2003,10 +2003,10 @@
         <v>7</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="R11" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
@@ -2023,10 +2023,10 @@
         <v>4.33</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AA11" t="n">
         <v>11</v>
@@ -2047,13 +2047,13 @@
         <v>21</v>
       </c>
       <c r="AG11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH11" t="n">
         <v>15</v>
       </c>
       <c r="AI11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ11" t="n">
         <v>51</v>
@@ -2062,13 +2062,13 @@
         <v>201</v>
       </c>
       <c r="AL11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM11" t="n">
         <v>51</v>
       </c>
       <c r="AN11" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO11" t="n">
         <v>126</v>
@@ -2114,13 +2114,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="H12" t="n">
         <v>4.75</v>
       </c>
       <c r="I12" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="J12" t="n">
         <v>1.91</v>
@@ -2138,16 +2138,16 @@
         <v>11</v>
       </c>
       <c r="O12" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P12" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R12" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
@@ -2164,10 +2164,10 @@
         <v>2.75</v>
       </c>
       <c r="Y12" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Z12" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AA12" t="n">
         <v>6</v>
@@ -2188,13 +2188,13 @@
         <v>34</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH12" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI12" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ12" t="n">
         <v>81</v>
@@ -2253,10 +2253,10 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="H13" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I13" t="n">
         <v>5.25</v>
@@ -2265,36 +2265,36 @@
         <v>2.3</v>
       </c>
       <c r="K13" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L13" t="n">
         <v>5.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O13" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P13" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q13" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="R13" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V13" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W13" t="n">
         <v>1.44</v>
@@ -2312,7 +2312,7 @@
         <v>6</v>
       </c>
       <c r="AB13" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AC13" t="n">
         <v>8.5</v>
@@ -2339,7 +2339,7 @@
         <v>67</v>
       </c>
       <c r="AK13" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AL13" t="n">
         <v>12</v>
@@ -2348,7 +2348,7 @@
         <v>23</v>
       </c>
       <c r="AN13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO13" t="n">
         <v>51</v>
@@ -2394,22 +2394,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="H14" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I14" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="J14" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K14" t="n">
         <v>2.25</v>
       </c>
       <c r="L14" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="M14" t="n">
         <v>1.05</v>
@@ -2444,10 +2444,10 @@
         <v>3</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="Z14" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AA14" t="n">
         <v>13</v>
@@ -2462,7 +2462,7 @@
         <v>41</v>
       </c>
       <c r="AE14" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF14" t="n">
         <v>34</v>
@@ -2471,7 +2471,7 @@
         <v>12</v>
       </c>
       <c r="AH14" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI14" t="n">
         <v>13</v>
@@ -2480,10 +2480,10 @@
         <v>41</v>
       </c>
       <c r="AK14" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL14" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AM14" t="n">
         <v>9.5</v>
@@ -2492,7 +2492,7 @@
         <v>8.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP14" t="n">
         <v>15</v>
@@ -2547,7 +2547,7 @@
         <v>3.6</v>
       </c>
       <c r="K15" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L15" t="n">
         <v>3.1</v>
@@ -2559,10 +2559,10 @@
         <v>9</v>
       </c>
       <c r="O15" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P15" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q15" t="n">
         <v>2.1</v>
@@ -2591,7 +2591,7 @@
         <v>1.95</v>
       </c>
       <c r="AA15" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB15" t="n">
         <v>15</v>
@@ -2615,7 +2615,7 @@
         <v>6</v>
       </c>
       <c r="AI15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ15" t="n">
         <v>51</v>
@@ -2624,7 +2624,7 @@
         <v>251</v>
       </c>
       <c r="AL15" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AM15" t="n">
         <v>11</v>
@@ -2636,7 +2636,7 @@
         <v>23</v>
       </c>
       <c r="AP15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ15" t="n">
         <v>29</v>
@@ -2845,16 +2845,16 @@
         <v>15</v>
       </c>
       <c r="O17" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P17" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R17" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S17" t="n">
         <v>2.05</v>
@@ -2863,10 +2863,10 @@
         <v>1.8</v>
       </c>
       <c r="U17" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V17" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W17" t="n">
         <v>1.33</v>
@@ -3111,28 +3111,28 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H19" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I19" t="n">
         <v>4.5</v>
       </c>
       <c r="J19" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K19" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L19" t="n">
         <v>4.75</v>
       </c>
       <c r="M19" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O19" t="n">
         <v>1.29</v>
@@ -3155,16 +3155,16 @@
         <v>1.3</v>
       </c>
       <c r="W19" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X19" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="Z19" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AA19" t="n">
         <v>7</v>
@@ -3182,10 +3182,10 @@
         <v>15</v>
       </c>
       <c r="AF19" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG19" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH19" t="n">
         <v>6.5</v>
@@ -3197,19 +3197,19 @@
         <v>51</v>
       </c>
       <c r="AK19" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AL19" t="n">
         <v>12</v>
       </c>
       <c r="AM19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN19" t="n">
         <v>15</v>
       </c>
       <c r="AO19" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP19" t="n">
         <v>34</v>
@@ -3417,10 +3417,10 @@
         <v>21</v>
       </c>
       <c r="O21" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="P21" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q21" t="n">
         <v>1.36</v>
@@ -3534,7 +3534,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H22" t="n">
         <v>3.1</v>
@@ -3543,10 +3543,10 @@
         <v>3.4</v>
       </c>
       <c r="J22" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K22" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L22" t="n">
         <v>4</v>
@@ -3564,18 +3564,18 @@
         <v>3</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="R22" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="V22" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W22" t="n">
         <v>1.5</v>
@@ -3584,10 +3584,10 @@
         <v>2.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="Z22" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AA22" t="n">
         <v>7</v>
@@ -3602,7 +3602,7 @@
         <v>21</v>
       </c>
       <c r="AE22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF22" t="n">
         <v>34</v>
@@ -3620,10 +3620,10 @@
         <v>51</v>
       </c>
       <c r="AK22" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AL22" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AM22" t="n">
         <v>15</v>
@@ -3844,10 +3844,10 @@
         <v>9</v>
       </c>
       <c r="O24" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P24" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q24" t="n">
         <v>2.2</v>
@@ -4299,10 +4299,10 @@
         <v>1.48</v>
       </c>
       <c r="S27" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T27" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="U27" t="n">
         <v>5.5</v>
@@ -4442,10 +4442,10 @@
         <v>2.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R28" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S28" t="n">
         <v>4.2</v>
@@ -4454,10 +4454,10 @@
         <v>1.23</v>
       </c>
       <c r="U28" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="V28" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="W28" t="n">
         <v>1.57</v>
@@ -4523,10 +4523,10 @@
         <v>67</v>
       </c>
       <c r="AR28" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="29">
@@ -4561,22 +4561,22 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H29" t="n">
         <v>3.2</v>
       </c>
       <c r="I29" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="J29" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K29" t="n">
         <v>1.91</v>
       </c>
       <c r="L29" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M29" t="n">
         <v>1.1</v>
@@ -4624,7 +4624,7 @@
         <v>6.5</v>
       </c>
       <c r="AB29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC29" t="n">
         <v>11</v>
@@ -4654,7 +4654,7 @@
         <v>501</v>
       </c>
       <c r="AL29" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AM29" t="n">
         <v>12</v>
@@ -4710,33 +4710,33 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="H30" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I30" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="J30" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="K30" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="L30" t="n">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P30" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R30" t="n">
         <v>1.65</v>
@@ -4744,70 +4744,70 @@
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="V30" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="W30" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="X30" t="n">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="Z30" t="n">
         <v>1.65</v>
       </c>
       <c r="AA30" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AB30" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AD30" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AE30" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF30" t="n">
         <v>65</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>70</v>
       </c>
       <c r="AG30" t="n">
         <v>8.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="AI30" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AJ30" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AK30" t="n">
-        <v>101</v>
+        <v>1000</v>
       </c>
       <c r="AL30" t="n">
         <v>5.8</v>
       </c>
       <c r="AM30" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="AN30" t="n">
         <v>8.25</v>
       </c>
       <c r="AO30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP30" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AQ30" t="n">
         <v>32</v>
@@ -4988,16 +4988,16 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="H32" t="n">
         <v>4.33</v>
       </c>
       <c r="I32" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J32" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="K32" t="n">
         <v>2.5</v>
@@ -5018,18 +5018,22 @@
         <v>4.5</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R32" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
+        <v>2.25</v>
+      </c>
+      <c r="S32" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.8</v>
+      </c>
       <c r="U32" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V32" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W32" t="n">
         <v>1.3</v>
@@ -5092,7 +5096,7 @@
         <v>51</v>
       </c>
       <c r="AQ32" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR32" t="inlineStr"/>
       <c r="AS32" t="inlineStr"/>
@@ -5552,22 +5556,22 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="H36" t="n">
         <v>3.25</v>
       </c>
       <c r="I36" t="n">
-        <v>2.4</v>
+        <v>2.63</v>
       </c>
       <c r="J36" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="K36" t="n">
         <v>2.2</v>
       </c>
       <c r="L36" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M36" t="n">
         <v>1.04</v>
@@ -5608,22 +5612,22 @@
         <v>2.2</v>
       </c>
       <c r="AA36" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC36" t="n">
         <v>10</v>
       </c>
-      <c r="AB36" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>11</v>
-      </c>
       <c r="AD36" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AE36" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF36" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG36" t="n">
         <v>12</v>
@@ -5632,7 +5636,7 @@
         <v>6.5</v>
       </c>
       <c r="AI36" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ36" t="n">
         <v>41</v>
@@ -5641,19 +5645,19 @@
         <v>151</v>
       </c>
       <c r="AL36" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM36" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN36" t="n">
         <v>10</v>
       </c>
       <c r="AO36" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP36" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ36" t="n">
         <v>26</v>
@@ -5702,13 +5706,13 @@
         <v>2.2</v>
       </c>
       <c r="J37" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K37" t="n">
         <v>2.25</v>
       </c>
       <c r="L37" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M37" t="n">
         <v>1.04</v>
@@ -5755,7 +5759,7 @@
         <v>17</v>
       </c>
       <c r="AC37" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD37" t="n">
         <v>34</v>
@@ -5834,22 +5838,22 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="I38" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="J38" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="K38" t="n">
         <v>1.95</v>
       </c>
       <c r="L38" t="n">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
       <c r="M38" t="n">
         <v>1.11</v>
@@ -5873,7 +5877,7 @@
         <v>3.9</v>
       </c>
       <c r="T38" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="U38" t="n">
         <v>5</v>
@@ -5888,37 +5892,37 @@
         <v>2.25</v>
       </c>
       <c r="Y38" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Z38" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AA38" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AB38" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AC38" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD38" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF38" t="n">
         <v>41</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>41</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>51</v>
       </c>
       <c r="AG38" t="n">
         <v>6.5</v>
       </c>
       <c r="AH38" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AI38" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ38" t="n">
         <v>67</v>
@@ -5927,19 +5931,19 @@
         <v>1250</v>
       </c>
       <c r="AL38" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AM38" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AN38" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AO38" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AP38" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ38" t="n">
         <v>41</v>
@@ -6004,7 +6008,7 @@
         <v>1.07</v>
       </c>
       <c r="N39" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O39" t="n">
         <v>1.4</v>
@@ -6132,58 +6136,58 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="H40" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I40" t="n">
         <v>10</v>
       </c>
       <c r="J40" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="K40" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L40" t="n">
         <v>9</v>
       </c>
       <c r="M40" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N40" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O40" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P40" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q40" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R40" t="n">
         <v>1.88</v>
       </c>
-      <c r="R40" t="n">
-        <v>1.98</v>
-      </c>
       <c r="S40" t="n">
-        <v>2.47</v>
+        <v>2.65</v>
       </c>
       <c r="T40" t="n">
-        <v>1.53</v>
+        <v>1.46</v>
       </c>
       <c r="U40" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V40" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W40" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X40" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y40" t="n">
         <v>2.38</v>
@@ -6198,10 +6202,10 @@
         <v>5.5</v>
       </c>
       <c r="AC40" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD40" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE40" t="n">
         <v>13</v>
@@ -6210,10 +6214,10 @@
         <v>34</v>
       </c>
       <c r="AG40" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH40" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI40" t="n">
         <v>26</v>
@@ -6237,16 +6241,16 @@
         <v>126</v>
       </c>
       <c r="AP40" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AQ40" t="n">
         <v>67</v>
       </c>
       <c r="AR40" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="AS40" t="n">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="41">
@@ -6430,13 +6434,13 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="H42" t="n">
         <v>3.3</v>
       </c>
       <c r="I42" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="J42" t="n">
         <v>4.5</v>
@@ -6451,19 +6455,19 @@
         <v>1.06</v>
       </c>
       <c r="N42" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O42" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P42" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q42" t="n">
         <v>2.05</v>
       </c>
       <c r="R42" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
@@ -6489,7 +6493,7 @@
         <v>11</v>
       </c>
       <c r="AB42" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC42" t="n">
         <v>13</v>
@@ -6522,13 +6526,13 @@
         <v>7</v>
       </c>
       <c r="AM42" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AN42" t="n">
         <v>9</v>
       </c>
       <c r="AO42" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP42" t="n">
         <v>17</v>
@@ -6571,13 +6575,13 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H43" t="n">
         <v>3.5</v>
       </c>
       <c r="I43" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="J43" t="n">
         <v>4</v>
@@ -6586,7 +6590,7 @@
         <v>2.25</v>
       </c>
       <c r="L43" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M43" t="n">
         <v>1.04</v>
@@ -6601,10 +6605,10 @@
         <v>4</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R43" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
@@ -6712,96 +6716,96 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H44" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I44" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="J44" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="K44" t="n">
         <v>2.15</v>
       </c>
       <c r="L44" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="M44" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N44" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O44" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="P44" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="R44" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="V44" t="n">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="W44" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="X44" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="Y44" t="n">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="Z44" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="AA44" t="n">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="AB44" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AC44" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AD44" t="n">
         <v>13.5</v>
       </c>
       <c r="AE44" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AF44" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AG44" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AH44" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AI44" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ44" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK44" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="AL44" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AM44" t="n">
         <v>32</v>
@@ -6816,7 +6820,7 @@
         <v>55</v>
       </c>
       <c r="AQ44" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AR44" t="inlineStr"/>
       <c r="AS44" t="inlineStr"/>
@@ -6853,84 +6857,84 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="H45" t="n">
-        <v>4.3</v>
+        <v>4.55</v>
       </c>
       <c r="I45" t="n">
-        <v>6.6</v>
+        <v>7.1</v>
       </c>
       <c r="J45" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K45" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="L45" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N45" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P45" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R45" t="n">
         <v>1.98</v>
-      </c>
-      <c r="K45" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L45" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M45" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N45" t="n">
-        <v>8</v>
-      </c>
-      <c r="O45" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P45" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="R45" t="n">
-        <v>1.88</v>
       </c>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="n">
-        <v>3.1</v>
+        <v>2.87</v>
       </c>
       <c r="V45" t="n">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="W45" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="X45" t="n">
-        <v>2.8</v>
+        <v>2.92</v>
       </c>
       <c r="Y45" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="Z45" t="n">
         <v>1.7</v>
       </c>
       <c r="AA45" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="AB45" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AC45" t="n">
         <v>9</v>
       </c>
       <c r="AD45" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE45" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AF45" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AG45" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AH45" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AI45" t="n">
         <v>23</v>
@@ -6939,16 +6943,16 @@
         <v>120</v>
       </c>
       <c r="AK45" t="n">
-        <v>101</v>
+        <v>1250</v>
       </c>
       <c r="AL45" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AM45" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AN45" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO45" t="n">
         <v>175</v>
@@ -7044,13 +7048,13 @@
         <v>3.05</v>
       </c>
       <c r="Y46" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="Z46" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="AA46" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AB46" t="n">
         <v>6.5</v>
@@ -7074,7 +7078,7 @@
         <v>10.25</v>
       </c>
       <c r="AI46" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ46" t="n">
         <v>150</v>
@@ -7276,22 +7280,22 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H48" t="n">
         <v>3.5</v>
       </c>
       <c r="I48" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J48" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K48" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L48" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M48" t="n">
         <v>1.05</v>
@@ -7306,18 +7310,18 @@
         <v>3.75</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R48" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V48" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W48" t="n">
         <v>1.36</v>
@@ -7335,7 +7339,7 @@
         <v>7.5</v>
       </c>
       <c r="AB48" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AC48" t="n">
         <v>8.5</v>
@@ -7344,10 +7348,10 @@
         <v>15</v>
       </c>
       <c r="AE48" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF48" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG48" t="n">
         <v>11</v>
@@ -7362,19 +7366,19 @@
         <v>51</v>
       </c>
       <c r="AK48" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL48" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN48" t="n">
         <v>13</v>
       </c>
-      <c r="AM48" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN48" t="n">
-        <v>15</v>
-      </c>
       <c r="AO48" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP48" t="n">
         <v>34</v>
@@ -7562,107 +7566,111 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="H50" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="I50" t="n">
-        <v>3.35</v>
+        <v>3.9</v>
       </c>
       <c r="J50" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="K50" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="L50" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr"/>
+        <v>4.3</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N50" t="n">
+        <v>6.1</v>
+      </c>
       <c r="O50" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P50" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.13</v>
+        <v>2.2</v>
       </c>
       <c r="R50" t="n">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="V50" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="W50" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="X50" t="n">
-        <v>2.45</v>
+        <v>2.57</v>
       </c>
       <c r="Y50" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="Z50" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="AA50" t="n">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="AB50" t="n">
-        <v>7</v>
+        <v>8.75</v>
       </c>
       <c r="AC50" t="n">
-        <v>7</v>
+        <v>8.75</v>
       </c>
       <c r="AD50" t="n">
-        <v>14</v>
+        <v>18.5</v>
       </c>
       <c r="AE50" t="n">
-        <v>14</v>
+        <v>18.5</v>
       </c>
       <c r="AF50" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AG50" t="n">
-        <v>8.4</v>
+        <v>6.1</v>
       </c>
       <c r="AH50" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AI50" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AJ50" t="n">
         <v>80</v>
       </c>
       <c r="AK50" t="n">
-        <v>101</v>
+        <v>800</v>
       </c>
       <c r="AL50" t="n">
-        <v>7.2</v>
+        <v>9.75</v>
       </c>
       <c r="AM50" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AN50" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AO50" t="n">
+        <v>60</v>
+      </c>
+      <c r="AP50" t="n">
         <v>40</v>
       </c>
-      <c r="AP50" t="n">
-        <v>29</v>
-      </c>
       <c r="AQ50" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AR50" t="inlineStr"/>
       <c r="AS50" t="inlineStr"/>
@@ -8011,10 +8019,10 @@
         <v>4.33</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R53" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S53" t="n">
         <v>2.05</v>
@@ -8126,13 +8134,13 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H54" t="n">
         <v>3.7</v>
       </c>
       <c r="I54" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J54" t="n">
         <v>2.5</v>
@@ -8147,19 +8155,19 @@
         <v>1.04</v>
       </c>
       <c r="N54" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O54" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P54" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R54" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
@@ -8185,7 +8193,7 @@
         <v>8</v>
       </c>
       <c r="AB54" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AC54" t="n">
         <v>8.5</v>
@@ -8267,7 +8275,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="H55" t="n">
         <v>4.1</v>
@@ -8297,7 +8305,7 @@
         <v>5</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="R55" t="n">
         <v>2.35</v>
@@ -8412,7 +8420,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H56" t="n">
         <v>3.9</v>
@@ -8442,10 +8450,10 @@
         <v>4</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="R56" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
@@ -8553,22 +8561,22 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H57" t="n">
         <v>3.6</v>
       </c>
       <c r="I57" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="J57" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K57" t="n">
         <v>2.25</v>
       </c>
       <c r="L57" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="M57" t="n">
         <v>1.04</v>
@@ -8583,10 +8591,10 @@
         <v>4</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="R57" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
@@ -8597,10 +8605,10 @@
         <v>1.4</v>
       </c>
       <c r="W57" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X57" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Y57" t="n">
         <v>1.67</v>
@@ -8609,22 +8617,22 @@
         <v>2.1</v>
       </c>
       <c r="AA57" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB57" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC57" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD57" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF57" t="n">
         <v>34</v>
-      </c>
-      <c r="AE57" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF57" t="n">
-        <v>29</v>
       </c>
       <c r="AG57" t="n">
         <v>13</v>
@@ -8642,16 +8650,16 @@
         <v>151</v>
       </c>
       <c r="AL57" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM57" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN57" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AO57" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP57" t="n">
         <v>15</v>
@@ -8857,10 +8865,10 @@
         <v>1.95</v>
       </c>
       <c r="M59" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N59" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O59" t="n">
         <v>1.3</v>
@@ -8869,10 +8877,10 @@
         <v>3.4</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R59" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S59" t="n">
         <v>2.9</v>
@@ -8988,28 +8996,28 @@
         </is>
       </c>
       <c r="G60" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H60" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J60" t="n">
         <v>4.33</v>
       </c>
-      <c r="H60" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I60" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="J60" t="n">
-        <v>4.5</v>
-      </c>
       <c r="K60" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L60" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M60" t="n">
         <v>1.08</v>
       </c>
       <c r="N60" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O60" t="n">
         <v>1.36</v>
@@ -9048,13 +9056,13 @@
         <v>1.8</v>
       </c>
       <c r="AA60" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB60" t="n">
         <v>19</v>
       </c>
       <c r="AC60" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD60" t="n">
         <v>41</v>
@@ -9066,34 +9074,34 @@
         <v>41</v>
       </c>
       <c r="AG60" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AH60" t="n">
         <v>6</v>
       </c>
       <c r="AI60" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ60" t="n">
         <v>51</v>
       </c>
       <c r="AK60" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AL60" t="n">
         <v>6.5</v>
       </c>
       <c r="AM60" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AN60" t="n">
         <v>9</v>
       </c>
       <c r="AO60" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP60" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ60" t="n">
         <v>34</v>
@@ -9137,13 +9145,13 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="H61" t="n">
         <v>3.2</v>
       </c>
       <c r="I61" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="J61" t="n">
         <v>3.25</v>
@@ -9152,7 +9160,7 @@
         <v>2.05</v>
       </c>
       <c r="L61" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M61" t="n">
         <v>1.06</v>
@@ -9236,7 +9244,7 @@
         <v>13</v>
       </c>
       <c r="AN61" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO61" t="n">
         <v>29</v>
@@ -9286,13 +9294,13 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H62" t="n">
         <v>2.9</v>
       </c>
       <c r="I62" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="J62" t="n">
         <v>4</v>
@@ -9301,7 +9309,7 @@
         <v>1.83</v>
       </c>
       <c r="L62" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M62" t="n">
         <v>1.13</v>
@@ -9316,10 +9324,10 @@
         <v>2.2</v>
       </c>
       <c r="Q62" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="R62" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S62" t="n">
         <v>4.7</v>
@@ -9382,7 +9390,7 @@
         <v>6</v>
       </c>
       <c r="AM62" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN62" t="n">
         <v>11</v>
@@ -9441,7 +9449,7 @@
         <v>3.6</v>
       </c>
       <c r="I63" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="J63" t="n">
         <v>2.63</v>
@@ -9450,7 +9458,7 @@
         <v>2.25</v>
       </c>
       <c r="L63" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M63" t="n">
         <v>1.04</v>
@@ -9465,10 +9473,10 @@
         <v>4</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R63" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
@@ -9533,7 +9541,7 @@
         <v>12</v>
       </c>
       <c r="AO63" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP63" t="n">
         <v>26</v>
@@ -9576,48 +9584,48 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="H64" t="n">
         <v>3.4</v>
       </c>
       <c r="I64" t="n">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="J64" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K64" t="n">
         <v>2.1</v>
       </c>
       <c r="L64" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N64" t="n">
+        <v>10</v>
+      </c>
+      <c r="O64" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P64" t="n">
         <v>3.4</v>
       </c>
-      <c r="M64" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N64" t="n">
-        <v>11</v>
-      </c>
-      <c r="O64" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P64" t="n">
-        <v>3.5</v>
-      </c>
       <c r="Q64" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R64" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V64" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W64" t="n">
         <v>1.4</v>
@@ -9632,34 +9640,34 @@
         <v>2</v>
       </c>
       <c r="AA64" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB64" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC64" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD64" t="n">
         <v>23</v>
       </c>
       <c r="AE64" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF64" t="n">
         <v>29</v>
       </c>
       <c r="AG64" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH64" t="n">
         <v>6.5</v>
       </c>
       <c r="AI64" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ64" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK64" t="n">
         <v>201</v>
@@ -9668,16 +9676,16 @@
         <v>9</v>
       </c>
       <c r="AM64" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN64" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO64" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP64" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ64" t="n">
         <v>29</v>
@@ -9717,22 +9725,22 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="H65" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I65" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="J65" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="K65" t="n">
         <v>2.5</v>
       </c>
       <c r="L65" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M65" t="n">
         <v>1.03</v>
@@ -9747,16 +9755,16 @@
         <v>4.5</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R65" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S65" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="T65" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="U65" t="n">
         <v>2.5</v>
@@ -9765,10 +9773,10 @@
         <v>1.5</v>
       </c>
       <c r="W65" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X65" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y65" t="n">
         <v>1.73</v>
@@ -9789,16 +9797,16 @@
         <v>11</v>
       </c>
       <c r="AE65" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF65" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG65" t="n">
         <v>15</v>
       </c>
       <c r="AH65" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI65" t="n">
         <v>15</v>
@@ -9807,7 +9815,7 @@
         <v>41</v>
       </c>
       <c r="AK65" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL65" t="n">
         <v>19</v>
@@ -10438,16 +10446,16 @@
         <v>11</v>
       </c>
       <c r="O70" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P70" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="R70" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
@@ -10585,18 +10593,18 @@
         <v>2.75</v>
       </c>
       <c r="Q71" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R71" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="V71" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="W71" t="n">
         <v>1.5</v>
@@ -11123,111 +11131,111 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="H75" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="I75" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J75" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="K75" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L75" t="n">
         <v>4</v>
       </c>
       <c r="M75" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N75" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O75" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="P75" t="n">
-        <v>4.33</v>
+        <v>3.4</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="R75" t="n">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="W75" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X75" t="n">
         <v>2.63</v>
       </c>
-      <c r="V75" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="W75" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X75" t="n">
-        <v>3.25</v>
-      </c>
       <c r="Y75" t="n">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="Z75" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="AA75" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AC75" t="n">
         <v>9</v>
       </c>
-      <c r="AB75" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC75" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AD75" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE75" t="n">
         <v>17</v>
       </c>
-      <c r="AE75" t="n">
+      <c r="AF75" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI75" t="n">
         <v>15</v>
       </c>
-      <c r="AF75" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG75" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH75" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI75" t="n">
+      <c r="AJ75" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK75" t="n">
+        <v>251</v>
+      </c>
+      <c r="AL75" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM75" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN75" t="n">
         <v>13</v>
-      </c>
-      <c r="AJ75" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK75" t="n">
-        <v>151</v>
-      </c>
-      <c r="AL75" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM75" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN75" t="n">
-        <v>12</v>
       </c>
       <c r="AO75" t="n">
         <v>41</v>
       </c>
       <c r="AP75" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ75" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AR75" t="inlineStr"/>
       <c r="AS75" t="inlineStr"/>
@@ -11264,13 +11272,13 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H76" t="n">
         <v>3.3</v>
       </c>
       <c r="I76" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="J76" t="n">
         <v>3.1</v>
@@ -11279,7 +11287,7 @@
         <v>2.2</v>
       </c>
       <c r="L76" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M76" t="n">
         <v>1.05</v>
@@ -11323,7 +11331,7 @@
         <v>9</v>
       </c>
       <c r="AB76" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC76" t="n">
         <v>9.5</v>
@@ -11365,7 +11373,7 @@
         <v>29</v>
       </c>
       <c r="AP76" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ76" t="n">
         <v>29</v>
@@ -11405,13 +11413,13 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="H77" t="n">
         <v>3.4</v>
       </c>
       <c r="I77" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J77" t="n">
         <v>3.5</v>
@@ -11420,7 +11428,7 @@
         <v>2.1</v>
       </c>
       <c r="L77" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M77" t="n">
         <v>1.06</v>
@@ -11449,10 +11457,10 @@
         <v>1.29</v>
       </c>
       <c r="W77" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X77" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y77" t="n">
         <v>1.8</v>
@@ -11464,7 +11472,7 @@
         <v>9</v>
       </c>
       <c r="AB77" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC77" t="n">
         <v>11</v>
@@ -11479,7 +11487,7 @@
         <v>34</v>
       </c>
       <c r="AG77" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH77" t="n">
         <v>6.5</v>
@@ -11500,7 +11508,7 @@
         <v>12</v>
       </c>
       <c r="AN77" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AO77" t="n">
         <v>23</v>
@@ -11546,36 +11554,36 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="H78" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="I78" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="J78" t="n">
-        <v>3.9</v>
+        <v>4.05</v>
       </c>
       <c r="K78" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L78" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P78" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R78" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S78" t="inlineStr"/>
       <c r="T78" t="inlineStr"/>
@@ -11583,66 +11591,66 @@
         <v>2.57</v>
       </c>
       <c r="V78" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="W78" t="inlineStr"/>
       <c r="X78" t="inlineStr"/>
       <c r="Y78" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="Z78" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="AA78" t="n">
-        <v>11.75</v>
+        <v>13</v>
       </c>
       <c r="AB78" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AC78" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AD78" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AE78" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AF78" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AG78" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AH78" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="AI78" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AJ78" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AK78" t="n">
         <v>350</v>
       </c>
       <c r="AL78" t="n">
-        <v>8.75</v>
+        <v>8</v>
       </c>
       <c r="AM78" t="n">
-        <v>10.5</v>
+        <v>9.25</v>
       </c>
       <c r="AN78" t="n">
         <v>8.25</v>
       </c>
       <c r="AO78" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="AP78" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AQ78" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR78" t="inlineStr"/>
       <c r="AS78" t="inlineStr"/>
@@ -11682,41 +11690,41 @@
         <v>1.45</v>
       </c>
       <c r="H79" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I79" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="J79" t="n">
         <v>1.95</v>
       </c>
       <c r="K79" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="L79" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P79" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R79" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="S79" t="inlineStr"/>
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="n">
-        <v>2.52</v>
+        <v>2.47</v>
       </c>
       <c r="V79" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="W79" t="inlineStr"/>
       <c r="X79" t="inlineStr"/>
@@ -11727,7 +11735,7 @@
         <v>1.8</v>
       </c>
       <c r="AA79" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AB79" t="n">
         <v>7</v>
@@ -11745,10 +11753,10 @@
         <v>25</v>
       </c>
       <c r="AG79" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH79" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AI79" t="n">
         <v>18</v>
@@ -11766,13 +11774,13 @@
         <v>40</v>
       </c>
       <c r="AN79" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AO79" t="n">
         <v>120</v>
       </c>
       <c r="AP79" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AQ79" t="n">
         <v>60</v>
@@ -11812,44 +11820,44 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="H80" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I80" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="J80" t="n">
-        <v>3.95</v>
+        <v>4.15</v>
       </c>
       <c r="K80" t="n">
         <v>2.15</v>
       </c>
       <c r="L80" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P80" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R80" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="V80" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W80" t="n">
         <v>1.4</v>
@@ -11858,58 +11866,58 @@
         <v>2.52</v>
       </c>
       <c r="Y80" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="Z80" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="AA80" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>60</v>
+      </c>
+      <c r="AE80" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF80" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG80" t="n">
         <v>11.75</v>
       </c>
-      <c r="AB80" t="n">
-        <v>20</v>
-      </c>
-      <c r="AC80" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD80" t="n">
-        <v>50</v>
-      </c>
-      <c r="AE80" t="n">
-        <v>30</v>
-      </c>
-      <c r="AF80" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG80" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AH80" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AI80" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AJ80" t="n">
         <v>50</v>
       </c>
       <c r="AK80" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AL80" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AM80" t="n">
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="AN80" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AO80" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AP80" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AQ80" t="n">
         <v>22</v>
@@ -12120,18 +12128,18 @@
         <v>3.75</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="R82" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V82" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W82" t="n">
         <v>1.36</v>
@@ -12261,16 +12269,16 @@
         <v>4.5</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R83" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S83" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="T83" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="U83" t="n">
         <v>2.5</v>
@@ -12303,7 +12311,7 @@
         <v>13</v>
       </c>
       <c r="AE83" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF83" t="n">
         <v>21</v>
@@ -12406,10 +12414,10 @@
         <v>3.75</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R84" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr"/>
@@ -12658,13 +12666,13 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="H86" t="n">
         <v>5.75</v>
       </c>
       <c r="I86" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="J86" t="n">
         <v>8.5</v>
@@ -12679,7 +12687,7 @@
         <v>1.03</v>
       </c>
       <c r="N86" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O86" t="n">
         <v>1.18</v>
@@ -12688,16 +12696,16 @@
         <v>4.5</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R86" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S86" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="T86" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="U86" t="n">
         <v>2.5</v>
@@ -12712,10 +12720,10 @@
         <v>3.4</v>
       </c>
       <c r="Y86" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="Z86" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AA86" t="n">
         <v>21</v>
@@ -12730,7 +12738,7 @@
         <v>101</v>
       </c>
       <c r="AE86" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AF86" t="n">
         <v>51</v>
@@ -12748,7 +12756,7 @@
         <v>67</v>
       </c>
       <c r="AK86" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AL86" t="n">
         <v>7.5</v>
@@ -12766,7 +12774,7 @@
         <v>11</v>
       </c>
       <c r="AQ86" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR86" t="inlineStr"/>
       <c r="AS86" t="inlineStr"/>
@@ -12821,16 +12829,16 @@
         <v>2.88</v>
       </c>
       <c r="M87" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N87" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O87" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P87" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q87" t="n">
         <v>2.1</v>
@@ -12982,10 +12990,10 @@
       <c r="S88" t="inlineStr"/>
       <c r="T88" t="inlineStr"/>
       <c r="U88" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V88" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W88" t="n">
         <v>1.5</v>
@@ -13103,10 +13111,10 @@
         <v>4</v>
       </c>
       <c r="M89" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N89" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O89" t="n">
         <v>1.36</v>
@@ -13115,10 +13123,10 @@
         <v>3</v>
       </c>
       <c r="Q89" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R89" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S89" t="inlineStr"/>
       <c r="T89" t="inlineStr"/>
@@ -13283,7 +13291,7 @@
         <v>2</v>
       </c>
       <c r="Z90" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="AA90" t="n">
         <v>29</v>
@@ -13653,111 +13661,111 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="H93" t="n">
-        <v>4.3</v>
+        <v>4.55</v>
       </c>
       <c r="I93" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="J93" t="n">
         <v>5.4</v>
       </c>
       <c r="K93" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="L93" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="M93" t="n">
         <v>1.03</v>
       </c>
       <c r="N93" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="O93" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="P93" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="Q93" t="n">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="R93" t="n">
-        <v>2.3</v>
+        <v>2.52</v>
       </c>
       <c r="S93" t="inlineStr"/>
       <c r="T93" t="inlineStr"/>
       <c r="U93" t="n">
-        <v>2.35</v>
+        <v>2.12</v>
       </c>
       <c r="V93" t="n">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="W93" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="X93" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="Y93" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="Z93" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="AA93" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AB93" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AC93" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AD93" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AE93" t="n">
         <v>50</v>
       </c>
       <c r="AF93" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AG93" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH93" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="AI93" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AJ93" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AK93" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AL93" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AM93" t="n">
         <v>8.5</v>
       </c>
-      <c r="AM93" t="n">
-        <v>7.9</v>
-      </c>
       <c r="AN93" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AO93" t="n">
         <v>10.75</v>
       </c>
       <c r="AP93" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AQ93" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AR93" t="inlineStr"/>
       <c r="AS93" t="inlineStr"/>
@@ -14217,34 +14225,34 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>3.65</v>
+        <v>3.35</v>
       </c>
       <c r="H97" t="n">
         <v>3.1</v>
       </c>
       <c r="I97" t="n">
-        <v>2.05</v>
+        <v>2.18</v>
       </c>
       <c r="J97" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="K97" t="n">
         <v>2.05</v>
       </c>
       <c r="L97" t="n">
-        <v>2.62</v>
+        <v>2.75</v>
       </c>
       <c r="M97" t="n">
         <v>1.09</v>
       </c>
       <c r="N97" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="O97" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="P97" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="Q97" t="n">
         <v>2.15</v>
@@ -14264,61 +14272,61 @@
         <v>1.44</v>
       </c>
       <c r="X97" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="Y97" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="Z97" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="AA97" t="n">
         <v>8.75</v>
       </c>
       <c r="AB97" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AC97" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AD97" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AE97" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AF97" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AG97" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AH97" t="n">
         <v>6</v>
       </c>
       <c r="AI97" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AJ97" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AK97" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AL97" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AM97" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AN97" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AO97" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP97" t="n">
         <v>19</v>
-      </c>
-      <c r="AP97" t="n">
-        <v>17.5</v>
       </c>
       <c r="AQ97" t="n">
         <v>32</v>
@@ -14358,13 +14366,13 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H98" t="n">
         <v>3.3</v>
       </c>
       <c r="I98" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="J98" t="n">
         <v>2.75</v>
@@ -14388,10 +14396,10 @@
         <v>3.25</v>
       </c>
       <c r="Q98" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R98" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S98" t="inlineStr"/>
       <c r="T98" t="inlineStr"/>
@@ -14417,7 +14425,7 @@
         <v>7</v>
       </c>
       <c r="AB98" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AC98" t="n">
         <v>9</v>
@@ -14529,18 +14537,18 @@
         <v>2.75</v>
       </c>
       <c r="Q99" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R99" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S99" t="inlineStr"/>
       <c r="T99" t="inlineStr"/>
       <c r="U99" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="V99" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="W99" t="n">
         <v>1.5</v>
@@ -14799,10 +14807,10 @@
         <v>4.5</v>
       </c>
       <c r="M101" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N101" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O101" t="n">
         <v>1.44</v>
@@ -14811,10 +14819,10 @@
         <v>2.63</v>
       </c>
       <c r="Q101" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R101" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S101" t="inlineStr"/>
       <c r="T101" t="inlineStr"/>
@@ -14888,10 +14896,10 @@
         <v>41</v>
       </c>
       <c r="AR101" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AS101" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="102">
@@ -14944,10 +14952,10 @@
         <v>4</v>
       </c>
       <c r="M102" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N102" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O102" t="n">
         <v>1.5</v>
@@ -14956,18 +14964,18 @@
         <v>2.5</v>
       </c>
       <c r="Q102" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R102" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S102" t="inlineStr"/>
       <c r="T102" t="inlineStr"/>
       <c r="U102" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="V102" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="W102" t="n">
         <v>1.57</v>
@@ -14976,16 +14984,16 @@
         <v>2.25</v>
       </c>
       <c r="Y102" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Z102" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AA102" t="n">
         <v>6</v>
       </c>
       <c r="AB102" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AC102" t="n">
         <v>10</v>
@@ -15009,7 +15017,7 @@
         <v>19</v>
       </c>
       <c r="AJ102" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK102" t="n">
         <v>301</v>
@@ -15033,10 +15041,10 @@
         <v>41</v>
       </c>
       <c r="AR102" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="103">
@@ -15234,30 +15242,30 @@
         <v>3.4</v>
       </c>
       <c r="M104" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N104" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O104" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P104" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q104" t="n">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="R104" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="S104" t="inlineStr"/>
       <c r="T104" t="inlineStr"/>
       <c r="U104" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V104" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="W104" t="n">
         <v>1.36</v>
@@ -15284,10 +15292,10 @@
         <v>23</v>
       </c>
       <c r="AE104" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF104" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG104" t="n">
         <v>12</v>
@@ -15317,7 +15325,7 @@
         <v>29</v>
       </c>
       <c r="AP104" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ104" t="n">
         <v>29</v>
@@ -16203,22 +16211,22 @@
         </is>
       </c>
       <c r="G111" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H111" t="n">
         <v>3.9</v>
       </c>
-      <c r="H111" t="n">
-        <v>3.8</v>
-      </c>
       <c r="I111" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="J111" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K111" t="n">
         <v>2.4</v>
       </c>
       <c r="L111" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="M111" t="n">
         <v>1.03</v>
@@ -16257,19 +16265,19 @@
         <v>3.5</v>
       </c>
       <c r="Y111" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Z111" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AA111" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB111" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC111" t="n">
         <v>15</v>
-      </c>
-      <c r="AB111" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC111" t="n">
-        <v>13</v>
       </c>
       <c r="AD111" t="n">
         <v>41</v>
@@ -16299,7 +16307,7 @@
         <v>10</v>
       </c>
       <c r="AM111" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN111" t="n">
         <v>8.5</v>
@@ -16308,10 +16316,10 @@
         <v>15</v>
       </c>
       <c r="AP111" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ111" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AR111" t="inlineStr"/>
       <c r="AS111" t="inlineStr"/>
@@ -16348,40 +16356,40 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="H112" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I112" t="n">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="J112" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="K112" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L112" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M112" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N112" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O112" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P112" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q112" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="R112" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S112" t="inlineStr"/>
       <c r="T112" t="inlineStr"/>
@@ -16392,37 +16400,37 @@
         <v>1.33</v>
       </c>
       <c r="W112" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X112" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y112" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Z112" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AA112" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB112" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AC112" t="n">
         <v>8.5</v>
       </c>
       <c r="AD112" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE112" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF112" t="n">
         <v>26</v>
       </c>
       <c r="AG112" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH112" t="n">
         <v>7</v>
@@ -16440,16 +16448,16 @@
         <v>13</v>
       </c>
       <c r="AM112" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN112" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO112" t="n">
         <v>51</v>
       </c>
       <c r="AP112" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ112" t="n">
         <v>41</v>
@@ -16489,7 +16497,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H113" t="n">
         <v>5</v>
@@ -16498,19 +16506,19 @@
         <v>9</v>
       </c>
       <c r="J113" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="K113" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="L113" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M113" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N113" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O113" t="n">
         <v>1.14</v>
@@ -16519,10 +16527,10 @@
         <v>5.5</v>
       </c>
       <c r="Q113" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="R113" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="S113" t="n">
         <v>1.83</v>
@@ -16531,10 +16539,10 @@
         <v>2.03</v>
       </c>
       <c r="U113" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V113" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W113" t="n">
         <v>1.25</v>
@@ -16582,13 +16590,13 @@
         <v>201</v>
       </c>
       <c r="AL113" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM113" t="n">
         <v>41</v>
       </c>
       <c r="AN113" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO113" t="n">
         <v>101</v>
@@ -16634,13 +16642,13 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="H114" t="n">
         <v>3.4</v>
       </c>
       <c r="I114" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="J114" t="n">
         <v>4</v>
@@ -16649,7 +16657,7 @@
         <v>2.2</v>
       </c>
       <c r="L114" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M114" t="n">
         <v>1.05</v>
@@ -16664,24 +16672,24 @@
         <v>3.75</v>
       </c>
       <c r="Q114" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R114" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S114" t="inlineStr"/>
       <c r="T114" t="inlineStr"/>
       <c r="U114" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V114" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W114" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X114" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y114" t="n">
         <v>1.73</v>
@@ -16690,19 +16698,19 @@
         <v>2</v>
       </c>
       <c r="AA114" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB114" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC114" t="n">
         <v>12</v>
       </c>
-      <c r="AB114" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC114" t="n">
-        <v>13</v>
-      </c>
       <c r="AD114" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE114" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF114" t="n">
         <v>34</v>
@@ -16732,10 +16740,10 @@
         <v>9</v>
       </c>
       <c r="AO114" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP114" t="n">
         <v>17</v>
-      </c>
-      <c r="AP114" t="n">
-        <v>15</v>
       </c>
       <c r="AQ114" t="n">
         <v>26</v>
@@ -16778,57 +16786,57 @@
         <v>3.1</v>
       </c>
       <c r="H115" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I115" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J115" t="n">
         <v>3.75</v>
       </c>
       <c r="K115" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L115" t="n">
         <v>2.75</v>
       </c>
       <c r="M115" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N115" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O115" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P115" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q115" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R115" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S115" t="inlineStr"/>
       <c r="T115" t="inlineStr"/>
       <c r="U115" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V115" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W115" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X115" t="n">
         <v>3</v>
       </c>
-      <c r="V115" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="W115" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X115" t="n">
-        <v>2.75</v>
-      </c>
       <c r="Y115" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="Z115" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AA115" t="n">
         <v>11</v>
@@ -16843,16 +16851,16 @@
         <v>34</v>
       </c>
       <c r="AE115" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF115" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG115" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH115" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI115" t="n">
         <v>13</v>
@@ -16861,10 +16869,10 @@
         <v>41</v>
       </c>
       <c r="AK115" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AL115" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AM115" t="n">
         <v>11</v>
@@ -16879,7 +16887,7 @@
         <v>17</v>
       </c>
       <c r="AQ115" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR115" t="inlineStr"/>
       <c r="AS115" t="inlineStr"/>
@@ -17057,28 +17065,28 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="H117" t="n">
         <v>3.3</v>
       </c>
       <c r="I117" t="n">
-        <v>2.35</v>
+        <v>2.6</v>
       </c>
       <c r="J117" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="K117" t="n">
         <v>2.1</v>
       </c>
       <c r="L117" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M117" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N117" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O117" t="n">
         <v>1.3</v>
@@ -17101,10 +17109,10 @@
         <v>1.29</v>
       </c>
       <c r="W117" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X117" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y117" t="n">
         <v>1.8</v>
@@ -17113,22 +17121,22 @@
         <v>1.91</v>
       </c>
       <c r="AA117" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB117" t="n">
         <v>13</v>
       </c>
       <c r="AC117" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD117" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE117" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF117" t="n">
         <v>29</v>
-      </c>
-      <c r="AE117" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF117" t="n">
-        <v>34</v>
       </c>
       <c r="AG117" t="n">
         <v>10</v>
@@ -17146,16 +17154,16 @@
         <v>251</v>
       </c>
       <c r="AL117" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AM117" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN117" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AO117" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP117" t="n">
         <v>21</v>
@@ -17198,81 +17206,81 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I118" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="J118" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="K118" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L118" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="M118" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N118" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="O118" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="P118" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q118" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="R118" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="S118" t="inlineStr"/>
       <c r="T118" t="inlineStr"/>
       <c r="U118" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V118" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W118" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X118" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Y118" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Z118" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AA118" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AB118" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AC118" t="n">
         <v>9.5</v>
       </c>
       <c r="AD118" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE118" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF118" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG118" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AH118" t="n">
         <v>6</v>
@@ -17284,25 +17292,25 @@
         <v>51</v>
       </c>
       <c r="AK118" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AL118" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AM118" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN118" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO118" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP118" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ118" t="n">
         <v>34</v>
-      </c>
-      <c r="AQ118" t="n">
-        <v>41</v>
       </c>
       <c r="AR118" t="inlineStr"/>
       <c r="AS118" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-02.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-02.xlsx
@@ -855,10 +855,10 @@
         <v>4.33</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O3" t="n">
         <v>1.29</v>
@@ -867,10 +867,10 @@
         <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="R3" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
@@ -978,13 +978,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H4" t="n">
         <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
         <v>2.5</v>
@@ -1046,7 +1046,7 @@
         <v>19</v>
       </c>
       <c r="AE4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF4" t="n">
         <v>26</v>
@@ -1082,7 +1082,7 @@
         <v>34</v>
       </c>
       <c r="AQ4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR4" t="inlineStr"/>
       <c r="AS4" t="inlineStr"/>
@@ -1119,28 +1119,28 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H5" t="n">
         <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J5" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K5" t="n">
         <v>2.2</v>
       </c>
       <c r="L5" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O5" t="n">
         <v>1.29</v>
@@ -1149,10 +1149,10 @@
         <v>3.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="R5" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
@@ -1184,10 +1184,10 @@
         <v>10</v>
       </c>
       <c r="AD5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF5" t="n">
         <v>29</v>
@@ -1211,13 +1211,13 @@
         <v>9.5</v>
       </c>
       <c r="AM5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN5" t="n">
         <v>10</v>
       </c>
       <c r="AO5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP5" t="n">
         <v>21</v>
@@ -1548,7 +1548,7 @@
         <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J8" t="n">
         <v>2.75</v>
@@ -1572,18 +1572,18 @@
         <v>3.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R8" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="V8" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W8" t="n">
         <v>1.4</v>
@@ -1643,7 +1643,7 @@
         <v>41</v>
       </c>
       <c r="AP8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ8" t="n">
         <v>34</v>
@@ -1683,13 +1683,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H9" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I9" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J9" t="n">
         <v>2.6</v>
@@ -1698,13 +1698,13 @@
         <v>2.38</v>
       </c>
       <c r="L9" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M9" t="n">
         <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O9" t="n">
         <v>1.17</v>
@@ -1719,10 +1719,10 @@
         <v>2.38</v>
       </c>
       <c r="S9" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="T9" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="U9" t="n">
         <v>2.38</v>
@@ -1782,7 +1782,7 @@
         <v>19</v>
       </c>
       <c r="AN9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO9" t="n">
         <v>34</v>
@@ -1828,28 +1828,28 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H10" t="n">
         <v>3.8</v>
       </c>
       <c r="I10" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J10" t="n">
         <v>2.5</v>
       </c>
       <c r="K10" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L10" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M10" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O10" t="n">
         <v>1.14</v>
@@ -1891,7 +1891,7 @@
         <v>12</v>
       </c>
       <c r="AB10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC10" t="n">
         <v>9</v>
@@ -1909,7 +1909,7 @@
         <v>19</v>
       </c>
       <c r="AH10" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI10" t="n">
         <v>11</v>
@@ -1985,7 +1985,7 @@
         <v>1.57</v>
       </c>
       <c r="K11" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L11" t="n">
         <v>8.5</v>
@@ -2017,25 +2017,25 @@
         <v>1.91</v>
       </c>
       <c r="W11" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="X11" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Z11" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AA11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB11" t="n">
         <v>8</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD11" t="n">
         <v>8.5</v>
@@ -2044,7 +2044,7 @@
         <v>10</v>
       </c>
       <c r="AF11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG11" t="n">
         <v>26</v>
@@ -2053,7 +2053,7 @@
         <v>15</v>
       </c>
       <c r="AI11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ11" t="n">
         <v>51</v>
@@ -2062,13 +2062,13 @@
         <v>201</v>
       </c>
       <c r="AL11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM11" t="n">
         <v>51</v>
       </c>
       <c r="AN11" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AO11" t="n">
         <v>126</v>
@@ -2077,7 +2077,7 @@
         <v>51</v>
       </c>
       <c r="AQ11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="inlineStr"/>
@@ -2403,51 +2403,51 @@
         <v>1.83</v>
       </c>
       <c r="J14" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="K14" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L14" t="n">
         <v>2.4</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O14" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P14" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="R14" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V14" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W14" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X14" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="Z14" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AA14" t="n">
         <v>13</v>
@@ -2462,13 +2462,13 @@
         <v>41</v>
       </c>
       <c r="AE14" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AF14" t="n">
         <v>34</v>
       </c>
       <c r="AG14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH14" t="n">
         <v>7</v>
@@ -2480,10 +2480,10 @@
         <v>41</v>
       </c>
       <c r="AK14" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AL14" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AM14" t="n">
         <v>9.5</v>
@@ -2495,10 +2495,10 @@
         <v>15</v>
       </c>
       <c r="AP14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR14" t="inlineStr"/>
       <c r="AS14" t="inlineStr"/>
@@ -2535,22 +2535,22 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="H15" t="n">
         <v>3.2</v>
       </c>
       <c r="I15" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="J15" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K15" t="n">
         <v>2.05</v>
       </c>
       <c r="L15" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M15" t="n">
         <v>1.07</v>
@@ -2573,10 +2573,10 @@
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V15" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W15" t="n">
         <v>1.44</v>
@@ -2594,16 +2594,16 @@
         <v>9</v>
       </c>
       <c r="AB15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC15" t="n">
         <v>11</v>
       </c>
       <c r="AD15" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE15" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF15" t="n">
         <v>34</v>
@@ -2624,13 +2624,13 @@
         <v>251</v>
       </c>
       <c r="AL15" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AM15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN15" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AO15" t="n">
         <v>23</v>
@@ -2706,10 +2706,10 @@
         <v>3.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R16" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S16" t="n">
         <v>2.05</v>
@@ -2718,10 +2718,10 @@
         <v>1.8</v>
       </c>
       <c r="U16" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V16" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W16" t="n">
         <v>1.4</v>
@@ -2827,16 +2827,16 @@
         <v>3.6</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J17" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K17" t="n">
         <v>2.3</v>
       </c>
       <c r="L17" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M17" t="n">
         <v>1.03</v>
@@ -2869,10 +2869,10 @@
         <v>1.44</v>
       </c>
       <c r="W17" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X17" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Y17" t="n">
         <v>1.57</v>
@@ -2893,7 +2893,7 @@
         <v>21</v>
       </c>
       <c r="AE17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF17" t="n">
         <v>21</v>
@@ -2923,7 +2923,7 @@
         <v>11</v>
       </c>
       <c r="AO17" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP17" t="n">
         <v>21</v>
@@ -2966,16 +2966,16 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H18" t="n">
         <v>3.6</v>
       </c>
       <c r="I18" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="J18" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K18" t="n">
         <v>2.3</v>
@@ -2987,31 +2987,31 @@
         <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O18" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P18" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R18" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="S18" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="T18" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="U18" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V18" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W18" t="n">
         <v>1.3</v>
@@ -3041,10 +3041,10 @@
         <v>19</v>
       </c>
       <c r="AF18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH18" t="n">
         <v>7.5</v>
@@ -3053,13 +3053,13 @@
         <v>12</v>
       </c>
       <c r="AJ18" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK18" t="n">
         <v>126</v>
       </c>
       <c r="AL18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM18" t="n">
         <v>15</v>
@@ -3129,10 +3129,10 @@
         <v>4.75</v>
       </c>
       <c r="M19" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O19" t="n">
         <v>1.29</v>
@@ -3252,13 +3252,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="H20" t="n">
         <v>3.5</v>
       </c>
       <c r="I20" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="J20" t="n">
         <v>5</v>
@@ -3267,7 +3267,7 @@
         <v>2.2</v>
       </c>
       <c r="L20" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="M20" t="n">
         <v>1.06</v>
@@ -3308,7 +3308,7 @@
         <v>1.91</v>
       </c>
       <c r="AA20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB20" t="n">
         <v>23</v>
@@ -3332,7 +3332,7 @@
         <v>6.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ20" t="n">
         <v>51</v>
@@ -3341,7 +3341,7 @@
         <v>301</v>
       </c>
       <c r="AL20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AM20" t="n">
         <v>8</v>
@@ -3350,13 +3350,13 @@
         <v>8.5</v>
       </c>
       <c r="AO20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP20" t="n">
         <v>15</v>
       </c>
       <c r="AQ20" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR20" t="inlineStr"/>
       <c r="AS20" t="inlineStr"/>
@@ -3393,28 +3393,28 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="H21" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="I21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J21" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="K21" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L21" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="M21" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O21" t="n">
         <v>1.1</v>
@@ -3423,57 +3423,57 @@
         <v>7</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="R21" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V21" t="n">
+        <v>2</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="X21" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Y21" t="n">
         <v>1.91</v>
       </c>
-      <c r="V21" t="n">
+      <c r="Z21" t="n">
         <v>1.91</v>
-      </c>
-      <c r="W21" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="X21" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>1.8</v>
       </c>
       <c r="AA21" t="n">
         <v>11</v>
       </c>
       <c r="AB21" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AC21" t="n">
         <v>10</v>
       </c>
       <c r="AD21" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE21" t="n">
         <v>10</v>
       </c>
       <c r="AF21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG21" t="n">
         <v>26</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>23</v>
       </c>
       <c r="AH21" t="n">
         <v>15</v>
       </c>
       <c r="AI21" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ21" t="n">
         <v>51</v>
@@ -3482,22 +3482,22 @@
         <v>251</v>
       </c>
       <c r="AL21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN21" t="n">
         <v>34</v>
       </c>
-      <c r="AM21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>29</v>
-      </c>
       <c r="AO21" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AP21" t="n">
+        <v>81</v>
+      </c>
+      <c r="AQ21" t="n">
         <v>67</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>51</v>
       </c>
       <c r="AR21" t="inlineStr"/>
       <c r="AS21" t="inlineStr"/>
@@ -3823,19 +3823,19 @@
         <v>2.9</v>
       </c>
       <c r="H24" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I24" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="J24" t="n">
         <v>3.6</v>
       </c>
       <c r="K24" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L24" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M24" t="n">
         <v>1.07</v>
@@ -3850,10 +3850,10 @@
         <v>3.2</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R24" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
@@ -3864,19 +3864,19 @@
         <v>1.25</v>
       </c>
       <c r="W24" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X24" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Y24" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="Z24" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AA24" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB24" t="n">
         <v>13</v>
@@ -3894,28 +3894,28 @@
         <v>34</v>
       </c>
       <c r="AG24" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH24" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ24" t="n">
         <v>51</v>
       </c>
       <c r="AK24" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AL24" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AM24" t="n">
         <v>11</v>
       </c>
       <c r="AN24" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AO24" t="n">
         <v>23</v>
@@ -3977,16 +3977,16 @@
         <v>6</v>
       </c>
       <c r="K25" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L25" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M25" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N25" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O25" t="n">
         <v>1.5</v>
@@ -4037,7 +4037,7 @@
         <v>51</v>
       </c>
       <c r="AE25" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AF25" t="n">
         <v>51</v>
@@ -4052,7 +4052,7 @@
         <v>23</v>
       </c>
       <c r="AJ25" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK25" t="n">
         <v>101</v>
@@ -4114,16 +4114,16 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H26" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I26" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J26" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K26" t="n">
         <v>1.91</v>
@@ -4183,10 +4183,10 @@
         <v>9.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE26" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF26" t="n">
         <v>41</v>
@@ -4195,7 +4195,7 @@
         <v>6</v>
       </c>
       <c r="AH26" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI26" t="n">
         <v>23</v>
@@ -4210,10 +4210,10 @@
         <v>9</v>
       </c>
       <c r="AM26" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN26" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO26" t="n">
         <v>51</v>
@@ -4222,7 +4222,7 @@
         <v>51</v>
       </c>
       <c r="AQ26" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR26" t="n">
         <v>2.1</v>
@@ -4263,19 +4263,19 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H27" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I27" t="n">
         <v>4.75</v>
       </c>
       <c r="J27" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K27" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L27" t="n">
         <v>5.5</v>
@@ -4356,10 +4356,10 @@
         <v>101</v>
       </c>
       <c r="AL27" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AM27" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN27" t="n">
         <v>17</v>
@@ -4672,10 +4672,10 @@
         <v>41</v>
       </c>
       <c r="AR29" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="30">
@@ -4710,22 +4710,22 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="H30" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I30" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="J30" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="K30" t="n">
         <v>2.1</v>
       </c>
       <c r="L30" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
@@ -4756,55 +4756,55 @@
         <v>2.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="Z30" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="AA30" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AB30" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AD30" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AE30" t="n">
         <v>55</v>
       </c>
       <c r="AF30" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AG30" t="n">
         <v>8.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AI30" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AJ30" t="n">
         <v>100</v>
       </c>
       <c r="AK30" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AL30" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AM30" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="AN30" t="n">
         <v>8.25</v>
       </c>
       <c r="AO30" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AP30" t="n">
         <v>14.5</v>
@@ -4877,10 +4877,10 @@
         <v>4.33</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R31" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
@@ -5157,24 +5157,24 @@
         <v>13</v>
       </c>
       <c r="O33" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P33" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R33" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V33" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="W33" t="n">
         <v>1.36</v>
@@ -5577,7 +5577,7 @@
         <v>1.04</v>
       </c>
       <c r="N36" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O36" t="n">
         <v>1.25</v>
@@ -5727,10 +5727,10 @@
         <v>4</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R37" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
@@ -5838,28 +5838,28 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="H38" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I38" t="n">
-        <v>2.4</v>
+        <v>2.63</v>
       </c>
       <c r="J38" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K38" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L38" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M38" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N38" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O38" t="n">
         <v>1.44</v>
@@ -5868,22 +5868,22 @@
         <v>2.63</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R38" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S38" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="T38" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="U38" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="V38" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W38" t="n">
         <v>1.57</v>
@@ -5898,16 +5898,16 @@
         <v>1.73</v>
       </c>
       <c r="AA38" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB38" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC38" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD38" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE38" t="n">
         <v>29</v>
@@ -5931,28 +5931,28 @@
         <v>1250</v>
       </c>
       <c r="AL38" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AM38" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AN38" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO38" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP38" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ38" t="n">
         <v>41</v>
       </c>
       <c r="AR38" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -5993,10 +5993,10 @@
         <v>3.8</v>
       </c>
       <c r="I39" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J39" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K39" t="n">
         <v>2.1</v>
@@ -6005,10 +6005,10 @@
         <v>6.5</v>
       </c>
       <c r="M39" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N39" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O39" t="n">
         <v>1.4</v>
@@ -6065,10 +6065,10 @@
         <v>34</v>
       </c>
       <c r="AG39" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AH39" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI39" t="n">
         <v>23</v>
@@ -6285,28 +6285,28 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="H41" t="n">
         <v>3.1</v>
       </c>
       <c r="I41" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="J41" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="K41" t="n">
         <v>1.91</v>
       </c>
       <c r="L41" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M41" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N41" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O41" t="n">
         <v>1.5</v>
@@ -6339,22 +6339,22 @@
         <v>2.25</v>
       </c>
       <c r="Y41" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Z41" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AA41" t="n">
         <v>6.5</v>
       </c>
       <c r="AB41" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC41" t="n">
         <v>11</v>
       </c>
       <c r="AD41" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE41" t="n">
         <v>26</v>
@@ -6378,19 +6378,19 @@
         <v>700</v>
       </c>
       <c r="AL41" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AM41" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN41" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO41" t="n">
         <v>29</v>
       </c>
       <c r="AP41" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ41" t="n">
         <v>41</v>
@@ -6458,16 +6458,16 @@
         <v>9.5</v>
       </c>
       <c r="O42" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P42" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q42" t="n">
         <v>2.05</v>
       </c>
       <c r="R42" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
@@ -6575,16 +6575,16 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="H43" t="n">
         <v>3.5</v>
       </c>
       <c r="I43" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="J43" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K43" t="n">
         <v>2.25</v>
@@ -6619,10 +6619,10 @@
         <v>1.4</v>
       </c>
       <c r="W43" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X43" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Y43" t="n">
         <v>1.67</v>
@@ -6649,7 +6649,7 @@
         <v>34</v>
       </c>
       <c r="AG43" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH43" t="n">
         <v>7</v>
@@ -6667,13 +6667,13 @@
         <v>8.5</v>
       </c>
       <c r="AM43" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AN43" t="n">
         <v>8.5</v>
       </c>
       <c r="AO43" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP43" t="n">
         <v>15</v>
@@ -6998,13 +6998,13 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="H46" t="n">
         <v>5</v>
       </c>
       <c r="I46" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="J46" t="n">
         <v>1.8</v>
@@ -7013,7 +7013,7 @@
         <v>2.42</v>
       </c>
       <c r="L46" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="M46" t="n">
         <v>1.04</v>
@@ -7048,16 +7048,16 @@
         <v>3.05</v>
       </c>
       <c r="Y46" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="Z46" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="AA46" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AB46" t="n">
         <v>6.4</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>6.5</v>
       </c>
       <c r="AC46" t="n">
         <v>9.25</v>
@@ -7078,7 +7078,7 @@
         <v>10.25</v>
       </c>
       <c r="AI46" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ46" t="n">
         <v>150</v>
@@ -7093,13 +7093,13 @@
         <v>60</v>
       </c>
       <c r="AN46" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO46" t="n">
         <v>250</v>
       </c>
       <c r="AP46" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AQ46" t="n">
         <v>100</v>
@@ -7169,10 +7169,10 @@
         <v>3.5</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R47" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
@@ -7280,13 +7280,13 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H48" t="n">
         <v>3.5</v>
       </c>
       <c r="I48" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J48" t="n">
         <v>2.4</v>
@@ -7295,7 +7295,7 @@
         <v>2.2</v>
       </c>
       <c r="L48" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M48" t="n">
         <v>1.05</v>
@@ -7310,10 +7310,10 @@
         <v>3.75</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R48" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
@@ -7324,10 +7324,10 @@
         <v>1.33</v>
       </c>
       <c r="W48" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X48" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y48" t="n">
         <v>1.8</v>
@@ -7339,7 +7339,7 @@
         <v>7.5</v>
       </c>
       <c r="AB48" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AC48" t="n">
         <v>8.5</v>
@@ -7372,13 +7372,13 @@
         <v>12</v>
       </c>
       <c r="AM48" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN48" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO48" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP48" t="n">
         <v>34</v>
@@ -7566,10 +7566,10 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="H50" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I50" t="n">
         <v>3.9</v>
@@ -7578,25 +7578,25 @@
         <v>2.62</v>
       </c>
       <c r="K50" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="L50" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="M50" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N50" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="O50" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="P50" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R50" t="n">
         <v>1.6</v>
@@ -7610,67 +7610,67 @@
         <v>1.22</v>
       </c>
       <c r="W50" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="X50" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="Y50" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="Z50" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="AA50" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AB50" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AC50" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AD50" t="n">
         <v>18.5</v>
       </c>
       <c r="AE50" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AF50" t="n">
         <v>32</v>
       </c>
       <c r="AG50" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AH50" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AI50" t="n">
         <v>15.5</v>
       </c>
       <c r="AJ50" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AK50" t="n">
         <v>800</v>
       </c>
       <c r="AL50" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AM50" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN50" t="n">
         <v>13</v>
       </c>
       <c r="AO50" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AP50" t="n">
         <v>40</v>
       </c>
       <c r="AQ50" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AR50" t="inlineStr"/>
       <c r="AS50" t="inlineStr"/>
@@ -7707,22 +7707,22 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="H51" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I51" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="J51" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="K51" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="L51" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="M51" t="n">
         <v>1.1</v>
@@ -7734,27 +7734,27 @@
         <v>1.47</v>
       </c>
       <c r="P51" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="R51" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="V51" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="W51" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="X51" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="Y51" t="n">
         <v>2.42</v>
@@ -7763,19 +7763,19 @@
         <v>1.5</v>
       </c>
       <c r="AA51" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AB51" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AC51" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AD51" t="n">
         <v>175</v>
       </c>
       <c r="AE51" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AF51" t="n">
         <v>120</v>
@@ -7799,16 +7799,16 @@
         <v>4.7</v>
       </c>
       <c r="AM51" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AN51" t="n">
         <v>9</v>
       </c>
       <c r="AO51" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AP51" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AQ51" t="n">
         <v>45</v>
@@ -7872,24 +7872,24 @@
         <v>13</v>
       </c>
       <c r="O52" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P52" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R52" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V52" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="W52" t="n">
         <v>1.33</v>
@@ -7992,16 +7992,16 @@
         <v>1.85</v>
       </c>
       <c r="H53" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I53" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J53" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K53" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L53" t="n">
         <v>4</v>
@@ -8013,16 +8013,16 @@
         <v>15</v>
       </c>
       <c r="O53" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P53" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R53" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="S53" t="n">
         <v>2.05</v>
@@ -8031,25 +8031,25 @@
         <v>1.8</v>
       </c>
       <c r="U53" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V53" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W53" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X53" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Y53" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Z53" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AA53" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB53" t="n">
         <v>10</v>
@@ -8067,22 +8067,22 @@
         <v>21</v>
       </c>
       <c r="AG53" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH53" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI53" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ53" t="n">
         <v>41</v>
       </c>
       <c r="AK53" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AL53" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM53" t="n">
         <v>21</v>
@@ -8097,7 +8097,7 @@
         <v>29</v>
       </c>
       <c r="AQ53" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR53" t="inlineStr"/>
       <c r="AS53" t="inlineStr"/>
@@ -8164,18 +8164,18 @@
         <v>4</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R54" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V54" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="W54" t="n">
         <v>1.36</v>
@@ -8275,7 +8275,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="H55" t="n">
         <v>4.1</v>
@@ -8305,7 +8305,7 @@
         <v>5</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="R55" t="n">
         <v>2.35</v>
@@ -8420,22 +8420,22 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H56" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I56" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="J56" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="K56" t="n">
         <v>2.3</v>
       </c>
       <c r="L56" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M56" t="n">
         <v>1.04</v>
@@ -8450,10 +8450,10 @@
         <v>4</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="R56" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
@@ -8503,16 +8503,16 @@
         <v>15</v>
       </c>
       <c r="AJ56" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK56" t="n">
         <v>201</v>
       </c>
       <c r="AL56" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM56" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN56" t="n">
         <v>15</v>
@@ -8521,10 +8521,10 @@
         <v>51</v>
       </c>
       <c r="AP56" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ56" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR56" t="inlineStr"/>
       <c r="AS56" t="inlineStr"/>
@@ -8561,22 +8561,22 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="H57" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I57" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="J57" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K57" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L57" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M57" t="n">
         <v>1.04</v>
@@ -8591,10 +8591,10 @@
         <v>4</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="R57" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
@@ -8653,7 +8653,7 @@
         <v>8.5</v>
       </c>
       <c r="AM57" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AN57" t="n">
         <v>8.5</v>
@@ -8702,13 +8702,13 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H58" t="n">
         <v>3.6</v>
       </c>
       <c r="I58" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J58" t="n">
         <v>3.5</v>
@@ -8765,7 +8765,7 @@
         <v>13</v>
       </c>
       <c r="AB58" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC58" t="n">
         <v>11</v>
@@ -8774,7 +8774,7 @@
         <v>34</v>
       </c>
       <c r="AE58" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF58" t="n">
         <v>26</v>
@@ -8847,22 +8847,22 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="H59" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I59" t="n">
         <v>1.42</v>
       </c>
       <c r="J59" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="K59" t="n">
         <v>2.25</v>
       </c>
       <c r="L59" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="M59" t="n">
         <v>1.05</v>
@@ -8901,28 +8901,28 @@
         <v>2.75</v>
       </c>
       <c r="Y59" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Z59" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AA59" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB59" t="n">
         <v>41</v>
       </c>
       <c r="AC59" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AD59" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AE59" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AF59" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG59" t="n">
         <v>9</v>
@@ -8940,7 +8940,7 @@
         <v>451</v>
       </c>
       <c r="AL59" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AM59" t="n">
         <v>6</v>
@@ -8996,22 +8996,22 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="H60" t="n">
         <v>3.1</v>
       </c>
       <c r="I60" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="J60" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K60" t="n">
         <v>2</v>
       </c>
       <c r="L60" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M60" t="n">
         <v>1.08</v>
@@ -9059,7 +9059,7 @@
         <v>9.5</v>
       </c>
       <c r="AB60" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC60" t="n">
         <v>13</v>
@@ -9068,7 +9068,7 @@
         <v>41</v>
       </c>
       <c r="AE60" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AF60" t="n">
         <v>41</v>
@@ -9089,16 +9089,16 @@
         <v>351</v>
       </c>
       <c r="AL60" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AM60" t="n">
+        <v>10</v>
+      </c>
+      <c r="AN60" t="n">
         <v>9.5</v>
       </c>
-      <c r="AN60" t="n">
-        <v>9</v>
-      </c>
       <c r="AO60" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP60" t="n">
         <v>19</v>
@@ -9602,10 +9602,10 @@
         <v>3.5</v>
       </c>
       <c r="M64" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N64" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O64" t="n">
         <v>1.3</v>
@@ -9614,18 +9614,18 @@
         <v>3.4</v>
       </c>
       <c r="Q64" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R64" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V64" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W64" t="n">
         <v>1.4</v>
@@ -9725,40 +9725,40 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H65" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I65" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J65" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K65" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L65" t="n">
         <v>6</v>
       </c>
       <c r="M65" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N65" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O65" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P65" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="R65" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="S65" t="n">
         <v>2</v>
@@ -9767,25 +9767,25 @@
         <v>1.85</v>
       </c>
       <c r="U65" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V65" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W65" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X65" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Y65" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Z65" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AA65" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB65" t="n">
         <v>8</v>
@@ -9797,22 +9797,22 @@
         <v>11</v>
       </c>
       <c r="AE65" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF65" t="n">
         <v>23</v>
       </c>
       <c r="AG65" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH65" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI65" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ65" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK65" t="n">
         <v>201</v>
@@ -9888,10 +9888,10 @@
         <v>2.6</v>
       </c>
       <c r="M66" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N66" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O66" t="n">
         <v>1.2</v>
@@ -9900,10 +9900,10 @@
         <v>4.33</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R66" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
@@ -10148,71 +10148,71 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="H68" t="n">
-        <v>2.92</v>
+        <v>2.87</v>
       </c>
       <c r="I68" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="J68" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="K68" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="L68" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="P68" t="n">
-        <v>2.57</v>
+        <v>2.62</v>
       </c>
       <c r="Q68" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="R68" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="V68" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W68" t="n">
         <v>1.42</v>
       </c>
       <c r="X68" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="Y68" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Z68" t="n">
         <v>1.82</v>
       </c>
-      <c r="Z68" t="n">
-        <v>1.78</v>
-      </c>
       <c r="AA68" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AB68" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC68" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AD68" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AE68" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AF68" t="n">
         <v>40</v>
@@ -10221,34 +10221,34 @@
         <v>7.4</v>
       </c>
       <c r="AH68" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AI68" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AJ68" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AK68" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AL68" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AM68" t="n">
         <v>10.25</v>
       </c>
       <c r="AN68" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AO68" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP68" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ68" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AR68" t="inlineStr"/>
       <c r="AS68" t="inlineStr"/>
@@ -10285,50 +10285,50 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H69" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I69" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="J69" t="n">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="K69" t="n">
         <v>2.1</v>
       </c>
       <c r="L69" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P69" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="R69" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="V69" t="n">
         <v>1.31</v>
       </c>
       <c r="W69" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="X69" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="Y69" t="n">
         <v>1.78</v>
@@ -10337,19 +10337,19 @@
         <v>1.82</v>
       </c>
       <c r="AA69" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AB69" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="AC69" t="n">
         <v>8</v>
       </c>
       <c r="AD69" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE69" t="n">
         <v>13</v>
-      </c>
-      <c r="AE69" t="n">
-        <v>13.5</v>
       </c>
       <c r="AF69" t="n">
         <v>26</v>
@@ -10361,7 +10361,7 @@
         <v>6.9</v>
       </c>
       <c r="AI69" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AJ69" t="n">
         <v>75</v>
@@ -10370,13 +10370,13 @@
         <v>600</v>
       </c>
       <c r="AL69" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AM69" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AN69" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AO69" t="n">
         <v>90</v>
@@ -10422,22 +10422,22 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H70" t="n">
         <v>3.2</v>
       </c>
       <c r="I70" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J70" t="n">
         <v>3.4</v>
       </c>
       <c r="K70" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L70" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M70" t="n">
         <v>1.05</v>
@@ -10452,10 +10452,10 @@
         <v>3.5</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R70" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
@@ -10472,22 +10472,22 @@
         <v>2.75</v>
       </c>
       <c r="Y70" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="Z70" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AA70" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB70" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC70" t="n">
         <v>11</v>
       </c>
       <c r="AD70" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE70" t="n">
         <v>21</v>
@@ -10496,10 +10496,10 @@
         <v>29</v>
       </c>
       <c r="AG70" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH70" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI70" t="n">
         <v>13</v>
@@ -10520,10 +10520,10 @@
         <v>10</v>
       </c>
       <c r="AO70" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP70" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ70" t="n">
         <v>29</v>
@@ -10563,13 +10563,13 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I71" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J71" t="n">
         <v>3.1</v>
@@ -10578,25 +10578,25 @@
         <v>2</v>
       </c>
       <c r="L71" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M71" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N71" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O71" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P71" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q71" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="R71" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
@@ -10622,13 +10622,13 @@
         <v>7</v>
       </c>
       <c r="AB71" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC71" t="n">
         <v>9.5</v>
       </c>
       <c r="AD71" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE71" t="n">
         <v>21</v>
@@ -10637,7 +10637,7 @@
         <v>34</v>
       </c>
       <c r="AG71" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AH71" t="n">
         <v>6</v>
@@ -10704,13 +10704,13 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H72" t="n">
         <v>3.25</v>
       </c>
       <c r="I72" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J72" t="n">
         <v>3.75</v>
@@ -10719,7 +10719,7 @@
         <v>2.05</v>
       </c>
       <c r="L72" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M72" t="n">
         <v>1.07</v>
@@ -10760,28 +10760,28 @@
         <v>1.91</v>
       </c>
       <c r="AA72" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB72" t="n">
         <v>15</v>
       </c>
       <c r="AC72" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD72" t="n">
         <v>34</v>
       </c>
       <c r="AE72" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF72" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG72" t="n">
         <v>8.5</v>
       </c>
       <c r="AH72" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI72" t="n">
         <v>15</v>
@@ -10796,7 +10796,7 @@
         <v>7</v>
       </c>
       <c r="AM72" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN72" t="n">
         <v>9.5</v>
@@ -10805,7 +10805,7 @@
         <v>21</v>
       </c>
       <c r="AP72" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ72" t="n">
         <v>34</v>
@@ -10845,16 +10845,16 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="H73" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="I73" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J73" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K73" t="n">
         <v>1.83</v>
@@ -10869,51 +10869,51 @@
         <v>5.5</v>
       </c>
       <c r="O73" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P73" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q73" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="R73" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="V73" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="W73" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="X73" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y73" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Z73" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AA73" t="n">
         <v>6</v>
       </c>
       <c r="AB73" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC73" t="n">
         <v>11</v>
       </c>
       <c r="AD73" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE73" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF73" t="n">
         <v>41</v>
@@ -10937,7 +10937,7 @@
         <v>7</v>
       </c>
       <c r="AM73" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN73" t="n">
         <v>13</v>
@@ -11131,60 +11131,60 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H75" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I75" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="J75" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K75" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L75" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M75" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N75" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O75" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P75" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q75" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="R75" t="n">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="V75" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="W75" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X75" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Y75" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="Z75" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="AA75" t="n">
         <v>7.5</v>
@@ -11193,22 +11193,22 @@
         <v>9.5</v>
       </c>
       <c r="AC75" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD75" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE75" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF75" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG75" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH75" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI75" t="n">
         <v>15</v>
@@ -11217,10 +11217,10 @@
         <v>51</v>
       </c>
       <c r="AK75" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AL75" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM75" t="n">
         <v>19</v>
@@ -11235,7 +11235,7 @@
         <v>29</v>
       </c>
       <c r="AQ75" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR75" t="inlineStr"/>
       <c r="AS75" t="inlineStr"/>
@@ -11296,16 +11296,16 @@
         <v>11</v>
       </c>
       <c r="O76" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P76" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R76" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr"/>
@@ -11322,7 +11322,7 @@
         <v>2.75</v>
       </c>
       <c r="Y76" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="Z76" t="n">
         <v>2.05</v>
@@ -11463,10 +11463,10 @@
         <v>2.63</v>
       </c>
       <c r="Y77" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="Z77" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="AA77" t="n">
         <v>9</v>
@@ -11554,13 +11554,13 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="H78" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I78" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="J78" t="n">
         <v>4.05</v>
@@ -11577,13 +11577,13 @@
         <v>1.22</v>
       </c>
       <c r="P78" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="R78" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S78" t="inlineStr"/>
       <c r="T78" t="inlineStr"/>
@@ -11591,7 +11591,7 @@
         <v>2.57</v>
       </c>
       <c r="V78" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="W78" t="inlineStr"/>
       <c r="X78" t="inlineStr"/>
@@ -11599,13 +11599,13 @@
         <v>1.62</v>
       </c>
       <c r="Z78" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="AA78" t="n">
         <v>13</v>
       </c>
       <c r="AB78" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC78" t="n">
         <v>12.5</v>
@@ -11617,16 +11617,16 @@
         <v>32</v>
       </c>
       <c r="AF78" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AG78" t="n">
         <v>12</v>
       </c>
       <c r="AH78" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AI78" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AJ78" t="n">
         <v>55</v>
@@ -11635,16 +11635,16 @@
         <v>350</v>
       </c>
       <c r="AL78" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AM78" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AN78" t="n">
         <v>8.25</v>
       </c>
       <c r="AO78" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AP78" t="n">
         <v>14</v>
@@ -11687,22 +11687,22 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="H79" t="n">
         <v>4.3</v>
       </c>
       <c r="I79" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="J79" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="K79" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="L79" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr"/>
@@ -11729,7 +11729,7 @@
       <c r="W79" t="inlineStr"/>
       <c r="X79" t="inlineStr"/>
       <c r="Y79" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="Z79" t="n">
         <v>1.8</v>
@@ -11753,7 +11753,7 @@
         <v>25</v>
       </c>
       <c r="AG79" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH79" t="n">
         <v>8.5</v>
@@ -11768,19 +11768,19 @@
         <v>600</v>
       </c>
       <c r="AL79" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AM79" t="n">
         <v>40</v>
       </c>
       <c r="AN79" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AO79" t="n">
         <v>120</v>
       </c>
       <c r="AP79" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AQ79" t="n">
         <v>60</v>
@@ -11957,13 +11957,13 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H81" t="n">
         <v>3.5</v>
       </c>
       <c r="I81" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J81" t="n">
         <v>3</v>
@@ -11972,13 +11972,13 @@
         <v>2.2</v>
       </c>
       <c r="L81" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M81" t="n">
         <v>1.04</v>
       </c>
       <c r="N81" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O81" t="n">
         <v>1.25</v>
@@ -12022,10 +12022,10 @@
         <v>9.5</v>
       </c>
       <c r="AD81" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE81" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF81" t="n">
         <v>26</v>
@@ -12116,27 +12116,27 @@
         <v>6</v>
       </c>
       <c r="M82" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N82" t="n">
         <v>13</v>
       </c>
       <c r="O82" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P82" t="n">
         <v>3.75</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R82" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V82" t="n">
         <v>1.33</v>
@@ -12257,13 +12257,13 @@
         <v>4.75</v>
       </c>
       <c r="M83" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N83" t="n">
         <v>15</v>
       </c>
       <c r="O83" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="P83" t="n">
         <v>4.5</v>
@@ -12284,7 +12284,7 @@
         <v>2.5</v>
       </c>
       <c r="V83" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="W83" t="n">
         <v>1.3</v>
@@ -12402,30 +12402,30 @@
         <v>6</v>
       </c>
       <c r="M84" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N84" t="n">
         <v>13</v>
       </c>
       <c r="O84" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P84" t="n">
         <v>3.75</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R84" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V84" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="W84" t="n">
         <v>1.36</v>
@@ -12531,7 +12531,7 @@
         <v>8</v>
       </c>
       <c r="I85" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J85" t="n">
         <v>1.5</v>
@@ -12540,48 +12540,52 @@
         <v>3</v>
       </c>
       <c r="L85" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M85" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N85" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O85" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P85" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="R85" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="S85" t="inlineStr"/>
-      <c r="T85" t="inlineStr"/>
+        <v>2.5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T85" t="n">
+        <v>2.03</v>
+      </c>
       <c r="U85" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="V85" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="W85" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="X85" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Y85" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="Z85" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AA85" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB85" t="n">
         <v>6</v>
@@ -12590,16 +12594,16 @@
         <v>11</v>
       </c>
       <c r="AD85" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE85" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF85" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG85" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AH85" t="n">
         <v>15</v>
@@ -12617,19 +12621,19 @@
         <v>34</v>
       </c>
       <c r="AM85" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AN85" t="n">
         <v>41</v>
       </c>
       <c r="AO85" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AP85" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AQ85" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AR85" t="inlineStr"/>
       <c r="AS85" t="inlineStr"/>
@@ -12666,28 +12670,28 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="H86" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="I86" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="J86" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="K86" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L86" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="M86" t="n">
         <v>1.03</v>
       </c>
       <c r="N86" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O86" t="n">
         <v>1.18</v>
@@ -12696,16 +12700,16 @@
         <v>4.5</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R86" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="S86" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="T86" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="U86" t="n">
         <v>2.5</v>
@@ -12714,28 +12718,28 @@
         <v>1.5</v>
       </c>
       <c r="W86" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X86" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y86" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="Z86" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AA86" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB86" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC86" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AD86" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AE86" t="n">
         <v>67</v>
@@ -12747,13 +12751,13 @@
         <v>15</v>
       </c>
       <c r="AH86" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI86" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ86" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK86" t="n">
         <v>451</v>
@@ -12768,7 +12772,7 @@
         <v>9</v>
       </c>
       <c r="AO86" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AP86" t="n">
         <v>11</v>
@@ -13234,7 +13238,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H90" t="n">
         <v>7.5</v>
@@ -13252,13 +13256,13 @@
         <v>1.57</v>
       </c>
       <c r="M90" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N90" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O90" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="P90" t="n">
         <v>6</v>
@@ -13276,10 +13280,10 @@
         <v>2</v>
       </c>
       <c r="U90" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V90" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="W90" t="n">
         <v>1.22</v>
@@ -13291,7 +13295,7 @@
         <v>2</v>
       </c>
       <c r="Z90" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="AA90" t="n">
         <v>29</v>
@@ -13306,7 +13310,7 @@
         <v>151</v>
       </c>
       <c r="AE90" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AF90" t="n">
         <v>51</v>
@@ -13324,16 +13328,16 @@
         <v>67</v>
       </c>
       <c r="AK90" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AL90" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AM90" t="n">
         <v>7</v>
       </c>
       <c r="AN90" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AO90" t="n">
         <v>7.5</v>
@@ -13342,7 +13346,7 @@
         <v>11</v>
       </c>
       <c r="AQ90" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR90" t="inlineStr"/>
       <c r="AS90" t="inlineStr"/>
@@ -13397,13 +13401,13 @@
         <v>12</v>
       </c>
       <c r="M91" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N91" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O91" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="P91" t="n">
         <v>6</v>
@@ -13417,10 +13421,10 @@
       <c r="S91" t="inlineStr"/>
       <c r="T91" t="inlineStr"/>
       <c r="U91" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="V91" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="W91" t="n">
         <v>1.22</v>
@@ -13438,10 +13442,10 @@
         <v>9.5</v>
       </c>
       <c r="AB91" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AC91" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD91" t="n">
         <v>7</v>
@@ -13453,7 +13457,7 @@
         <v>29</v>
       </c>
       <c r="AG91" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH91" t="n">
         <v>15</v>
@@ -13468,10 +13472,10 @@
         <v>451</v>
       </c>
       <c r="AL91" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM91" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AN91" t="n">
         <v>41</v>
@@ -13802,90 +13806,90 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="H94" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I94" t="n">
         <v>3.4</v>
       </c>
       <c r="J94" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="K94" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L94" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="M94" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N94" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="O94" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="P94" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q94" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="R94" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="S94" t="inlineStr"/>
       <c r="T94" t="inlineStr"/>
       <c r="U94" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="V94" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="W94" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="X94" t="n">
-        <v>2.72</v>
+        <v>2.65</v>
       </c>
       <c r="Y94" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="Z94" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AA94" t="n">
-        <v>6.9</v>
+        <v>7.6</v>
       </c>
       <c r="AB94" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="AC94" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AD94" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AE94" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AF94" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG94" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="AH94" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="AI94" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AJ94" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AK94" t="n">
         <v>500</v>
@@ -13894,7 +13898,7 @@
         <v>10</v>
       </c>
       <c r="AM94" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AN94" t="n">
         <v>11.75</v>
@@ -13903,7 +13907,7 @@
         <v>50</v>
       </c>
       <c r="AP94" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AQ94" t="n">
         <v>37</v>
@@ -13952,28 +13956,28 @@
         <v>11.25</v>
       </c>
       <c r="J95" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="K95" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="L95" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="M95" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N95" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="O95" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P95" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="Q95" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R95" t="n">
         <v>1.87</v>
@@ -14002,13 +14006,13 @@
         <v>5.6</v>
       </c>
       <c r="AB95" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AC95" t="n">
         <v>9.5</v>
       </c>
       <c r="AD95" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AE95" t="n">
         <v>12.5</v>
@@ -14017,7 +14021,7 @@
         <v>45</v>
       </c>
       <c r="AG95" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AH95" t="n">
         <v>10.25</v>
@@ -14026,13 +14030,13 @@
         <v>32</v>
       </c>
       <c r="AJ95" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AK95" t="n">
         <v>900</v>
       </c>
       <c r="AL95" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM95" t="n">
         <v>80</v>
@@ -14384,13 +14388,13 @@
         <v>4.33</v>
       </c>
       <c r="M98" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N98" t="n">
         <v>9</v>
       </c>
       <c r="O98" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P98" t="n">
         <v>3.25</v>
@@ -14407,7 +14411,7 @@
         <v>3.75</v>
       </c>
       <c r="V98" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W98" t="n">
         <v>1.44</v>
@@ -14525,30 +14529,30 @@
         <v>4</v>
       </c>
       <c r="M99" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N99" t="n">
         <v>9</v>
       </c>
       <c r="O99" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P99" t="n">
         <v>2.75</v>
       </c>
       <c r="Q99" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R99" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S99" t="inlineStr"/>
       <c r="T99" t="inlineStr"/>
       <c r="U99" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="V99" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="W99" t="n">
         <v>1.5</v>
@@ -14666,13 +14670,13 @@
         <v>2.63</v>
       </c>
       <c r="M100" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N100" t="n">
         <v>10</v>
       </c>
       <c r="O100" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P100" t="n">
         <v>3.25</v>
@@ -14689,7 +14693,7 @@
         <v>3.75</v>
       </c>
       <c r="V100" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W100" t="n">
         <v>1.44</v>
@@ -14807,16 +14811,16 @@
         <v>4.5</v>
       </c>
       <c r="M101" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N101" t="n">
         <v>7</v>
       </c>
       <c r="O101" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P101" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Q101" t="n">
         <v>2.4</v>
@@ -14830,7 +14834,7 @@
         <v>4.5</v>
       </c>
       <c r="V101" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="W101" t="n">
         <v>1.53</v>
@@ -14952,10 +14956,10 @@
         <v>4</v>
       </c>
       <c r="M102" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N102" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O102" t="n">
         <v>1.5</v>
@@ -15041,10 +15045,10 @@
         <v>41</v>
       </c>
       <c r="AR102" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="103">
@@ -15365,13 +15369,13 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="H105" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I105" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="J105" t="n">
         <v>3.75</v>
@@ -15421,7 +15425,7 @@
         <v>2.2</v>
       </c>
       <c r="AA105" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB105" t="n">
         <v>19</v>
@@ -15647,22 +15651,22 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="H107" t="n">
-        <v>4.8</v>
+        <v>4.85</v>
       </c>
       <c r="I107" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="J107" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="K107" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="L107" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="M107" t="n">
         <v>1.02</v>
@@ -15674,7 +15678,7 @@
         <v>1.13</v>
       </c>
       <c r="P107" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Q107" t="n">
         <v>1.42</v>
@@ -15697,10 +15701,10 @@
         <v>3.65</v>
       </c>
       <c r="Y107" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="Z107" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="AA107" t="n">
         <v>10</v>
@@ -15709,7 +15713,7 @@
         <v>8.25</v>
       </c>
       <c r="AC107" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AD107" t="n">
         <v>9.75</v>
@@ -15727,13 +15731,13 @@
         <v>10.25</v>
       </c>
       <c r="AI107" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AJ107" t="n">
         <v>50</v>
       </c>
       <c r="AK107" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AL107" t="n">
         <v>30</v>
@@ -15748,7 +15752,7 @@
         <v>200</v>
       </c>
       <c r="AP107" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AQ107" t="n">
         <v>50</v>
@@ -15788,19 +15792,19 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="H108" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="I108" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="J108" t="n">
         <v>2.77</v>
       </c>
       <c r="K108" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="L108" t="n">
         <v>3.95</v>
@@ -15809,7 +15813,7 @@
         <v>1.09</v>
       </c>
       <c r="N108" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="O108" t="n">
         <v>1.4</v>
@@ -15818,7 +15822,7 @@
         <v>2.75</v>
       </c>
       <c r="Q108" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="R108" t="n">
         <v>1.62</v>
@@ -15829,40 +15833,40 @@
         <v>3.7</v>
       </c>
       <c r="V108" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W108" t="n">
         <v>1.44</v>
       </c>
       <c r="X108" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="Y108" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="Z108" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="AA108" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AB108" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AC108" t="n">
         <v>8.75</v>
       </c>
       <c r="AD108" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE108" t="n">
         <v>19</v>
       </c>
       <c r="AF108" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AG108" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AH108" t="n">
         <v>5.7</v>
@@ -15877,10 +15881,10 @@
         <v>700</v>
       </c>
       <c r="AL108" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AM108" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AN108" t="n">
         <v>11.75</v>
@@ -15929,22 +15933,22 @@
         </is>
       </c>
       <c r="G109" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H109" t="n">
         <v>3.55</v>
       </c>
-      <c r="H109" t="n">
-        <v>3.5</v>
-      </c>
       <c r="I109" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="J109" t="n">
-        <v>3.9</v>
+        <v>4.05</v>
       </c>
       <c r="K109" t="n">
         <v>2.18</v>
       </c>
       <c r="L109" t="n">
-        <v>2.55</v>
+        <v>2.47</v>
       </c>
       <c r="M109" t="n">
         <v>1.05</v>
@@ -15956,27 +15960,27 @@
         <v>1.24</v>
       </c>
       <c r="P109" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="Q109" t="n">
         <v>1.72</v>
       </c>
       <c r="R109" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="S109" t="inlineStr"/>
       <c r="T109" t="inlineStr"/>
       <c r="U109" t="n">
-        <v>2.72</v>
+        <v>2.67</v>
       </c>
       <c r="V109" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="W109" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="X109" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="Y109" t="n">
         <v>1.62</v>
@@ -15985,19 +15989,19 @@
         <v>2.15</v>
       </c>
       <c r="AA109" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB109" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC109" t="n">
         <v>12</v>
       </c>
-      <c r="AB109" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC109" t="n">
-        <v>11.75</v>
-      </c>
       <c r="AD109" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AE109" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF109" t="n">
         <v>32</v>
@@ -16018,22 +16022,22 @@
         <v>350</v>
       </c>
       <c r="AL109" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AM109" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AN109" t="n">
         <v>8.25</v>
       </c>
       <c r="AO109" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AP109" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AQ109" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR109" t="inlineStr"/>
       <c r="AS109" t="inlineStr"/>
@@ -16070,22 +16074,22 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H110" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I110" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="J110" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K110" t="n">
         <v>2.27</v>
       </c>
       <c r="L110" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="M110" t="n">
         <v>1.04</v>
@@ -16097,7 +16101,7 @@
         <v>1.19</v>
       </c>
       <c r="P110" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="Q110" t="n">
         <v>1.57</v>
@@ -16126,28 +16130,28 @@
         <v>2.37</v>
       </c>
       <c r="AA110" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AB110" t="n">
         <v>21</v>
       </c>
       <c r="AC110" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AD110" t="n">
         <v>45</v>
       </c>
       <c r="AE110" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AF110" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG110" t="n">
         <v>8.75</v>
       </c>
       <c r="AH110" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AI110" t="n">
         <v>11.75</v>
@@ -16168,10 +16172,10 @@
         <v>8.5</v>
       </c>
       <c r="AO110" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AP110" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AQ110" t="n">
         <v>20</v>
@@ -16211,22 +16215,22 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="H111" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I111" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="J111" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K111" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L111" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="M111" t="n">
         <v>1.03</v>
@@ -16241,22 +16245,22 @@
         <v>5</v>
       </c>
       <c r="Q111" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R111" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S111" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="T111" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U111" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V111" t="n">
         <v>1.57</v>
-      </c>
-      <c r="R111" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S111" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="T111" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="U111" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V111" t="n">
-        <v>1.53</v>
       </c>
       <c r="W111" t="n">
         <v>1.29</v>
@@ -16280,13 +16284,13 @@
         <v>15</v>
       </c>
       <c r="AD111" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AE111" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF111" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG111" t="n">
         <v>17</v>
@@ -16304,16 +16308,16 @@
         <v>126</v>
       </c>
       <c r="AL111" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM111" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AN111" t="n">
         <v>8.5</v>
       </c>
       <c r="AO111" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP111" t="n">
         <v>12</v>
@@ -16356,7 +16360,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="H112" t="n">
         <v>3.6</v>
@@ -16365,19 +16369,19 @@
         <v>4.75</v>
       </c>
       <c r="J112" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K112" t="n">
         <v>2.25</v>
       </c>
       <c r="L112" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M112" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N112" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O112" t="n">
         <v>1.25</v>
@@ -16386,18 +16390,18 @@
         <v>3.75</v>
       </c>
       <c r="Q112" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="R112" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="S112" t="inlineStr"/>
       <c r="T112" t="inlineStr"/>
       <c r="U112" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V112" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W112" t="n">
         <v>1.36</v>
@@ -16415,13 +16419,13 @@
         <v>7</v>
       </c>
       <c r="AB112" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AC112" t="n">
         <v>8.5</v>
       </c>
       <c r="AD112" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE112" t="n">
         <v>13</v>
@@ -16433,10 +16437,10 @@
         <v>11</v>
       </c>
       <c r="AH112" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI112" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ112" t="n">
         <v>51</v>
@@ -16539,10 +16543,10 @@
         <v>2.03</v>
       </c>
       <c r="U113" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V113" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W113" t="n">
         <v>1.25</v>
@@ -16642,13 +16646,13 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H114" t="n">
         <v>3.4</v>
       </c>
       <c r="I114" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="J114" t="n">
         <v>4</v>
@@ -16672,10 +16676,10 @@
         <v>3.75</v>
       </c>
       <c r="Q114" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R114" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S114" t="inlineStr"/>
       <c r="T114" t="inlineStr"/>
@@ -16686,10 +16690,10 @@
         <v>1.33</v>
       </c>
       <c r="W114" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X114" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y114" t="n">
         <v>1.73</v>
@@ -16701,16 +16705,16 @@
         <v>11</v>
       </c>
       <c r="AB114" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC114" t="n">
         <v>12</v>
       </c>
       <c r="AD114" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE114" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF114" t="n">
         <v>34</v>
@@ -16783,28 +16787,28 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H115" t="n">
         <v>3.4</v>
       </c>
       <c r="I115" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J115" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K115" t="n">
         <v>2.25</v>
       </c>
       <c r="L115" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M115" t="n">
         <v>1.04</v>
       </c>
       <c r="N115" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O115" t="n">
         <v>1.22</v>
@@ -16813,10 +16817,10 @@
         <v>4</v>
       </c>
       <c r="Q115" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R115" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S115" t="inlineStr"/>
       <c r="T115" t="inlineStr"/>
@@ -16833,19 +16837,19 @@
         <v>3</v>
       </c>
       <c r="Y115" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Z115" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AA115" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB115" t="n">
         <v>17</v>
       </c>
       <c r="AC115" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD115" t="n">
         <v>34</v>
@@ -16860,7 +16864,7 @@
         <v>12</v>
       </c>
       <c r="AH115" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI115" t="n">
         <v>13</v>
@@ -16875,7 +16879,7 @@
         <v>9</v>
       </c>
       <c r="AM115" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN115" t="n">
         <v>9</v>
@@ -16924,13 +16928,13 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H116" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I116" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J116" t="n">
         <v>2.6</v>
@@ -16942,13 +16946,13 @@
         <v>4.75</v>
       </c>
       <c r="M116" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N116" t="n">
         <v>10</v>
       </c>
       <c r="O116" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P116" t="n">
         <v>3.25</v>
@@ -16965,7 +16969,7 @@
         <v>3.75</v>
       </c>
       <c r="V116" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W116" t="n">
         <v>1.4</v>
@@ -16974,10 +16978,10 @@
         <v>2.7</v>
       </c>
       <c r="Y116" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="Z116" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="AA116" t="n">
         <v>6.5</v>
@@ -17083,30 +17087,30 @@
         <v>3.25</v>
       </c>
       <c r="M117" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N117" t="n">
         <v>11</v>
       </c>
       <c r="O117" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="P117" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q117" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R117" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S117" t="inlineStr"/>
       <c r="T117" t="inlineStr"/>
       <c r="U117" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="V117" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="W117" t="n">
         <v>1.44</v>
@@ -17115,10 +17119,10 @@
         <v>2.63</v>
       </c>
       <c r="Y117" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="Z117" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="AA117" t="n">
         <v>8.5</v>
@@ -17224,22 +17228,22 @@
         <v>3.75</v>
       </c>
       <c r="M118" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N118" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O118" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P118" t="n">
         <v>3.25</v>
       </c>
       <c r="Q118" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R118" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S118" t="inlineStr"/>
       <c r="T118" t="inlineStr"/>
@@ -17247,7 +17251,7 @@
         <v>3.75</v>
       </c>
       <c r="V118" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W118" t="n">
         <v>1.44</v>
@@ -17256,10 +17260,10 @@
         <v>2.63</v>
       </c>
       <c r="Y118" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Z118" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AA118" t="n">
         <v>7.5</v>
@@ -17347,10 +17351,10 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H119" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I119" t="n">
         <v>3</v>
@@ -17359,83 +17363,83 @@
         <v>2.95</v>
       </c>
       <c r="K119" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="L119" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="M119" t="inlineStr"/>
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="P119" t="n">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="Q119" t="n">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="R119" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="S119" t="inlineStr"/>
       <c r="T119" t="inlineStr"/>
       <c r="U119" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="V119" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="W119" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="X119" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="Y119" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="Z119" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="AA119" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="AB119" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC119" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AD119" t="n">
         <v>24</v>
       </c>
       <c r="AE119" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF119" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AG119" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH119" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AI119" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AJ119" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK119" t="n">
+        <v>500</v>
+      </c>
+      <c r="AL119" t="n">
         <v>9.25</v>
       </c>
-      <c r="AH119" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI119" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ119" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK119" t="n">
-        <v>450</v>
-      </c>
-      <c r="AL119" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AM119" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AN119" t="n">
         <v>10.5</v>
@@ -17444,7 +17448,7 @@
         <v>40</v>
       </c>
       <c r="AP119" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AQ119" t="n">
         <v>32</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-02.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-02.xlsx
@@ -716,10 +716,10 @@
         <v>23</v>
       </c>
       <c r="O2" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="P2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q2" t="n">
         <v>1.33</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H3" t="n">
         <v>3.5</v>
@@ -846,7 +846,7 @@
         <v>4.2</v>
       </c>
       <c r="J3" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K3" t="n">
         <v>2.2</v>
@@ -855,10 +855,10 @@
         <v>4.33</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O3" t="n">
         <v>1.29</v>
@@ -881,19 +881,19 @@
         <v>1.36</v>
       </c>
       <c r="W3" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X3" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="Z3" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AA3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB3" t="n">
         <v>10</v>
@@ -908,10 +908,10 @@
         <v>17</v>
       </c>
       <c r="AF3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH3" t="n">
         <v>7</v>
@@ -926,7 +926,7 @@
         <v>251</v>
       </c>
       <c r="AL3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM3" t="n">
         <v>23</v>
@@ -984,7 +984,7 @@
         <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J4" t="n">
         <v>2.5</v>
@@ -1034,7 +1034,7 @@
         <v>2.2</v>
       </c>
       <c r="AA4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB4" t="n">
         <v>11</v>
@@ -1049,7 +1049,7 @@
         <v>17</v>
       </c>
       <c r="AF4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG4" t="n">
         <v>13</v>
@@ -1064,7 +1064,7 @@
         <v>41</v>
       </c>
       <c r="AK4" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AL4" t="n">
         <v>15</v>
@@ -1119,22 +1119,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="H5" t="n">
         <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="J5" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K5" t="n">
         <v>2.2</v>
       </c>
       <c r="L5" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
@@ -1175,7 +1175,7 @@
         <v>2.05</v>
       </c>
       <c r="AA5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB5" t="n">
         <v>13</v>
@@ -1208,7 +1208,7 @@
         <v>201</v>
       </c>
       <c r="AL5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AM5" t="n">
         <v>13</v>
@@ -1266,16 +1266,16 @@
         <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K6" t="n">
         <v>2.05</v>
       </c>
       <c r="L6" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M6" t="n">
         <v>1.08</v>
@@ -1316,7 +1316,7 @@
         <v>1.75</v>
       </c>
       <c r="AA6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB6" t="n">
         <v>8.5</v>
@@ -1343,10 +1343,10 @@
         <v>17</v>
       </c>
       <c r="AJ6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK6" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AL6" t="n">
         <v>9.5</v>
@@ -1475,7 +1475,7 @@
         <v>29</v>
       </c>
       <c r="AG7" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH7" t="n">
         <v>6.5</v>
@@ -1487,7 +1487,7 @@
         <v>51</v>
       </c>
       <c r="AK7" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AL7" t="n">
         <v>9.5</v>
@@ -1548,10 +1548,10 @@
         <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J8" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K8" t="n">
         <v>2.2</v>
@@ -1572,10 +1572,10 @@
         <v>3.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="R8" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
@@ -1610,7 +1610,7 @@
         <v>19</v>
       </c>
       <c r="AE8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF8" t="n">
         <v>26</v>
@@ -1713,28 +1713,28 @@
         <v>5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R9" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="S9" t="n">
-        <v>1.98</v>
+        <v>2.01</v>
       </c>
       <c r="T9" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="U9" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V9" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W9" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X9" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Y9" t="n">
         <v>1.53</v>
@@ -1782,7 +1782,7 @@
         <v>19</v>
       </c>
       <c r="AN9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO9" t="n">
         <v>34</v>
@@ -1849,7 +1849,7 @@
         <v>1.02</v>
       </c>
       <c r="N10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O10" t="n">
         <v>1.14</v>
@@ -1891,7 +1891,7 @@
         <v>12</v>
       </c>
       <c r="AB10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC10" t="n">
         <v>9</v>
@@ -1906,13 +1906,13 @@
         <v>19</v>
       </c>
       <c r="AG10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH10" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ10" t="n">
         <v>34</v>
@@ -1985,7 +1985,7 @@
         <v>1.57</v>
       </c>
       <c r="K11" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="L11" t="n">
         <v>8.5</v>
@@ -1994,7 +1994,7 @@
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O11" t="n">
         <v>1.1</v>
@@ -2011,16 +2011,16 @@
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="V11" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W11" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="X11" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Y11" t="n">
         <v>1.8</v>
@@ -2077,7 +2077,7 @@
         <v>51</v>
       </c>
       <c r="AQ11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="inlineStr"/>
@@ -2117,13 +2117,13 @@
         <v>1.4</v>
       </c>
       <c r="H12" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I12" t="n">
         <v>8</v>
       </c>
       <c r="J12" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="K12" t="n">
         <v>2.3</v>
@@ -2138,24 +2138,24 @@
         <v>11</v>
       </c>
       <c r="O12" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P12" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.93</v>
+        <v>2.01</v>
       </c>
       <c r="R12" t="n">
-        <v>1.97</v>
+        <v>1.89</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V12" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W12" t="n">
         <v>1.4</v>
@@ -2179,7 +2179,7 @@
         <v>9</v>
       </c>
       <c r="AD12" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE12" t="n">
         <v>13</v>
@@ -2191,7 +2191,7 @@
         <v>10</v>
       </c>
       <c r="AH12" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI12" t="n">
         <v>23</v>
@@ -2201,7 +2201,7 @@
       </c>
       <c r="AK12" t="inlineStr"/>
       <c r="AL12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM12" t="n">
         <v>41</v>
@@ -2213,10 +2213,10 @@
         <v>101</v>
       </c>
       <c r="AP12" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AQ12" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR12" t="inlineStr"/>
       <c r="AS12" t="inlineStr"/>
@@ -2253,16 +2253,16 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H13" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I13" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J13" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K13" t="n">
         <v>2.1</v>
@@ -2318,7 +2318,7 @@
         <v>8.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE13" t="n">
         <v>15</v>
@@ -2327,10 +2327,10 @@
         <v>29</v>
       </c>
       <c r="AG13" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH13" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI13" t="n">
         <v>19</v>
@@ -2339,10 +2339,10 @@
         <v>67</v>
       </c>
       <c r="AK13" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AL13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM13" t="n">
         <v>23</v>
@@ -2357,7 +2357,7 @@
         <v>41</v>
       </c>
       <c r="AQ13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR13" t="inlineStr"/>
       <c r="AS13" t="inlineStr"/>
@@ -2544,13 +2544,13 @@
         <v>2.5</v>
       </c>
       <c r="J15" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K15" t="n">
         <v>2.05</v>
       </c>
       <c r="L15" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M15" t="n">
         <v>1.07</v>
@@ -2565,10 +2565,10 @@
         <v>3.2</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R15" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
@@ -2585,13 +2585,13 @@
         <v>2.63</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="Z15" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AA15" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB15" t="n">
         <v>13</v>
@@ -2609,7 +2609,7 @@
         <v>34</v>
       </c>
       <c r="AG15" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH15" t="n">
         <v>6</v>
@@ -2621,7 +2621,7 @@
         <v>51</v>
       </c>
       <c r="AK15" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AL15" t="n">
         <v>8</v>
@@ -2639,7 +2639,7 @@
         <v>21</v>
       </c>
       <c r="AQ15" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR15" t="inlineStr"/>
       <c r="AS15" t="inlineStr"/>
@@ -2676,19 +2676,19 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H16" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I16" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J16" t="n">
         <v>2.88</v>
       </c>
       <c r="K16" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L16" t="n">
         <v>3.75</v>
@@ -2730,13 +2730,13 @@
         <v>2.75</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="Z16" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AA16" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB16" t="n">
         <v>11</v>
@@ -2754,28 +2754,28 @@
         <v>26</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH16" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ16" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK16" t="n">
         <v>201</v>
       </c>
       <c r="AL16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM16" t="n">
         <v>17</v>
       </c>
       <c r="AN16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO16" t="n">
         <v>34</v>
@@ -2851,10 +2851,10 @@
         <v>4.33</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R17" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S17" t="n">
         <v>2.05</v>
@@ -2966,19 +2966,19 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H18" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I18" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="J18" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K18" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L18" t="n">
         <v>3.1</v>
@@ -2987,46 +2987,46 @@
         <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O18" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P18" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R18" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S18" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="T18" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="U18" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V18" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W18" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X18" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB18" t="n">
         <v>15</v>
@@ -3056,7 +3056,7 @@
         <v>34</v>
       </c>
       <c r="AK18" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AL18" t="n">
         <v>12</v>
@@ -3074,7 +3074,7 @@
         <v>19</v>
       </c>
       <c r="AQ18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR18" t="inlineStr"/>
       <c r="AS18" t="inlineStr"/>
@@ -3252,13 +3252,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="H20" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I20" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="J20" t="n">
         <v>5</v>
@@ -3267,13 +3267,13 @@
         <v>2.2</v>
       </c>
       <c r="L20" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="M20" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O20" t="n">
         <v>1.3</v>
@@ -3282,18 +3282,18 @@
         <v>3.4</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R20" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="V20" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W20" t="n">
         <v>1.4</v>
@@ -3308,7 +3308,7 @@
         <v>1.91</v>
       </c>
       <c r="AA20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB20" t="n">
         <v>23</v>
@@ -3326,13 +3326,13 @@
         <v>41</v>
       </c>
       <c r="AG20" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ20" t="n">
         <v>51</v>
@@ -3350,7 +3350,7 @@
         <v>8.5</v>
       </c>
       <c r="AO20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP20" t="n">
         <v>15</v>
@@ -3443,28 +3443,28 @@
         <v>4.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="Z21" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AA21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB21" t="n">
         <v>8</v>
       </c>
       <c r="AC21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD21" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE21" t="n">
         <v>10</v>
       </c>
       <c r="AF21" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG21" t="n">
         <v>26</v>
@@ -3476,10 +3476,10 @@
         <v>26</v>
       </c>
       <c r="AJ21" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK21" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AL21" t="n">
         <v>41</v>
@@ -3497,7 +3497,7 @@
         <v>81</v>
       </c>
       <c r="AQ21" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR21" t="inlineStr"/>
       <c r="AS21" t="inlineStr"/>
@@ -3534,7 +3534,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H22" t="n">
         <v>3.1</v>
@@ -3584,10 +3584,10 @@
         <v>2.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="Z22" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AA22" t="n">
         <v>7</v>
@@ -3626,10 +3626,10 @@
         <v>9</v>
       </c>
       <c r="AM22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO22" t="n">
         <v>34</v>
@@ -3675,22 +3675,22 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H23" t="n">
         <v>3</v>
       </c>
       <c r="I23" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="J23" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K23" t="n">
         <v>1.91</v>
       </c>
       <c r="L23" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M23" t="n">
         <v>1.11</v>
@@ -3749,7 +3749,7 @@
         <v>41</v>
       </c>
       <c r="AG23" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AH23" t="n">
         <v>6</v>
@@ -3758,25 +3758,25 @@
         <v>19</v>
       </c>
       <c r="AJ23" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK23" t="n">
         <v>501</v>
       </c>
       <c r="AL23" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AM23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN23" t="n">
         <v>11</v>
       </c>
       <c r="AO23" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP23" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ23" t="n">
         <v>41</v>
@@ -3835,7 +3835,7 @@
         <v>2.05</v>
       </c>
       <c r="L24" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M24" t="n">
         <v>1.07</v>
@@ -3844,16 +3844,16 @@
         <v>9</v>
       </c>
       <c r="O24" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P24" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R24" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
@@ -3888,7 +3888,7 @@
         <v>29</v>
       </c>
       <c r="AE24" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF24" t="n">
         <v>34</v>
@@ -3965,22 +3965,22 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="H25" t="n">
         <v>3.4</v>
       </c>
       <c r="I25" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="J25" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="K25" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L25" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="M25" t="n">
         <v>1.11</v>
@@ -4028,7 +4028,7 @@
         <v>9</v>
       </c>
       <c r="AB25" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC25" t="n">
         <v>17</v>
@@ -4046,13 +4046,13 @@
         <v>6.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI25" t="n">
         <v>23</v>
       </c>
       <c r="AJ25" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK25" t="n">
         <v>101</v>
@@ -4067,7 +4067,7 @@
         <v>9.5</v>
       </c>
       <c r="AO25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP25" t="n">
         <v>19</v>
@@ -4076,10 +4076,10 @@
         <v>41</v>
       </c>
       <c r="AR25" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="26">
@@ -4144,10 +4144,10 @@
         <v>2.25</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R26" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S26" t="n">
         <v>4.8</v>
@@ -4374,10 +4374,10 @@
         <v>51</v>
       </c>
       <c r="AR27" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="28">
@@ -4523,10 +4523,10 @@
         <v>67</v>
       </c>
       <c r="AR28" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="29">
@@ -4672,10 +4672,10 @@
         <v>41</v>
       </c>
       <c r="AR29" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="30">
@@ -4710,104 +4710,104 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>4.8</v>
+        <v>4.35</v>
       </c>
       <c r="H30" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="I30" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="J30" t="n">
-        <v>5</v>
+        <v>4.65</v>
       </c>
       <c r="K30" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L30" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="P30" t="n">
-        <v>2.75</v>
+        <v>2.67</v>
       </c>
       <c r="Q30" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="R30" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="V30" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W30" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="X30" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="Y30" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="Z30" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="AA30" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="AB30" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AC30" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AD30" t="n">
+        <v>75</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>45</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AJ30" t="n">
         <v>90</v>
       </c>
-      <c r="AE30" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>18</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>100</v>
-      </c>
       <c r="AK30" t="n">
-        <v>1250</v>
+        <v>800</v>
       </c>
       <c r="AL30" t="n">
         <v>5.9</v>
       </c>
       <c r="AM30" t="n">
-        <v>7.2</v>
+        <v>7.7</v>
       </c>
       <c r="AN30" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AO30" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AP30" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AQ30" t="n">
         <v>32</v>
@@ -5018,10 +5018,10 @@
         <v>4.5</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R32" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S32" t="n">
         <v>2.05</v>
@@ -5030,10 +5030,10 @@
         <v>1.8</v>
       </c>
       <c r="U32" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V32" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W32" t="n">
         <v>1.3</v>
@@ -5133,22 +5133,22 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="H33" t="n">
         <v>3.4</v>
       </c>
       <c r="I33" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J33" t="n">
         <v>2.88</v>
       </c>
-      <c r="J33" t="n">
-        <v>3</v>
-      </c>
       <c r="K33" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L33" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M33" t="n">
         <v>1.04</v>
@@ -5163,10 +5163,10 @@
         <v>4</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R33" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
@@ -5183,10 +5183,10 @@
         <v>3</v>
       </c>
       <c r="Y33" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Z33" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AA33" t="n">
         <v>9</v>
@@ -5195,16 +5195,16 @@
         <v>12</v>
       </c>
       <c r="AC33" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD33" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF33" t="n">
         <v>23</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>26</v>
       </c>
       <c r="AG33" t="n">
         <v>12</v>
@@ -5213,7 +5213,7 @@
         <v>6.5</v>
       </c>
       <c r="AI33" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ33" t="n">
         <v>41</v>
@@ -5222,19 +5222,19 @@
         <v>151</v>
       </c>
       <c r="AL33" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM33" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN33" t="n">
         <v>11</v>
       </c>
       <c r="AO33" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP33" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ33" t="n">
         <v>29</v>
@@ -5280,16 +5280,16 @@
         <v>3.4</v>
       </c>
       <c r="I34" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J34" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K34" t="n">
         <v>2.25</v>
       </c>
       <c r="L34" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M34" t="n">
         <v>1.04</v>
@@ -5336,7 +5336,7 @@
         <v>17</v>
       </c>
       <c r="AC34" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD34" t="n">
         <v>34</v>
@@ -5727,10 +5727,10 @@
         <v>4</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R37" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
@@ -5993,10 +5993,10 @@
         <v>3.8</v>
       </c>
       <c r="I39" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J39" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K39" t="n">
         <v>2.1</v>
@@ -6035,7 +6035,7 @@
         <v>1.22</v>
       </c>
       <c r="W39" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="X39" t="n">
         <v>2.5</v>
@@ -6068,7 +6068,7 @@
         <v>8</v>
       </c>
       <c r="AH39" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI39" t="n">
         <v>23</v>
@@ -6080,7 +6080,7 @@
         <v>1250</v>
       </c>
       <c r="AL39" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM39" t="n">
         <v>29</v>
@@ -6148,7 +6148,7 @@
         <v>1.83</v>
       </c>
       <c r="K40" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L40" t="n">
         <v>9</v>
@@ -6175,7 +6175,7 @@
         <v>2.65</v>
       </c>
       <c r="T40" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="U40" t="n">
         <v>3.4</v>
@@ -6184,7 +6184,7 @@
         <v>1.3</v>
       </c>
       <c r="W40" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="X40" t="n">
         <v>2.75</v>
@@ -6196,7 +6196,7 @@
         <v>1.53</v>
       </c>
       <c r="AA40" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB40" t="n">
         <v>5.5</v>
@@ -6214,16 +6214,16 @@
         <v>34</v>
       </c>
       <c r="AG40" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH40" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI40" t="n">
         <v>26</v>
       </c>
       <c r="AJ40" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK40" t="n">
         <v>101</v>
@@ -6241,10 +6241,10 @@
         <v>126</v>
       </c>
       <c r="AP40" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AQ40" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR40" t="n">
         <v>1.47</v>
@@ -6285,13 +6285,13 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H41" t="n">
         <v>3.1</v>
       </c>
       <c r="I41" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J41" t="n">
         <v>3.6</v>
@@ -6333,7 +6333,7 @@
         <v>1.14</v>
       </c>
       <c r="W41" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="X41" t="n">
         <v>2.25</v>
@@ -6357,7 +6357,7 @@
         <v>29</v>
       </c>
       <c r="AE41" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF41" t="n">
         <v>41</v>
@@ -6381,13 +6381,13 @@
         <v>6.5</v>
       </c>
       <c r="AM41" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN41" t="n">
         <v>11</v>
       </c>
       <c r="AO41" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP41" t="n">
         <v>26</v>
@@ -6434,28 +6434,28 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="H42" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I42" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="J42" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="K42" t="n">
         <v>2.1</v>
       </c>
       <c r="L42" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="M42" t="n">
         <v>1.06</v>
       </c>
       <c r="N42" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O42" t="n">
         <v>1.33</v>
@@ -6472,10 +6472,10 @@
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V42" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W42" t="n">
         <v>1.44</v>
@@ -6490,7 +6490,7 @@
         <v>1.83</v>
       </c>
       <c r="AA42" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB42" t="n">
         <v>19</v>
@@ -6508,7 +6508,7 @@
         <v>41</v>
       </c>
       <c r="AG42" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH42" t="n">
         <v>6.5</v>
@@ -6575,22 +6575,22 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>3.8</v>
+        <v>4.33</v>
       </c>
       <c r="H43" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I43" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="J43" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="K43" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L43" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="M43" t="n">
         <v>1.04</v>
@@ -6605,10 +6605,10 @@
         <v>4</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R43" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
@@ -6619,34 +6619,34 @@
         <v>1.4</v>
       </c>
       <c r="W43" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X43" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Y43" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="Z43" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AA43" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB43" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC43" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD43" t="n">
+        <v>51</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF43" t="n">
         <v>41</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>34</v>
       </c>
       <c r="AG43" t="n">
         <v>12</v>
@@ -6655,19 +6655,19 @@
         <v>7</v>
       </c>
       <c r="AI43" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ43" t="n">
         <v>41</v>
       </c>
       <c r="AK43" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL43" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AM43" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AN43" t="n">
         <v>8.5</v>
@@ -6676,7 +6676,7 @@
         <v>15</v>
       </c>
       <c r="AP43" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ43" t="n">
         <v>23</v>
@@ -6998,16 +6998,16 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="H46" t="n">
         <v>5</v>
       </c>
       <c r="I46" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="J46" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="K46" t="n">
         <v>2.42</v>
@@ -7025,7 +7025,7 @@
         <v>1.23</v>
       </c>
       <c r="P46" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="Q46" t="n">
         <v>1.7</v>
@@ -7036,10 +7036,10 @@
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="V46" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="W46" t="n">
         <v>1.35</v>
@@ -7054,7 +7054,7 @@
         <v>1.65</v>
       </c>
       <c r="AA46" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AB46" t="n">
         <v>6.4</v>
@@ -7075,7 +7075,7 @@
         <v>9</v>
       </c>
       <c r="AH46" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AI46" t="n">
         <v>26</v>
@@ -7087,7 +7087,7 @@
         <v>1250</v>
       </c>
       <c r="AL46" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AM46" t="n">
         <v>60</v>
@@ -7102,7 +7102,7 @@
         <v>120</v>
       </c>
       <c r="AQ46" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AR46" t="inlineStr"/>
       <c r="AS46" t="inlineStr"/>
@@ -7280,28 +7280,28 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="H48" t="n">
         <v>3.5</v>
       </c>
       <c r="I48" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J48" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K48" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L48" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M48" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N48" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O48" t="n">
         <v>1.25</v>
@@ -7310,24 +7310,24 @@
         <v>3.75</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="R48" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V48" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W48" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X48" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y48" t="n">
         <v>1.8</v>
@@ -7345,10 +7345,10 @@
         <v>8.5</v>
       </c>
       <c r="AD48" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE48" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF48" t="n">
         <v>26</v>
@@ -7369,7 +7369,7 @@
         <v>251</v>
       </c>
       <c r="AL48" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM48" t="n">
         <v>23</v>
@@ -7424,10 +7424,10 @@
         <v>1.18</v>
       </c>
       <c r="H49" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="I49" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="J49" t="n">
         <v>1.57</v>
@@ -7445,16 +7445,16 @@
         <v>21</v>
       </c>
       <c r="O49" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P49" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="R49" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="S49" t="n">
         <v>1.83</v>
@@ -7463,10 +7463,10 @@
         <v>2.03</v>
       </c>
       <c r="U49" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V49" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W49" t="n">
         <v>1.25</v>
@@ -7514,7 +7514,7 @@
         <v>501</v>
       </c>
       <c r="AL49" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM49" t="n">
         <v>51</v>
@@ -7587,60 +7587,60 @@
         <v>1.1</v>
       </c>
       <c r="N50" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="O50" t="n">
         <v>1.42</v>
       </c>
       <c r="P50" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="R50" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="V50" t="n">
         <v>1.22</v>
       </c>
       <c r="W50" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="X50" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="Y50" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="Z50" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="AA50" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AB50" t="n">
         <v>9</v>
       </c>
       <c r="AC50" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AD50" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE50" t="n">
         <v>18.5</v>
-      </c>
-      <c r="AE50" t="n">
-        <v>18</v>
       </c>
       <c r="AF50" t="n">
         <v>32</v>
       </c>
       <c r="AG50" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AH50" t="n">
         <v>5.8</v>
@@ -7878,10 +7878,10 @@
         <v>4</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R52" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
@@ -8164,10 +8164,10 @@
         <v>4</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R54" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
@@ -8311,10 +8311,10 @@
         <v>2.35</v>
       </c>
       <c r="S55" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="T55" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="U55" t="n">
         <v>2.38</v>
@@ -8450,18 +8450,18 @@
         <v>4</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R56" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V56" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W56" t="n">
         <v>1.33</v>
@@ -8711,13 +8711,13 @@
         <v>2.1</v>
       </c>
       <c r="J58" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K58" t="n">
         <v>2.3</v>
       </c>
       <c r="L58" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M58" t="n">
         <v>1.03</v>
@@ -8726,16 +8726,16 @@
         <v>15</v>
       </c>
       <c r="O58" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P58" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R58" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S58" t="n">
         <v>2.05</v>
@@ -8744,10 +8744,10 @@
         <v>1.8</v>
       </c>
       <c r="U58" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V58" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W58" t="n">
         <v>1.3</v>
@@ -8768,7 +8768,7 @@
         <v>19</v>
       </c>
       <c r="AC58" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD58" t="n">
         <v>34</v>
@@ -8883,10 +8883,10 @@
         <v>1.83</v>
       </c>
       <c r="S59" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="T59" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="U59" t="n">
         <v>3.5</v>
@@ -8958,7 +8958,7 @@
         <v>34</v>
       </c>
       <c r="AR59" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="AS59" t="n">
         <v>2.5</v>
@@ -9017,7 +9017,7 @@
         <v>1.08</v>
       </c>
       <c r="N60" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O60" t="n">
         <v>1.36</v>
@@ -9145,7 +9145,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H61" t="n">
         <v>3.2</v>
@@ -9160,13 +9160,13 @@
         <v>2.05</v>
       </c>
       <c r="L61" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M61" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N61" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O61" t="n">
         <v>1.33</v>
@@ -9175,16 +9175,16 @@
         <v>3.25</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R61" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S61" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T61" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="U61" t="n">
         <v>3.75</v>
@@ -9256,10 +9256,10 @@
         <v>34</v>
       </c>
       <c r="AR61" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.41</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="62">
@@ -9294,28 +9294,28 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H62" t="n">
         <v>2.9</v>
       </c>
       <c r="I62" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="J62" t="n">
         <v>4</v>
       </c>
       <c r="K62" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L62" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M62" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N62" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O62" t="n">
         <v>1.62</v>
@@ -9348,10 +9348,10 @@
         <v>2.1</v>
       </c>
       <c r="Y62" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Z62" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AA62" t="n">
         <v>6.5</v>
@@ -9390,13 +9390,13 @@
         <v>6</v>
       </c>
       <c r="AM62" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN62" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO62" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP62" t="n">
         <v>29</v>
@@ -9443,16 +9443,16 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H63" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I63" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J63" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K63" t="n">
         <v>2.25</v>
@@ -9473,30 +9473,30 @@
         <v>4</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R63" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V63" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="W63" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X63" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Y63" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Z63" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AA63" t="n">
         <v>9</v>
@@ -9511,13 +9511,13 @@
         <v>19</v>
       </c>
       <c r="AE63" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF63" t="n">
         <v>23</v>
       </c>
       <c r="AG63" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH63" t="n">
         <v>7</v>
@@ -9532,10 +9532,10 @@
         <v>151</v>
       </c>
       <c r="AL63" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM63" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN63" t="n">
         <v>12</v>
@@ -9544,7 +9544,7 @@
         <v>34</v>
       </c>
       <c r="AP63" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ63" t="n">
         <v>29</v>
@@ -9584,16 +9584,16 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="H64" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I64" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J64" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K64" t="n">
         <v>2.1</v>
@@ -9602,10 +9602,10 @@
         <v>3.5</v>
       </c>
       <c r="M64" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N64" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O64" t="n">
         <v>1.3</v>
@@ -9634,10 +9634,10 @@
         <v>2.75</v>
       </c>
       <c r="Y64" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Z64" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AA64" t="n">
         <v>8.5</v>
@@ -9646,13 +9646,13 @@
         <v>12</v>
       </c>
       <c r="AC64" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD64" t="n">
         <v>23</v>
       </c>
       <c r="AE64" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF64" t="n">
         <v>29</v>
@@ -9670,13 +9670,13 @@
         <v>51</v>
       </c>
       <c r="AK64" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL64" t="n">
         <v>9</v>
       </c>
       <c r="AM64" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN64" t="n">
         <v>11</v>
@@ -9688,7 +9688,7 @@
         <v>23</v>
       </c>
       <c r="AQ64" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR64" t="inlineStr"/>
       <c r="AS64" t="inlineStr"/>
@@ -9743,10 +9743,10 @@
         <v>6</v>
       </c>
       <c r="M65" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N65" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O65" t="n">
         <v>1.2</v>
@@ -9755,10 +9755,10 @@
         <v>4.33</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R65" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S65" t="n">
         <v>2</v>
@@ -9870,22 +9870,22 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="H66" t="n">
         <v>3.6</v>
       </c>
       <c r="I66" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="J66" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K66" t="n">
         <v>2.3</v>
       </c>
       <c r="L66" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="M66" t="n">
         <v>1.03</v>
@@ -9926,7 +9926,7 @@
         <v>2.2</v>
       </c>
       <c r="AA66" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB66" t="n">
         <v>19</v>
@@ -9935,16 +9935,16 @@
         <v>12</v>
       </c>
       <c r="AD66" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE66" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF66" t="n">
         <v>29</v>
       </c>
       <c r="AG66" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH66" t="n">
         <v>7</v>
@@ -9959,7 +9959,7 @@
         <v>151</v>
       </c>
       <c r="AL66" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AM66" t="n">
         <v>11</v>
@@ -9968,13 +9968,13 @@
         <v>9</v>
       </c>
       <c r="AO66" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP66" t="n">
         <v>15</v>
       </c>
       <c r="AQ66" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR66" t="inlineStr"/>
       <c r="AS66" t="inlineStr"/>
@@ -10151,19 +10151,19 @@
         <v>3.5</v>
       </c>
       <c r="H68" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="I68" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="J68" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K68" t="n">
         <v>1.98</v>
       </c>
       <c r="L68" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr"/>
@@ -10185,25 +10185,25 @@
         <v>3.4</v>
       </c>
       <c r="V68" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W68" t="n">
         <v>1.42</v>
       </c>
       <c r="X68" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="Y68" t="n">
         <v>1.78</v>
       </c>
       <c r="Z68" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="AA68" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AB68" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AC68" t="n">
         <v>11.75</v>
@@ -10224,16 +10224,16 @@
         <v>5.6</v>
       </c>
       <c r="AI68" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AJ68" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AK68" t="n">
         <v>600</v>
       </c>
       <c r="AL68" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AM68" t="n">
         <v>10.25</v>
@@ -10242,13 +10242,13 @@
         <v>8.75</v>
       </c>
       <c r="AO68" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP68" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AQ68" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AR68" t="inlineStr"/>
       <c r="AS68" t="inlineStr"/>
@@ -10285,22 +10285,22 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H69" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I69" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="J69" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="K69" t="n">
         <v>2.1</v>
       </c>
       <c r="L69" t="n">
-        <v>5.1</v>
+        <v>4.85</v>
       </c>
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr"/>
@@ -10325,46 +10325,46 @@
         <v>1.31</v>
       </c>
       <c r="W69" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="X69" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="Y69" t="n">
         <v>1.78</v>
       </c>
       <c r="Z69" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="AA69" t="n">
         <v>6.7</v>
       </c>
       <c r="AB69" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AC69" t="n">
         <v>8</v>
       </c>
       <c r="AD69" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AE69" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AF69" t="n">
         <v>26</v>
       </c>
       <c r="AG69" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AH69" t="n">
         <v>6.9</v>
       </c>
       <c r="AI69" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AJ69" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AK69" t="n">
         <v>600</v>
@@ -10373,19 +10373,19 @@
         <v>13</v>
       </c>
       <c r="AM69" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AN69" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO69" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AP69" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AQ69" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AR69" t="inlineStr"/>
       <c r="AS69" t="inlineStr"/>
@@ -10452,10 +10452,10 @@
         <v>3.5</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R70" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
@@ -10593,10 +10593,10 @@
         <v>3</v>
       </c>
       <c r="Q71" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R71" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
@@ -10734,10 +10734,10 @@
         <v>3</v>
       </c>
       <c r="Q72" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R72" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
@@ -10845,16 +10845,16 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H73" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="I73" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J73" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K73" t="n">
         <v>1.83</v>
@@ -10863,10 +10863,10 @@
         <v>4</v>
       </c>
       <c r="M73" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N73" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O73" t="n">
         <v>1.57</v>
@@ -10889,22 +10889,22 @@
         <v>1.13</v>
       </c>
       <c r="W73" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="X73" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y73" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Z73" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AA73" t="n">
         <v>6</v>
       </c>
       <c r="AB73" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC73" t="n">
         <v>11</v>
@@ -10913,7 +10913,7 @@
         <v>26</v>
       </c>
       <c r="AE73" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF73" t="n">
         <v>41</v>
@@ -10925,7 +10925,7 @@
         <v>5.5</v>
       </c>
       <c r="AI73" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ73" t="n">
         <v>81</v>
@@ -11008,10 +11008,10 @@
         <v>4.5</v>
       </c>
       <c r="M74" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N74" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O74" t="n">
         <v>1.4</v>
@@ -11020,10 +11020,10 @@
         <v>2.75</v>
       </c>
       <c r="Q74" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R74" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr"/>
@@ -11064,7 +11064,7 @@
         <v>34</v>
       </c>
       <c r="AG74" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH74" t="n">
         <v>6</v>
@@ -11073,13 +11073,13 @@
         <v>17</v>
       </c>
       <c r="AJ74" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK74" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AL74" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM74" t="n">
         <v>19</v>
@@ -11096,8 +11096,12 @@
       <c r="AQ74" t="n">
         <v>41</v>
       </c>
-      <c r="AR74" t="inlineStr"/>
-      <c r="AS74" t="inlineStr"/>
+      <c r="AR74" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AS74" t="n">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -11131,111 +11135,111 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H75" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I75" t="n">
         <v>3.4</v>
       </c>
-      <c r="I75" t="n">
-        <v>3.9</v>
-      </c>
       <c r="J75" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K75" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L75" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="M75" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N75" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O75" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="P75" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.95</v>
+        <v>1.73</v>
       </c>
       <c r="R75" t="n">
-        <v>1.9</v>
+        <v>2.08</v>
       </c>
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V75" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W75" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X75" t="n">
         <v>3.25</v>
       </c>
-      <c r="V75" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="W75" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X75" t="n">
-        <v>2.75</v>
-      </c>
       <c r="Y75" t="n">
-        <v>1.77</v>
+        <v>1.62</v>
       </c>
       <c r="Z75" t="n">
-        <v>1.92</v>
+        <v>2.2</v>
       </c>
       <c r="AA75" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AB75" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AC75" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD75" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE75" t="n">
         <v>15</v>
       </c>
       <c r="AF75" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG75" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AH75" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI75" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AJ75" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK75" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AL75" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM75" t="n">
         <v>19</v>
       </c>
       <c r="AN75" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO75" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP75" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ75" t="n">
         <v>29</v>
-      </c>
-      <c r="AQ75" t="n">
-        <v>34</v>
       </c>
       <c r="AR75" t="inlineStr"/>
       <c r="AS75" t="inlineStr"/>
@@ -11302,18 +11306,18 @@
         <v>3.5</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R76" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V76" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W76" t="n">
         <v>1.4</v>
@@ -11322,7 +11326,7 @@
         <v>2.75</v>
       </c>
       <c r="Y76" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="Z76" t="n">
         <v>2.05</v>
@@ -11419,7 +11423,7 @@
         <v>3.4</v>
       </c>
       <c r="I77" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J77" t="n">
         <v>3.5</v>
@@ -11443,10 +11447,10 @@
         <v>3.4</v>
       </c>
       <c r="Q77" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R77" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr"/>
@@ -11457,16 +11461,16 @@
         <v>1.29</v>
       </c>
       <c r="W77" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X77" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Y77" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="Z77" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="AA77" t="n">
         <v>9</v>
@@ -11484,10 +11488,10 @@
         <v>23</v>
       </c>
       <c r="AF77" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG77" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH77" t="n">
         <v>6.5</v>
@@ -11502,13 +11506,13 @@
         <v>251</v>
       </c>
       <c r="AL77" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AM77" t="n">
         <v>12</v>
       </c>
       <c r="AN77" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AO77" t="n">
         <v>23</v>
@@ -11554,103 +11558,103 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3.75</v>
+        <v>4.45</v>
       </c>
       <c r="H78" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="I78" t="n">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="J78" t="n">
-        <v>4.05</v>
+        <v>4.6</v>
       </c>
       <c r="K78" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L78" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P78" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="R78" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="S78" t="inlineStr"/>
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="n">
-        <v>2.57</v>
+        <v>2.47</v>
       </c>
       <c r="V78" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="W78" t="inlineStr"/>
       <c r="X78" t="inlineStr"/>
       <c r="Y78" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="Z78" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AA78" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>75</v>
+      </c>
+      <c r="AE78" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF78" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG78" t="n">
         <v>13</v>
       </c>
-      <c r="AB78" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC78" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD78" t="n">
-        <v>55</v>
-      </c>
-      <c r="AE78" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF78" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG78" t="n">
-        <v>12</v>
-      </c>
       <c r="AH78" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="AI78" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ78" t="n">
         <v>55</v>
       </c>
       <c r="AK78" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AL78" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AM78" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AN78" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AO78" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AP78" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AQ78" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR78" t="inlineStr"/>
       <c r="AS78" t="inlineStr"/>
@@ -11687,30 +11691,30 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="H79" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="I79" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="J79" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="K79" t="n">
         <v>2.35</v>
       </c>
       <c r="L79" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P79" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="Q79" t="n">
         <v>1.62</v>
@@ -11721,7 +11725,7 @@
       <c r="S79" t="inlineStr"/>
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="V79" t="n">
         <v>1.42</v>
@@ -11738,28 +11742,28 @@
         <v>7.3</v>
       </c>
       <c r="AB79" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AC79" t="n">
         <v>8.25</v>
       </c>
       <c r="AD79" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AE79" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AF79" t="n">
         <v>25</v>
       </c>
       <c r="AG79" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH79" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AI79" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AJ79" t="n">
         <v>80</v>
@@ -11768,19 +11772,19 @@
         <v>600</v>
       </c>
       <c r="AL79" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AM79" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AN79" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AO79" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AP79" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AQ79" t="n">
         <v>60</v>
@@ -11820,44 +11824,44 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="H80" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="I80" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="J80" t="n">
-        <v>4.15</v>
+        <v>3.95</v>
       </c>
       <c r="K80" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="L80" t="n">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P80" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="R80" t="n">
-        <v>1.98</v>
+        <v>1.87</v>
       </c>
       <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="n">
-        <v>2.55</v>
+        <v>2.72</v>
       </c>
       <c r="V80" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="W80" t="n">
         <v>1.4</v>
@@ -11866,61 +11870,61 @@
         <v>2.52</v>
       </c>
       <c r="Y80" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="Z80" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="AA80" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB80" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC80" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD80" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AE80" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF80" t="n">
         <v>32</v>
       </c>
-      <c r="AF80" t="n">
-        <v>35</v>
-      </c>
       <c r="AG80" t="n">
-        <v>11.75</v>
+        <v>10.75</v>
       </c>
       <c r="AH80" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="AI80" t="n">
         <v>13</v>
       </c>
       <c r="AJ80" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AK80" t="n">
         <v>350</v>
       </c>
       <c r="AL80" t="n">
-        <v>8.25</v>
+        <v>7.8</v>
       </c>
       <c r="AM80" t="n">
         <v>9.75</v>
       </c>
       <c r="AN80" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AO80" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AP80" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AQ80" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AR80" t="inlineStr"/>
       <c r="AS80" t="inlineStr"/>
@@ -11957,13 +11961,13 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="H81" t="n">
         <v>3.5</v>
       </c>
       <c r="I81" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="J81" t="n">
         <v>3</v>
@@ -11972,13 +11976,13 @@
         <v>2.2</v>
       </c>
       <c r="L81" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M81" t="n">
         <v>1.04</v>
       </c>
       <c r="N81" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O81" t="n">
         <v>1.25</v>
@@ -12022,10 +12026,10 @@
         <v>9.5</v>
       </c>
       <c r="AD81" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE81" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF81" t="n">
         <v>26</v>
@@ -12098,13 +12102,13 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H82" t="n">
         <v>4.1</v>
       </c>
       <c r="I82" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J82" t="n">
         <v>2.1</v>
@@ -12119,7 +12123,7 @@
         <v>1.03</v>
       </c>
       <c r="N82" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O82" t="n">
         <v>1.22</v>
@@ -12157,7 +12161,7 @@
         <v>7</v>
       </c>
       <c r="AB82" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AC82" t="n">
         <v>8.5</v>
@@ -12178,7 +12182,7 @@
         <v>8</v>
       </c>
       <c r="AI82" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ82" t="n">
         <v>51</v>
@@ -12193,7 +12197,7 @@
         <v>29</v>
       </c>
       <c r="AN82" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO82" t="n">
         <v>67</v>
@@ -12239,16 +12243,16 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="H83" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I83" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="J83" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K83" t="n">
         <v>2.38</v>
@@ -12257,13 +12261,13 @@
         <v>4.75</v>
       </c>
       <c r="M83" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N83" t="n">
         <v>15</v>
       </c>
       <c r="O83" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="P83" t="n">
         <v>4.5</v>
@@ -12284,7 +12288,7 @@
         <v>2.5</v>
       </c>
       <c r="V83" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="W83" t="n">
         <v>1.3</v>
@@ -12311,7 +12315,7 @@
         <v>13</v>
       </c>
       <c r="AE83" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF83" t="n">
         <v>21</v>
@@ -12320,10 +12324,10 @@
         <v>15</v>
       </c>
       <c r="AH83" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI83" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ83" t="n">
         <v>41</v>
@@ -12332,7 +12336,7 @@
         <v>151</v>
       </c>
       <c r="AL83" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM83" t="n">
         <v>26</v>
@@ -12402,22 +12406,22 @@
         <v>6</v>
       </c>
       <c r="M84" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N84" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O84" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="P84" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R84" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr"/>
@@ -12425,7 +12429,7 @@
         <v>3.25</v>
       </c>
       <c r="V84" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W84" t="n">
         <v>1.36</v>
@@ -12525,52 +12529,52 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="H85" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="I85" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J85" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="K85" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="L85" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M85" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N85" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O85" t="n">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="P85" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R85" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S85" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="T85" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="U85" t="n">
         <v>2.25</v>
       </c>
       <c r="V85" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="W85" t="n">
         <v>1.25</v>
@@ -12585,16 +12589,16 @@
         <v>1.5</v>
       </c>
       <c r="AA85" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB85" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AC85" t="n">
         <v>11</v>
       </c>
       <c r="AD85" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE85" t="n">
         <v>12</v>
@@ -12606,7 +12610,7 @@
         <v>15</v>
       </c>
       <c r="AH85" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI85" t="n">
         <v>34</v>
@@ -12621,16 +12625,16 @@
         <v>34</v>
       </c>
       <c r="AM85" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AN85" t="n">
         <v>41</v>
       </c>
       <c r="AO85" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AP85" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AQ85" t="n">
         <v>101</v>
@@ -12670,10 +12674,10 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="H86" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="I86" t="n">
         <v>1.25</v>
@@ -12688,34 +12692,34 @@
         <v>1.67</v>
       </c>
       <c r="M86" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N86" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O86" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P86" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R86" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S86" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="T86" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="U86" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V86" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W86" t="n">
         <v>1.29</v>
@@ -12769,7 +12773,7 @@
         <v>6.5</v>
       </c>
       <c r="AN86" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AO86" t="n">
         <v>7.5</v>
@@ -12815,22 +12819,22 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H87" t="n">
         <v>3.2</v>
       </c>
       <c r="I87" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="J87" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K87" t="n">
         <v>2.05</v>
       </c>
       <c r="L87" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M87" t="n">
         <v>1.06</v>
@@ -12839,16 +12843,16 @@
         <v>10</v>
       </c>
       <c r="O87" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P87" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q87" t="n">
         <v>2.1</v>
       </c>
       <c r="R87" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S87" t="inlineStr"/>
       <c r="T87" t="inlineStr"/>
@@ -12865,19 +12869,19 @@
         <v>2.63</v>
       </c>
       <c r="Y87" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="Z87" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AA87" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB87" t="n">
         <v>17</v>
       </c>
       <c r="AC87" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD87" t="n">
         <v>41</v>
@@ -12901,7 +12905,7 @@
         <v>51</v>
       </c>
       <c r="AK87" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AL87" t="n">
         <v>7</v>
@@ -12910,7 +12914,7 @@
         <v>9.5</v>
       </c>
       <c r="AN87" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AO87" t="n">
         <v>19</v>
@@ -12956,22 +12960,22 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="H88" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I88" t="n">
-        <v>3.25</v>
+        <v>4.1</v>
       </c>
       <c r="J88" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="K88" t="n">
         <v>2.05</v>
       </c>
       <c r="L88" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M88" t="n">
         <v>1.07</v>
@@ -12989,7 +12993,7 @@
         <v>2.15</v>
       </c>
       <c r="R88" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="S88" t="inlineStr"/>
       <c r="T88" t="inlineStr"/>
@@ -13000,34 +13004,34 @@
         <v>1.25</v>
       </c>
       <c r="W88" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X88" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Y88" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="Z88" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AA88" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB88" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AC88" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD88" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AE88" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AF88" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG88" t="n">
         <v>8</v>
@@ -13042,22 +13046,22 @@
         <v>51</v>
       </c>
       <c r="AK88" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AL88" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM88" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN88" t="n">
         <v>15</v>
       </c>
-      <c r="AN88" t="n">
-        <v>12</v>
-      </c>
       <c r="AO88" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP88" t="n">
         <v>34</v>
-      </c>
-      <c r="AP88" t="n">
-        <v>29</v>
       </c>
       <c r="AQ88" t="n">
         <v>41</v>
@@ -13127,10 +13131,10 @@
         <v>3</v>
       </c>
       <c r="Q89" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R89" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S89" t="inlineStr"/>
       <c r="T89" t="inlineStr"/>
@@ -13256,13 +13260,13 @@
         <v>1.57</v>
       </c>
       <c r="M90" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N90" t="n">
         <v>21</v>
       </c>
       <c r="O90" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="P90" t="n">
         <v>6</v>
@@ -13280,10 +13284,10 @@
         <v>2</v>
       </c>
       <c r="U90" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V90" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="W90" t="n">
         <v>1.22</v>
@@ -13401,13 +13405,13 @@
         <v>12</v>
       </c>
       <c r="M91" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N91" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O91" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="P91" t="n">
         <v>6</v>
@@ -13421,10 +13425,10 @@
       <c r="S91" t="inlineStr"/>
       <c r="T91" t="inlineStr"/>
       <c r="U91" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="V91" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="W91" t="n">
         <v>1.22</v>
@@ -13442,10 +13446,10 @@
         <v>9.5</v>
       </c>
       <c r="AB91" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AC91" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD91" t="n">
         <v>7</v>
@@ -13457,7 +13461,7 @@
         <v>29</v>
       </c>
       <c r="AG91" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH91" t="n">
         <v>15</v>
@@ -13469,7 +13473,7 @@
         <v>81</v>
       </c>
       <c r="AK91" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AL91" t="n">
         <v>41</v>
@@ -13524,22 +13528,22 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="H92" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I92" t="n">
-        <v>6.7</v>
+        <v>6.1</v>
       </c>
       <c r="J92" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="K92" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="L92" t="n">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="M92" t="n">
         <v>1.06</v>
@@ -13571,64 +13575,64 @@
         <v>1.4</v>
       </c>
       <c r="X92" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="Y92" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="Z92" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AA92" t="n">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="AB92" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="AC92" t="n">
         <v>8.25</v>
       </c>
       <c r="AD92" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="AE92" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AF92" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AG92" t="n">
         <v>7.5</v>
       </c>
       <c r="AH92" t="n">
-        <v>8.25</v>
+        <v>7.8</v>
       </c>
       <c r="AI92" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ92" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK92" t="n">
+        <v>800</v>
+      </c>
+      <c r="AL92" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AM92" t="n">
+        <v>40</v>
+      </c>
+      <c r="AN92" t="n">
         <v>20</v>
       </c>
-      <c r="AJ92" t="n">
-        <v>110</v>
-      </c>
-      <c r="AK92" t="n">
-        <v>900</v>
-      </c>
-      <c r="AL92" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM92" t="n">
-        <v>45</v>
-      </c>
-      <c r="AN92" t="n">
-        <v>22</v>
-      </c>
       <c r="AO92" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AP92" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AQ92" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AR92" t="inlineStr"/>
       <c r="AS92" t="inlineStr"/>
@@ -13665,111 +13669,111 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="H93" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="I93" t="n">
         <v>1.44</v>
       </c>
       <c r="J93" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="K93" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="L93" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="M93" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N93" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="O93" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="P93" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="Q93" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="R93" t="n">
-        <v>2.52</v>
+        <v>2.7</v>
       </c>
       <c r="S93" t="inlineStr"/>
       <c r="T93" t="inlineStr"/>
       <c r="U93" t="n">
-        <v>2.12</v>
+        <v>1.98</v>
       </c>
       <c r="V93" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="W93" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="X93" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="Y93" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="Z93" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="AA93" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB93" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AC93" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AD93" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AE93" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AF93" t="n">
         <v>40</v>
       </c>
       <c r="AG93" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AH93" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AI93" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ93" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AK93" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AL93" t="n">
-        <v>9.75</v>
+        <v>10.5</v>
       </c>
       <c r="AM93" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AN93" t="n">
         <v>8.25</v>
       </c>
       <c r="AO93" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AP93" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AQ93" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AR93" t="inlineStr"/>
       <c r="AS93" t="inlineStr"/>
@@ -13806,10 +13810,10 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="H94" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I94" t="n">
         <v>3.4</v>
@@ -13818,84 +13822,84 @@
         <v>2.65</v>
       </c>
       <c r="K94" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L94" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="M94" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N94" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="O94" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="P94" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q94" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="R94" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="S94" t="inlineStr"/>
       <c r="T94" t="inlineStr"/>
       <c r="U94" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="V94" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="W94" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="X94" t="n">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="Y94" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="Z94" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AA94" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="AB94" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AC94" t="n">
         <v>8.5</v>
       </c>
       <c r="AD94" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AE94" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AF94" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG94" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="AH94" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="AI94" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AJ94" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AK94" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AL94" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AM94" t="n">
         <v>18.5</v>
@@ -13910,7 +13914,7 @@
         <v>32</v>
       </c>
       <c r="AQ94" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AR94" t="inlineStr"/>
       <c r="AS94" t="inlineStr"/>
@@ -14088,19 +14092,19 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="H96" t="n">
         <v>3.45</v>
       </c>
       <c r="I96" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="J96" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="K96" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="L96" t="n">
         <v>4.25</v>
@@ -14112,39 +14116,39 @@
         <v>6.9</v>
       </c>
       <c r="O96" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P96" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="Q96" t="n">
         <v>2.02</v>
       </c>
       <c r="R96" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="S96" t="inlineStr"/>
       <c r="T96" t="inlineStr"/>
       <c r="U96" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="V96" t="n">
         <v>1.27</v>
       </c>
       <c r="W96" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="X96" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="Y96" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="Z96" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="AA96" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AB96" t="n">
         <v>8.25</v>
@@ -14153,7 +14157,7 @@
         <v>8.5</v>
       </c>
       <c r="AD96" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE96" t="n">
         <v>16</v>
@@ -14165,16 +14169,16 @@
         <v>6.9</v>
       </c>
       <c r="AH96" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AI96" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AJ96" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AK96" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AL96" t="n">
         <v>10.25</v>
@@ -14183,7 +14187,7 @@
         <v>20</v>
       </c>
       <c r="AN96" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AO96" t="n">
         <v>60</v>
@@ -14229,66 +14233,66 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="H97" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I97" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="J97" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K97" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="L97" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="M97" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N97" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="O97" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P97" t="n">
-        <v>2.77</v>
+        <v>2.82</v>
       </c>
       <c r="Q97" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R97" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S97" t="inlineStr"/>
       <c r="T97" t="inlineStr"/>
       <c r="U97" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="V97" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W97" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="X97" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="Y97" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="Z97" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="AA97" t="n">
         <v>8.75</v>
       </c>
       <c r="AB97" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AC97" t="n">
         <v>11.75</v>
@@ -14300,13 +14304,13 @@
         <v>32</v>
       </c>
       <c r="AF97" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AG97" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AH97" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AI97" t="n">
         <v>15.5</v>
@@ -14318,7 +14322,7 @@
         <v>700</v>
       </c>
       <c r="AL97" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AM97" t="n">
         <v>9.75</v>
@@ -14327,10 +14331,10 @@
         <v>9</v>
       </c>
       <c r="AO97" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP97" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AQ97" t="n">
         <v>32</v>
@@ -14373,63 +14377,63 @@
         <v>2</v>
       </c>
       <c r="H98" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I98" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="J98" t="n">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
       <c r="K98" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L98" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M98" t="n">
         <v>1.05</v>
       </c>
       <c r="N98" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O98" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P98" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q98" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="R98" t="n">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
       <c r="S98" t="inlineStr"/>
       <c r="T98" t="inlineStr"/>
       <c r="U98" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="V98" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="W98" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X98" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Y98" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="Z98" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AA98" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB98" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AC98" t="n">
         <v>9</v>
@@ -14441,10 +14445,10 @@
         <v>17</v>
       </c>
       <c r="AF98" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG98" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH98" t="n">
         <v>6.5</v>
@@ -14456,10 +14460,10 @@
         <v>51</v>
       </c>
       <c r="AK98" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AL98" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM98" t="n">
         <v>19</v>
@@ -14471,10 +14475,10 @@
         <v>41</v>
       </c>
       <c r="AP98" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ98" t="n">
         <v>34</v>
-      </c>
-      <c r="AQ98" t="n">
-        <v>41</v>
       </c>
       <c r="AR98" t="inlineStr"/>
       <c r="AS98" t="inlineStr"/>
@@ -14529,13 +14533,13 @@
         <v>4</v>
       </c>
       <c r="M99" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N99" t="n">
         <v>9</v>
       </c>
       <c r="O99" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P99" t="n">
         <v>2.75</v>
@@ -14544,7 +14548,7 @@
         <v>2.25</v>
       </c>
       <c r="R99" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="S99" t="inlineStr"/>
       <c r="T99" t="inlineStr"/>
@@ -14552,7 +14556,7 @@
         <v>4.33</v>
       </c>
       <c r="V99" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="W99" t="n">
         <v>1.5</v>
@@ -14655,42 +14659,42 @@
         <v>4</v>
       </c>
       <c r="H100" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I100" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="J100" t="n">
         <v>4.5</v>
       </c>
       <c r="K100" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L100" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="M100" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N100" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O100" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="P100" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q100" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="R100" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="S100" t="inlineStr"/>
       <c r="T100" t="inlineStr"/>
       <c r="U100" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V100" t="n">
         <v>1.22</v>
@@ -14702,10 +14706,10 @@
         <v>2.63</v>
       </c>
       <c r="Y100" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="Z100" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AA100" t="n">
         <v>10</v>
@@ -14726,7 +14730,7 @@
         <v>41</v>
       </c>
       <c r="AG100" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH100" t="n">
         <v>6.5</v>
@@ -14738,7 +14742,7 @@
         <v>51</v>
       </c>
       <c r="AK100" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AL100" t="n">
         <v>6.5</v>
@@ -14802,31 +14806,31 @@
         <v>3.75</v>
       </c>
       <c r="J101" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="K101" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="L101" t="n">
         <v>4.5</v>
       </c>
       <c r="M101" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N101" t="n">
         <v>7</v>
       </c>
       <c r="O101" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P101" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Q101" t="n">
         <v>2.4</v>
       </c>
       <c r="R101" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S101" t="inlineStr"/>
       <c r="T101" t="inlineStr"/>
@@ -14834,7 +14838,7 @@
         <v>4.5</v>
       </c>
       <c r="V101" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="W101" t="n">
         <v>1.53</v>
@@ -14968,18 +14972,18 @@
         <v>2.5</v>
       </c>
       <c r="Q102" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R102" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S102" t="inlineStr"/>
       <c r="T102" t="inlineStr"/>
       <c r="U102" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="V102" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="W102" t="n">
         <v>1.57</v>
@@ -15045,10 +15049,10 @@
         <v>41</v>
       </c>
       <c r="AR102" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="103">
@@ -15095,7 +15099,7 @@
         <v>2.75</v>
       </c>
       <c r="K103" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L103" t="n">
         <v>3.4</v>
@@ -15164,13 +15168,13 @@
         <v>17</v>
       </c>
       <c r="AH103" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI103" t="n">
         <v>11</v>
       </c>
       <c r="AJ103" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AK103" t="n">
         <v>101</v>
@@ -15228,22 +15232,22 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.35</v>
+        <v>2.1</v>
       </c>
       <c r="H104" t="n">
         <v>3.3</v>
       </c>
       <c r="I104" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="J104" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="K104" t="n">
         <v>2.2</v>
       </c>
       <c r="L104" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M104" t="n">
         <v>1.05</v>
@@ -15272,67 +15276,67 @@
         <v>1.33</v>
       </c>
       <c r="W104" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X104" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y104" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="Z104" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AA104" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AB104" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AC104" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD104" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AE104" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF104" t="n">
         <v>26</v>
       </c>
       <c r="AG104" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AH104" t="n">
         <v>6.5</v>
       </c>
       <c r="AI104" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ104" t="n">
         <v>41</v>
       </c>
       <c r="AK104" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL104" t="n">
         <v>11</v>
       </c>
       <c r="AM104" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN104" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO104" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP104" t="n">
         <v>29</v>
       </c>
-      <c r="AP104" t="n">
-        <v>23</v>
-      </c>
       <c r="AQ104" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR104" t="inlineStr"/>
       <c r="AS104" t="inlineStr"/>
@@ -15369,40 +15373,40 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="H105" t="n">
         <v>3.4</v>
       </c>
       <c r="I105" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="J105" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K105" t="n">
         <v>2.25</v>
       </c>
       <c r="L105" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="M105" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N105" t="n">
         <v>13</v>
       </c>
       <c r="O105" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P105" t="n">
         <v>4</v>
       </c>
       <c r="Q105" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R105" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S105" t="inlineStr"/>
       <c r="T105" t="inlineStr"/>
@@ -15410,7 +15414,7 @@
         <v>2.75</v>
       </c>
       <c r="V105" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="W105" t="n">
         <v>1.36</v>
@@ -15419,16 +15423,16 @@
         <v>3</v>
       </c>
       <c r="Y105" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Z105" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AA105" t="n">
         <v>13</v>
       </c>
       <c r="AB105" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC105" t="n">
         <v>13</v>
@@ -15437,7 +15441,7 @@
         <v>41</v>
       </c>
       <c r="AE105" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF105" t="n">
         <v>34</v>
@@ -15449,7 +15453,7 @@
         <v>6.5</v>
       </c>
       <c r="AI105" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ105" t="n">
         <v>41</v>
@@ -15458,16 +15462,16 @@
         <v>151</v>
       </c>
       <c r="AL105" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM105" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN105" t="n">
         <v>9</v>
       </c>
       <c r="AO105" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP105" t="n">
         <v>15</v>
@@ -15510,66 +15514,66 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="H106" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="I106" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="J106" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="K106" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="L106" t="n">
         <v>7.2</v>
       </c>
       <c r="M106" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N106" t="n">
         <v>9.75</v>
       </c>
       <c r="O106" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="P106" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="Q106" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="R106" t="n">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="S106" t="inlineStr"/>
       <c r="T106" t="inlineStr"/>
       <c r="U106" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="V106" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="W106" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="X106" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="Y106" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Z106" t="n">
         <v>1.87</v>
       </c>
-      <c r="Z106" t="n">
-        <v>1.83</v>
-      </c>
       <c r="AA106" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB106" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="AC106" t="n">
         <v>9</v>
@@ -15581,28 +15585,28 @@
         <v>10.25</v>
       </c>
       <c r="AF106" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG106" t="n">
         <v>9.75</v>
       </c>
       <c r="AH106" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AI106" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ106" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AK106" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AL106" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AM106" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AN106" t="n">
         <v>28</v>
@@ -15651,63 +15655,63 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="H107" t="n">
         <v>4.85</v>
       </c>
       <c r="I107" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="J107" t="n">
         <v>1.75</v>
       </c>
       <c r="K107" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="L107" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="M107" t="n">
         <v>1.02</v>
       </c>
       <c r="N107" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="O107" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="P107" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="Q107" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="R107" t="n">
-        <v>2.67</v>
+        <v>2.77</v>
       </c>
       <c r="S107" t="inlineStr"/>
       <c r="T107" t="inlineStr"/>
       <c r="U107" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="V107" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="W107" t="n">
         <v>1.24</v>
       </c>
       <c r="X107" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="Y107" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="Z107" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="AA107" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AB107" t="n">
         <v>8.25</v>
@@ -15722,34 +15726,34 @@
         <v>10</v>
       </c>
       <c r="AF107" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AG107" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AH107" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AI107" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AJ107" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AK107" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AL107" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AM107" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AN107" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO107" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AP107" t="n">
         <v>75</v>
@@ -15792,54 +15796,54 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="H108" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="I108" t="n">
         <v>3.45</v>
       </c>
       <c r="J108" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="K108" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="L108" t="n">
-        <v>3.95</v>
+        <v>4.05</v>
       </c>
       <c r="M108" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N108" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="O108" t="n">
         <v>1.4</v>
       </c>
       <c r="P108" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q108" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R108" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S108" t="inlineStr"/>
       <c r="T108" t="inlineStr"/>
       <c r="U108" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="V108" t="n">
         <v>1.23</v>
       </c>
       <c r="W108" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="X108" t="n">
-        <v>2.62</v>
+        <v>2.55</v>
       </c>
       <c r="Y108" t="n">
         <v>1.85</v>
@@ -15851,22 +15855,22 @@
         <v>6.8</v>
       </c>
       <c r="AB108" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AC108" t="n">
         <v>8.75</v>
       </c>
       <c r="AD108" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE108" t="n">
         <v>19</v>
       </c>
       <c r="AF108" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AG108" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AH108" t="n">
         <v>5.7</v>
@@ -15881,19 +15885,19 @@
         <v>700</v>
       </c>
       <c r="AL108" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AM108" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AN108" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AO108" t="n">
         <v>50</v>
       </c>
       <c r="AP108" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AQ108" t="n">
         <v>45</v>
@@ -16074,87 +16078,87 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="H110" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="I110" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="J110" t="n">
-        <v>3.65</v>
+        <v>4.15</v>
       </c>
       <c r="K110" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="L110" t="n">
-        <v>2.52</v>
+        <v>2.3</v>
       </c>
       <c r="M110" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N110" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="O110" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P110" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Q110" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="R110" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S110" t="inlineStr"/>
       <c r="T110" t="inlineStr"/>
       <c r="U110" t="n">
-        <v>2.37</v>
+        <v>2.32</v>
       </c>
       <c r="V110" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="W110" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="X110" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="Y110" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="Z110" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="AA110" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AB110" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AC110" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AD110" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AE110" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AF110" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AG110" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AH110" t="n">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="AI110" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AJ110" t="n">
         <v>40</v>
@@ -16166,19 +16170,19 @@
         <v>10</v>
       </c>
       <c r="AM110" t="n">
-        <v>11.5</v>
+        <v>10.75</v>
       </c>
       <c r="AN110" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AO110" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AP110" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AQ110" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AR110" t="inlineStr"/>
       <c r="AS110" t="inlineStr"/>
@@ -16239,28 +16243,28 @@
         <v>17</v>
       </c>
       <c r="O111" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P111" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q111" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R111" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S111" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="T111" t="n">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="U111" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V111" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W111" t="n">
         <v>1.29</v>
@@ -16390,10 +16394,10 @@
         <v>3.75</v>
       </c>
       <c r="Q112" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R112" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S112" t="inlineStr"/>
       <c r="T112" t="inlineStr"/>
@@ -16501,28 +16505,28 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="H113" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I113" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="J113" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="K113" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="L113" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M113" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N113" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="O113" t="n">
         <v>1.14</v>
@@ -16531,28 +16535,28 @@
         <v>5.5</v>
       </c>
       <c r="Q113" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="R113" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="S113" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="T113" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="U113" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V113" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W113" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="X113" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Y113" t="n">
         <v>1.8</v>
@@ -16561,7 +16565,7 @@
         <v>1.91</v>
       </c>
       <c r="AA113" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB113" t="n">
         <v>7.5</v>
@@ -16579,10 +16583,10 @@
         <v>23</v>
       </c>
       <c r="AG113" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH113" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI113" t="n">
         <v>19</v>
@@ -16594,13 +16598,13 @@
         <v>201</v>
       </c>
       <c r="AL113" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM113" t="n">
         <v>41</v>
       </c>
       <c r="AN113" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO113" t="n">
         <v>101</v>
@@ -16670,16 +16674,16 @@
         <v>11</v>
       </c>
       <c r="O114" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P114" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q114" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R114" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S114" t="inlineStr"/>
       <c r="T114" t="inlineStr"/>
@@ -16808,7 +16812,7 @@
         <v>1.04</v>
       </c>
       <c r="N115" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O115" t="n">
         <v>1.22</v>
@@ -16817,10 +16821,10 @@
         <v>4</v>
       </c>
       <c r="Q115" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R115" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S115" t="inlineStr"/>
       <c r="T115" t="inlineStr"/>
@@ -16928,108 +16932,112 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="H116" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I116" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="J116" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K116" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L116" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M116" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N116" t="n">
+        <v>11</v>
+      </c>
+      <c r="O116" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P116" t="n">
         <v>3.75</v>
       </c>
-      <c r="I116" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J116" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K116" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L116" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M116" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N116" t="n">
+      <c r="Q116" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R116" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S116" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T116" t="n">
+        <v>2</v>
+      </c>
+      <c r="U116" t="n">
+        <v>3</v>
+      </c>
+      <c r="V116" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="W116" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X116" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y116" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Z116" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AA116" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB116" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AC116" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD116" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE116" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF116" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG116" t="n">
         <v>10</v>
       </c>
-      <c r="O116" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P116" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q116" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R116" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S116" t="inlineStr"/>
-      <c r="T116" t="inlineStr"/>
-      <c r="U116" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="V116" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="W116" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X116" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="Y116" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="Z116" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="AA116" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB116" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AC116" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD116" t="n">
+      <c r="AH116" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI116" t="n">
         <v>15</v>
-      </c>
-      <c r="AE116" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF116" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG116" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AH116" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI116" t="n">
-        <v>17</v>
       </c>
       <c r="AJ116" t="n">
         <v>51</v>
       </c>
       <c r="AK116" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AL116" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AM116" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AN116" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AO116" t="n">
+        <v>51</v>
+      </c>
+      <c r="AP116" t="n">
         <v>41</v>
-      </c>
-      <c r="AP116" t="n">
-        <v>34</v>
       </c>
       <c r="AQ116" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-02.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-02.xlsx
@@ -710,22 +710,22 @@
         <v>3.4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O2" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="P2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="R2" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="S2" t="n">
         <v>1.85</v>
@@ -734,10 +734,10 @@
         <v>2.05</v>
       </c>
       <c r="U2" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V2" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W2" t="n">
         <v>1.2</v>
@@ -837,108 +837,108 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="H3" t="n">
         <v>3.5</v>
       </c>
       <c r="I3" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K3" t="n">
         <v>2.2</v>
       </c>
       <c r="L3" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O3" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P3" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="V3" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W3" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X3" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="Z3" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AA3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AB3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AC3" t="n">
         <v>9.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE3" t="n">
         <v>17</v>
       </c>
       <c r="AF3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH3" t="n">
         <v>7</v>
       </c>
       <c r="AI3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ3" t="n">
         <v>51</v>
       </c>
       <c r="AK3" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AL3" t="n">
         <v>15</v>
       </c>
       <c r="AM3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO3" t="n">
         <v>51</v>
       </c>
       <c r="AP3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ3" t="n">
         <v>41</v>
@@ -987,7 +987,7 @@
         <v>3.9</v>
       </c>
       <c r="J4" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K4" t="n">
         <v>2.3</v>
@@ -1002,24 +1002,24 @@
         <v>13</v>
       </c>
       <c r="O4" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P4" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="R4" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V4" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W4" t="n">
         <v>1.33</v>
@@ -1037,7 +1037,7 @@
         <v>10</v>
       </c>
       <c r="AB4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC4" t="n">
         <v>9.5</v>
@@ -1079,7 +1079,7 @@
         <v>41</v>
       </c>
       <c r="AP4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ4" t="n">
         <v>34</v>
@@ -1119,13 +1119,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="H5" t="n">
         <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="J5" t="n">
         <v>3.25</v>
@@ -1134,7 +1134,7 @@
         <v>2.2</v>
       </c>
       <c r="L5" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
@@ -1175,7 +1175,7 @@
         <v>2.05</v>
       </c>
       <c r="AA5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB5" t="n">
         <v>13</v>
@@ -1208,7 +1208,7 @@
         <v>201</v>
       </c>
       <c r="AL5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AM5" t="n">
         <v>13</v>
@@ -1260,13 +1260,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H6" t="n">
         <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J6" t="n">
         <v>2.63</v>
@@ -1319,13 +1319,13 @@
         <v>6</v>
       </c>
       <c r="AB6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AC6" t="n">
         <v>9</v>
       </c>
       <c r="AD6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE6" t="n">
         <v>17</v>
@@ -1340,7 +1340,7 @@
         <v>6.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ6" t="n">
         <v>67</v>
@@ -1355,13 +1355,13 @@
         <v>19</v>
       </c>
       <c r="AN6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO6" t="n">
         <v>41</v>
       </c>
       <c r="AP6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ6" t="n">
         <v>41</v>
@@ -1404,45 +1404,45 @@
         <v>2.2</v>
       </c>
       <c r="H7" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I7" t="n">
         <v>3.4</v>
       </c>
-      <c r="I7" t="n">
-        <v>3.3</v>
-      </c>
       <c r="J7" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L7" t="n">
         <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="P7" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R7" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V7" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W7" t="n">
         <v>1.44</v>
@@ -1451,19 +1451,19 @@
         <v>2.63</v>
       </c>
       <c r="Y7" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Z7" t="n">
         <v>1.8</v>
       </c>
-      <c r="Z7" t="n">
-        <v>1.95</v>
-      </c>
       <c r="AA7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB7" t="n">
         <v>10</v>
       </c>
       <c r="AC7" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD7" t="n">
         <v>21</v>
@@ -1475,10 +1475,10 @@
         <v>29</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI7" t="n">
         <v>15</v>
@@ -1487,13 +1487,13 @@
         <v>51</v>
       </c>
       <c r="AK7" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AL7" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AM7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN7" t="n">
         <v>12</v>
@@ -1505,7 +1505,7 @@
         <v>29</v>
       </c>
       <c r="AQ7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR7" t="inlineStr"/>
       <c r="AS7" t="inlineStr"/>
@@ -1542,16 +1542,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H8" t="n">
         <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="J8" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K8" t="n">
         <v>2.2</v>
@@ -1572,10 +1572,10 @@
         <v>3.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="R8" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
@@ -1592,10 +1592,10 @@
         <v>2.75</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="Z8" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AA8" t="n">
         <v>8</v>
@@ -1610,7 +1610,7 @@
         <v>19</v>
       </c>
       <c r="AE8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF8" t="n">
         <v>26</v>
@@ -1643,7 +1643,7 @@
         <v>41</v>
       </c>
       <c r="AP8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ8" t="n">
         <v>34</v>
@@ -1689,7 +1689,7 @@
         <v>3.8</v>
       </c>
       <c r="I9" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J9" t="n">
         <v>2.6</v>
@@ -1704,13 +1704,13 @@
         <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O9" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P9" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q9" t="n">
         <v>1.62</v>
@@ -1743,7 +1743,7 @@
         <v>2.38</v>
       </c>
       <c r="AA9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB9" t="n">
         <v>12</v>
@@ -1770,7 +1770,7 @@
         <v>12</v>
       </c>
       <c r="AJ9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK9" t="n">
         <v>126</v>
@@ -1782,7 +1782,7 @@
         <v>19</v>
       </c>
       <c r="AN9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO9" t="n">
         <v>34</v>
@@ -1831,97 +1831,97 @@
         <v>1.95</v>
       </c>
       <c r="H10" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I10" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J10" t="n">
         <v>2.5</v>
       </c>
       <c r="K10" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="L10" t="n">
         <v>3.75</v>
       </c>
       <c r="M10" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N10" t="n">
+        <v>15</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF10" t="n">
         <v>21</v>
       </c>
-      <c r="O10" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P10" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W10" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="X10" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>19</v>
-      </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AH10" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AI10" t="n">
         <v>12</v>
       </c>
       <c r="AJ10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK10" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AL10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM10" t="n">
         <v>21</v>
@@ -1933,10 +1933,10 @@
         <v>41</v>
       </c>
       <c r="AP10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ10" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AR10" t="inlineStr"/>
       <c r="AS10" t="inlineStr"/>
@@ -1991,30 +1991,30 @@
         <v>8.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N11" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="O11" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="P11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="R11" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="n">
+        <v>2</v>
+      </c>
+      <c r="V11" t="n">
         <v>1.8</v>
-      </c>
-      <c r="V11" t="n">
-        <v>2</v>
       </c>
       <c r="W11" t="n">
         <v>1.2</v>
@@ -2029,16 +2029,16 @@
         <v>1.95</v>
       </c>
       <c r="AA11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB11" t="n">
         <v>8</v>
       </c>
       <c r="AC11" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE11" t="n">
         <v>10</v>
@@ -2047,7 +2047,7 @@
         <v>23</v>
       </c>
       <c r="AG11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH11" t="n">
         <v>15</v>
@@ -2059,7 +2059,7 @@
         <v>51</v>
       </c>
       <c r="AK11" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL11" t="n">
         <v>29</v>
@@ -2068,13 +2068,13 @@
         <v>51</v>
       </c>
       <c r="AN11" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO11" t="n">
         <v>126</v>
       </c>
       <c r="AP11" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AQ11" t="n">
         <v>51</v>
@@ -2114,13 +2114,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="H12" t="n">
         <v>4.5</v>
       </c>
       <c r="I12" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J12" t="n">
         <v>1.95</v>
@@ -2129,7 +2129,7 @@
         <v>2.3</v>
       </c>
       <c r="L12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M12" t="n">
         <v>1.05</v>
@@ -2138,42 +2138,42 @@
         <v>11</v>
       </c>
       <c r="O12" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P12" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.01</v>
+        <v>1.88</v>
       </c>
       <c r="R12" t="n">
-        <v>1.89</v>
+        <v>2.02</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="V12" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="W12" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X12" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y12" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="Z12" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="AA12" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AC12" t="n">
         <v>9</v>
@@ -2182,41 +2182,43 @@
         <v>9</v>
       </c>
       <c r="AE12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF12" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH12" t="n">
         <v>8.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>451</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO12" t="n">
         <v>81</v>
       </c>
-      <c r="AK12" t="inlineStr"/>
-      <c r="AL12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>101</v>
-      </c>
       <c r="AP12" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AQ12" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR12" t="inlineStr"/>
       <c r="AS12" t="inlineStr"/>
@@ -2303,10 +2305,10 @@
         <v>2.63</v>
       </c>
       <c r="Y13" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="Z13" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AA13" t="n">
         <v>6</v>
@@ -2348,7 +2350,7 @@
         <v>23</v>
       </c>
       <c r="AN13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO13" t="n">
         <v>51</v>
@@ -2357,7 +2359,7 @@
         <v>41</v>
       </c>
       <c r="AQ13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR13" t="inlineStr"/>
       <c r="AS13" t="inlineStr"/>
@@ -2400,7 +2402,7 @@
         <v>3.6</v>
       </c>
       <c r="I14" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="J14" t="n">
         <v>4.33</v>
@@ -2412,10 +2414,10 @@
         <v>2.4</v>
       </c>
       <c r="M14" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O14" t="n">
         <v>1.22</v>
@@ -2444,25 +2446,25 @@
         <v>3.25</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Z14" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AA14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD14" t="n">
         <v>41</v>
       </c>
       <c r="AE14" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF14" t="n">
         <v>34</v>
@@ -2474,7 +2476,7 @@
         <v>7</v>
       </c>
       <c r="AI14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ14" t="n">
         <v>41</v>
@@ -2483,7 +2485,7 @@
         <v>151</v>
       </c>
       <c r="AL14" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AM14" t="n">
         <v>9.5</v>
@@ -2676,40 +2678,40 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H16" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I16" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J16" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K16" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L16" t="n">
         <v>3.75</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N16" t="n">
         <v>11</v>
       </c>
       <c r="O16" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="P16" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R16" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S16" t="n">
         <v>2.05</v>
@@ -2721,7 +2723,7 @@
         <v>3.25</v>
       </c>
       <c r="V16" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W16" t="n">
         <v>1.4</v>
@@ -2730,31 +2732,31 @@
         <v>2.75</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="Z16" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AA16" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB16" t="n">
         <v>11</v>
       </c>
       <c r="AC16" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD16" t="n">
         <v>21</v>
       </c>
       <c r="AE16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF16" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG16" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH16" t="n">
         <v>6</v>
@@ -2769,10 +2771,10 @@
         <v>201</v>
       </c>
       <c r="AL16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN16" t="n">
         <v>12</v>
@@ -2821,40 +2823,40 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H17" t="n">
         <v>3.6</v>
       </c>
       <c r="I17" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="J17" t="n">
         <v>2.75</v>
       </c>
       <c r="K17" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L17" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M17" t="n">
         <v>1.03</v>
       </c>
       <c r="N17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O17" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P17" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="R17" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="S17" t="n">
         <v>2.05</v>
@@ -2863,73 +2865,73 @@
         <v>1.8</v>
       </c>
       <c r="U17" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V17" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="W17" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="X17" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Z17" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AA17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC17" t="n">
         <v>9</v>
       </c>
       <c r="AD17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE17" t="n">
         <v>15</v>
       </c>
       <c r="AF17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG17" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AH17" t="n">
         <v>7</v>
       </c>
       <c r="AI17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ17" t="n">
         <v>41</v>
       </c>
       <c r="AK17" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AL17" t="n">
         <v>12</v>
       </c>
       <c r="AM17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO17" t="n">
         <v>34</v>
       </c>
       <c r="AP17" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AQ17" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR17" t="inlineStr"/>
       <c r="AS17" t="inlineStr"/>
@@ -2966,52 +2968,52 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.55</v>
+        <v>2.38</v>
       </c>
       <c r="H18" t="n">
         <v>3.7</v>
       </c>
       <c r="I18" t="n">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="J18" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="K18" t="n">
         <v>2.38</v>
       </c>
       <c r="L18" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M18" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O18" t="n">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="P18" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="R18" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="S18" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T18" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="U18" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V18" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="W18" t="n">
         <v>1.29</v>
@@ -3032,13 +3034,13 @@
         <v>15</v>
       </c>
       <c r="AC18" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF18" t="n">
         <v>21</v>
@@ -3059,22 +3061,22 @@
         <v>101</v>
       </c>
       <c r="AL18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN18" t="n">
         <v>10</v>
       </c>
       <c r="AO18" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP18" t="n">
         <v>19</v>
       </c>
       <c r="AQ18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR18" t="inlineStr"/>
       <c r="AS18" t="inlineStr"/>
@@ -3114,7 +3116,7 @@
         <v>1.83</v>
       </c>
       <c r="H19" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I19" t="n">
         <v>4.5</v>
@@ -3135,24 +3137,24 @@
         <v>11</v>
       </c>
       <c r="O19" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P19" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="R19" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V19" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W19" t="n">
         <v>1.4</v>
@@ -3161,13 +3163,13 @@
         <v>2.75</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="Z19" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="AA19" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB19" t="n">
         <v>8.5</v>
@@ -3185,10 +3187,10 @@
         <v>26</v>
       </c>
       <c r="AG19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH19" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI19" t="n">
         <v>15</v>
@@ -3203,13 +3205,13 @@
         <v>12</v>
       </c>
       <c r="AM19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO19" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP19" t="n">
         <v>34</v>
@@ -3252,69 +3254,69 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="H20" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I20" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="J20" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N20" t="n">
+        <v>9</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R20" t="n">
         <v>1.7</v>
-      </c>
-      <c r="J20" t="n">
-        <v>5</v>
-      </c>
-      <c r="K20" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L20" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N20" t="n">
-        <v>11</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P20" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.85</v>
       </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="V20" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="W20" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X20" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="Z20" t="n">
-        <v>1.91</v>
+        <v>1.72</v>
       </c>
       <c r="AA20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD20" t="n">
         <v>51</v>
@@ -3323,40 +3325,40 @@
         <v>41</v>
       </c>
       <c r="AF20" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH20" t="n">
         <v>7</v>
       </c>
       <c r="AI20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ20" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK20" t="n">
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="AL20" t="n">
+        <v>6</v>
+      </c>
+      <c r="AM20" t="n">
         <v>7</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>8</v>
       </c>
       <c r="AN20" t="n">
         <v>8.5</v>
       </c>
       <c r="AO20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP20" t="n">
         <v>15</v>
       </c>
       <c r="AQ20" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR20" t="inlineStr"/>
       <c r="AS20" t="inlineStr"/>
@@ -3443,10 +3445,10 @@
         <v>4.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="Z21" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="AA21" t="n">
         <v>12</v>
@@ -3458,7 +3460,7 @@
         <v>11</v>
       </c>
       <c r="AD21" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE21" t="n">
         <v>10</v>
@@ -3467,22 +3469,22 @@
         <v>26</v>
       </c>
       <c r="AG21" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH21" t="n">
         <v>15</v>
       </c>
       <c r="AI21" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ21" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK21" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AL21" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM21" t="n">
         <v>67</v>
@@ -3491,7 +3493,7 @@
         <v>34</v>
       </c>
       <c r="AO21" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AP21" t="n">
         <v>81</v>
@@ -3534,19 +3536,19 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H22" t="n">
         <v>3.1</v>
       </c>
       <c r="I22" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J22" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K22" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L22" t="n">
         <v>4</v>
@@ -3564,18 +3566,18 @@
         <v>3</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="R22" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="V22" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W22" t="n">
         <v>1.5</v>
@@ -3584,16 +3586,16 @@
         <v>2.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="Z22" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="AA22" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB22" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AC22" t="n">
         <v>9.5</v>
@@ -3608,7 +3610,7 @@
         <v>34</v>
       </c>
       <c r="AG22" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AH22" t="n">
         <v>6</v>
@@ -3620,7 +3622,7 @@
         <v>51</v>
       </c>
       <c r="AK22" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AL22" t="n">
         <v>9</v>
@@ -3632,10 +3634,10 @@
         <v>13</v>
       </c>
       <c r="AO22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP22" t="n">
         <v>34</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>29</v>
       </c>
       <c r="AQ22" t="n">
         <v>41</v>
@@ -3675,16 +3677,16 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H23" t="n">
         <v>3</v>
       </c>
       <c r="I23" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J23" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K23" t="n">
         <v>1.91</v>
@@ -3699,16 +3701,16 @@
         <v>6.5</v>
       </c>
       <c r="O23" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P23" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R23" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
@@ -3719,10 +3721,10 @@
         <v>1.17</v>
       </c>
       <c r="W23" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="X23" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y23" t="n">
         <v>2.1</v>
@@ -3758,22 +3760,22 @@
         <v>19</v>
       </c>
       <c r="AJ23" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AK23" t="n">
         <v>501</v>
       </c>
       <c r="AL23" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AM23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN23" t="n">
         <v>11</v>
       </c>
       <c r="AO23" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP23" t="n">
         <v>23</v>
@@ -3782,10 +3784,10 @@
         <v>41</v>
       </c>
       <c r="AR23" t="n">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="24">
@@ -3965,16 +3967,16 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="H25" t="n">
         <v>3.4</v>
       </c>
       <c r="I25" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="J25" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="K25" t="n">
         <v>1.91</v>
@@ -4028,7 +4030,7 @@
         <v>9</v>
       </c>
       <c r="AB25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC25" t="n">
         <v>17</v>
@@ -4037,7 +4039,7 @@
         <v>51</v>
       </c>
       <c r="AE25" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AF25" t="n">
         <v>51</v>
@@ -4046,7 +4048,7 @@
         <v>6.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI25" t="n">
         <v>23</v>
@@ -4067,7 +4069,7 @@
         <v>9.5</v>
       </c>
       <c r="AO25" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP25" t="n">
         <v>19</v>
@@ -4114,28 +4116,28 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="H26" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I26" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J26" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K26" t="n">
         <v>1.91</v>
       </c>
       <c r="L26" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N26" t="n">
         <v>6</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N26" t="n">
-        <v>6.5</v>
       </c>
       <c r="O26" t="n">
         <v>1.57</v>
@@ -4174,16 +4176,16 @@
         <v>1.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AB26" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE26" t="n">
         <v>21</v>
@@ -4207,7 +4209,7 @@
         <v>101</v>
       </c>
       <c r="AL26" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM26" t="n">
         <v>21</v>
@@ -4219,7 +4221,7 @@
         <v>51</v>
       </c>
       <c r="AP26" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AQ26" t="n">
         <v>51</v>
@@ -4591,10 +4593,10 @@
         <v>2.5</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R29" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S29" t="n">
         <v>4.1</v>
@@ -4603,10 +4605,10 @@
         <v>1.24</v>
       </c>
       <c r="U29" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="V29" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="W29" t="n">
         <v>1.57</v>
@@ -4672,10 +4674,10 @@
         <v>41</v>
       </c>
       <c r="AR29" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="30">
@@ -4877,10 +4879,10 @@
         <v>4.33</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R31" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
@@ -4991,16 +4993,16 @@
         <v>1.42</v>
       </c>
       <c r="H32" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I32" t="n">
         <v>7.5</v>
       </c>
       <c r="J32" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="K32" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L32" t="n">
         <v>6.5</v>
@@ -5012,16 +5014,16 @@
         <v>15</v>
       </c>
       <c r="O32" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P32" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R32" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S32" t="n">
         <v>2.05</v>
@@ -5036,40 +5038,40 @@
         <v>1.44</v>
       </c>
       <c r="W32" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X32" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Y32" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="Z32" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AA32" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB32" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AC32" t="n">
         <v>8.5</v>
       </c>
       <c r="AD32" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE32" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF32" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG32" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH32" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI32" t="n">
         <v>17</v>
@@ -5078,7 +5080,7 @@
         <v>51</v>
       </c>
       <c r="AK32" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AL32" t="n">
         <v>21</v>
@@ -5136,19 +5138,19 @@
         <v>2.15</v>
       </c>
       <c r="H33" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I33" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J33" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K33" t="n">
         <v>2.25</v>
       </c>
       <c r="L33" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M33" t="n">
         <v>1.04</v>
@@ -5163,10 +5165,10 @@
         <v>4</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R33" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
@@ -5192,7 +5194,7 @@
         <v>9</v>
       </c>
       <c r="AB33" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC33" t="n">
         <v>9</v>
@@ -5213,7 +5215,7 @@
         <v>6.5</v>
       </c>
       <c r="AI33" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ33" t="n">
         <v>41</v>
@@ -5228,7 +5230,7 @@
         <v>17</v>
       </c>
       <c r="AN33" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO33" t="n">
         <v>34</v>
@@ -5415,66 +5417,66 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="H35" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I35" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="J35" t="n">
         <v>4</v>
       </c>
       <c r="K35" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L35" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="M35" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N35" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O35" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P35" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.73</v>
+        <v>1.98</v>
       </c>
       <c r="R35" t="n">
-        <v>2.08</v>
+        <v>1.88</v>
       </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X35" t="n">
         <v>2.75</v>
       </c>
-      <c r="V35" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="W35" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X35" t="n">
-        <v>3.25</v>
-      </c>
       <c r="Y35" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="Z35" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AA35" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AB35" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC35" t="n">
         <v>13</v>
@@ -5489,10 +5491,10 @@
         <v>34</v>
       </c>
       <c r="AG35" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH35" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI35" t="n">
         <v>13</v>
@@ -5501,25 +5503,25 @@
         <v>41</v>
       </c>
       <c r="AK35" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL35" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM35" t="n">
         <v>10</v>
       </c>
       <c r="AN35" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AO35" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP35" t="n">
         <v>17</v>
       </c>
-      <c r="AP35" t="n">
-        <v>15</v>
-      </c>
       <c r="AQ35" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR35" t="inlineStr"/>
       <c r="AS35" t="inlineStr"/>
@@ -5574,13 +5576,13 @@
         <v>3.25</v>
       </c>
       <c r="M36" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N36" t="n">
         <v>13</v>
       </c>
       <c r="O36" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P36" t="n">
         <v>3.75</v>
@@ -5597,7 +5599,7 @@
         <v>3</v>
       </c>
       <c r="V36" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W36" t="n">
         <v>1.36</v>
@@ -5715,13 +5717,13 @@
         <v>2.88</v>
       </c>
       <c r="M37" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N37" t="n">
         <v>13</v>
       </c>
       <c r="O37" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P37" t="n">
         <v>4</v>
@@ -5738,7 +5740,7 @@
         <v>2.75</v>
       </c>
       <c r="V37" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="W37" t="n">
         <v>1.33</v>
@@ -5838,28 +5840,28 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="H38" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="I38" t="n">
-        <v>2.63</v>
+        <v>3.2</v>
       </c>
       <c r="J38" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K38" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L38" t="n">
         <v>3.75</v>
       </c>
-      <c r="K38" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L38" t="n">
-        <v>3.4</v>
-      </c>
       <c r="M38" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N38" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O38" t="n">
         <v>1.44</v>
@@ -5886,10 +5888,10 @@
         <v>1.18</v>
       </c>
       <c r="W38" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="X38" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Y38" t="n">
         <v>2</v>
@@ -5898,19 +5900,19 @@
         <v>1.73</v>
       </c>
       <c r="AA38" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AB38" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AC38" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AD38" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AE38" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AF38" t="n">
         <v>41</v>
@@ -5931,19 +5933,19 @@
         <v>1250</v>
       </c>
       <c r="AL38" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AM38" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AN38" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AO38" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AP38" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ38" t="n">
         <v>41</v>
@@ -5993,10 +5995,10 @@
         <v>3.8</v>
       </c>
       <c r="I39" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J39" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K39" t="n">
         <v>2.1</v>
@@ -6005,16 +6007,16 @@
         <v>6.5</v>
       </c>
       <c r="M39" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N39" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O39" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P39" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q39" t="n">
         <v>2.2</v>
@@ -6035,7 +6037,7 @@
         <v>1.22</v>
       </c>
       <c r="W39" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="X39" t="n">
         <v>2.5</v>
@@ -6068,7 +6070,7 @@
         <v>8</v>
       </c>
       <c r="AH39" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI39" t="n">
         <v>23</v>
@@ -6080,7 +6082,7 @@
         <v>1250</v>
       </c>
       <c r="AL39" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM39" t="n">
         <v>29</v>
@@ -6184,7 +6186,7 @@
         <v>1.3</v>
       </c>
       <c r="W40" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="X40" t="n">
         <v>2.75</v>
@@ -6303,10 +6305,10 @@
         <v>3.6</v>
       </c>
       <c r="M41" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N41" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O41" t="n">
         <v>1.5</v>
@@ -6315,10 +6317,10 @@
         <v>2.5</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R41" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S41" t="n">
         <v>4.2</v>
@@ -6327,13 +6329,13 @@
         <v>1.22</v>
       </c>
       <c r="U41" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="V41" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="W41" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="X41" t="n">
         <v>2.25</v>
@@ -6396,10 +6398,10 @@
         <v>41</v>
       </c>
       <c r="AR41" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="42">
@@ -6440,7 +6442,7 @@
         <v>3.25</v>
       </c>
       <c r="I42" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="J42" t="n">
         <v>4.33</v>
@@ -6449,7 +6451,7 @@
         <v>2.1</v>
       </c>
       <c r="L42" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="M42" t="n">
         <v>1.06</v>
@@ -6484,10 +6486,10 @@
         <v>2.63</v>
       </c>
       <c r="Y42" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Z42" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AA42" t="n">
         <v>10</v>
@@ -6575,22 +6577,22 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="H43" t="n">
         <v>3.6</v>
       </c>
       <c r="I43" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="J43" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="K43" t="n">
         <v>2.3</v>
       </c>
       <c r="L43" t="n">
-        <v>2.3</v>
+        <v>2.37</v>
       </c>
       <c r="M43" t="n">
         <v>1.04</v>
@@ -6619,19 +6621,19 @@
         <v>1.4</v>
       </c>
       <c r="W43" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X43" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Y43" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="Z43" t="n">
         <v>2</v>
       </c>
       <c r="AA43" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB43" t="n">
         <v>23</v>
@@ -6640,13 +6642,13 @@
         <v>15</v>
       </c>
       <c r="AD43" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AE43" t="n">
         <v>34</v>
       </c>
       <c r="AF43" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG43" t="n">
         <v>12</v>
@@ -7001,7 +7003,7 @@
         <v>1.32</v>
       </c>
       <c r="H46" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I46" t="n">
         <v>8.75</v>
@@ -7013,7 +7015,7 @@
         <v>2.42</v>
       </c>
       <c r="L46" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="M46" t="n">
         <v>1.04</v>
@@ -7063,7 +7065,7 @@
         <v>9.25</v>
       </c>
       <c r="AD46" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AE46" t="n">
         <v>12</v>
@@ -7090,10 +7092,10 @@
         <v>18.5</v>
       </c>
       <c r="AM46" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AN46" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AO46" t="n">
         <v>250</v>
@@ -7157,30 +7159,30 @@
         <v>2.4</v>
       </c>
       <c r="M47" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N47" t="n">
         <v>11</v>
       </c>
       <c r="O47" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P47" t="n">
         <v>3.5</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R47" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V47" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="W47" t="n">
         <v>1.4</v>
@@ -7280,40 +7282,40 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H48" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I48" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J48" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K48" t="n">
         <v>2.25</v>
       </c>
       <c r="L48" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M48" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N48" t="n">
         <v>13</v>
       </c>
       <c r="O48" t="n">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="P48" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R48" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
@@ -7321,7 +7323,7 @@
         <v>3</v>
       </c>
       <c r="V48" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W48" t="n">
         <v>1.36</v>
@@ -7330,13 +7332,13 @@
         <v>3</v>
       </c>
       <c r="Y48" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Z48" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AA48" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB48" t="n">
         <v>8.5</v>
@@ -7351,13 +7353,13 @@
         <v>13</v>
       </c>
       <c r="AF48" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG48" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH48" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI48" t="n">
         <v>15</v>
@@ -7366,7 +7368,7 @@
         <v>51</v>
       </c>
       <c r="AK48" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AL48" t="n">
         <v>13</v>
@@ -7421,13 +7423,13 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="H49" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="I49" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J49" t="n">
         <v>1.57</v>
@@ -7436,7 +7438,7 @@
         <v>2.88</v>
       </c>
       <c r="L49" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="M49" t="n">
         <v>1.02</v>
@@ -7463,55 +7465,55 @@
         <v>2.03</v>
       </c>
       <c r="U49" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V49" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W49" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="X49" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Y49" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Z49" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AA49" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AB49" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AC49" t="n">
         <v>10</v>
       </c>
       <c r="AD49" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE49" t="n">
         <v>11</v>
       </c>
       <c r="AF49" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG49" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH49" t="n">
         <v>15</v>
       </c>
       <c r="AI49" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ49" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AK49" t="n">
-        <v>501</v>
+        <v>351</v>
       </c>
       <c r="AL49" t="n">
         <v>26</v>
@@ -7520,16 +7522,16 @@
         <v>51</v>
       </c>
       <c r="AN49" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AO49" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AP49" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AQ49" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR49" t="inlineStr"/>
       <c r="AS49" t="inlineStr"/>
@@ -7707,13 +7709,13 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="H51" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I51" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="J51" t="n">
         <v>6.7</v>
@@ -7722,7 +7724,7 @@
         <v>2.05</v>
       </c>
       <c r="L51" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="M51" t="n">
         <v>1.1</v>
@@ -7751,19 +7753,19 @@
         <v>1.18</v>
       </c>
       <c r="W51" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="X51" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="Y51" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="Z51" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AA51" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AB51" t="n">
         <v>37</v>
@@ -7784,7 +7786,7 @@
         <v>5.8</v>
       </c>
       <c r="AH51" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AI51" t="n">
         <v>27</v>
@@ -7796,22 +7798,22 @@
         <v>101</v>
       </c>
       <c r="AL51" t="n">
-        <v>4.7</v>
+        <v>4.65</v>
       </c>
       <c r="AM51" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="AN51" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AO51" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AP51" t="n">
         <v>16</v>
       </c>
       <c r="AQ51" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AR51" t="inlineStr"/>
       <c r="AS51" t="inlineStr"/>
@@ -7848,22 +7850,22 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H52" t="n">
         <v>3.3</v>
       </c>
       <c r="I52" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J52" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K52" t="n">
         <v>2.25</v>
       </c>
       <c r="L52" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M52" t="n">
         <v>1.04</v>
@@ -7898,13 +7900,13 @@
         <v>3.25</v>
       </c>
       <c r="Y52" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Z52" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AA52" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB52" t="n">
         <v>17</v>
@@ -7913,13 +7915,13 @@
         <v>11</v>
       </c>
       <c r="AD52" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE52" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF52" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG52" t="n">
         <v>13</v>
@@ -7934,19 +7936,19 @@
         <v>41</v>
       </c>
       <c r="AK52" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AL52" t="n">
         <v>10</v>
       </c>
       <c r="AM52" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN52" t="n">
         <v>9.5</v>
       </c>
       <c r="AO52" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP52" t="n">
         <v>17</v>
@@ -7989,22 +7991,22 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="H53" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I53" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="J53" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K53" t="n">
         <v>2.38</v>
       </c>
       <c r="L53" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M53" t="n">
         <v>1.03</v>
@@ -8019,16 +8021,16 @@
         <v>4.5</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R53" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S53" t="n">
-        <v>2.05</v>
+        <v>1.94</v>
       </c>
       <c r="T53" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U53" t="n">
         <v>2.5</v>
@@ -8043,25 +8045,25 @@
         <v>3.4</v>
       </c>
       <c r="Y53" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Z53" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AA53" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB53" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC53" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD53" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE53" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF53" t="n">
         <v>21</v>
@@ -8076,7 +8078,7 @@
         <v>12</v>
       </c>
       <c r="AJ53" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK53" t="n">
         <v>126</v>
@@ -8088,16 +8090,16 @@
         <v>21</v>
       </c>
       <c r="AN53" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO53" t="n">
         <v>41</v>
       </c>
       <c r="AP53" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AQ53" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR53" t="inlineStr"/>
       <c r="AS53" t="inlineStr"/>
@@ -8134,19 +8136,19 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.85</v>
+        <v>1.77</v>
       </c>
       <c r="H54" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I54" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J54" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K54" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L54" t="n">
         <v>4.33</v>
@@ -8178,19 +8180,19 @@
         <v>1.4</v>
       </c>
       <c r="W54" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X54" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Y54" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="Z54" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AA54" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB54" t="n">
         <v>9.5</v>
@@ -8202,25 +8204,25 @@
         <v>15</v>
       </c>
       <c r="AE54" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF54" t="n">
         <v>23</v>
       </c>
       <c r="AG54" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH54" t="n">
         <v>7</v>
       </c>
       <c r="AI54" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ54" t="n">
         <v>41</v>
       </c>
       <c r="AK54" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AL54" t="n">
         <v>13</v>
@@ -8275,22 +8277,22 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="H55" t="n">
         <v>4.1</v>
       </c>
       <c r="I55" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J55" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K55" t="n">
         <v>2.4</v>
       </c>
       <c r="L55" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M55" t="n">
         <v>1.03</v>
@@ -8311,10 +8313,10 @@
         <v>2.35</v>
       </c>
       <c r="S55" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="T55" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="U55" t="n">
         <v>2.38</v>
@@ -8368,13 +8370,13 @@
         <v>126</v>
       </c>
       <c r="AL55" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN55" t="n">
         <v>15</v>
-      </c>
-      <c r="AM55" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN55" t="n">
-        <v>13</v>
       </c>
       <c r="AO55" t="n">
         <v>41</v>
@@ -8383,7 +8385,7 @@
         <v>29</v>
       </c>
       <c r="AQ55" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR55" t="inlineStr"/>
       <c r="AS55" t="inlineStr"/>
@@ -8420,7 +8422,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H56" t="n">
         <v>4</v>
@@ -8458,10 +8460,10 @@
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V56" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="W56" t="n">
         <v>1.33</v>
@@ -8717,7 +8719,7 @@
         <v>2.3</v>
       </c>
       <c r="L58" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="M58" t="n">
         <v>1.03</v>
@@ -8847,28 +8849,28 @@
         </is>
       </c>
       <c r="G59" t="n">
+        <v>9</v>
+      </c>
+      <c r="H59" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J59" t="n">
         <v>8</v>
-      </c>
-      <c r="H59" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="J59" t="n">
-        <v>7.5</v>
       </c>
       <c r="K59" t="n">
         <v>2.25</v>
       </c>
       <c r="L59" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="M59" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N59" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O59" t="n">
         <v>1.3</v>
@@ -8883,10 +8885,10 @@
         <v>1.83</v>
       </c>
       <c r="S59" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="T59" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="U59" t="n">
         <v>3.5</v>
@@ -8901,34 +8903,34 @@
         <v>2.75</v>
       </c>
       <c r="Y59" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Z59" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AA59" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB59" t="n">
         <v>41</v>
       </c>
       <c r="AC59" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AD59" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AE59" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AF59" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG59" t="n">
         <v>9</v>
       </c>
       <c r="AH59" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI59" t="n">
         <v>23</v>
@@ -8940,7 +8942,7 @@
         <v>451</v>
       </c>
       <c r="AL59" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AM59" t="n">
         <v>6</v>
@@ -8949,7 +8951,7 @@
         <v>9</v>
       </c>
       <c r="AO59" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP59" t="n">
         <v>13</v>
@@ -8958,7 +8960,7 @@
         <v>34</v>
       </c>
       <c r="AR59" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="AS59" t="n">
         <v>2.5</v>
@@ -8999,10 +9001,10 @@
         <v>3.6</v>
       </c>
       <c r="H60" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I60" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J60" t="n">
         <v>4</v>
@@ -9020,28 +9022,28 @@
         <v>8</v>
       </c>
       <c r="O60" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P60" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R60" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S60" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T60" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="U60" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="V60" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="W60" t="n">
         <v>1.5</v>
@@ -9056,7 +9058,7 @@
         <v>1.8</v>
       </c>
       <c r="AA60" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB60" t="n">
         <v>17</v>
@@ -9068,7 +9070,7 @@
         <v>41</v>
       </c>
       <c r="AE60" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF60" t="n">
         <v>41</v>
@@ -9089,7 +9091,7 @@
         <v>351</v>
       </c>
       <c r="AL60" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AM60" t="n">
         <v>10</v>
@@ -9101,16 +9103,16 @@
         <v>21</v>
       </c>
       <c r="AP60" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ60" t="n">
         <v>34</v>
       </c>
       <c r="AR60" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="AS60" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="61">
@@ -9160,7 +9162,7 @@
         <v>2.05</v>
       </c>
       <c r="L61" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M61" t="n">
         <v>1.07</v>
@@ -9223,7 +9225,7 @@
         <v>34</v>
       </c>
       <c r="AG61" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH61" t="n">
         <v>6</v>
@@ -9318,34 +9320,34 @@
         <v>5.5</v>
       </c>
       <c r="O62" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P62" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q62" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="R62" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S62" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="T62" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="U62" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V62" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="W62" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="X62" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="Y62" t="n">
         <v>2.38</v>
@@ -9584,7 +9586,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H64" t="n">
         <v>3.3</v>
@@ -9608,39 +9610,39 @@
         <v>10</v>
       </c>
       <c r="O64" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P64" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q64" t="n">
-        <v>2.03</v>
+        <v>2.08</v>
       </c>
       <c r="R64" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V64" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W64" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X64" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y64" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Z64" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AA64" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB64" t="n">
         <v>12</v>
@@ -9658,7 +9660,7 @@
         <v>29</v>
       </c>
       <c r="AG64" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH64" t="n">
         <v>6.5</v>
@@ -9673,7 +9675,7 @@
         <v>251</v>
       </c>
       <c r="AL64" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM64" t="n">
         <v>13</v>
@@ -10011,22 +10013,22 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="H67" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="I67" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="J67" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="K67" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="L67" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr"/>
@@ -10057,52 +10059,52 @@
         <v>2.52</v>
       </c>
       <c r="Y67" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="Z67" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="AA67" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AB67" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AC67" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD67" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AE67" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AF67" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG67" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH67" t="n">
-        <v>8.25</v>
+        <v>7.8</v>
       </c>
       <c r="AI67" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AJ67" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AK67" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AL67" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AM67" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AN67" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AO67" t="n">
         <v>150</v>
@@ -10111,7 +10113,7 @@
         <v>65</v>
       </c>
       <c r="AQ67" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AR67" t="inlineStr"/>
       <c r="AS67" t="inlineStr"/>
@@ -10148,22 +10150,22 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="H68" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="I68" t="n">
-        <v>2.22</v>
+        <v>2.15</v>
       </c>
       <c r="J68" t="n">
-        <v>3.9</v>
+        <v>4.05</v>
       </c>
       <c r="K68" t="n">
         <v>1.98</v>
       </c>
       <c r="L68" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr"/>
@@ -10174,18 +10176,18 @@
         <v>2.62</v>
       </c>
       <c r="Q68" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="R68" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="V68" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="W68" t="n">
         <v>1.42</v>
@@ -10197,19 +10199,19 @@
         <v>1.78</v>
       </c>
       <c r="Z68" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="AA68" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AB68" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AC68" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AD68" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AE68" t="n">
         <v>35</v>
@@ -10224,7 +10226,7 @@
         <v>5.6</v>
       </c>
       <c r="AI68" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AJ68" t="n">
         <v>70</v>
@@ -10233,19 +10235,19 @@
         <v>600</v>
       </c>
       <c r="AL68" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AM68" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AN68" t="n">
         <v>8.75</v>
       </c>
       <c r="AO68" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP68" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AQ68" t="n">
         <v>32</v>
@@ -10285,50 +10287,50 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="H69" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I69" t="n">
-        <v>4.7</v>
+        <v>4.55</v>
       </c>
       <c r="J69" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="K69" t="n">
         <v>2.1</v>
       </c>
       <c r="L69" t="n">
-        <v>4.85</v>
+        <v>4.75</v>
       </c>
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P69" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="R69" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="n">
-        <v>2.87</v>
+        <v>2.92</v>
       </c>
       <c r="V69" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="W69" t="n">
         <v>1.4</v>
       </c>
       <c r="X69" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="Y69" t="n">
         <v>1.78</v>
@@ -10337,31 +10339,31 @@
         <v>1.83</v>
       </c>
       <c r="AA69" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AB69" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AC69" t="n">
         <v>8</v>
       </c>
       <c r="AD69" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AE69" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AF69" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG69" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH69" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AI69" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AJ69" t="n">
         <v>70</v>
@@ -10373,10 +10375,10 @@
         <v>13</v>
       </c>
       <c r="AM69" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AN69" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AO69" t="n">
         <v>80</v>
@@ -10440,30 +10442,30 @@
         <v>3.2</v>
       </c>
       <c r="M70" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N70" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O70" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="P70" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="R70" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="V70" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="W70" t="n">
         <v>1.4</v>
@@ -10472,7 +10474,7 @@
         <v>2.75</v>
       </c>
       <c r="Y70" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="Z70" t="n">
         <v>2</v>
@@ -10563,13 +10565,13 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H71" t="n">
         <v>3.1</v>
       </c>
       <c r="I71" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J71" t="n">
         <v>3.1</v>
@@ -10581,22 +10583,22 @@
         <v>3.75</v>
       </c>
       <c r="M71" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N71" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O71" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P71" t="n">
         <v>3</v>
       </c>
       <c r="Q71" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R71" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
@@ -10604,7 +10606,7 @@
         <v>4</v>
       </c>
       <c r="V71" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="W71" t="n">
         <v>1.5</v>
@@ -10613,22 +10615,22 @@
         <v>2.5</v>
       </c>
       <c r="Y71" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="Z71" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="AA71" t="n">
         <v>7</v>
       </c>
       <c r="AB71" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC71" t="n">
         <v>9.5</v>
       </c>
       <c r="AD71" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE71" t="n">
         <v>21</v>
@@ -10652,7 +10654,7 @@
         <v>351</v>
       </c>
       <c r="AL71" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AM71" t="n">
         <v>15</v>
@@ -10722,22 +10724,22 @@
         <v>3</v>
       </c>
       <c r="M72" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N72" t="n">
         <v>9</v>
       </c>
       <c r="O72" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P72" t="n">
         <v>3</v>
       </c>
       <c r="Q72" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R72" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
@@ -10745,7 +10747,7 @@
         <v>3.75</v>
       </c>
       <c r="V72" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W72" t="n">
         <v>1.44</v>
@@ -10754,10 +10756,10 @@
         <v>2.63</v>
       </c>
       <c r="Y72" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="Z72" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="AA72" t="n">
         <v>9</v>
@@ -10863,13 +10865,13 @@
         <v>4</v>
       </c>
       <c r="M73" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="N73" t="n">
         <v>6</v>
       </c>
       <c r="O73" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="P73" t="n">
         <v>2.25</v>
@@ -10886,7 +10888,7 @@
         <v>6</v>
       </c>
       <c r="V73" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="W73" t="n">
         <v>1.62</v>
@@ -10898,7 +10900,7 @@
         <v>2.2</v>
       </c>
       <c r="Z73" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="AA73" t="n">
         <v>6</v>
@@ -10990,7 +10992,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="H74" t="n">
         <v>3.1</v>
@@ -11008,10 +11010,10 @@
         <v>4.5</v>
       </c>
       <c r="M74" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N74" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O74" t="n">
         <v>1.4</v>
@@ -11020,10 +11022,10 @@
         <v>2.75</v>
       </c>
       <c r="Q74" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R74" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr"/>
@@ -11043,7 +11045,7 @@
         <v>2</v>
       </c>
       <c r="Z74" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="AA74" t="n">
         <v>6</v>
@@ -11276,13 +11278,13 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H76" t="n">
         <v>3.3</v>
       </c>
       <c r="I76" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J76" t="n">
         <v>3.1</v>
@@ -11306,10 +11308,10 @@
         <v>3.5</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R76" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr"/>
@@ -11417,13 +11419,13 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="H77" t="n">
         <v>3.4</v>
       </c>
       <c r="I77" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="J77" t="n">
         <v>3.5</v>
@@ -11432,7 +11434,7 @@
         <v>2.1</v>
       </c>
       <c r="L77" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M77" t="n">
         <v>1.06</v>
@@ -11476,7 +11478,7 @@
         <v>9</v>
       </c>
       <c r="AB77" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC77" t="n">
         <v>11</v>
@@ -11488,7 +11490,7 @@
         <v>23</v>
       </c>
       <c r="AF77" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG77" t="n">
         <v>10</v>
@@ -11506,7 +11508,7 @@
         <v>251</v>
       </c>
       <c r="AL77" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AM77" t="n">
         <v>12</v>
@@ -11691,103 +11693,103 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="H79" t="n">
-        <v>4.35</v>
+        <v>4.65</v>
       </c>
       <c r="I79" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="J79" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="K79" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="L79" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P79" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R79" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="S79" t="inlineStr"/>
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="n">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="V79" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="W79" t="inlineStr"/>
       <c r="X79" t="inlineStr"/>
       <c r="Y79" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="Z79" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="AA79" t="n">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="AB79" t="n">
         <v>6.9</v>
       </c>
       <c r="AC79" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AD79" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE79" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AF79" t="n">
         <v>25</v>
       </c>
       <c r="AG79" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH79" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AI79" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AJ79" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AK79" t="n">
         <v>600</v>
       </c>
       <c r="AL79" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AM79" t="n">
         <v>45</v>
       </c>
       <c r="AN79" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO79" t="n">
         <v>150</v>
       </c>
       <c r="AP79" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AQ79" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AR79" t="inlineStr"/>
       <c r="AS79" t="inlineStr"/>
@@ -11824,44 +11826,44 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="H80" t="n">
         <v>3.35</v>
       </c>
       <c r="I80" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="J80" t="n">
-        <v>3.95</v>
+        <v>4.15</v>
       </c>
       <c r="K80" t="n">
         <v>2.1</v>
       </c>
       <c r="L80" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="P80" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="R80" t="n">
-        <v>1.87</v>
+        <v>1.78</v>
       </c>
       <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="n">
-        <v>2.72</v>
+        <v>2.9</v>
       </c>
       <c r="V80" t="n">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="W80" t="n">
         <v>1.4</v>
@@ -11870,61 +11872,61 @@
         <v>2.52</v>
       </c>
       <c r="Y80" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="Z80" t="n">
-        <v>2.02</v>
+        <v>1.91</v>
       </c>
       <c r="AA80" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AB80" t="n">
         <v>21</v>
       </c>
       <c r="AC80" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AD80" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AE80" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AF80" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AG80" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="AH80" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AI80" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ80" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AK80" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="AL80" t="n">
-        <v>7.8</v>
+        <v>7.3</v>
       </c>
       <c r="AM80" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AN80" t="n">
         <v>8.25</v>
       </c>
       <c r="AO80" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AP80" t="n">
         <v>15</v>
       </c>
       <c r="AQ80" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AR80" t="inlineStr"/>
       <c r="AS80" t="inlineStr"/>
@@ -11961,13 +11963,13 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="H81" t="n">
         <v>3.5</v>
       </c>
       <c r="I81" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J81" t="n">
         <v>3</v>
@@ -12102,40 +12104,40 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="H82" t="n">
         <v>4.1</v>
       </c>
       <c r="I82" t="n">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="J82" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K82" t="n">
         <v>2.3</v>
       </c>
       <c r="L82" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M82" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N82" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O82" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P82" t="n">
         <v>3.75</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="R82" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr"/>
@@ -12143,7 +12145,7 @@
         <v>3</v>
       </c>
       <c r="V82" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W82" t="n">
         <v>1.36</v>
@@ -12152,43 +12154,43 @@
         <v>3</v>
       </c>
       <c r="Y82" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Z82" t="n">
         <v>1.95</v>
       </c>
-      <c r="Z82" t="n">
-        <v>1.8</v>
-      </c>
       <c r="AA82" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB82" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AC82" t="n">
         <v>8.5</v>
       </c>
       <c r="AD82" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE82" t="n">
         <v>13</v>
       </c>
       <c r="AF82" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG82" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH82" t="n">
         <v>8</v>
       </c>
       <c r="AI82" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ82" t="n">
         <v>51</v>
       </c>
       <c r="AK82" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AL82" t="n">
         <v>15</v>
@@ -12197,10 +12199,10 @@
         <v>29</v>
       </c>
       <c r="AN82" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO82" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AP82" t="n">
         <v>41</v>
@@ -12243,13 +12245,13 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="H83" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I83" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="J83" t="n">
         <v>2.2</v>
@@ -12297,10 +12299,10 @@
         <v>3.4</v>
       </c>
       <c r="Y83" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Z83" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AA83" t="n">
         <v>9</v>
@@ -12339,7 +12341,7 @@
         <v>17</v>
       </c>
       <c r="AM83" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN83" t="n">
         <v>15</v>
@@ -12388,13 +12390,13 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H84" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I84" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="J84" t="n">
         <v>2.05</v>
@@ -12403,7 +12405,7 @@
         <v>2.3</v>
       </c>
       <c r="L84" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M84" t="n">
         <v>1.05</v>
@@ -12412,16 +12414,16 @@
         <v>11</v>
       </c>
       <c r="O84" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P84" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R84" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr"/>
@@ -12438,31 +12440,31 @@
         <v>3</v>
       </c>
       <c r="Y84" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="Z84" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AA84" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB84" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AC84" t="n">
         <v>8.5</v>
       </c>
       <c r="AD84" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE84" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF84" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG84" t="n">
         <v>11</v>
-      </c>
-      <c r="AE84" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF84" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG84" t="n">
-        <v>12</v>
       </c>
       <c r="AH84" t="n">
         <v>8</v>
@@ -12471,28 +12473,28 @@
         <v>19</v>
       </c>
       <c r="AJ84" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK84" t="n">
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="AL84" t="n">
         <v>15</v>
       </c>
       <c r="AM84" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN84" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO84" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AP84" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AQ84" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR84" t="inlineStr"/>
       <c r="AS84" t="inlineStr"/>
@@ -12532,7 +12534,7 @@
         <v>1.17</v>
       </c>
       <c r="H85" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="I85" t="n">
         <v>17</v>
@@ -12547,10 +12549,10 @@
         <v>13</v>
       </c>
       <c r="M85" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N85" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O85" t="n">
         <v>1.17</v>
@@ -12565,10 +12567,10 @@
         <v>2.4</v>
       </c>
       <c r="S85" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="T85" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U85" t="n">
         <v>2.25</v>
@@ -12583,19 +12585,19 @@
         <v>3.75</v>
       </c>
       <c r="Y85" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Z85" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AA85" t="n">
         <v>7.5</v>
       </c>
       <c r="AB85" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AC85" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD85" t="n">
         <v>6.5</v>
@@ -12604,7 +12606,7 @@
         <v>12</v>
       </c>
       <c r="AF85" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG85" t="n">
         <v>15</v>
@@ -12677,16 +12679,16 @@
         <v>10</v>
       </c>
       <c r="H86" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="I86" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="J86" t="n">
         <v>9.5</v>
       </c>
       <c r="K86" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="L86" t="n">
         <v>1.67</v>
@@ -12710,16 +12712,16 @@
         <v>2.4</v>
       </c>
       <c r="S86" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="T86" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="U86" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V86" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W86" t="n">
         <v>1.29</v>
@@ -12728,10 +12730,10 @@
         <v>3.5</v>
       </c>
       <c r="Y86" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="Z86" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AA86" t="n">
         <v>23</v>
@@ -12740,7 +12742,7 @@
         <v>51</v>
       </c>
       <c r="AC86" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD86" t="n">
         <v>126</v>
@@ -12752,7 +12754,7 @@
         <v>51</v>
       </c>
       <c r="AG86" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH86" t="n">
         <v>12</v>
@@ -12767,7 +12769,7 @@
         <v>451</v>
       </c>
       <c r="AL86" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AM86" t="n">
         <v>6.5</v>
@@ -12852,7 +12854,7 @@
         <v>2.1</v>
       </c>
       <c r="R87" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S87" t="inlineStr"/>
       <c r="T87" t="inlineStr"/>
@@ -12984,16 +12986,16 @@
         <v>9</v>
       </c>
       <c r="O88" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P88" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q88" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R88" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="S88" t="inlineStr"/>
       <c r="T88" t="inlineStr"/>
@@ -13125,13 +13127,13 @@
         <v>9</v>
       </c>
       <c r="O89" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P89" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q89" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R89" t="n">
         <v>1.62</v>
@@ -13242,22 +13244,22 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H90" t="n">
         <v>7.5</v>
       </c>
       <c r="I90" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="J90" t="n">
         <v>10</v>
       </c>
       <c r="K90" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="L90" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="M90" t="n">
         <v>1.02</v>
@@ -13272,10 +13274,10 @@
         <v>6</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="R90" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="S90" t="n">
         <v>1.85</v>
@@ -13335,13 +13337,13 @@
         <v>351</v>
       </c>
       <c r="AL90" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM90" t="n">
         <v>7</v>
       </c>
       <c r="AN90" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AO90" t="n">
         <v>7.5</v>
@@ -13417,7 +13419,7 @@
         <v>6</v>
       </c>
       <c r="Q91" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="R91" t="n">
         <v>3</v>
@@ -13528,108 +13530,108 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.47</v>
+        <v>1.36</v>
       </c>
       <c r="H92" t="n">
-        <v>3.9</v>
+        <v>4.45</v>
       </c>
       <c r="I92" t="n">
-        <v>6.1</v>
+        <v>7.1</v>
       </c>
       <c r="J92" t="n">
-        <v>2.02</v>
+        <v>1.83</v>
       </c>
       <c r="K92" t="n">
-        <v>2.2</v>
+        <v>2.42</v>
       </c>
       <c r="L92" t="n">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="M92" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N92" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="O92" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="P92" t="n">
-        <v>3.35</v>
+        <v>3.95</v>
       </c>
       <c r="Q92" t="n">
-        <v>1.83</v>
+        <v>1.65</v>
       </c>
       <c r="R92" t="n">
-        <v>1.87</v>
+        <v>2.12</v>
       </c>
       <c r="S92" t="inlineStr"/>
       <c r="T92" t="inlineStr"/>
       <c r="U92" t="n">
-        <v>3</v>
+        <v>2.52</v>
       </c>
       <c r="V92" t="n">
-        <v>1.34</v>
+        <v>1.47</v>
       </c>
       <c r="W92" t="n">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="X92" t="n">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="Y92" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="Z92" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AA92" t="n">
-        <v>6.4</v>
+        <v>7.3</v>
       </c>
       <c r="AB92" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AC92" t="n">
         <v>8.25</v>
       </c>
       <c r="AD92" t="n">
-        <v>10</v>
+        <v>8.75</v>
       </c>
       <c r="AE92" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AF92" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AG92" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AH92" t="n">
-        <v>7.8</v>
+        <v>9.25</v>
       </c>
       <c r="AI92" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AJ92" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AK92" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AL92" t="n">
-        <v>15.5</v>
+        <v>21</v>
       </c>
       <c r="AM92" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AN92" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AO92" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AP92" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AQ92" t="n">
         <v>70</v>
@@ -13669,19 +13671,19 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="H93" t="n">
-        <v>4.5</v>
+        <v>4.65</v>
       </c>
       <c r="I93" t="n">
         <v>1.44</v>
       </c>
       <c r="J93" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="K93" t="n">
-        <v>2.57</v>
+        <v>2.62</v>
       </c>
       <c r="L93" t="n">
         <v>1.85</v>
@@ -13693,87 +13695,87 @@
         <v>9.75</v>
       </c>
       <c r="O93" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P93" t="n">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="Q93" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="R93" t="n">
-        <v>2.7</v>
+        <v>2.92</v>
       </c>
       <c r="S93" t="inlineStr"/>
       <c r="T93" t="inlineStr"/>
       <c r="U93" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="V93" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="W93" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="X93" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="Y93" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="Z93" t="n">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="AA93" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB93" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AC93" t="n">
         <v>19.5</v>
       </c>
       <c r="AD93" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AE93" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AF93" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AG93" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH93" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AI93" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AJ93" t="n">
+        <v>37</v>
+      </c>
+      <c r="AK93" t="n">
+        <v>175</v>
+      </c>
+      <c r="AL93" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM93" t="n">
         <v>9.75</v>
       </c>
-      <c r="AH93" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AI93" t="n">
-        <v>14</v>
-      </c>
-      <c r="AJ93" t="n">
-        <v>45</v>
-      </c>
-      <c r="AK93" t="n">
-        <v>200</v>
-      </c>
-      <c r="AL93" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AM93" t="n">
-        <v>9</v>
-      </c>
       <c r="AN93" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AO93" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AP93" t="n">
         <v>10.25</v>
       </c>
       <c r="AQ93" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AR93" t="inlineStr"/>
       <c r="AS93" t="inlineStr"/>
@@ -13810,28 +13812,28 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="H94" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I94" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="J94" t="n">
-        <v>2.65</v>
+        <v>2.72</v>
       </c>
       <c r="K94" t="n">
         <v>2.1</v>
       </c>
       <c r="L94" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="M94" t="n">
         <v>1.07</v>
       </c>
       <c r="N94" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="O94" t="n">
         <v>1.34</v>
@@ -13848,7 +13850,7 @@
       <c r="S94" t="inlineStr"/>
       <c r="T94" t="inlineStr"/>
       <c r="U94" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="V94" t="n">
         <v>1.28</v>
@@ -13860,37 +13862,37 @@
         <v>2.75</v>
       </c>
       <c r="Y94" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="Z94" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="AA94" t="n">
         <v>7</v>
       </c>
       <c r="AB94" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AC94" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AD94" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AE94" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AF94" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG94" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AH94" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AI94" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AJ94" t="n">
         <v>70</v>
@@ -13899,22 +13901,22 @@
         <v>600</v>
       </c>
       <c r="AL94" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AM94" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AN94" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AO94" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AP94" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AQ94" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AR94" t="inlineStr"/>
       <c r="AS94" t="inlineStr"/>
@@ -13951,111 +13953,111 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="H95" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="I95" t="n">
-        <v>11.25</v>
+        <v>9.5</v>
       </c>
       <c r="J95" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="K95" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="L95" t="n">
-        <v>9.25</v>
+        <v>8.25</v>
       </c>
       <c r="M95" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N95" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="O95" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P95" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="Q95" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R95" t="n">
         <v>1.83</v>
-      </c>
-      <c r="R95" t="n">
-        <v>1.87</v>
       </c>
       <c r="S95" t="inlineStr"/>
       <c r="T95" t="inlineStr"/>
       <c r="U95" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="V95" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="W95" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="X95" t="n">
-        <v>2.75</v>
+        <v>2.67</v>
       </c>
       <c r="Y95" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="Z95" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="AA95" t="n">
         <v>5.6</v>
       </c>
       <c r="AB95" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="AC95" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD95" t="n">
-        <v>6.8</v>
+        <v>7.5</v>
       </c>
       <c r="AE95" t="n">
         <v>12.5</v>
       </c>
       <c r="AF95" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AG95" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AH95" t="n">
-        <v>10.25</v>
+        <v>9.25</v>
       </c>
       <c r="AI95" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AJ95" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AK95" t="n">
         <v>900</v>
       </c>
       <c r="AL95" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AM95" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AN95" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="AO95" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AP95" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="AQ95" t="n">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="AR95" t="inlineStr"/>
       <c r="AS95" t="inlineStr"/>
@@ -14092,28 +14094,28 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="H96" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I96" t="n">
-        <v>3.9</v>
+        <v>4.15</v>
       </c>
       <c r="J96" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="K96" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="L96" t="n">
-        <v>4.25</v>
+        <v>4.45</v>
       </c>
       <c r="M96" t="n">
         <v>1.07</v>
       </c>
       <c r="N96" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="O96" t="n">
         <v>1.35</v>
@@ -14136,10 +14138,10 @@
         <v>1.27</v>
       </c>
       <c r="W96" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="X96" t="n">
-        <v>2.77</v>
+        <v>2.72</v>
       </c>
       <c r="Y96" t="n">
         <v>1.9</v>
@@ -14148,55 +14150,55 @@
         <v>1.8</v>
       </c>
       <c r="AA96" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AB96" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AC96" t="n">
         <v>8.5</v>
       </c>
       <c r="AD96" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE96" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AF96" t="n">
         <v>30</v>
       </c>
       <c r="AG96" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AH96" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AI96" t="n">
         <v>16.5</v>
       </c>
       <c r="AJ96" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AK96" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AL96" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AM96" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AN96" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AO96" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AP96" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AQ96" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AR96" t="inlineStr"/>
       <c r="AS96" t="inlineStr"/>
@@ -14233,22 +14235,22 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="H97" t="n">
         <v>3.2</v>
       </c>
       <c r="I97" t="n">
-        <v>2.15</v>
+        <v>2.02</v>
       </c>
       <c r="J97" t="n">
-        <v>3.8</v>
+        <v>4.15</v>
       </c>
       <c r="K97" t="n">
         <v>2.07</v>
       </c>
       <c r="L97" t="n">
-        <v>2.72</v>
+        <v>2.6</v>
       </c>
       <c r="M97" t="n">
         <v>1.08</v>
@@ -14257,10 +14259,10 @@
         <v>6.5</v>
       </c>
       <c r="O97" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P97" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="Q97" t="n">
         <v>2.1</v>
@@ -14271,10 +14273,10 @@
       <c r="S97" t="inlineStr"/>
       <c r="T97" t="inlineStr"/>
       <c r="U97" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="V97" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W97" t="n">
         <v>1.42</v>
@@ -14289,28 +14291,28 @@
         <v>1.83</v>
       </c>
       <c r="AA97" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AB97" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC97" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AD97" t="n">
+        <v>55</v>
+      </c>
+      <c r="AE97" t="n">
+        <v>37</v>
+      </c>
+      <c r="AF97" t="n">
         <v>45</v>
-      </c>
-      <c r="AE97" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF97" t="n">
-        <v>40</v>
       </c>
       <c r="AG97" t="n">
         <v>6.5</v>
       </c>
       <c r="AH97" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AI97" t="n">
         <v>15.5</v>
@@ -14322,22 +14324,22 @@
         <v>700</v>
       </c>
       <c r="AL97" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AM97" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AN97" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AO97" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AP97" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AQ97" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AR97" t="inlineStr"/>
       <c r="AS97" t="inlineStr"/>
@@ -14383,7 +14385,7 @@
         <v>3.7</v>
       </c>
       <c r="J98" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="K98" t="n">
         <v>2.2</v>
@@ -14404,10 +14406,10 @@
         <v>3.5</v>
       </c>
       <c r="Q98" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R98" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S98" t="inlineStr"/>
       <c r="T98" t="inlineStr"/>
@@ -14548,7 +14550,7 @@
         <v>2.25</v>
       </c>
       <c r="R99" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="S99" t="inlineStr"/>
       <c r="T99" t="inlineStr"/>
@@ -14665,13 +14667,13 @@
         <v>1.95</v>
       </c>
       <c r="J100" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K100" t="n">
         <v>2.05</v>
       </c>
       <c r="L100" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="M100" t="n">
         <v>1.07</v>
@@ -14686,10 +14688,10 @@
         <v>3</v>
       </c>
       <c r="Q100" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R100" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="S100" t="inlineStr"/>
       <c r="T100" t="inlineStr"/>
@@ -14700,16 +14702,16 @@
         <v>1.22</v>
       </c>
       <c r="W100" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X100" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y100" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="Z100" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AA100" t="n">
         <v>10</v>
@@ -14718,7 +14720,7 @@
         <v>19</v>
       </c>
       <c r="AC100" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD100" t="n">
         <v>41</v>
@@ -14730,7 +14732,7 @@
         <v>41</v>
       </c>
       <c r="AG100" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AH100" t="n">
         <v>6.5</v>
@@ -14760,7 +14762,7 @@
         <v>17</v>
       </c>
       <c r="AQ100" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR100" t="inlineStr"/>
       <c r="AS100" t="inlineStr"/>
@@ -14806,10 +14808,10 @@
         <v>3.75</v>
       </c>
       <c r="J101" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="K101" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="L101" t="n">
         <v>4.5</v>
@@ -14830,7 +14832,7 @@
         <v>2.4</v>
       </c>
       <c r="R101" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S101" t="inlineStr"/>
       <c r="T101" t="inlineStr"/>
@@ -14904,10 +14906,10 @@
         <v>41</v>
       </c>
       <c r="AR101" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AS101" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
@@ -14945,16 +14947,16 @@
         <v>2.3</v>
       </c>
       <c r="H102" t="n">
+        <v>3</v>
+      </c>
+      <c r="I102" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J102" t="n">
         <v>3.1</v>
       </c>
-      <c r="I102" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="J102" t="n">
-        <v>3.2</v>
-      </c>
       <c r="K102" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L102" t="n">
         <v>4</v>
@@ -14966,10 +14968,10 @@
         <v>7</v>
       </c>
       <c r="O102" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P102" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q102" t="n">
         <v>2.5</v>
@@ -14992,10 +14994,10 @@
         <v>2.25</v>
       </c>
       <c r="Y102" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Z102" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AA102" t="n">
         <v>6</v>
@@ -15010,7 +15012,7 @@
         <v>21</v>
       </c>
       <c r="AE102" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF102" t="n">
         <v>41</v>
@@ -15025,13 +15027,13 @@
         <v>19</v>
       </c>
       <c r="AJ102" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AK102" t="n">
         <v>301</v>
       </c>
       <c r="AL102" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AM102" t="n">
         <v>15</v>
@@ -15049,10 +15051,10 @@
         <v>41</v>
       </c>
       <c r="AR102" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="103">
@@ -15256,16 +15258,16 @@
         <v>11</v>
       </c>
       <c r="O104" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P104" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q104" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="R104" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="S104" t="inlineStr"/>
       <c r="T104" t="inlineStr"/>
@@ -15391,30 +15393,30 @@
         <v>2.6</v>
       </c>
       <c r="M105" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N105" t="n">
         <v>13</v>
       </c>
       <c r="O105" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P105" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q105" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="R105" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S105" t="inlineStr"/>
       <c r="T105" t="inlineStr"/>
       <c r="U105" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V105" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="W105" t="n">
         <v>1.36</v>
@@ -15514,66 +15516,66 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="H106" t="n">
         <v>5.7</v>
       </c>
       <c r="I106" t="n">
-        <v>9.25</v>
+        <v>10.25</v>
       </c>
       <c r="J106" t="n">
         <v>1.62</v>
       </c>
       <c r="K106" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="L106" t="n">
-        <v>7.2</v>
+        <v>7.7</v>
       </c>
       <c r="M106" t="n">
         <v>1.02</v>
       </c>
       <c r="N106" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="O106" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="P106" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="Q106" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="R106" t="n">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="S106" t="inlineStr"/>
       <c r="T106" t="inlineStr"/>
       <c r="U106" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="V106" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="W106" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="X106" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="Y106" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="Z106" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="AA106" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AB106" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AC106" t="n">
         <v>9</v>
@@ -15582,40 +15584,40 @@
         <v>8</v>
       </c>
       <c r="AE106" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AF106" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG106" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AH106" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AI106" t="n">
         <v>21</v>
       </c>
       <c r="AJ106" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AK106" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AL106" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AM106" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AN106" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AO106" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AP106" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AQ106" t="n">
         <v>75</v>
@@ -15658,19 +15660,19 @@
         <v>1.33</v>
       </c>
       <c r="H107" t="n">
-        <v>4.85</v>
+        <v>4.9</v>
       </c>
       <c r="I107" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="J107" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="K107" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="L107" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="M107" t="n">
         <v>1.02</v>
@@ -15688,7 +15690,7 @@
         <v>1.39</v>
       </c>
       <c r="R107" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="S107" t="inlineStr"/>
       <c r="T107" t="inlineStr"/>
@@ -15699,31 +15701,31 @@
         <v>1.78</v>
       </c>
       <c r="W107" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="X107" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Y107" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="Z107" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="AA107" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AB107" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AC107" t="n">
         <v>8.5</v>
       </c>
       <c r="AD107" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE107" t="n">
         <v>9.75</v>
-      </c>
-      <c r="AE107" t="n">
-        <v>10</v>
       </c>
       <c r="AF107" t="n">
         <v>18.5</v>
@@ -15735,31 +15737,31 @@
         <v>10.5</v>
       </c>
       <c r="AI107" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AJ107" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AK107" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AL107" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AM107" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AN107" t="n">
         <v>24</v>
       </c>
       <c r="AO107" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AP107" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AQ107" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AR107" t="inlineStr"/>
       <c r="AS107" t="inlineStr"/>
@@ -15937,111 +15939,111 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H109" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="I109" t="n">
         <v>1.9</v>
       </c>
       <c r="J109" t="n">
-        <v>4.05</v>
+        <v>3.95</v>
       </c>
       <c r="K109" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="L109" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="M109" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N109" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="O109" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="P109" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="Q109" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="R109" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="S109" t="inlineStr"/>
       <c r="T109" t="inlineStr"/>
       <c r="U109" t="n">
-        <v>2.67</v>
+        <v>2.57</v>
       </c>
       <c r="V109" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="W109" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="X109" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Y109" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="Z109" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="AA109" t="n">
         <v>13</v>
       </c>
       <c r="AB109" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC109" t="n">
         <v>12</v>
       </c>
       <c r="AD109" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AE109" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF109" t="n">
         <v>32</v>
       </c>
       <c r="AG109" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AH109" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="AI109" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AJ109" t="n">
         <v>50</v>
       </c>
       <c r="AK109" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AL109" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="AM109" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="AN109" t="n">
         <v>8.25</v>
       </c>
       <c r="AO109" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AP109" t="n">
         <v>14</v>
       </c>
       <c r="AQ109" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR109" t="inlineStr"/>
       <c r="AS109" t="inlineStr"/>
@@ -16078,22 +16080,22 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="H110" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I110" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="J110" t="n">
-        <v>4.15</v>
+        <v>4</v>
       </c>
       <c r="K110" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="L110" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="M110" t="n">
         <v>1.03</v>
@@ -16105,24 +16107,24 @@
         <v>1.18</v>
       </c>
       <c r="P110" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="Q110" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="R110" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="S110" t="inlineStr"/>
       <c r="T110" t="inlineStr"/>
       <c r="U110" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="V110" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="W110" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="X110" t="n">
         <v>3.2</v>
@@ -16134,31 +16136,31 @@
         <v>2.35</v>
       </c>
       <c r="AA110" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AB110" t="n">
         <v>24</v>
       </c>
       <c r="AC110" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD110" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AE110" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AF110" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG110" t="n">
         <v>9</v>
       </c>
       <c r="AH110" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="AI110" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AJ110" t="n">
         <v>40</v>
@@ -16167,7 +16169,7 @@
         <v>250</v>
       </c>
       <c r="AL110" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AM110" t="n">
         <v>10.75</v>
@@ -16176,13 +16178,13 @@
         <v>8.25</v>
       </c>
       <c r="AO110" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AP110" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AQ110" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AR110" t="inlineStr"/>
       <c r="AS110" t="inlineStr"/>
@@ -16219,22 +16221,22 @@
         </is>
       </c>
       <c r="G111" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H111" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I111" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J111" t="n">
         <v>4.5</v>
       </c>
-      <c r="H111" t="n">
-        <v>4</v>
-      </c>
-      <c r="I111" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="J111" t="n">
-        <v>4.75</v>
-      </c>
       <c r="K111" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L111" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="M111" t="n">
         <v>1.03</v>
@@ -16243,28 +16245,28 @@
         <v>17</v>
       </c>
       <c r="O111" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P111" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q111" t="n">
         <v>1.5</v>
       </c>
       <c r="R111" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S111" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="T111" t="n">
-        <v>2.03</v>
+        <v>1.92</v>
       </c>
       <c r="U111" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V111" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W111" t="n">
         <v>1.29</v>
@@ -16288,13 +16290,13 @@
         <v>15</v>
       </c>
       <c r="AD111" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AE111" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AF111" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG111" t="n">
         <v>17</v>
@@ -16312,16 +16314,16 @@
         <v>126</v>
       </c>
       <c r="AL111" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM111" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AN111" t="n">
         <v>8.5</v>
       </c>
       <c r="AO111" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP111" t="n">
         <v>12</v>
@@ -16370,7 +16372,7 @@
         <v>3.6</v>
       </c>
       <c r="I112" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J112" t="n">
         <v>2.25</v>
@@ -16382,10 +16384,10 @@
         <v>5.5</v>
       </c>
       <c r="M112" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N112" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O112" t="n">
         <v>1.25</v>
@@ -16394,18 +16396,18 @@
         <v>3.75</v>
       </c>
       <c r="Q112" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="R112" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="S112" t="inlineStr"/>
       <c r="T112" t="inlineStr"/>
       <c r="U112" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V112" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W112" t="n">
         <v>1.36</v>
@@ -16423,7 +16425,7 @@
         <v>7</v>
       </c>
       <c r="AB112" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AC112" t="n">
         <v>8.5</v>
@@ -16453,7 +16455,7 @@
         <v>251</v>
       </c>
       <c r="AL112" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM112" t="n">
         <v>26</v>
@@ -16505,7 +16507,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="H113" t="n">
         <v>4.75</v>
@@ -16517,7 +16519,7 @@
         <v>1.8</v>
       </c>
       <c r="K113" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="L113" t="n">
         <v>7</v>
@@ -16529,28 +16531,28 @@
         <v>15</v>
       </c>
       <c r="O113" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P113" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q113" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="R113" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S113" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="T113" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="U113" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V113" t="n">
         <v>1.53</v>
-      </c>
-      <c r="R113" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S113" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="T113" t="n">
-        <v>2</v>
-      </c>
-      <c r="U113" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V113" t="n">
-        <v>1.57</v>
       </c>
       <c r="W113" t="n">
         <v>1.29</v>
@@ -16559,16 +16561,16 @@
         <v>3.5</v>
       </c>
       <c r="Y113" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Z113" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AA113" t="n">
         <v>8.5</v>
       </c>
       <c r="AB113" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AC113" t="n">
         <v>9</v>
@@ -16586,7 +16588,7 @@
         <v>15</v>
       </c>
       <c r="AH113" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI113" t="n">
         <v>19</v>
@@ -16595,7 +16597,7 @@
         <v>51</v>
       </c>
       <c r="AK113" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL113" t="n">
         <v>23</v>
@@ -16674,13 +16676,13 @@
         <v>11</v>
       </c>
       <c r="O114" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P114" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q114" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R114" t="n">
         <v>1.9</v>
@@ -16694,10 +16696,10 @@
         <v>1.33</v>
       </c>
       <c r="W114" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X114" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y114" t="n">
         <v>1.73</v>
@@ -16718,7 +16720,7 @@
         <v>41</v>
       </c>
       <c r="AE114" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF114" t="n">
         <v>34</v>
@@ -16806,7 +16808,7 @@
         <v>2.25</v>
       </c>
       <c r="L115" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M115" t="n">
         <v>1.04</v>
@@ -16821,10 +16823,10 @@
         <v>4</v>
       </c>
       <c r="Q115" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="R115" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="S115" t="inlineStr"/>
       <c r="T115" t="inlineStr"/>
@@ -16835,10 +16837,10 @@
         <v>1.4</v>
       </c>
       <c r="W115" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X115" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Y115" t="n">
         <v>1.62</v>
@@ -16865,13 +16867,13 @@
         <v>29</v>
       </c>
       <c r="AG115" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH115" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI115" t="n">
         <v>12</v>
-      </c>
-      <c r="AH115" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI115" t="n">
-        <v>13</v>
       </c>
       <c r="AJ115" t="n">
         <v>41</v>
@@ -16880,7 +16882,7 @@
         <v>151</v>
       </c>
       <c r="AL115" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AM115" t="n">
         <v>12</v>
@@ -16935,7 +16937,7 @@
         <v>1.62</v>
       </c>
       <c r="H116" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I116" t="n">
         <v>5.75</v>
@@ -16962,10 +16964,10 @@
         <v>3.75</v>
       </c>
       <c r="Q116" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="R116" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="S116" t="n">
         <v>1.8</v>
@@ -16974,10 +16976,10 @@
         <v>2</v>
       </c>
       <c r="U116" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V116" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W116" t="n">
         <v>1.36</v>
@@ -17077,13 +17079,13 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H117" t="n">
         <v>3.3</v>
       </c>
       <c r="I117" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="J117" t="n">
         <v>3.25</v>
@@ -17095,45 +17097,45 @@
         <v>3.25</v>
       </c>
       <c r="M117" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N117" t="n">
         <v>11</v>
       </c>
       <c r="O117" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P117" t="n">
         <v>3.5</v>
       </c>
       <c r="Q117" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="R117" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="S117" t="inlineStr"/>
       <c r="T117" t="inlineStr"/>
       <c r="U117" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V117" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="W117" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X117" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Y117" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="Z117" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="AA117" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB117" t="n">
         <v>13</v>
@@ -17151,22 +17153,22 @@
         <v>29</v>
       </c>
       <c r="AG117" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH117" t="n">
         <v>6.5</v>
       </c>
       <c r="AI117" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ117" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK117" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AL117" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AM117" t="n">
         <v>13</v>
@@ -17218,108 +17220,108 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H118" t="n">
         <v>3.1</v>
       </c>
       <c r="I118" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J118" t="n">
         <v>3.1</v>
       </c>
       <c r="K118" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L118" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M118" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N118" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="O118" t="n">
         <v>1.3</v>
       </c>
       <c r="P118" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q118" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="R118" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S118" t="inlineStr"/>
       <c r="T118" t="inlineStr"/>
       <c r="U118" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="V118" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="W118" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X118" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Y118" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="Z118" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AA118" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB118" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC118" t="n">
         <v>9.5</v>
       </c>
       <c r="AD118" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE118" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF118" t="n">
         <v>29</v>
       </c>
       <c r="AG118" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AH118" t="n">
         <v>6</v>
       </c>
       <c r="AI118" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ118" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK118" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AL118" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM118" t="n">
         <v>15</v>
       </c>
       <c r="AN118" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO118" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP118" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ118" t="n">
         <v>34</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-02.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-02.xlsx
@@ -692,19 +692,19 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H2" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I2" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J2" t="n">
         <v>2.5</v>
       </c>
       <c r="K2" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="L2" t="n">
         <v>3.4</v>
@@ -752,7 +752,7 @@
         <v>3.25</v>
       </c>
       <c r="AA2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB2" t="n">
         <v>17</v>
@@ -767,13 +767,13 @@
         <v>15</v>
       </c>
       <c r="AF2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AH2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI2" t="n">
         <v>11</v>
@@ -785,7 +785,7 @@
         <v>67</v>
       </c>
       <c r="AL2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM2" t="n">
         <v>26</v>
@@ -837,10 +837,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H3" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I3" t="n">
         <v>4.5</v>
@@ -849,51 +849,51 @@
         <v>2.4</v>
       </c>
       <c r="K3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L3" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O3" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="P3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q3" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="R3" t="n">
-        <v>1.9</v>
+        <v>2.03</v>
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W3" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X3" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AA3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB3" t="n">
         <v>9.5</v>
@@ -905,16 +905,16 @@
         <v>17</v>
       </c>
       <c r="AE3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF3" t="n">
         <v>29</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AH3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI3" t="n">
         <v>17</v>
@@ -923,7 +923,7 @@
         <v>51</v>
       </c>
       <c r="AK3" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AL3" t="n">
         <v>15</v>
@@ -932,7 +932,7 @@
         <v>26</v>
       </c>
       <c r="AN3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO3" t="n">
         <v>51</v>
@@ -981,13 +981,13 @@
         <v>1.95</v>
       </c>
       <c r="H4" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I4" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="J4" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K4" t="n">
         <v>2.3</v>
@@ -1046,19 +1046,19 @@
         <v>19</v>
       </c>
       <c r="AE4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF4" t="n">
         <v>23</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ4" t="n">
         <v>41</v>
@@ -1073,7 +1073,7 @@
         <v>23</v>
       </c>
       <c r="AN4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO4" t="n">
         <v>41</v>
@@ -1119,10 +1119,10 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H5" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I5" t="n">
         <v>2.63</v>
@@ -1157,10 +1157,10 @@
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="V5" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W5" t="n">
         <v>1.4</v>
@@ -1175,7 +1175,7 @@
         <v>2.05</v>
       </c>
       <c r="AA5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB5" t="n">
         <v>13</v>
@@ -1542,22 +1542,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="H8" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I8" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="J8" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="K8" t="n">
         <v>2.2</v>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
@@ -1572,10 +1572,10 @@
         <v>3.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="R8" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
@@ -1592,25 +1592,25 @@
         <v>2.75</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="Z8" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AA8" t="n">
         <v>8</v>
       </c>
       <c r="AB8" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF8" t="n">
         <v>26</v>
@@ -1622,7 +1622,7 @@
         <v>6.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ8" t="n">
         <v>41</v>
@@ -1631,19 +1631,19 @@
         <v>201</v>
       </c>
       <c r="AL8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM8" t="n">
         <v>19</v>
       </c>
       <c r="AN8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO8" t="n">
         <v>41</v>
       </c>
       <c r="AP8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ8" t="n">
         <v>34</v>
@@ -1686,67 +1686,67 @@
         <v>2.05</v>
       </c>
       <c r="H9" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I9" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J9" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K9" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L9" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O9" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P9" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q9" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y9" t="n">
         <v>1.62</v>
       </c>
-      <c r="R9" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="S9" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W9" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="X9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>1.53</v>
-      </c>
       <c r="Z9" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="AA9" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC9" t="n">
         <v>9</v>
@@ -1761,28 +1761,28 @@
         <v>21</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH9" t="n">
         <v>7.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ9" t="n">
         <v>41</v>
       </c>
       <c r="AK9" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AL9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM9" t="n">
         <v>19</v>
       </c>
       <c r="AN9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO9" t="n">
         <v>34</v>
@@ -1791,7 +1791,7 @@
         <v>23</v>
       </c>
       <c r="AQ9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR9" t="inlineStr"/>
       <c r="AS9" t="inlineStr"/>
@@ -1831,19 +1831,19 @@
         <v>1.95</v>
       </c>
       <c r="H10" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I10" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J10" t="n">
         <v>2.5</v>
       </c>
       <c r="K10" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L10" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
         <v>1.03</v>
@@ -1888,7 +1888,7 @@
         <v>2.25</v>
       </c>
       <c r="AA10" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB10" t="n">
         <v>11</v>
@@ -1921,7 +1921,7 @@
         <v>126</v>
       </c>
       <c r="AL10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM10" t="n">
         <v>21</v>
@@ -1973,22 +1973,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="H11" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="I11" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J11" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="K11" t="n">
         <v>3</v>
       </c>
       <c r="L11" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="M11" t="n">
         <v>1.02</v>
@@ -1997,16 +1997,16 @@
         <v>21</v>
       </c>
       <c r="O11" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P11" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="R11" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
@@ -2023,28 +2023,28 @@
         <v>4.33</v>
       </c>
       <c r="Y11" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Z11" t="n">
         <v>1.8</v>
       </c>
-      <c r="Z11" t="n">
-        <v>1.95</v>
-      </c>
       <c r="AA11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE11" t="n">
         <v>10</v>
       </c>
       <c r="AF11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG11" t="n">
         <v>23</v>
@@ -2053,13 +2053,13 @@
         <v>15</v>
       </c>
       <c r="AI11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ11" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK11" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AL11" t="n">
         <v>29</v>
@@ -2071,7 +2071,7 @@
         <v>29</v>
       </c>
       <c r="AO11" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AP11" t="n">
         <v>67</v>
@@ -2114,48 +2114,48 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="H12" t="n">
         <v>4.5</v>
       </c>
       <c r="I12" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="J12" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K12" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L12" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O12" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P12" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="R12" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="V12" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="W12" t="n">
         <v>1.36</v>
@@ -2164,31 +2164,31 @@
         <v>3</v>
       </c>
       <c r="Y12" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="Z12" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AA12" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB12" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AC12" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE12" t="n">
         <v>12</v>
       </c>
       <c r="AF12" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH12" t="n">
         <v>8.5</v>
@@ -2200,10 +2200,10 @@
         <v>67</v>
       </c>
       <c r="AK12" t="n">
-        <v>451</v>
+        <v>351</v>
       </c>
       <c r="AL12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM12" t="n">
         <v>34</v>
@@ -2255,96 +2255,96 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="H13" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I13" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="J13" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K13" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L13" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="M13" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O13" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="P13" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.1</v>
+        <v>1.99</v>
       </c>
       <c r="R13" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="V13" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="W13" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X13" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Y13" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="Z13" t="n">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
       <c r="AA13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB13" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AC13" t="n">
         <v>8.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE13" t="n">
         <v>15</v>
       </c>
       <c r="AF13" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH13" t="n">
         <v>7</v>
       </c>
       <c r="AI13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ13" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK13" t="n">
-        <v>451</v>
+        <v>301</v>
       </c>
       <c r="AL13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM13" t="n">
         <v>23</v>
@@ -2356,7 +2356,7 @@
         <v>51</v>
       </c>
       <c r="AP13" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ13" t="n">
         <v>41</v>
@@ -2396,69 +2396,69 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="H14" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I14" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="J14" t="n">
         <v>4.33</v>
       </c>
       <c r="K14" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L14" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O14" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P14" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.73</v>
+        <v>1.84</v>
       </c>
       <c r="R14" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V14" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="W14" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X14" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="Z14" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="AA14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD14" t="n">
         <v>41</v>
@@ -2470,13 +2470,13 @@
         <v>34</v>
       </c>
       <c r="AG14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI14" t="n">
         <v>13</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>12</v>
       </c>
       <c r="AJ14" t="n">
         <v>41</v>
@@ -2485,7 +2485,7 @@
         <v>151</v>
       </c>
       <c r="AL14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM14" t="n">
         <v>9.5</v>
@@ -2497,10 +2497,10 @@
         <v>15</v>
       </c>
       <c r="AP14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR14" t="inlineStr"/>
       <c r="AS14" t="inlineStr"/>
@@ -2552,13 +2552,13 @@
         <v>2.05</v>
       </c>
       <c r="L15" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M15" t="n">
         <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O15" t="n">
         <v>1.36</v>
@@ -2626,7 +2626,7 @@
         <v>301</v>
       </c>
       <c r="AL15" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AM15" t="n">
         <v>12</v>
@@ -2681,37 +2681,37 @@
         <v>2.3</v>
       </c>
       <c r="H16" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I16" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K16" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L16" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M16" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O16" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P16" t="n">
         <v>3.75</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="R16" t="n">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="S16" t="n">
         <v>2.05</v>
@@ -2720,73 +2720,73 @@
         <v>1.8</v>
       </c>
       <c r="U16" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V16" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="W16" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X16" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="Z16" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AA16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC16" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD16" t="n">
         <v>21</v>
       </c>
       <c r="AE16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF16" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AG16" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AH16" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ16" t="n">
         <v>41</v>
       </c>
       <c r="AK16" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AL16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO16" t="n">
         <v>34</v>
       </c>
       <c r="AP16" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ16" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR16" t="inlineStr"/>
       <c r="AS16" t="inlineStr"/>
@@ -2826,7 +2826,7 @@
         <v>2.1</v>
       </c>
       <c r="H17" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I17" t="n">
         <v>3.3</v>
@@ -2841,22 +2841,22 @@
         <v>3.75</v>
       </c>
       <c r="M17" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N17" t="n">
         <v>13</v>
       </c>
       <c r="O17" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P17" t="n">
         <v>4</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R17" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S17" t="n">
         <v>2.05</v>
@@ -2868,7 +2868,7 @@
         <v>2.75</v>
       </c>
       <c r="V17" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="W17" t="n">
         <v>1.36</v>
@@ -2877,10 +2877,10 @@
         <v>3</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Z17" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AA17" t="n">
         <v>9</v>
@@ -2895,7 +2895,7 @@
         <v>19</v>
       </c>
       <c r="AE17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF17" t="n">
         <v>23</v>
@@ -2919,7 +2919,7 @@
         <v>12</v>
       </c>
       <c r="AM17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN17" t="n">
         <v>12</v>
@@ -2968,34 +2968,34 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="H18" t="n">
         <v>3.7</v>
       </c>
       <c r="I18" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="J18" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K18" t="n">
         <v>2.38</v>
       </c>
       <c r="L18" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M18" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N18" t="n">
         <v>17</v>
       </c>
       <c r="O18" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P18" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q18" t="n">
         <v>1.53</v>
@@ -3004,16 +3004,16 @@
         <v>2.4</v>
       </c>
       <c r="S18" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T18" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U18" t="n">
         <v>2.25</v>
       </c>
       <c r="V18" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="W18" t="n">
         <v>1.29</v>
@@ -3034,10 +3034,10 @@
         <v>15</v>
       </c>
       <c r="AC18" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD18" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE18" t="n">
         <v>17</v>
@@ -3052,7 +3052,7 @@
         <v>7.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ18" t="n">
         <v>34</v>
@@ -3064,19 +3064,19 @@
         <v>13</v>
       </c>
       <c r="AM18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN18" t="n">
         <v>10</v>
       </c>
       <c r="AO18" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP18" t="n">
         <v>19</v>
       </c>
       <c r="AQ18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR18" t="inlineStr"/>
       <c r="AS18" t="inlineStr"/>
@@ -3113,22 +3113,22 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H19" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I19" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J19" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K19" t="n">
         <v>2.2</v>
       </c>
       <c r="L19" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M19" t="n">
         <v>1.05</v>
@@ -3137,10 +3137,10 @@
         <v>11</v>
       </c>
       <c r="O19" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P19" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q19" t="n">
         <v>1.93</v>
@@ -3163,16 +3163,16 @@
         <v>2.75</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="Z19" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="AA19" t="n">
         <v>7.5</v>
       </c>
       <c r="AB19" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AC19" t="n">
         <v>8.5</v>
@@ -3190,7 +3190,7 @@
         <v>11</v>
       </c>
       <c r="AH19" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI19" t="n">
         <v>15</v>
@@ -3199,7 +3199,7 @@
         <v>51</v>
       </c>
       <c r="AK19" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AL19" t="n">
         <v>12</v>
@@ -3208,7 +3208,7 @@
         <v>21</v>
       </c>
       <c r="AN19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO19" t="n">
         <v>41</v>
@@ -3260,7 +3260,7 @@
         <v>3.5</v>
       </c>
       <c r="I20" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="J20" t="n">
         <v>5.5</v>
@@ -3307,7 +3307,7 @@
         <v>2</v>
       </c>
       <c r="Z20" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="AA20" t="n">
         <v>12</v>
@@ -3328,10 +3328,10 @@
         <v>51</v>
       </c>
       <c r="AG20" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI20" t="n">
         <v>19</v>
@@ -3352,7 +3352,7 @@
         <v>8.5</v>
       </c>
       <c r="AO20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP20" t="n">
         <v>15</v>
@@ -3395,13 +3395,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="H21" t="n">
         <v>8</v>
       </c>
       <c r="I21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J21" t="n">
         <v>1.5</v>
@@ -3410,7 +3410,7 @@
         <v>3.2</v>
       </c>
       <c r="L21" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="M21" t="n">
         <v>1.01</v>
@@ -3419,16 +3419,16 @@
         <v>23</v>
       </c>
       <c r="O21" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="P21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="R21" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
@@ -3445,10 +3445,10 @@
         <v>4.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="Z21" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="AA21" t="n">
         <v>12</v>
@@ -3457,7 +3457,7 @@
         <v>8</v>
       </c>
       <c r="AC21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD21" t="n">
         <v>8</v>
@@ -3466,10 +3466,10 @@
         <v>10</v>
       </c>
       <c r="AF21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG21" t="n">
         <v>26</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>23</v>
       </c>
       <c r="AH21" t="n">
         <v>15</v>
@@ -3484,7 +3484,7 @@
         <v>251</v>
       </c>
       <c r="AL21" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM21" t="n">
         <v>67</v>
@@ -3586,10 +3586,10 @@
         <v>2.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="Z22" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="AA22" t="n">
         <v>6.5</v>
@@ -3695,10 +3695,10 @@
         <v>3.4</v>
       </c>
       <c r="M23" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N23" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O23" t="n">
         <v>1.5</v>
@@ -3707,10 +3707,10 @@
         <v>2.63</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R23" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
@@ -3784,10 +3784,10 @@
         <v>41</v>
       </c>
       <c r="AR23" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -3822,13 +3822,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H24" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I24" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J24" t="n">
         <v>3.6</v>
@@ -3837,7 +3837,7 @@
         <v>2.05</v>
       </c>
       <c r="L24" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M24" t="n">
         <v>1.07</v>
@@ -3878,7 +3878,7 @@
         <v>1.91</v>
       </c>
       <c r="AA24" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB24" t="n">
         <v>13</v>
@@ -3896,7 +3896,7 @@
         <v>34</v>
       </c>
       <c r="AG24" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH24" t="n">
         <v>6.5</v>
@@ -3917,7 +3917,7 @@
         <v>11</v>
       </c>
       <c r="AN24" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AO24" t="n">
         <v>23</v>
@@ -3970,7 +3970,7 @@
         <v>5</v>
       </c>
       <c r="H25" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I25" t="n">
         <v>1.8</v>
@@ -3979,10 +3979,10 @@
         <v>6</v>
       </c>
       <c r="K25" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L25" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M25" t="n">
         <v>1.11</v>
@@ -4027,7 +4027,7 @@
         <v>1.53</v>
       </c>
       <c r="AA25" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB25" t="n">
         <v>23</v>
@@ -4078,10 +4078,10 @@
         <v>41</v>
       </c>
       <c r="AR25" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="26">
@@ -4599,10 +4599,10 @@
         <v>1.48</v>
       </c>
       <c r="S29" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T29" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="U29" t="n">
         <v>5.5</v>
@@ -4993,16 +4993,16 @@
         <v>1.42</v>
       </c>
       <c r="H32" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I32" t="n">
         <v>7.5</v>
       </c>
       <c r="J32" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="K32" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L32" t="n">
         <v>6.5</v>
@@ -5014,16 +5014,16 @@
         <v>15</v>
       </c>
       <c r="O32" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P32" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R32" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S32" t="n">
         <v>2.05</v>
@@ -5038,19 +5038,19 @@
         <v>1.44</v>
       </c>
       <c r="W32" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X32" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Y32" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="Z32" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AA32" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB32" t="n">
         <v>7</v>
@@ -5062,16 +5062,16 @@
         <v>9.5</v>
       </c>
       <c r="AE32" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF32" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG32" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH32" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI32" t="n">
         <v>17</v>
@@ -5080,7 +5080,7 @@
         <v>51</v>
       </c>
       <c r="AK32" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AL32" t="n">
         <v>21</v>
@@ -5135,13 +5135,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="H33" t="n">
         <v>3.5</v>
       </c>
       <c r="I33" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J33" t="n">
         <v>2.75</v>
@@ -5165,18 +5165,18 @@
         <v>4</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="R33" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V33" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="W33" t="n">
         <v>1.36</v>
@@ -5185,10 +5185,10 @@
         <v>3</v>
       </c>
       <c r="Y33" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Z33" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AA33" t="n">
         <v>9</v>
@@ -5200,19 +5200,19 @@
         <v>9</v>
       </c>
       <c r="AD33" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE33" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF33" t="n">
         <v>23</v>
       </c>
       <c r="AG33" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH33" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI33" t="n">
         <v>13</v>
@@ -5227,7 +5227,7 @@
         <v>12</v>
       </c>
       <c r="AM33" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN33" t="n">
         <v>12</v>
@@ -5236,7 +5236,7 @@
         <v>34</v>
       </c>
       <c r="AP33" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ33" t="n">
         <v>29</v>
@@ -5276,48 +5276,48 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="H34" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I34" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="K34" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L34" t="n">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="M34" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N34" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O34" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P34" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="R34" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V34" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W34" t="n">
         <v>1.33</v>
@@ -5326,25 +5326,25 @@
         <v>3.25</v>
       </c>
       <c r="Y34" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Z34" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AA34" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC34" t="n">
         <v>12</v>
       </c>
-      <c r="AB34" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>11</v>
-      </c>
       <c r="AD34" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE34" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF34" t="n">
         <v>29</v>
@@ -5353,7 +5353,7 @@
         <v>13</v>
       </c>
       <c r="AH34" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI34" t="n">
         <v>12</v>
@@ -5362,25 +5362,25 @@
         <v>41</v>
       </c>
       <c r="AK34" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AL34" t="n">
         <v>9.5</v>
       </c>
       <c r="AM34" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN34" t="n">
         <v>9</v>
       </c>
       <c r="AO34" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ34" t="n">
         <v>21</v>
-      </c>
-      <c r="AP34" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ34" t="n">
-        <v>23</v>
       </c>
       <c r="AR34" t="inlineStr"/>
       <c r="AS34" t="inlineStr"/>
@@ -5417,48 +5417,48 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="H35" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I35" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="J35" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="K35" t="n">
         <v>2.2</v>
       </c>
       <c r="L35" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="M35" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N35" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O35" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P35" t="n">
         <v>3.5</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R35" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V35" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="W35" t="n">
         <v>1.4</v>
@@ -5473,28 +5473,28 @@
         <v>2</v>
       </c>
       <c r="AA35" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB35" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AC35" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD35" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE35" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AF35" t="n">
         <v>34</v>
       </c>
       <c r="AG35" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH35" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI35" t="n">
         <v>13</v>
@@ -5506,19 +5506,19 @@
         <v>201</v>
       </c>
       <c r="AL35" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AM35" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN35" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AO35" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP35" t="n">
         <v>19</v>
-      </c>
-      <c r="AP35" t="n">
-        <v>17</v>
       </c>
       <c r="AQ35" t="n">
         <v>26</v>
@@ -5576,30 +5576,30 @@
         <v>3.25</v>
       </c>
       <c r="M36" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N36" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O36" t="n">
         <v>1.22</v>
       </c>
       <c r="P36" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R36" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V36" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="W36" t="n">
         <v>1.36</v>
@@ -5614,7 +5614,7 @@
         <v>2.2</v>
       </c>
       <c r="AA36" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB36" t="n">
         <v>13</v>
@@ -5638,7 +5638,7 @@
         <v>6.5</v>
       </c>
       <c r="AI36" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ36" t="n">
         <v>41</v>
@@ -5717,13 +5717,13 @@
         <v>2.88</v>
       </c>
       <c r="M37" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N37" t="n">
         <v>13</v>
       </c>
       <c r="O37" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P37" t="n">
         <v>4</v>
@@ -5740,7 +5740,7 @@
         <v>2.75</v>
       </c>
       <c r="V37" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="W37" t="n">
         <v>1.33</v>
@@ -5840,13 +5840,13 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H38" t="n">
         <v>2.88</v>
       </c>
       <c r="I38" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J38" t="n">
         <v>3.25</v>
@@ -5876,7 +5876,7 @@
         <v>1.53</v>
       </c>
       <c r="S38" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="T38" t="n">
         <v>1.26</v>
@@ -5939,7 +5939,7 @@
         <v>15</v>
       </c>
       <c r="AN38" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO38" t="n">
         <v>34</v>
@@ -6317,10 +6317,10 @@
         <v>2.5</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R41" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S41" t="n">
         <v>4.2</v>
@@ -6329,10 +6329,10 @@
         <v>1.22</v>
       </c>
       <c r="U41" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="V41" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="W41" t="n">
         <v>1.57</v>
@@ -6398,10 +6398,10 @@
         <v>41</v>
       </c>
       <c r="AR41" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="42">
@@ -6442,7 +6442,7 @@
         <v>3.25</v>
       </c>
       <c r="I42" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="J42" t="n">
         <v>4.33</v>
@@ -6451,7 +6451,7 @@
         <v>2.1</v>
       </c>
       <c r="L42" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="M42" t="n">
         <v>1.06</v>
@@ -6486,10 +6486,10 @@
         <v>2.63</v>
       </c>
       <c r="Y42" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Z42" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AA42" t="n">
         <v>10</v>
@@ -6577,22 +6577,22 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="H43" t="n">
         <v>3.6</v>
       </c>
       <c r="I43" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="J43" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K43" t="n">
         <v>2.3</v>
       </c>
       <c r="L43" t="n">
-        <v>2.37</v>
+        <v>2.3</v>
       </c>
       <c r="M43" t="n">
         <v>1.04</v>
@@ -6607,10 +6607,10 @@
         <v>4</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R43" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
@@ -6627,7 +6627,7 @@
         <v>3</v>
       </c>
       <c r="Y43" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="Z43" t="n">
         <v>2</v>
@@ -6642,13 +6642,13 @@
         <v>15</v>
       </c>
       <c r="AD43" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AE43" t="n">
         <v>34</v>
       </c>
       <c r="AF43" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG43" t="n">
         <v>12</v>
@@ -6675,7 +6675,7 @@
         <v>8.5</v>
       </c>
       <c r="AO43" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP43" t="n">
         <v>13</v>
@@ -6718,13 +6718,13 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H44" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I44" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="J44" t="n">
         <v>2.22</v>
@@ -6751,7 +6751,7 @@
         <v>1.95</v>
       </c>
       <c r="R44" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
@@ -6759,25 +6759,25 @@
         <v>3.3</v>
       </c>
       <c r="V44" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="W44" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="X44" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="Y44" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="Z44" t="n">
         <v>1.8</v>
       </c>
       <c r="AA44" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AB44" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AC44" t="n">
         <v>8.75</v>
@@ -6798,7 +6798,7 @@
         <v>7.4</v>
       </c>
       <c r="AI44" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AJ44" t="n">
         <v>100</v>
@@ -6807,22 +6807,22 @@
         <v>900</v>
       </c>
       <c r="AL44" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AM44" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AN44" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AO44" t="n">
         <v>100</v>
       </c>
       <c r="AP44" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AQ44" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AR44" t="inlineStr"/>
       <c r="AS44" t="inlineStr"/>
@@ -6859,108 +6859,108 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="H45" t="n">
-        <v>4.55</v>
+        <v>4.9</v>
       </c>
       <c r="I45" t="n">
-        <v>7.1</v>
+        <v>7.9</v>
       </c>
       <c r="J45" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="K45" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="L45" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="M45" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N45" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="O45" t="n">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="P45" t="n">
-        <v>3.65</v>
+        <v>3.95</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="R45" t="n">
-        <v>1.98</v>
+        <v>2.12</v>
       </c>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="n">
-        <v>2.87</v>
+        <v>2.62</v>
       </c>
       <c r="V45" t="n">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="W45" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="X45" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="Y45" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Z45" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="AA45" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="AB45" t="n">
         <v>6.7</v>
       </c>
       <c r="AC45" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AD45" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="AE45" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AF45" t="n">
         <v>32</v>
       </c>
       <c r="AG45" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="AH45" t="n">
-        <v>9.25</v>
+        <v>10.25</v>
       </c>
       <c r="AI45" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ45" t="n">
         <v>120</v>
       </c>
       <c r="AK45" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AL45" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AM45" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AN45" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AO45" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AP45" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AQ45" t="n">
         <v>90</v>
@@ -7000,22 +7000,22 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="H46" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="I46" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="J46" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="K46" t="n">
         <v>2.42</v>
       </c>
       <c r="L46" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="M46" t="n">
         <v>1.04</v>
@@ -7050,61 +7050,61 @@
         <v>3.05</v>
       </c>
       <c r="Y46" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="Z46" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="AA46" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AB46" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AC46" t="n">
         <v>9.25</v>
       </c>
       <c r="AD46" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AE46" t="n">
         <v>12</v>
       </c>
       <c r="AF46" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AG46" t="n">
         <v>9</v>
       </c>
       <c r="AH46" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AI46" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ46" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AK46" t="n">
         <v>1250</v>
       </c>
       <c r="AL46" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AM46" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN46" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AO46" t="n">
         <v>250</v>
       </c>
       <c r="AP46" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AQ46" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AR46" t="inlineStr"/>
       <c r="AS46" t="inlineStr"/>
@@ -7141,48 +7141,48 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="H47" t="n">
         <v>3.5</v>
       </c>
       <c r="I47" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="J47" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="K47" t="n">
         <v>2.2</v>
       </c>
       <c r="L47" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="M47" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N47" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O47" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P47" t="n">
         <v>3.5</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R47" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V47" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="W47" t="n">
         <v>1.4</v>
@@ -7191,10 +7191,10 @@
         <v>2.75</v>
       </c>
       <c r="Y47" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="Z47" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AA47" t="n">
         <v>13</v>
@@ -7209,37 +7209,37 @@
         <v>51</v>
       </c>
       <c r="AE47" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AF47" t="n">
         <v>41</v>
       </c>
       <c r="AG47" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH47" t="n">
         <v>7</v>
       </c>
       <c r="AI47" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ47" t="n">
         <v>51</v>
       </c>
       <c r="AK47" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AL47" t="n">
         <v>7</v>
       </c>
       <c r="AM47" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AN47" t="n">
         <v>8.5</v>
       </c>
       <c r="AO47" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP47" t="n">
         <v>15</v>
@@ -7300,13 +7300,13 @@
         <v>4.75</v>
       </c>
       <c r="M48" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N48" t="n">
         <v>13</v>
       </c>
       <c r="O48" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P48" t="n">
         <v>4</v>
@@ -7323,7 +7323,7 @@
         <v>3</v>
       </c>
       <c r="V48" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W48" t="n">
         <v>1.36</v>
@@ -7471,7 +7471,7 @@
         <v>1.73</v>
       </c>
       <c r="W49" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="X49" t="n">
         <v>4</v>
@@ -7709,111 +7709,111 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>6.7</v>
+        <v>5.8</v>
       </c>
       <c r="H51" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I51" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="J51" t="n">
-        <v>6.7</v>
+        <v>6.1</v>
       </c>
       <c r="K51" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="L51" t="n">
-        <v>2.1</v>
+        <v>2.27</v>
       </c>
       <c r="M51" t="n">
         <v>1.1</v>
       </c>
       <c r="N51" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="O51" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P51" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="R51" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="n">
-        <v>4.25</v>
+        <v>4.35</v>
       </c>
       <c r="V51" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W51" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="X51" t="n">
-        <v>2.42</v>
+        <v>2.32</v>
       </c>
       <c r="Y51" t="n">
-        <v>2.5</v>
+        <v>2.37</v>
       </c>
       <c r="Z51" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="AA51" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB51" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AC51" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AD51" t="n">
+        <v>120</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ51" t="n">
         <v>175</v>
-      </c>
-      <c r="AE51" t="n">
-        <v>100</v>
-      </c>
-      <c r="AF51" t="n">
-        <v>120</v>
-      </c>
-      <c r="AG51" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AH51" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI51" t="n">
-        <v>27</v>
-      </c>
-      <c r="AJ51" t="n">
-        <v>200</v>
       </c>
       <c r="AK51" t="n">
         <v>101</v>
       </c>
       <c r="AL51" t="n">
-        <v>4.65</v>
+        <v>4.75</v>
       </c>
       <c r="AM51" t="n">
-        <v>5.6</v>
+        <v>6.1</v>
       </c>
       <c r="AN51" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AO51" t="n">
-        <v>10</v>
+        <v>11.25</v>
       </c>
       <c r="AP51" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AQ51" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AR51" t="inlineStr"/>
       <c r="AS51" t="inlineStr"/>
@@ -7850,22 +7850,22 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H52" t="n">
         <v>3.3</v>
       </c>
       <c r="I52" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J52" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K52" t="n">
         <v>2.25</v>
       </c>
       <c r="L52" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M52" t="n">
         <v>1.04</v>
@@ -7880,10 +7880,10 @@
         <v>4</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R52" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
@@ -7900,13 +7900,13 @@
         <v>3.25</v>
       </c>
       <c r="Y52" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Z52" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AA52" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB52" t="n">
         <v>17</v>
@@ -7915,13 +7915,13 @@
         <v>11</v>
       </c>
       <c r="AD52" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF52" t="n">
         <v>29</v>
-      </c>
-      <c r="AE52" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF52" t="n">
-        <v>26</v>
       </c>
       <c r="AG52" t="n">
         <v>13</v>
@@ -7936,19 +7936,19 @@
         <v>41</v>
       </c>
       <c r="AK52" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AL52" t="n">
         <v>10</v>
       </c>
       <c r="AM52" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN52" t="n">
         <v>9.5</v>
       </c>
       <c r="AO52" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP52" t="n">
         <v>17</v>
@@ -7991,52 +7991,52 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.92</v>
+        <v>2.05</v>
       </c>
       <c r="H53" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I53" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="J53" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="K53" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L53" t="n">
         <v>3.75</v>
       </c>
       <c r="M53" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N53" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O53" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P53" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="R53" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="S53" t="n">
-        <v>1.94</v>
+        <v>2.03</v>
       </c>
       <c r="T53" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="U53" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V53" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W53" t="n">
         <v>1.3</v>
@@ -8045,10 +8045,10 @@
         <v>3.4</v>
       </c>
       <c r="Y53" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Z53" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AA53" t="n">
         <v>10</v>
@@ -8078,28 +8078,28 @@
         <v>12</v>
       </c>
       <c r="AJ53" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK53" t="n">
         <v>126</v>
       </c>
       <c r="AL53" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM53" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN53" t="n">
         <v>12</v>
       </c>
       <c r="AO53" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP53" t="n">
         <v>23</v>
       </c>
       <c r="AQ53" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR53" t="inlineStr"/>
       <c r="AS53" t="inlineStr"/>
@@ -8136,7 +8136,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="H54" t="n">
         <v>3.8</v>
@@ -8160,24 +8160,24 @@
         <v>13</v>
       </c>
       <c r="O54" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P54" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="R54" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V54" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W54" t="n">
         <v>1.33</v>
@@ -8186,13 +8186,13 @@
         <v>3.25</v>
       </c>
       <c r="Y54" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Z54" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AA54" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB54" t="n">
         <v>9.5</v>
@@ -8207,13 +8207,13 @@
         <v>13</v>
       </c>
       <c r="AF54" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG54" t="n">
         <v>13</v>
       </c>
       <c r="AH54" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI54" t="n">
         <v>13</v>
@@ -8277,16 +8277,16 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="H55" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I55" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J55" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K55" t="n">
         <v>2.4</v>
@@ -8313,10 +8313,10 @@
         <v>2.35</v>
       </c>
       <c r="S55" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="T55" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="U55" t="n">
         <v>2.38</v>
@@ -8340,7 +8340,7 @@
         <v>9.5</v>
       </c>
       <c r="AB55" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AC55" t="n">
         <v>8.5</v>
@@ -8349,7 +8349,7 @@
         <v>15</v>
       </c>
       <c r="AE55" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF55" t="n">
         <v>21</v>
@@ -8358,7 +8358,7 @@
         <v>17</v>
       </c>
       <c r="AH55" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI55" t="n">
         <v>13</v>
@@ -8385,7 +8385,7 @@
         <v>29</v>
       </c>
       <c r="AQ55" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR55" t="inlineStr"/>
       <c r="AS55" t="inlineStr"/>
@@ -8422,48 +8422,48 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H56" t="n">
         <v>4</v>
       </c>
       <c r="I56" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J56" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K56" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L56" t="n">
         <v>5</v>
       </c>
       <c r="M56" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N56" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O56" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P56" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R56" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V56" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W56" t="n">
         <v>1.33</v>
@@ -8499,13 +8499,13 @@
         <v>13</v>
       </c>
       <c r="AH56" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI56" t="n">
         <v>15</v>
       </c>
       <c r="AJ56" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK56" t="n">
         <v>201</v>
@@ -8523,7 +8523,7 @@
         <v>51</v>
       </c>
       <c r="AP56" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ56" t="n">
         <v>41</v>
@@ -8563,22 +8563,22 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="H57" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I57" t="n">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="J57" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="K57" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L57" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="M57" t="n">
         <v>1.04</v>
@@ -8593,10 +8593,10 @@
         <v>4</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R57" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
@@ -8607,10 +8607,10 @@
         <v>1.4</v>
       </c>
       <c r="W57" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X57" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Y57" t="n">
         <v>1.67</v>
@@ -8619,22 +8619,22 @@
         <v>2.1</v>
       </c>
       <c r="AA57" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB57" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC57" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD57" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE57" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF57" t="n">
         <v>29</v>
-      </c>
-      <c r="AF57" t="n">
-        <v>34</v>
       </c>
       <c r="AG57" t="n">
         <v>13</v>
@@ -8652,16 +8652,16 @@
         <v>151</v>
       </c>
       <c r="AL57" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AM57" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AN57" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AO57" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP57" t="n">
         <v>15</v>
@@ -8719,7 +8719,7 @@
         <v>2.3</v>
       </c>
       <c r="L58" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="M58" t="n">
         <v>1.03</v>
@@ -8728,16 +8728,16 @@
         <v>15</v>
       </c>
       <c r="O58" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P58" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R58" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S58" t="n">
         <v>2.05</v>
@@ -8746,10 +8746,10 @@
         <v>1.8</v>
       </c>
       <c r="U58" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V58" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W58" t="n">
         <v>1.3</v>
@@ -8852,49 +8852,49 @@
         <v>9</v>
       </c>
       <c r="H59" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="I59" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="J59" t="n">
         <v>8</v>
       </c>
       <c r="K59" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L59" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N59" t="n">
+        <v>11</v>
+      </c>
+      <c r="O59" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P59" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q59" t="n">
         <v>1.95</v>
       </c>
-      <c r="M59" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N59" t="n">
-        <v>9</v>
-      </c>
-      <c r="O59" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P59" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>2.03</v>
-      </c>
       <c r="R59" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="S59" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="T59" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="U59" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="V59" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="W59" t="n">
         <v>1.4</v>
@@ -8903,13 +8903,13 @@
         <v>2.75</v>
       </c>
       <c r="Y59" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Z59" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AA59" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB59" t="n">
         <v>41</v>
@@ -8927,7 +8927,7 @@
         <v>67</v>
       </c>
       <c r="AG59" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH59" t="n">
         <v>8.5</v>
@@ -8939,16 +8939,16 @@
         <v>81</v>
       </c>
       <c r="AK59" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AL59" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AM59" t="n">
         <v>6</v>
       </c>
       <c r="AN59" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AO59" t="n">
         <v>8.5</v>
@@ -8960,10 +8960,10 @@
         <v>34</v>
       </c>
       <c r="AR59" t="n">
-        <v>1.54</v>
+        <v>1.49</v>
       </c>
       <c r="AS59" t="n">
-        <v>2.5</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="60">
@@ -8998,28 +8998,28 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H60" t="n">
         <v>3</v>
       </c>
       <c r="I60" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J60" t="n">
         <v>4</v>
       </c>
       <c r="K60" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L60" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M60" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N60" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O60" t="n">
         <v>1.4</v>
@@ -9028,16 +9028,16 @@
         <v>2.75</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R60" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S60" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="T60" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="U60" t="n">
         <v>4.33</v>
@@ -9046,10 +9046,10 @@
         <v>1.2</v>
       </c>
       <c r="W60" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X60" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Y60" t="n">
         <v>1.95</v>
@@ -9058,10 +9058,10 @@
         <v>1.8</v>
       </c>
       <c r="AA60" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB60" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC60" t="n">
         <v>13</v>
@@ -9070,16 +9070,16 @@
         <v>41</v>
       </c>
       <c r="AE60" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AF60" t="n">
         <v>41</v>
       </c>
       <c r="AG60" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH60" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AI60" t="n">
         <v>15</v>
@@ -9088,7 +9088,7 @@
         <v>51</v>
       </c>
       <c r="AK60" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AL60" t="n">
         <v>6.5</v>
@@ -9109,10 +9109,10 @@
         <v>34</v>
       </c>
       <c r="AR60" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="AS60" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="61">
@@ -9147,85 +9147,85 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="H61" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I61" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J61" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K61" t="n">
         <v>2.05</v>
       </c>
       <c r="L61" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M61" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N61" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O61" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P61" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R61" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S61" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="T61" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="U61" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V61" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W61" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X61" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y61" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="Z61" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AA61" t="n">
         <v>8</v>
       </c>
       <c r="AB61" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC61" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD61" t="n">
         <v>26</v>
       </c>
       <c r="AE61" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF61" t="n">
         <v>34</v>
       </c>
       <c r="AG61" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AH61" t="n">
         <v>6</v>
@@ -9237,10 +9237,10 @@
         <v>51</v>
       </c>
       <c r="AK61" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AL61" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AM61" t="n">
         <v>13</v>
@@ -9249,7 +9249,7 @@
         <v>11</v>
       </c>
       <c r="AO61" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP61" t="n">
         <v>23</v>
@@ -9258,10 +9258,10 @@
         <v>34</v>
       </c>
       <c r="AR61" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.37</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="62">
@@ -9299,7 +9299,7 @@
         <v>3</v>
       </c>
       <c r="H62" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="I62" t="n">
         <v>2.63</v>
@@ -9311,7 +9311,7 @@
         <v>1.8</v>
       </c>
       <c r="L62" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M62" t="n">
         <v>1.14</v>
@@ -9335,7 +9335,7 @@
         <v>5.2</v>
       </c>
       <c r="T62" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="U62" t="n">
         <v>7</v>
@@ -9350,13 +9350,13 @@
         <v>2.08</v>
       </c>
       <c r="Y62" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Z62" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AA62" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB62" t="n">
         <v>13</v>
@@ -9374,22 +9374,22 @@
         <v>51</v>
       </c>
       <c r="AG62" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AH62" t="n">
         <v>6</v>
       </c>
       <c r="AI62" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ62" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK62" t="n">
         <v>501</v>
       </c>
       <c r="AL62" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AM62" t="n">
         <v>11</v>
@@ -9404,7 +9404,7 @@
         <v>29</v>
       </c>
       <c r="AQ62" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR62" t="n">
         <v>2.05</v>
@@ -9616,18 +9616,18 @@
         <v>3.25</v>
       </c>
       <c r="Q64" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R64" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V64" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W64" t="n">
         <v>1.44</v>
@@ -9902,10 +9902,10 @@
         <v>4.33</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R66" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
@@ -10016,41 +10016,41 @@
         <v>1.5</v>
       </c>
       <c r="H67" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I67" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="J67" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="K67" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="L67" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P67" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R67" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="V67" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="W67" t="n">
         <v>1.4</v>
@@ -10062,46 +10062,46 @@
         <v>1.7</v>
       </c>
       <c r="Z67" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="AA67" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AB67" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AC67" t="n">
         <v>7.8</v>
       </c>
       <c r="AD67" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AE67" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AF67" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG67" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH67" t="n">
         <v>7.8</v>
       </c>
       <c r="AI67" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AJ67" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AK67" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AL67" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AM67" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AN67" t="n">
         <v>19</v>
@@ -10113,7 +10113,7 @@
         <v>65</v>
       </c>
       <c r="AQ67" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AR67" t="inlineStr"/>
       <c r="AS67" t="inlineStr"/>
@@ -10290,19 +10290,19 @@
         <v>1.72</v>
       </c>
       <c r="H69" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I69" t="n">
-        <v>4.55</v>
+        <v>4.6</v>
       </c>
       <c r="J69" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="K69" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L69" t="n">
-        <v>4.75</v>
+        <v>4.7</v>
       </c>
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr"/>
@@ -10330,46 +10330,46 @@
         <v>1.4</v>
       </c>
       <c r="X69" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="Y69" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="Z69" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AA69" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AB69" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AC69" t="n">
         <v>8</v>
       </c>
       <c r="AD69" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AE69" t="n">
         <v>14</v>
       </c>
       <c r="AF69" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG69" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AH69" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AI69" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AJ69" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AK69" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AL69" t="n">
         <v>13</v>
@@ -10424,13 +10424,13 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H70" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I70" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J70" t="n">
         <v>3.4</v>
@@ -10439,25 +10439,25 @@
         <v>2.1</v>
       </c>
       <c r="L70" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M70" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N70" t="n">
         <v>10</v>
       </c>
       <c r="O70" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="P70" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q70" t="n">
         <v>2.05</v>
       </c>
       <c r="R70" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
@@ -10465,22 +10465,22 @@
         <v>3.5</v>
       </c>
       <c r="V70" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W70" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X70" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y70" t="n">
-        <v>1.69</v>
+        <v>1.8</v>
       </c>
       <c r="Z70" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AA70" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB70" t="n">
         <v>13</v>
@@ -10489,16 +10489,16 @@
         <v>11</v>
       </c>
       <c r="AD70" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE70" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF70" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG70" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH70" t="n">
         <v>6</v>
@@ -10507,16 +10507,16 @@
         <v>13</v>
       </c>
       <c r="AJ70" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK70" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL70" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM70" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN70" t="n">
         <v>10</v>
@@ -10565,31 +10565,31 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H71" t="n">
         <v>3.1</v>
       </c>
       <c r="I71" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J71" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K71" t="n">
         <v>2</v>
       </c>
       <c r="L71" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M71" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N71" t="n">
         <v>8</v>
       </c>
       <c r="O71" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P71" t="n">
         <v>3</v>
@@ -10606,7 +10606,7 @@
         <v>4</v>
       </c>
       <c r="V71" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="W71" t="n">
         <v>1.5</v>
@@ -10615,10 +10615,10 @@
         <v>2.5</v>
       </c>
       <c r="Y71" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="Z71" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="AA71" t="n">
         <v>7</v>
@@ -10657,13 +10657,13 @@
         <v>9</v>
       </c>
       <c r="AM71" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN71" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO71" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP71" t="n">
         <v>29</v>
@@ -10706,16 +10706,16 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H72" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I72" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J72" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K72" t="n">
         <v>2.05</v>
@@ -10724,13 +10724,13 @@
         <v>3</v>
       </c>
       <c r="M72" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N72" t="n">
         <v>9</v>
       </c>
       <c r="O72" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P72" t="n">
         <v>3</v>
@@ -10744,7 +10744,7 @@
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V72" t="n">
         <v>1.22</v>
@@ -10756,10 +10756,10 @@
         <v>2.63</v>
       </c>
       <c r="Y72" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="Z72" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="AA72" t="n">
         <v>9</v>
@@ -10810,7 +10810,7 @@
         <v>19</v>
       </c>
       <c r="AQ72" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR72" t="inlineStr"/>
       <c r="AS72" t="inlineStr"/>
@@ -10850,60 +10850,60 @@
         <v>2.5</v>
       </c>
       <c r="H73" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="I73" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J73" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K73" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="L73" t="n">
         <v>4</v>
       </c>
       <c r="M73" t="n">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="N73" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O73" t="n">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="P73" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q73" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="R73" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="V73" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W73" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="X73" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y73" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Z73" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="AA73" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB73" t="n">
         <v>10</v>
@@ -10915,13 +10915,13 @@
         <v>26</v>
       </c>
       <c r="AE73" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF73" t="n">
         <v>41</v>
       </c>
       <c r="AG73" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AH73" t="n">
         <v>5.5</v>
@@ -10939,13 +10939,13 @@
         <v>7</v>
       </c>
       <c r="AM73" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN73" t="n">
         <v>13</v>
       </c>
       <c r="AO73" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP73" t="n">
         <v>34</v>
@@ -10992,48 +10992,48 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="H74" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I74" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J74" t="n">
         <v>2.75</v>
       </c>
       <c r="K74" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L74" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M74" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N74" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O74" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P74" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q74" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="R74" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="V74" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="W74" t="n">
         <v>1.5</v>
@@ -11042,16 +11042,16 @@
         <v>2.5</v>
       </c>
       <c r="Y74" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="Z74" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="AA74" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB74" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AC74" t="n">
         <v>9</v>
@@ -11066,7 +11066,7 @@
         <v>34</v>
       </c>
       <c r="AG74" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH74" t="n">
         <v>6</v>
@@ -11075,25 +11075,25 @@
         <v>17</v>
       </c>
       <c r="AJ74" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK74" t="n">
-        <v>451</v>
+        <v>351</v>
       </c>
       <c r="AL74" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM74" t="n">
         <v>19</v>
       </c>
       <c r="AN74" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO74" t="n">
         <v>41</v>
       </c>
       <c r="AP74" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ74" t="n">
         <v>41</v>
@@ -11278,40 +11278,40 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="H76" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I76" t="n">
         <v>2.75</v>
       </c>
       <c r="J76" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K76" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L76" t="n">
         <v>3.4</v>
       </c>
       <c r="M76" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N76" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O76" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P76" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q76" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R76" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr"/>
@@ -11328,10 +11328,10 @@
         <v>2.75</v>
       </c>
       <c r="Y76" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="Z76" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AA76" t="n">
         <v>9</v>
@@ -11340,22 +11340,22 @@
         <v>13</v>
       </c>
       <c r="AC76" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD76" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE76" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF76" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG76" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH76" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI76" t="n">
         <v>13</v>
@@ -11367,13 +11367,13 @@
         <v>201</v>
       </c>
       <c r="AL76" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM76" t="n">
+        <v>13</v>
+      </c>
+      <c r="AN76" t="n">
         <v>10</v>
-      </c>
-      <c r="AM76" t="n">
-        <v>15</v>
-      </c>
-      <c r="AN76" t="n">
-        <v>11</v>
       </c>
       <c r="AO76" t="n">
         <v>29</v>
@@ -11419,13 +11419,13 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="H77" t="n">
         <v>3.4</v>
       </c>
       <c r="I77" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J77" t="n">
         <v>3.5</v>
@@ -11963,13 +11963,13 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="H81" t="n">
         <v>3.5</v>
       </c>
       <c r="I81" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J81" t="n">
         <v>3</v>
@@ -12107,10 +12107,10 @@
         <v>1.6</v>
       </c>
       <c r="H82" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I82" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J82" t="n">
         <v>2.2</v>
@@ -12134,10 +12134,10 @@
         <v>3.75</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R82" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr"/>
@@ -12160,7 +12160,7 @@
         <v>1.95</v>
       </c>
       <c r="AA82" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB82" t="n">
         <v>7.5</v>
@@ -12175,13 +12175,13 @@
         <v>13</v>
       </c>
       <c r="AF82" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG82" t="n">
         <v>12</v>
       </c>
       <c r="AH82" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI82" t="n">
         <v>17</v>
@@ -12275,10 +12275,10 @@
         <v>4.5</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R83" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S83" t="n">
         <v>2.05</v>
@@ -12393,7 +12393,7 @@
         <v>1.48</v>
       </c>
       <c r="H84" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I84" t="n">
         <v>6.5</v>
@@ -12408,22 +12408,22 @@
         <v>6.5</v>
       </c>
       <c r="M84" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N84" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O84" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P84" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="R84" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr"/>
@@ -12434,16 +12434,16 @@
         <v>1.33</v>
       </c>
       <c r="W84" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X84" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y84" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="Z84" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AA84" t="n">
         <v>6.5</v>
@@ -12464,13 +12464,13 @@
         <v>29</v>
       </c>
       <c r="AG84" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH84" t="n">
         <v>8</v>
       </c>
       <c r="AI84" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ84" t="n">
         <v>67</v>
@@ -12531,10 +12531,10 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="H85" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="I85" t="n">
         <v>17</v>
@@ -12555,22 +12555,22 @@
         <v>19</v>
       </c>
       <c r="O85" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P85" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R85" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S85" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="T85" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="U85" t="n">
         <v>2.25</v>
@@ -12612,7 +12612,7 @@
         <v>15</v>
       </c>
       <c r="AH85" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI85" t="n">
         <v>34</v>
@@ -12627,16 +12627,16 @@
         <v>34</v>
       </c>
       <c r="AM85" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AN85" t="n">
         <v>41</v>
       </c>
       <c r="AO85" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AP85" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AQ85" t="n">
         <v>101</v>
@@ -12694,10 +12694,10 @@
         <v>1.67</v>
       </c>
       <c r="M86" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N86" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O86" t="n">
         <v>1.17</v>
@@ -12706,22 +12706,22 @@
         <v>5</v>
       </c>
       <c r="Q86" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R86" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S86" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="T86" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U86" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V86" t="n">
         <v>1.53</v>
-      </c>
-      <c r="R86" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S86" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="T86" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="U86" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V86" t="n">
-        <v>1.57</v>
       </c>
       <c r="W86" t="n">
         <v>1.29</v>
@@ -12845,10 +12845,10 @@
         <v>10</v>
       </c>
       <c r="O87" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P87" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q87" t="n">
         <v>2.1</v>
@@ -13103,22 +13103,22 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="H89" t="n">
         <v>3.2</v>
       </c>
       <c r="I89" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="J89" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K89" t="n">
         <v>2.05</v>
       </c>
       <c r="L89" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M89" t="n">
         <v>1.07</v>
@@ -13127,16 +13127,16 @@
         <v>9</v>
       </c>
       <c r="O89" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P89" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q89" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R89" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S89" t="inlineStr"/>
       <c r="T89" t="inlineStr"/>
@@ -13153,16 +13153,16 @@
         <v>2.5</v>
       </c>
       <c r="Y89" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Z89" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AA89" t="n">
         <v>7</v>
       </c>
       <c r="AB89" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC89" t="n">
         <v>9.5</v>
@@ -13192,7 +13192,7 @@
         <v>351</v>
       </c>
       <c r="AL89" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM89" t="n">
         <v>15</v>
@@ -13204,7 +13204,7 @@
         <v>34</v>
       </c>
       <c r="AP89" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ89" t="n">
         <v>41</v>
@@ -13253,10 +13253,10 @@
         <v>1.18</v>
       </c>
       <c r="J90" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K90" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="L90" t="n">
         <v>1.53</v>
@@ -13274,10 +13274,10 @@
         <v>6</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="R90" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="S90" t="n">
         <v>1.85</v>
@@ -13298,10 +13298,10 @@
         <v>4</v>
       </c>
       <c r="Y90" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="Z90" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AA90" t="n">
         <v>29</v>
@@ -13310,16 +13310,16 @@
         <v>51</v>
       </c>
       <c r="AC90" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AD90" t="n">
         <v>151</v>
       </c>
       <c r="AE90" t="n">
+        <v>81</v>
+      </c>
+      <c r="AF90" t="n">
         <v>67</v>
-      </c>
-      <c r="AF90" t="n">
-        <v>51</v>
       </c>
       <c r="AG90" t="n">
         <v>21</v>
@@ -13328,31 +13328,31 @@
         <v>15</v>
       </c>
       <c r="AI90" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ90" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK90" t="n">
-        <v>351</v>
+        <v>451</v>
       </c>
       <c r="AL90" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM90" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AN90" t="n">
         <v>10</v>
       </c>
       <c r="AO90" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AP90" t="n">
         <v>11</v>
       </c>
       <c r="AQ90" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR90" t="inlineStr"/>
       <c r="AS90" t="inlineStr"/>
@@ -13395,7 +13395,7 @@
         <v>8</v>
       </c>
       <c r="I91" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J91" t="n">
         <v>1.5</v>
@@ -13413,13 +13413,13 @@
         <v>21</v>
       </c>
       <c r="O91" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P91" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q91" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="R91" t="n">
         <v>3</v>
@@ -13448,10 +13448,10 @@
         <v>9.5</v>
       </c>
       <c r="AB91" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AC91" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD91" t="n">
         <v>7</v>
@@ -13475,13 +13475,13 @@
         <v>81</v>
       </c>
       <c r="AK91" t="n">
-        <v>401</v>
+        <v>501</v>
       </c>
       <c r="AL91" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM91" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AN91" t="n">
         <v>41</v>
@@ -13536,16 +13536,16 @@
         <v>4.45</v>
       </c>
       <c r="I92" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="J92" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="K92" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="L92" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="M92" t="n">
         <v>1.04</v>
@@ -13568,25 +13568,25 @@
       <c r="S92" t="inlineStr"/>
       <c r="T92" t="inlineStr"/>
       <c r="U92" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="V92" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="W92" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="X92" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Y92" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="Z92" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="AA92" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AB92" t="n">
         <v>6.6</v>
@@ -13607,7 +13607,7 @@
         <v>8.5</v>
       </c>
       <c r="AH92" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AI92" t="n">
         <v>19.5</v>
@@ -13628,7 +13628,7 @@
         <v>23</v>
       </c>
       <c r="AO92" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AP92" t="n">
         <v>80</v>
@@ -13671,111 +13671,111 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="H93" t="n">
-        <v>4.65</v>
+        <v>4.5</v>
       </c>
       <c r="I93" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="J93" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="K93" t="n">
         <v>2.62</v>
       </c>
       <c r="L93" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="M93" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N93" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="O93" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="P93" t="n">
-        <v>5.6</v>
+        <v>4.85</v>
       </c>
       <c r="Q93" t="n">
-        <v>1.35</v>
+        <v>1.45</v>
       </c>
       <c r="R93" t="n">
-        <v>2.92</v>
+        <v>2.57</v>
       </c>
       <c r="S93" t="inlineStr"/>
       <c r="T93" t="inlineStr"/>
       <c r="U93" t="n">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="V93" t="n">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="W93" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="X93" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="Y93" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="Z93" t="n">
-        <v>2.42</v>
+        <v>2.25</v>
       </c>
       <c r="AA93" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AB93" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AC93" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AD93" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AE93" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AF93" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AG93" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH93" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AI93" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AJ93" t="n">
+        <v>45</v>
+      </c>
+      <c r="AK93" t="n">
+        <v>250</v>
+      </c>
+      <c r="AL93" t="n">
         <v>10.25</v>
       </c>
-      <c r="AH93" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AI93" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AJ93" t="n">
-        <v>37</v>
-      </c>
-      <c r="AK93" t="n">
-        <v>175</v>
-      </c>
-      <c r="AL93" t="n">
-        <v>12</v>
-      </c>
       <c r="AM93" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AN93" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AO93" t="n">
         <v>11.75</v>
       </c>
       <c r="AP93" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AQ93" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AR93" t="inlineStr"/>
       <c r="AS93" t="inlineStr"/>
@@ -14094,37 +14094,37 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="H96" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I96" t="n">
-        <v>4.15</v>
+        <v>3.9</v>
       </c>
       <c r="J96" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K96" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="L96" t="n">
-        <v>4.45</v>
+        <v>4.25</v>
       </c>
       <c r="M96" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N96" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="O96" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P96" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="Q96" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="R96" t="n">
         <v>1.7</v>
@@ -14132,49 +14132,49 @@
       <c r="S96" t="inlineStr"/>
       <c r="T96" t="inlineStr"/>
       <c r="U96" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="V96" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W96" t="n">
         <v>1.4</v>
       </c>
       <c r="X96" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="Y96" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="Z96" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="AA96" t="n">
         <v>6.3</v>
       </c>
       <c r="AB96" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AC96" t="n">
         <v>8.5</v>
       </c>
       <c r="AD96" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AE96" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AF96" t="n">
         <v>30</v>
       </c>
       <c r="AG96" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AH96" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AI96" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AJ96" t="n">
         <v>80</v>
@@ -14183,22 +14183,22 @@
         <v>700</v>
       </c>
       <c r="AL96" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AM96" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN96" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO96" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AP96" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AQ96" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AR96" t="inlineStr"/>
       <c r="AS96" t="inlineStr"/>
@@ -14235,54 +14235,54 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="H97" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I97" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="J97" t="n">
-        <v>4.15</v>
+        <v>4</v>
       </c>
       <c r="K97" t="n">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="L97" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="M97" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N97" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="O97" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P97" t="n">
-        <v>2.85</v>
+        <v>2.92</v>
       </c>
       <c r="Q97" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R97" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S97" t="inlineStr"/>
       <c r="T97" t="inlineStr"/>
       <c r="U97" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="V97" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W97" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="X97" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="Y97" t="n">
         <v>1.87</v>
@@ -14291,7 +14291,7 @@
         <v>1.83</v>
       </c>
       <c r="AA97" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AB97" t="n">
         <v>18.5</v>
@@ -14300,19 +14300,19 @@
         <v>12.5</v>
       </c>
       <c r="AD97" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AE97" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF97" t="n">
         <v>45</v>
       </c>
       <c r="AG97" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AH97" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AI97" t="n">
         <v>15.5</v>
@@ -14327,13 +14327,13 @@
         <v>6.6</v>
       </c>
       <c r="AM97" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AN97" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AO97" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AP97" t="n">
         <v>17</v>
@@ -14376,28 +14376,28 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H98" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I98" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J98" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K98" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L98" t="n">
         <v>4</v>
       </c>
       <c r="M98" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N98" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O98" t="n">
         <v>1.29</v>
@@ -14435,13 +14435,13 @@
         <v>7.5</v>
       </c>
       <c r="AB98" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AC98" t="n">
         <v>9</v>
       </c>
       <c r="AD98" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE98" t="n">
         <v>17</v>
@@ -14450,16 +14450,16 @@
         <v>26</v>
       </c>
       <c r="AG98" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH98" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI98" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ98" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK98" t="n">
         <v>201</v>
@@ -14520,10 +14520,10 @@
         <v>2.25</v>
       </c>
       <c r="H99" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I99" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="J99" t="n">
         <v>3</v>
@@ -14535,16 +14535,16 @@
         <v>4</v>
       </c>
       <c r="M99" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N99" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O99" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P99" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q99" t="n">
         <v>2.25</v>
@@ -14555,10 +14555,10 @@
       <c r="S99" t="inlineStr"/>
       <c r="T99" t="inlineStr"/>
       <c r="U99" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="V99" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="W99" t="n">
         <v>1.5</v>
@@ -14573,7 +14573,7 @@
         <v>1.8</v>
       </c>
       <c r="AA99" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB99" t="n">
         <v>10</v>
@@ -14591,13 +14591,13 @@
         <v>34</v>
       </c>
       <c r="AG99" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AH99" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI99" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ99" t="n">
         <v>51</v>
@@ -14606,13 +14606,13 @@
         <v>351</v>
       </c>
       <c r="AL99" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AM99" t="n">
         <v>15</v>
       </c>
       <c r="AN99" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO99" t="n">
         <v>34</v>
@@ -14658,114 +14658,118 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="H100" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I100" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="J100" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K100" t="n">
         <v>1.95</v>
-      </c>
-      <c r="J100" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K100" t="n">
-        <v>2.05</v>
       </c>
       <c r="L100" t="n">
         <v>2.63</v>
       </c>
       <c r="M100" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N100" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O100" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="P100" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="Q100" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="R100" t="n">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="S100" t="inlineStr"/>
       <c r="T100" t="inlineStr"/>
       <c r="U100" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="V100" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="W100" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X100" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Y100" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Z100" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="AA100" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB100" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC100" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD100" t="n">
+        <v>51</v>
+      </c>
+      <c r="AE100" t="n">
         <v>41</v>
       </c>
-      <c r="AE100" t="n">
-        <v>34</v>
-      </c>
       <c r="AF100" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG100" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AH100" t="n">
         <v>6.5</v>
       </c>
       <c r="AI100" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AJ100" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AK100" t="n">
         <v>351</v>
       </c>
       <c r="AL100" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AM100" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AN100" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AO100" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP100" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ100" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR100" t="inlineStr"/>
-      <c r="AS100" t="inlineStr"/>
+        <v>41</v>
+      </c>
+      <c r="AR100" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AS100" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -14799,117 +14803,117 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H101" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I101" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J101" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K101" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L101" t="n">
         <v>4.5</v>
       </c>
       <c r="M101" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N101" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O101" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P101" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R101" t="n">
         <v>1.44</v>
-      </c>
-      <c r="P101" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q101" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R101" t="n">
-        <v>1.53</v>
       </c>
       <c r="S101" t="inlineStr"/>
       <c r="T101" t="inlineStr"/>
       <c r="U101" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="V101" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="W101" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="X101" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="Y101" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Z101" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="AA101" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB101" t="n">
         <v>9</v>
       </c>
       <c r="AC101" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD101" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE101" t="n">
         <v>21</v>
       </c>
       <c r="AF101" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG101" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH101" t="n">
         <v>6</v>
       </c>
       <c r="AI101" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ101" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK101" t="n">
         <v>301</v>
       </c>
       <c r="AL101" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM101" t="n">
         <v>17</v>
       </c>
       <c r="AN101" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO101" t="n">
         <v>41</v>
       </c>
       <c r="AP101" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ101" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR101" t="n">
-        <v>1.85</v>
+        <v>2.03</v>
       </c>
       <c r="AS101" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="102">
@@ -14968,16 +14972,16 @@
         <v>7</v>
       </c>
       <c r="O102" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P102" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q102" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R102" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S102" t="inlineStr"/>
       <c r="T102" t="inlineStr"/>
@@ -15051,10 +15055,10 @@
         <v>41</v>
       </c>
       <c r="AR102" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="103">
@@ -15516,102 +15520,102 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="H106" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="I106" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="J106" t="n">
         <v>1.62</v>
       </c>
       <c r="K106" t="n">
-        <v>2.77</v>
+        <v>2.72</v>
       </c>
       <c r="L106" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="M106" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N106" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="O106" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="P106" t="n">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="Q106" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="R106" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="S106" t="inlineStr"/>
       <c r="T106" t="inlineStr"/>
       <c r="U106" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V106" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="W106" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="X106" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Y106" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="Z106" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="AA106" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="AB106" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AC106" t="n">
         <v>9</v>
       </c>
       <c r="AD106" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AE106" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AF106" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG106" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AH106" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AI106" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ106" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AK106" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="AL106" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AM106" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AN106" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AO106" t="n">
         <v>300</v>
@@ -15620,7 +15624,7 @@
         <v>110</v>
       </c>
       <c r="AQ106" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AR106" t="inlineStr"/>
       <c r="AS106" t="inlineStr"/>
@@ -15657,22 +15661,22 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="H107" t="n">
-        <v>4.9</v>
+        <v>6.6</v>
       </c>
       <c r="I107" t="n">
-        <v>8</v>
+        <v>13.5</v>
       </c>
       <c r="J107" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="K107" t="n">
-        <v>2.67</v>
+        <v>3.05</v>
       </c>
       <c r="L107" t="n">
-        <v>6.7</v>
+        <v>9</v>
       </c>
       <c r="M107" t="n">
         <v>1.02</v>
@@ -15681,87 +15685,87 @@
         <v>10</v>
       </c>
       <c r="O107" t="n">
-        <v>1.12</v>
+        <v>1.09</v>
       </c>
       <c r="P107" t="n">
-        <v>5.3</v>
+        <v>6.1</v>
       </c>
       <c r="Q107" t="n">
-        <v>1.39</v>
+        <v>1.31</v>
       </c>
       <c r="R107" t="n">
-        <v>2.8</v>
+        <v>3.15</v>
       </c>
       <c r="S107" t="inlineStr"/>
       <c r="T107" t="inlineStr"/>
       <c r="U107" t="n">
-        <v>1.93</v>
+        <v>1.75</v>
       </c>
       <c r="V107" t="n">
-        <v>1.78</v>
+        <v>1.95</v>
       </c>
       <c r="W107" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="X107" t="n">
-        <v>3.8</v>
+        <v>4.25</v>
       </c>
       <c r="Y107" t="n">
-        <v>1.6</v>
+        <v>1.82</v>
       </c>
       <c r="Z107" t="n">
-        <v>2.2</v>
+        <v>1.88</v>
       </c>
       <c r="AA107" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AB107" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AC107" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD107" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AE107" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF107" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG107" t="n">
         <v>10.75</v>
       </c>
-      <c r="AB107" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AC107" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD107" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE107" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AF107" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AG107" t="n">
-        <v>10</v>
-      </c>
       <c r="AH107" t="n">
-        <v>10.5</v>
+        <v>15</v>
       </c>
       <c r="AI107" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AJ107" t="n">
+        <v>80</v>
+      </c>
+      <c r="AK107" t="n">
+        <v>450</v>
+      </c>
+      <c r="AL107" t="n">
         <v>50</v>
       </c>
-      <c r="AK107" t="n">
-        <v>300</v>
-      </c>
-      <c r="AL107" t="n">
-        <v>29</v>
-      </c>
       <c r="AM107" t="n">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="AN107" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="AO107" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="AP107" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="AQ107" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="AR107" t="inlineStr"/>
       <c r="AS107" t="inlineStr"/>
@@ -15798,16 +15802,16 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H108" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="I108" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="J108" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="K108" t="n">
         <v>1.98</v>
@@ -15819,16 +15823,16 @@
         <v>1.1</v>
       </c>
       <c r="N108" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="O108" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="P108" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="Q108" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R108" t="n">
         <v>1.6</v>
@@ -15836,61 +15840,61 @@
       <c r="S108" t="inlineStr"/>
       <c r="T108" t="inlineStr"/>
       <c r="U108" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="V108" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="W108" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="X108" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="Y108" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="Z108" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="AA108" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="AB108" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC108" t="n">
         <v>8.75</v>
       </c>
       <c r="AD108" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE108" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AF108" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AG108" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AH108" t="n">
         <v>5.7</v>
       </c>
       <c r="AI108" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AJ108" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AK108" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AL108" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AM108" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AN108" t="n">
         <v>12</v>
@@ -15939,108 +15943,108 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3.6</v>
+        <v>4.25</v>
       </c>
       <c r="H109" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="I109" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="J109" t="n">
-        <v>3.95</v>
+        <v>4.45</v>
       </c>
       <c r="K109" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L109" t="n">
         <v>2.22</v>
-      </c>
-      <c r="L109" t="n">
-        <v>2.45</v>
       </c>
       <c r="M109" t="n">
         <v>1.04</v>
       </c>
       <c r="N109" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="O109" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P109" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="Q109" t="n">
         <v>1.65</v>
       </c>
       <c r="R109" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="S109" t="inlineStr"/>
       <c r="T109" t="inlineStr"/>
       <c r="U109" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="V109" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="W109" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="X109" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Y109" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="Z109" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="AA109" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AB109" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AC109" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AD109" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AE109" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF109" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AG109" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AH109" t="n">
-        <v>7.1</v>
+        <v>7.7</v>
       </c>
       <c r="AI109" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AJ109" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AK109" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AL109" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AM109" t="n">
         <v>9</v>
-      </c>
-      <c r="AM109" t="n">
-        <v>10.25</v>
       </c>
       <c r="AN109" t="n">
         <v>8.25</v>
       </c>
       <c r="AO109" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AP109" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AQ109" t="n">
         <v>21</v>
@@ -16080,84 +16084,84 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="H110" t="n">
         <v>3.7</v>
       </c>
       <c r="I110" t="n">
-        <v>1.83</v>
+        <v>1.98</v>
       </c>
       <c r="J110" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="K110" t="n">
         <v>2.3</v>
       </c>
       <c r="L110" t="n">
-        <v>2.35</v>
+        <v>2.47</v>
       </c>
       <c r="M110" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N110" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="O110" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P110" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q110" t="n">
         <v>1.57</v>
       </c>
       <c r="R110" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="S110" t="inlineStr"/>
       <c r="T110" t="inlineStr"/>
       <c r="U110" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="V110" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="W110" t="n">
         <v>1.31</v>
       </c>
       <c r="X110" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="Y110" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="Z110" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="AA110" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB110" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AC110" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD110" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AE110" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AF110" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AG110" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AH110" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AI110" t="n">
         <v>12</v>
@@ -16169,22 +16173,22 @@
         <v>250</v>
       </c>
       <c r="AL110" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="AM110" t="n">
-        <v>10.75</v>
+        <v>11.75</v>
       </c>
       <c r="AN110" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AO110" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AP110" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ110" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AR110" t="inlineStr"/>
       <c r="AS110" t="inlineStr"/>
@@ -16221,52 +16225,52 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="H111" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I111" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="J111" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="K111" t="n">
         <v>2.4</v>
       </c>
       <c r="L111" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="M111" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N111" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O111" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P111" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q111" t="n">
         <v>1.5</v>
       </c>
       <c r="R111" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S111" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="T111" t="n">
-        <v>1.92</v>
+        <v>2.03</v>
       </c>
       <c r="U111" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V111" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W111" t="n">
         <v>1.29</v>
@@ -16275,61 +16279,61 @@
         <v>3.5</v>
       </c>
       <c r="Y111" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="Z111" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="AA111" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB111" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AC111" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD111" t="n">
         <v>41</v>
       </c>
       <c r="AE111" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF111" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG111" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH111" t="n">
         <v>8</v>
       </c>
       <c r="AI111" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ111" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK111" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL111" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM111" t="n">
+        <v>12</v>
+      </c>
+      <c r="AN111" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO111" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP111" t="n">
         <v>13</v>
       </c>
-      <c r="AJ111" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK111" t="n">
-        <v>126</v>
-      </c>
-      <c r="AL111" t="n">
-        <v>10</v>
-      </c>
-      <c r="AM111" t="n">
-        <v>10</v>
-      </c>
-      <c r="AN111" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AO111" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP111" t="n">
-        <v>12</v>
-      </c>
       <c r="AQ111" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR111" t="inlineStr"/>
       <c r="AS111" t="inlineStr"/>
@@ -16366,16 +16370,16 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H112" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I112" t="n">
         <v>5</v>
       </c>
       <c r="J112" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K112" t="n">
         <v>2.25</v>
@@ -16396,18 +16400,18 @@
         <v>3.75</v>
       </c>
       <c r="Q112" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="R112" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="S112" t="inlineStr"/>
       <c r="T112" t="inlineStr"/>
       <c r="U112" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V112" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W112" t="n">
         <v>1.36</v>
@@ -16425,7 +16429,7 @@
         <v>7</v>
       </c>
       <c r="AB112" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AC112" t="n">
         <v>8.5</v>
@@ -16458,7 +16462,7 @@
         <v>15</v>
       </c>
       <c r="AM112" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN112" t="n">
         <v>17</v>
@@ -16528,7 +16532,7 @@
         <v>1.03</v>
       </c>
       <c r="N113" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O113" t="n">
         <v>1.17</v>
@@ -16537,16 +16541,16 @@
         <v>5</v>
       </c>
       <c r="Q113" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="R113" t="n">
         <v>2.35</v>
       </c>
       <c r="S113" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="T113" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="U113" t="n">
         <v>2.38</v>
@@ -16652,13 +16656,13 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H114" t="n">
         <v>3.4</v>
       </c>
       <c r="I114" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="J114" t="n">
         <v>4</v>
@@ -16682,10 +16686,10 @@
         <v>3.75</v>
       </c>
       <c r="Q114" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R114" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S114" t="inlineStr"/>
       <c r="T114" t="inlineStr"/>
@@ -16711,13 +16715,13 @@
         <v>11</v>
       </c>
       <c r="AB114" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC114" t="n">
         <v>12</v>
       </c>
       <c r="AD114" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE114" t="n">
         <v>26</v>
@@ -16793,22 +16797,22 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H115" t="n">
         <v>3.4</v>
       </c>
       <c r="I115" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J115" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K115" t="n">
         <v>2.25</v>
       </c>
       <c r="L115" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M115" t="n">
         <v>1.04</v>
@@ -16823,10 +16827,10 @@
         <v>4</v>
       </c>
       <c r="Q115" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="R115" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="S115" t="inlineStr"/>
       <c r="T115" t="inlineStr"/>
@@ -16837,10 +16841,10 @@
         <v>1.4</v>
       </c>
       <c r="W115" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X115" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Y115" t="n">
         <v>1.62</v>
@@ -16849,7 +16853,7 @@
         <v>2.2</v>
       </c>
       <c r="AA115" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB115" t="n">
         <v>17</v>
@@ -16858,7 +16862,7 @@
         <v>11</v>
       </c>
       <c r="AD115" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE115" t="n">
         <v>23</v>
@@ -16867,13 +16871,13 @@
         <v>29</v>
       </c>
       <c r="AG115" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH115" t="n">
         <v>7</v>
       </c>
       <c r="AI115" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ115" t="n">
         <v>41</v>
@@ -16888,7 +16892,7 @@
         <v>12</v>
       </c>
       <c r="AN115" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AO115" t="n">
         <v>21</v>
@@ -16934,16 +16938,16 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="H116" t="n">
         <v>3.5</v>
       </c>
       <c r="I116" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J116" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K116" t="n">
         <v>2.25</v>
@@ -16964,10 +16968,10 @@
         <v>3.75</v>
       </c>
       <c r="Q116" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="R116" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="S116" t="n">
         <v>1.8</v>
@@ -16982,10 +16986,10 @@
         <v>1.33</v>
       </c>
       <c r="W116" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X116" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y116" t="n">
         <v>1.83</v>
@@ -16997,7 +17001,7 @@
         <v>7</v>
       </c>
       <c r="AB116" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AC116" t="n">
         <v>8.5</v>
@@ -17033,7 +17037,7 @@
         <v>29</v>
       </c>
       <c r="AN116" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO116" t="n">
         <v>51</v>
@@ -17079,13 +17083,13 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H117" t="n">
         <v>3.3</v>
       </c>
       <c r="I117" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="J117" t="n">
         <v>3.25</v>
@@ -17109,18 +17113,18 @@
         <v>3.5</v>
       </c>
       <c r="Q117" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R117" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S117" t="inlineStr"/>
       <c r="T117" t="inlineStr"/>
       <c r="U117" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V117" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W117" t="n">
         <v>1.4</v>
@@ -17241,7 +17245,7 @@
         <v>1.06</v>
       </c>
       <c r="N118" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O118" t="n">
         <v>1.3</v>
@@ -17250,18 +17254,18 @@
         <v>3.4</v>
       </c>
       <c r="Q118" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R118" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="S118" t="inlineStr"/>
       <c r="T118" t="inlineStr"/>
       <c r="U118" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V118" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W118" t="n">
         <v>1.4</v>
@@ -17498,30 +17502,30 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I120" t="n">
         <v>3.35</v>
       </c>
       <c r="J120" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="K120" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L120" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="M120" t="inlineStr"/>
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="P120" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="Q120" t="n">
         <v>2.32</v>
@@ -17532,16 +17536,16 @@
       <c r="S120" t="inlineStr"/>
       <c r="T120" t="inlineStr"/>
       <c r="U120" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="V120" t="n">
         <v>1.17</v>
       </c>
       <c r="W120" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="X120" t="n">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="Y120" t="n">
         <v>1.98</v>
@@ -17553,28 +17557,28 @@
         <v>6</v>
       </c>
       <c r="AB120" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AC120" t="n">
         <v>9.25</v>
       </c>
       <c r="AD120" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE120" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF120" t="n">
         <v>40</v>
       </c>
       <c r="AG120" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="AH120" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AI120" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AJ120" t="n">
         <v>110</v>
@@ -17583,7 +17587,7 @@
         <v>101</v>
       </c>
       <c r="AL120" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AM120" t="n">
         <v>16</v>
@@ -17592,7 +17596,7 @@
         <v>12.5</v>
       </c>
       <c r="AO120" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AP120" t="n">
         <v>37</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-02.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-02.xlsx
@@ -692,40 +692,40 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="H2" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I2" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="J2" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K2" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L2" t="n">
         <v>3.4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O2" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="P2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="R2" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="S2" t="n">
         <v>1.85</v>
@@ -734,10 +734,10 @@
         <v>2.05</v>
       </c>
       <c r="U2" t="n">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="V2" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="W2" t="n">
         <v>1.2</v>
@@ -752,7 +752,7 @@
         <v>3.25</v>
       </c>
       <c r="AA2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB2" t="n">
         <v>17</v>
@@ -767,13 +767,13 @@
         <v>15</v>
       </c>
       <c r="AF2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AH2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="n">
         <v>11</v>
@@ -785,10 +785,10 @@
         <v>67</v>
       </c>
       <c r="AL2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN2" t="n">
         <v>15</v>
@@ -837,48 +837,48 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="H3" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I3" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="K3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L3" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O3" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="P3" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="R3" t="n">
-        <v>2.03</v>
+        <v>1.92</v>
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="V3" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W3" t="n">
         <v>1.36</v>
@@ -887,22 +887,22 @@
         <v>3</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Z3" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AA3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE3" t="n">
         <v>15</v>
@@ -911,7 +911,7 @@
         <v>29</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH3" t="n">
         <v>7.5</v>
@@ -923,16 +923,16 @@
         <v>51</v>
       </c>
       <c r="AK3" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AL3" t="n">
         <v>15</v>
       </c>
       <c r="AM3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO3" t="n">
         <v>51</v>
@@ -987,7 +987,7 @@
         <v>3.75</v>
       </c>
       <c r="J4" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K4" t="n">
         <v>2.3</v>
@@ -1002,24 +1002,24 @@
         <v>13</v>
       </c>
       <c r="O4" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P4" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="R4" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V4" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W4" t="n">
         <v>1.33</v>
@@ -1046,19 +1046,19 @@
         <v>19</v>
       </c>
       <c r="AE4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF4" t="n">
         <v>23</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ4" t="n">
         <v>41</v>
@@ -1073,7 +1073,7 @@
         <v>23</v>
       </c>
       <c r="AN4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO4" t="n">
         <v>41</v>
@@ -1119,22 +1119,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="H5" t="n">
         <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>2.63</v>
+        <v>2.4</v>
       </c>
       <c r="J5" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="K5" t="n">
         <v>2.2</v>
       </c>
       <c r="L5" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
@@ -1175,19 +1175,19 @@
         <v>2.05</v>
       </c>
       <c r="AA5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF5" t="n">
         <v>29</v>
@@ -1208,22 +1208,22 @@
         <v>201</v>
       </c>
       <c r="AL5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AN5" t="n">
         <v>9.5</v>
       </c>
-      <c r="AM5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>10</v>
-      </c>
       <c r="AO5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ5" t="n">
         <v>26</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>29</v>
       </c>
       <c r="AR5" t="inlineStr"/>
       <c r="AS5" t="inlineStr"/>
@@ -1557,7 +1557,7 @@
         <v>2.2</v>
       </c>
       <c r="L8" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
@@ -1572,24 +1572,24 @@
         <v>3.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="R8" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="V8" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="W8" t="n">
         <v>1.36</v>
       </c>
-      <c r="W8" t="n">
-        <v>1.4</v>
-      </c>
       <c r="X8" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y8" t="n">
         <v>1.75</v>
@@ -1622,7 +1622,7 @@
         <v>6.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ8" t="n">
         <v>41</v>
@@ -1828,22 +1828,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
         <v>3.6</v>
       </c>
       <c r="I10" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L10" t="n">
         <v>3.75</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L10" t="n">
-        <v>4</v>
       </c>
       <c r="M10" t="n">
         <v>1.03</v>
@@ -1864,16 +1864,16 @@
         <v>2.3</v>
       </c>
       <c r="S10" t="n">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
       <c r="T10" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U10" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V10" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W10" t="n">
         <v>1.3</v>
@@ -1888,16 +1888,16 @@
         <v>2.25</v>
       </c>
       <c r="AA10" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB10" t="n">
         <v>11</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE10" t="n">
         <v>15</v>
@@ -1933,7 +1933,7 @@
         <v>41</v>
       </c>
       <c r="AP10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ10" t="n">
         <v>29</v>
@@ -2114,22 +2114,22 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="H12" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I12" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="J12" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="K12" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L12" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M12" t="n">
         <v>1.04</v>
@@ -2144,10 +2144,10 @@
         <v>4</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="R12" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
@@ -2158,10 +2158,10 @@
         <v>1.4</v>
       </c>
       <c r="W12" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X12" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Y12" t="n">
         <v>1.95</v>
@@ -2173,13 +2173,13 @@
         <v>7</v>
       </c>
       <c r="AB12" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AC12" t="n">
         <v>8.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE12" t="n">
         <v>12</v>
@@ -2188,10 +2188,10 @@
         <v>26</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH12" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AI12" t="n">
         <v>21</v>
@@ -2255,16 +2255,16 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="H13" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="I13" t="n">
         <v>4.33</v>
       </c>
       <c r="J13" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K13" t="n">
         <v>2.2</v>
@@ -2273,10 +2273,10 @@
         <v>4.75</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O13" t="n">
         <v>1.3</v>
@@ -2285,10 +2285,10 @@
         <v>3.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="R13" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
@@ -2305,16 +2305,16 @@
         <v>2.75</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="Z13" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AA13" t="n">
         <v>7</v>
       </c>
       <c r="AB13" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AC13" t="n">
         <v>8.5</v>
@@ -2329,31 +2329,31 @@
         <v>26</v>
       </c>
       <c r="AG13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH13" t="n">
         <v>7</v>
       </c>
       <c r="AI13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ13" t="n">
         <v>51</v>
       </c>
       <c r="AK13" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AL13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP13" t="n">
         <v>34</v>
@@ -2396,13 +2396,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="H14" t="n">
         <v>3.5</v>
       </c>
       <c r="I14" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="J14" t="n">
         <v>4.33</v>
@@ -2414,10 +2414,10 @@
         <v>2.5</v>
       </c>
       <c r="M14" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O14" t="n">
         <v>1.25</v>
@@ -2426,10 +2426,10 @@
         <v>4</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="R14" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
@@ -2458,7 +2458,7 @@
         <v>21</v>
       </c>
       <c r="AC14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD14" t="n">
         <v>41</v>
@@ -2537,13 +2537,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H15" t="n">
         <v>3.2</v>
       </c>
       <c r="I15" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J15" t="n">
         <v>3.6</v>
@@ -2555,10 +2555,10 @@
         <v>3.2</v>
       </c>
       <c r="M15" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="O15" t="n">
         <v>1.36</v>
@@ -2596,7 +2596,7 @@
         <v>8.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC15" t="n">
         <v>11</v>
@@ -2605,7 +2605,7 @@
         <v>29</v>
       </c>
       <c r="AE15" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF15" t="n">
         <v>34</v>
@@ -2629,7 +2629,7 @@
         <v>7.5</v>
       </c>
       <c r="AM15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN15" t="n">
         <v>10</v>
@@ -2678,13 +2678,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H16" t="n">
         <v>3.4</v>
       </c>
       <c r="I16" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J16" t="n">
         <v>2.88</v>
@@ -2693,13 +2693,13 @@
         <v>2.2</v>
       </c>
       <c r="L16" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M16" t="n">
         <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O16" t="n">
         <v>1.25</v>
@@ -2777,7 +2777,7 @@
         <v>17</v>
       </c>
       <c r="AN16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO16" t="n">
         <v>34</v>
@@ -2826,7 +2826,7 @@
         <v>2.1</v>
       </c>
       <c r="H17" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I17" t="n">
         <v>3.3</v>
@@ -2853,10 +2853,10 @@
         <v>4</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="R17" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S17" t="n">
         <v>2.05</v>
@@ -2877,10 +2877,10 @@
         <v>3</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Z17" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AA17" t="n">
         <v>9</v>
@@ -2895,7 +2895,7 @@
         <v>19</v>
       </c>
       <c r="AE17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF17" t="n">
         <v>23</v>
@@ -2919,7 +2919,7 @@
         <v>12</v>
       </c>
       <c r="AM17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN17" t="n">
         <v>12</v>
@@ -2968,22 +2968,22 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="H18" t="n">
         <v>3.7</v>
       </c>
       <c r="I18" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="J18" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K18" t="n">
         <v>2.38</v>
       </c>
       <c r="L18" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M18" t="n">
         <v>1.03</v>
@@ -2992,28 +2992,28 @@
         <v>17</v>
       </c>
       <c r="O18" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P18" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q18" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V18" t="n">
         <v>1.53</v>
-      </c>
-      <c r="R18" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="T18" t="n">
-        <v>2</v>
-      </c>
-      <c r="U18" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.57</v>
       </c>
       <c r="W18" t="n">
         <v>1.29</v>
@@ -3040,7 +3040,7 @@
         <v>26</v>
       </c>
       <c r="AE18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF18" t="n">
         <v>21</v>
@@ -3052,7 +3052,7 @@
         <v>7.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ18" t="n">
         <v>34</v>
@@ -3061,7 +3061,7 @@
         <v>101</v>
       </c>
       <c r="AL18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM18" t="n">
         <v>15</v>
@@ -3073,7 +3073,7 @@
         <v>26</v>
       </c>
       <c r="AP18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ18" t="n">
         <v>21</v>
@@ -3113,10 +3113,10 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H19" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I19" t="n">
         <v>4.33</v>
@@ -3125,54 +3125,54 @@
         <v>2.5</v>
       </c>
       <c r="K19" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L19" t="n">
         <v>4.5</v>
       </c>
       <c r="M19" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O19" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P19" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="R19" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="V19" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="W19" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X19" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="Z19" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AA19" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB19" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AC19" t="n">
         <v>8.5</v>
@@ -3184,10 +3184,10 @@
         <v>15</v>
       </c>
       <c r="AF19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG19" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AH19" t="n">
         <v>6.5</v>
@@ -3199,10 +3199,10 @@
         <v>51</v>
       </c>
       <c r="AK19" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AL19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM19" t="n">
         <v>21</v>
@@ -3254,16 +3254,16 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="H20" t="n">
         <v>3.5</v>
       </c>
       <c r="I20" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="J20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="K20" t="n">
         <v>2.1</v>
@@ -3310,13 +3310,13 @@
         <v>1.75</v>
       </c>
       <c r="AA20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB20" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD20" t="n">
         <v>51</v>
@@ -3331,7 +3331,7 @@
         <v>8.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI20" t="n">
         <v>19</v>
@@ -3340,7 +3340,7 @@
         <v>67</v>
       </c>
       <c r="AK20" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AL20" t="n">
         <v>6</v>
@@ -3352,7 +3352,7 @@
         <v>8.5</v>
       </c>
       <c r="AO20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP20" t="n">
         <v>15</v>
@@ -3395,10 +3395,10 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="H21" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="I21" t="n">
         <v>13</v>
@@ -3407,7 +3407,7 @@
         <v>1.5</v>
       </c>
       <c r="K21" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L21" t="n">
         <v>9.5</v>
@@ -3416,7 +3416,7 @@
         <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O21" t="n">
         <v>1.08</v>
@@ -3425,24 +3425,24 @@
         <v>8</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="R21" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V21" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W21" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="X21" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Y21" t="n">
         <v>1.8</v>
@@ -3451,10 +3451,10 @@
         <v>1.95</v>
       </c>
       <c r="AA21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB21" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AC21" t="n">
         <v>10</v>
@@ -3469,10 +3469,10 @@
         <v>23</v>
       </c>
       <c r="AG21" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI21" t="n">
         <v>23</v>
@@ -3481,7 +3481,7 @@
         <v>51</v>
       </c>
       <c r="AK21" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AL21" t="n">
         <v>41</v>
@@ -3554,16 +3554,16 @@
         <v>4</v>
       </c>
       <c r="M22" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O22" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P22" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="Q22" t="n">
         <v>2.3</v>
@@ -3577,7 +3577,7 @@
         <v>4.33</v>
       </c>
       <c r="V22" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="W22" t="n">
         <v>1.5</v>
@@ -3680,31 +3680,31 @@
         <v>3</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I23" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J23" t="n">
         <v>3.75</v>
       </c>
       <c r="K23" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L23" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M23" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N23" t="n">
         <v>7</v>
       </c>
       <c r="O23" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="P23" t="n">
-        <v>2.63</v>
+        <v>2.57</v>
       </c>
       <c r="Q23" t="n">
         <v>2.5</v>
@@ -3718,7 +3718,7 @@
         <v>5</v>
       </c>
       <c r="V23" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="W23" t="n">
         <v>1.57</v>
@@ -3727,13 +3727,13 @@
         <v>2.25</v>
       </c>
       <c r="Y23" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="Z23" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AA23" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB23" t="n">
         <v>13</v>
@@ -3751,13 +3751,13 @@
         <v>41</v>
       </c>
       <c r="AG23" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AH23" t="n">
         <v>6</v>
       </c>
       <c r="AI23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ23" t="n">
         <v>67</v>
@@ -3772,10 +3772,10 @@
         <v>11</v>
       </c>
       <c r="AN23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO23" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP23" t="n">
         <v>23</v>
@@ -3822,31 +3822,31 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H24" t="n">
         <v>3.3</v>
       </c>
       <c r="I24" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="J24" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K24" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L24" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M24" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O24" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P24" t="n">
         <v>3</v>
@@ -3860,22 +3860,22 @@
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="V24" t="n">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="W24" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X24" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="Z24" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AA24" t="n">
         <v>8</v>
@@ -3890,7 +3890,7 @@
         <v>29</v>
       </c>
       <c r="AE24" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF24" t="n">
         <v>34</v>
@@ -3902,16 +3902,16 @@
         <v>6.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ24" t="n">
         <v>51</v>
       </c>
       <c r="AK24" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AL24" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AM24" t="n">
         <v>11</v>
@@ -3970,7 +3970,7 @@
         <v>5</v>
       </c>
       <c r="H25" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I25" t="n">
         <v>1.8</v>
@@ -4027,7 +4027,7 @@
         <v>1.53</v>
       </c>
       <c r="AA25" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB25" t="n">
         <v>23</v>
@@ -4039,7 +4039,7 @@
         <v>51</v>
       </c>
       <c r="AE25" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AF25" t="n">
         <v>51</v>
@@ -4054,7 +4054,7 @@
         <v>23</v>
       </c>
       <c r="AJ25" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK25" t="n">
         <v>101</v>
@@ -4116,28 +4116,28 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="H26" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I26" t="n">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="J26" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="K26" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L26" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N26" t="n">
         <v>5.5</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N26" t="n">
-        <v>6</v>
       </c>
       <c r="O26" t="n">
         <v>1.57</v>
@@ -4152,10 +4152,10 @@
         <v>1.4</v>
       </c>
       <c r="S26" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="T26" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="U26" t="n">
         <v>6</v>
@@ -4164,43 +4164,43 @@
         <v>1.13</v>
       </c>
       <c r="W26" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="X26" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y26" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Z26" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AA26" t="n">
         <v>5</v>
       </c>
       <c r="AB26" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AC26" t="n">
         <v>10</v>
       </c>
       <c r="AD26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE26" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF26" t="n">
         <v>41</v>
       </c>
       <c r="AG26" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AH26" t="n">
         <v>6</v>
       </c>
-      <c r="AH26" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AI26" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ26" t="n">
         <v>101</v>
@@ -4209,16 +4209,16 @@
         <v>101</v>
       </c>
       <c r="AL26" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AM26" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AN26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO26" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP26" t="n">
         <v>41</v>
@@ -4861,54 +4861,54 @@
         <v>4.75</v>
       </c>
       <c r="K31" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L31" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="M31" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N31" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O31" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="P31" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
       <c r="R31" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="n">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="V31" t="n">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="W31" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X31" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Y31" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="Z31" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AA31" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB31" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC31" t="n">
         <v>15</v>
@@ -4917,37 +4917,37 @@
         <v>51</v>
       </c>
       <c r="AE31" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AF31" t="n">
         <v>41</v>
       </c>
       <c r="AG31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH31" t="n">
         <v>7</v>
       </c>
       <c r="AI31" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ31" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK31" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL31" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AM31" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>9</v>
       </c>
       <c r="AN31" t="n">
         <v>8.5</v>
       </c>
       <c r="AO31" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP31" t="n">
         <v>13</v>
@@ -5008,10 +5008,10 @@
         <v>6.5</v>
       </c>
       <c r="M32" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N32" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O32" t="n">
         <v>1.18</v>
@@ -5020,10 +5020,10 @@
         <v>4.5</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R32" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S32" t="n">
         <v>2.05</v>
@@ -5032,10 +5032,10 @@
         <v>1.8</v>
       </c>
       <c r="U32" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V32" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W32" t="n">
         <v>1.3</v>
@@ -5053,13 +5053,13 @@
         <v>8</v>
       </c>
       <c r="AB32" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AC32" t="n">
         <v>8.5</v>
       </c>
       <c r="AD32" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE32" t="n">
         <v>11</v>
@@ -5080,7 +5080,7 @@
         <v>51</v>
       </c>
       <c r="AK32" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AL32" t="n">
         <v>21</v>
@@ -5159,16 +5159,16 @@
         <v>13</v>
       </c>
       <c r="O33" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P33" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R33" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
@@ -5276,13 +5276,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H34" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I34" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="J34" t="n">
         <v>3.75</v>
@@ -5300,36 +5300,40 @@
         <v>15</v>
       </c>
       <c r="O34" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P34" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R34" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr"/>
+        <v>2.25</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.8</v>
+      </c>
       <c r="U34" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V34" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W34" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X34" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Y34" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Z34" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AA34" t="n">
         <v>13</v>
@@ -5341,16 +5345,16 @@
         <v>12</v>
       </c>
       <c r="AD34" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE34" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF34" t="n">
         <v>26</v>
       </c>
-      <c r="AF34" t="n">
-        <v>29</v>
-      </c>
       <c r="AG34" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH34" t="n">
         <v>7</v>
@@ -5359,16 +5363,16 @@
         <v>12</v>
       </c>
       <c r="AJ34" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK34" t="n">
         <v>126</v>
       </c>
       <c r="AL34" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM34" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN34" t="n">
         <v>9</v>
@@ -5417,48 +5421,48 @@
         </is>
       </c>
       <c r="G35" t="n">
+        <v>3</v>
+      </c>
+      <c r="H35" t="n">
         <v>3.1</v>
       </c>
-      <c r="H35" t="n">
-        <v>3.2</v>
-      </c>
       <c r="I35" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="J35" t="n">
         <v>3.6</v>
       </c>
       <c r="K35" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L35" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M35" t="n">
         <v>1.06</v>
       </c>
       <c r="N35" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O35" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P35" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="R35" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V35" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W35" t="n">
         <v>1.4</v>
@@ -5479,10 +5483,10 @@
         <v>15</v>
       </c>
       <c r="AC35" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD35" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE35" t="n">
         <v>23</v>
@@ -5491,7 +5495,7 @@
         <v>34</v>
       </c>
       <c r="AG35" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH35" t="n">
         <v>6</v>
@@ -5509,19 +5513,19 @@
         <v>8.5</v>
       </c>
       <c r="AM35" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN35" t="n">
         <v>9.5</v>
       </c>
       <c r="AO35" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP35" t="n">
         <v>19</v>
       </c>
       <c r="AQ35" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR35" t="inlineStr"/>
       <c r="AS35" t="inlineStr"/>
@@ -5558,13 +5562,13 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H36" t="n">
         <v>3.25</v>
       </c>
       <c r="I36" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="J36" t="n">
         <v>3.1</v>
@@ -5573,7 +5577,7 @@
         <v>2.2</v>
       </c>
       <c r="L36" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M36" t="n">
         <v>1.04</v>
@@ -5582,24 +5586,24 @@
         <v>12</v>
       </c>
       <c r="O36" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P36" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R36" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V36" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="W36" t="n">
         <v>1.36</v>
@@ -5614,7 +5618,7 @@
         <v>2.2</v>
       </c>
       <c r="AA36" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB36" t="n">
         <v>13</v>
@@ -5653,16 +5657,16 @@
         <v>15</v>
       </c>
       <c r="AN36" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO36" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP36" t="n">
         <v>21</v>
       </c>
       <c r="AQ36" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR36" t="inlineStr"/>
       <c r="AS36" t="inlineStr"/>
@@ -5699,7 +5703,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H37" t="n">
         <v>3.4</v>
@@ -5708,7 +5712,7 @@
         <v>2.2</v>
       </c>
       <c r="J37" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K37" t="n">
         <v>2.25</v>
@@ -5720,7 +5724,7 @@
         <v>1.04</v>
       </c>
       <c r="N37" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O37" t="n">
         <v>1.22</v>
@@ -5743,10 +5747,10 @@
         <v>1.4</v>
       </c>
       <c r="W37" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X37" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Y37" t="n">
         <v>1.62</v>
@@ -5773,7 +5777,7 @@
         <v>29</v>
       </c>
       <c r="AG37" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH37" t="n">
         <v>6.5</v>
@@ -5858,10 +5862,10 @@
         <v>3.75</v>
       </c>
       <c r="M38" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N38" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O38" t="n">
         <v>1.44</v>
@@ -5930,7 +5934,7 @@
         <v>67</v>
       </c>
       <c r="AK38" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AL38" t="n">
         <v>8</v>
@@ -5989,10 +5993,10 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="H39" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I39" t="n">
         <v>6</v>
@@ -6004,7 +6008,7 @@
         <v>2.1</v>
       </c>
       <c r="L39" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M39" t="n">
         <v>1.07</v>
@@ -6052,13 +6056,13 @@
         <v>5.5</v>
       </c>
       <c r="AB39" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AC39" t="n">
         <v>9</v>
       </c>
       <c r="AD39" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE39" t="n">
         <v>15</v>
@@ -6082,13 +6086,13 @@
         <v>1250</v>
       </c>
       <c r="AL39" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM39" t="n">
         <v>29</v>
       </c>
       <c r="AN39" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO39" t="n">
         <v>67</v>
@@ -6287,22 +6291,22 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="H41" t="n">
         <v>3.1</v>
       </c>
       <c r="I41" t="n">
-        <v>2.63</v>
+        <v>2.45</v>
       </c>
       <c r="J41" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="K41" t="n">
         <v>1.91</v>
       </c>
       <c r="L41" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M41" t="n">
         <v>1.1</v>
@@ -6341,22 +6345,22 @@
         <v>2.25</v>
       </c>
       <c r="Y41" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Z41" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AA41" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB41" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC41" t="n">
         <v>12</v>
       </c>
-      <c r="AC41" t="n">
-        <v>11</v>
-      </c>
       <c r="AD41" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE41" t="n">
         <v>29</v>
@@ -6383,16 +6387,16 @@
         <v>6.5</v>
       </c>
       <c r="AM41" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN41" t="n">
         <v>11</v>
       </c>
       <c r="AO41" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP41" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ41" t="n">
         <v>41</v>
@@ -6439,10 +6443,10 @@
         <v>3.7</v>
       </c>
       <c r="H42" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I42" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="J42" t="n">
         <v>4.33</v>
@@ -6454,30 +6458,30 @@
         <v>2.63</v>
       </c>
       <c r="M42" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N42" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O42" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="P42" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="R42" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="V42" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="W42" t="n">
         <v>1.44</v>
@@ -6492,7 +6496,7 @@
         <v>1.83</v>
       </c>
       <c r="AA42" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB42" t="n">
         <v>19</v>
@@ -6510,7 +6514,7 @@
         <v>41</v>
       </c>
       <c r="AG42" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH42" t="n">
         <v>6.5</v>
@@ -6522,7 +6526,7 @@
         <v>51</v>
       </c>
       <c r="AK42" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AL42" t="n">
         <v>7</v>
@@ -6601,39 +6605,39 @@
         <v>13</v>
       </c>
       <c r="O43" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P43" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R43" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V43" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W43" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X43" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Y43" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="Z43" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AA43" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB43" t="n">
         <v>23</v>
@@ -6648,13 +6652,13 @@
         <v>34</v>
       </c>
       <c r="AF43" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG43" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH43" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI43" t="n">
         <v>15</v>
@@ -6663,10 +6667,10 @@
         <v>41</v>
       </c>
       <c r="AK43" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AL43" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AM43" t="n">
         <v>9</v>
@@ -6675,7 +6679,7 @@
         <v>8.5</v>
       </c>
       <c r="AO43" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP43" t="n">
         <v>13</v>
@@ -6718,37 +6722,37 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="H44" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="I44" t="n">
-        <v>5.1</v>
+        <v>4.85</v>
       </c>
       <c r="J44" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="K44" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="L44" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="M44" t="n">
         <v>1.07</v>
       </c>
       <c r="N44" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="O44" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P44" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R44" t="n">
         <v>1.78</v>
@@ -6756,55 +6760,55 @@
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="V44" t="n">
         <v>1.3</v>
       </c>
       <c r="W44" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="X44" t="n">
-        <v>2.75</v>
+        <v>2.67</v>
       </c>
       <c r="Y44" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="Z44" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="AA44" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AB44" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AC44" t="n">
         <v>8.75</v>
       </c>
       <c r="AD44" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AE44" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AF44" t="n">
         <v>32</v>
       </c>
       <c r="AG44" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AH44" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AI44" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AJ44" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AK44" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AL44" t="n">
         <v>12</v>
@@ -6813,16 +6817,16 @@
         <v>30</v>
       </c>
       <c r="AN44" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AO44" t="n">
         <v>100</v>
       </c>
       <c r="AP44" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AQ44" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AR44" t="inlineStr"/>
       <c r="AS44" t="inlineStr"/>
@@ -7000,22 +7004,22 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="H46" t="n">
-        <v>4.9</v>
+        <v>4.75</v>
       </c>
       <c r="I46" t="n">
-        <v>8.25</v>
+        <v>7.5</v>
       </c>
       <c r="J46" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="K46" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="L46" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="M46" t="n">
         <v>1.04</v>
@@ -7027,7 +7031,7 @@
         <v>1.23</v>
       </c>
       <c r="P46" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="Q46" t="n">
         <v>1.7</v>
@@ -7038,37 +7042,37 @@
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="V46" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="W46" t="n">
         <v>1.35</v>
       </c>
       <c r="X46" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="Y46" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Z46" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="AA46" t="n">
         <v>6.5</v>
       </c>
       <c r="AB46" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AC46" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD46" t="n">
         <v>9.25</v>
       </c>
-      <c r="AD46" t="n">
-        <v>8.75</v>
-      </c>
       <c r="AE46" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AF46" t="n">
         <v>32</v>
@@ -7077,34 +7081,34 @@
         <v>9</v>
       </c>
       <c r="AH46" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AI46" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AJ46" t="n">
         <v>120</v>
       </c>
       <c r="AK46" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AL46" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM46" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AN46" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AO46" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AP46" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AQ46" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AR46" t="inlineStr"/>
       <c r="AS46" t="inlineStr"/>
@@ -7141,16 +7145,16 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="H47" t="n">
         <v>3.5</v>
       </c>
       <c r="I47" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="J47" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="K47" t="n">
         <v>2.2</v>
@@ -7165,45 +7169,45 @@
         <v>10</v>
       </c>
       <c r="O47" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P47" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="R47" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="V47" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="W47" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X47" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y47" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="Z47" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AA47" t="n">
         <v>13</v>
       </c>
       <c r="AB47" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC47" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD47" t="n">
         <v>51</v>
@@ -7212,10 +7216,10 @@
         <v>41</v>
       </c>
       <c r="AF47" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG47" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH47" t="n">
         <v>7</v>
@@ -7227,25 +7231,25 @@
         <v>51</v>
       </c>
       <c r="AK47" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AL47" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AM47" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AN47" t="n">
         <v>8.5</v>
       </c>
       <c r="AO47" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP47" t="n">
         <v>15</v>
       </c>
       <c r="AQ47" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR47" t="inlineStr"/>
       <c r="AS47" t="inlineStr"/>
@@ -7471,7 +7475,7 @@
         <v>1.73</v>
       </c>
       <c r="W49" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="X49" t="n">
         <v>4</v>
@@ -7568,54 +7572,54 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I50" t="n">
-        <v>3.9</v>
+        <v>4.15</v>
       </c>
       <c r="J50" t="n">
-        <v>2.62</v>
+        <v>2.57</v>
       </c>
       <c r="K50" t="n">
         <v>2</v>
       </c>
       <c r="L50" t="n">
-        <v>4.35</v>
+        <v>4.55</v>
       </c>
       <c r="M50" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N50" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="O50" t="n">
         <v>1.42</v>
       </c>
       <c r="P50" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="R50" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="V50" t="n">
         <v>1.22</v>
       </c>
       <c r="W50" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="X50" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="Y50" t="n">
         <v>1.93</v>
@@ -7624,28 +7628,28 @@
         <v>1.78</v>
       </c>
       <c r="AA50" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="AB50" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AC50" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AD50" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AE50" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AF50" t="n">
         <v>32</v>
       </c>
       <c r="AG50" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH50" t="n">
         <v>5.9</v>
-      </c>
-      <c r="AH50" t="n">
-        <v>5.8</v>
       </c>
       <c r="AI50" t="n">
         <v>15.5</v>
@@ -7657,19 +7661,19 @@
         <v>800</v>
       </c>
       <c r="AL50" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="AM50" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AN50" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AO50" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AP50" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AQ50" t="n">
         <v>50</v>
@@ -7709,13 +7713,13 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="H51" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I51" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="J51" t="n">
         <v>6.1</v>
@@ -7727,10 +7731,10 @@
         <v>2.27</v>
       </c>
       <c r="M51" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N51" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="O51" t="n">
         <v>1.5</v>
@@ -7747,28 +7751,28 @@
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="V51" t="n">
         <v>1.17</v>
       </c>
       <c r="W51" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="X51" t="n">
         <v>2.32</v>
       </c>
       <c r="Y51" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="Z51" t="n">
         <v>1.52</v>
       </c>
       <c r="AA51" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AB51" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC51" t="n">
         <v>20</v>
@@ -7777,19 +7781,19 @@
         <v>120</v>
       </c>
       <c r="AE51" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AF51" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AG51" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AH51" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AI51" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ51" t="n">
         <v>175</v>
@@ -7798,16 +7802,16 @@
         <v>101</v>
       </c>
       <c r="AL51" t="n">
-        <v>4.75</v>
+        <v>4.85</v>
       </c>
       <c r="AM51" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="AN51" t="n">
         <v>9</v>
       </c>
       <c r="AO51" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AP51" t="n">
         <v>16.5</v>
@@ -7991,52 +7995,52 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="H53" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I53" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="J53" t="n">
-        <v>2.63</v>
+        <v>2.88</v>
       </c>
       <c r="K53" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L53" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N53" t="n">
+        <v>15</v>
+      </c>
+      <c r="O53" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R53" t="n">
         <v>2.3</v>
       </c>
-      <c r="L53" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N53" t="n">
-        <v>13</v>
-      </c>
-      <c r="O53" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P53" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R53" t="n">
-        <v>2.15</v>
-      </c>
       <c r="S53" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="T53" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="U53" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V53" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W53" t="n">
         <v>1.3</v>
@@ -8045,31 +8049,31 @@
         <v>3.4</v>
       </c>
       <c r="Y53" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Z53" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AA53" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB53" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AC53" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD53" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE53" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF53" t="n">
         <v>21</v>
       </c>
       <c r="AG53" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH53" t="n">
         <v>7.5</v>
@@ -8078,7 +8082,7 @@
         <v>12</v>
       </c>
       <c r="AJ53" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK53" t="n">
         <v>126</v>
@@ -8087,19 +8091,19 @@
         <v>13</v>
       </c>
       <c r="AM53" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN53" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO53" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP53" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ53" t="n">
         <v>23</v>
-      </c>
-      <c r="AQ53" t="n">
-        <v>29</v>
       </c>
       <c r="AR53" t="inlineStr"/>
       <c r="AS53" t="inlineStr"/>
@@ -8136,19 +8140,19 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H54" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I54" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J54" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K54" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L54" t="n">
         <v>4.33</v>
@@ -8157,42 +8161,42 @@
         <v>1.04</v>
       </c>
       <c r="N54" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O54" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P54" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="R54" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="V54" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="W54" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X54" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Y54" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="Z54" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AA54" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AB54" t="n">
         <v>9.5</v>
@@ -8204,25 +8208,25 @@
         <v>15</v>
       </c>
       <c r="AE54" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF54" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG54" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH54" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI54" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ54" t="n">
         <v>41</v>
       </c>
       <c r="AK54" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL54" t="n">
         <v>13</v>
@@ -8280,16 +8284,16 @@
         <v>1.7</v>
       </c>
       <c r="H55" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I55" t="n">
         <v>4.33</v>
       </c>
       <c r="J55" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K55" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L55" t="n">
         <v>4.5</v>
@@ -8298,46 +8302,46 @@
         <v>1.03</v>
       </c>
       <c r="N55" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O55" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P55" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="R55" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="S55" t="n">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="T55" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="U55" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="V55" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="W55" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X55" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Y55" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Z55" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AA55" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB55" t="n">
         <v>9.5</v>
@@ -8346,19 +8350,19 @@
         <v>8.5</v>
       </c>
       <c r="AD55" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE55" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF55" t="n">
         <v>21</v>
       </c>
       <c r="AG55" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH55" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI55" t="n">
         <v>13</v>
@@ -8367,10 +8371,10 @@
         <v>41</v>
       </c>
       <c r="AK55" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AL55" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM55" t="n">
         <v>26</v>
@@ -8379,13 +8383,13 @@
         <v>15</v>
       </c>
       <c r="AO55" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP55" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ55" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR55" t="inlineStr"/>
       <c r="AS55" t="inlineStr"/>
@@ -8422,13 +8426,13 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H56" t="n">
         <v>4</v>
       </c>
       <c r="I56" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J56" t="n">
         <v>2.25</v>
@@ -8437,7 +8441,7 @@
         <v>2.38</v>
       </c>
       <c r="L56" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M56" t="n">
         <v>1.03</v>
@@ -8472,16 +8476,16 @@
         <v>3.25</v>
       </c>
       <c r="Y56" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="Z56" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AA56" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB56" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AC56" t="n">
         <v>8.5</v>
@@ -8493,7 +8497,7 @@
         <v>13</v>
       </c>
       <c r="AF56" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG56" t="n">
         <v>13</v>
@@ -8508,13 +8512,13 @@
         <v>41</v>
       </c>
       <c r="AK56" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AL56" t="n">
         <v>15</v>
       </c>
       <c r="AM56" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN56" t="n">
         <v>15</v>
@@ -8526,7 +8530,7 @@
         <v>34</v>
       </c>
       <c r="AQ56" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR56" t="inlineStr"/>
       <c r="AS56" t="inlineStr"/>
@@ -8704,22 +8708,22 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H58" t="n">
         <v>3.6</v>
       </c>
       <c r="I58" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J58" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K58" t="n">
         <v>2.3</v>
       </c>
       <c r="L58" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M58" t="n">
         <v>1.03</v>
@@ -8767,16 +8771,16 @@
         <v>13</v>
       </c>
       <c r="AB58" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC58" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD58" t="n">
         <v>34</v>
       </c>
       <c r="AE58" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF58" t="n">
         <v>26</v>
@@ -8852,7 +8856,7 @@
         <v>9</v>
       </c>
       <c r="H59" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I59" t="n">
         <v>1.38</v>
@@ -8873,28 +8877,28 @@
         <v>11</v>
       </c>
       <c r="O59" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P59" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R59" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S59" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="T59" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U59" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V59" t="n">
         <v>1.29</v>
-      </c>
-      <c r="P59" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R59" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S59" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="T59" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="U59" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="V59" t="n">
-        <v>1.33</v>
       </c>
       <c r="W59" t="n">
         <v>1.4</v>
@@ -8903,19 +8907,19 @@
         <v>2.75</v>
       </c>
       <c r="Y59" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Z59" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AA59" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB59" t="n">
         <v>41</v>
       </c>
       <c r="AC59" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AD59" t="n">
         <v>101</v>
@@ -8927,7 +8931,7 @@
         <v>67</v>
       </c>
       <c r="AG59" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH59" t="n">
         <v>8.5</v>
@@ -8948,7 +8952,7 @@
         <v>6</v>
       </c>
       <c r="AN59" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AO59" t="n">
         <v>8.5</v>
@@ -8960,10 +8964,10 @@
         <v>34</v>
       </c>
       <c r="AR59" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="AS59" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="60">
@@ -8998,19 +9002,19 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H60" t="n">
         <v>3</v>
       </c>
       <c r="I60" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="J60" t="n">
         <v>4</v>
       </c>
       <c r="K60" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L60" t="n">
         <v>3.1</v>
@@ -9067,7 +9071,7 @@
         <v>13</v>
       </c>
       <c r="AD60" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE60" t="n">
         <v>29</v>
@@ -9079,7 +9083,7 @@
         <v>7</v>
       </c>
       <c r="AH60" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AI60" t="n">
         <v>15</v>
@@ -9153,13 +9157,13 @@
         <v>3.1</v>
       </c>
       <c r="I61" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J61" t="n">
         <v>3.4</v>
       </c>
       <c r="K61" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L61" t="n">
         <v>3.4</v>
@@ -9177,16 +9181,16 @@
         <v>3</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R61" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S61" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="T61" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="U61" t="n">
         <v>4</v>
@@ -9216,7 +9220,7 @@
         <v>11</v>
       </c>
       <c r="AD61" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE61" t="n">
         <v>23</v>
@@ -9243,7 +9247,7 @@
         <v>8</v>
       </c>
       <c r="AM61" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN61" t="n">
         <v>11</v>
@@ -9258,10 +9262,10 @@
         <v>34</v>
       </c>
       <c r="AR61" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.31</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="62">
@@ -9296,16 +9300,16 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="H62" t="n">
         <v>2.8</v>
       </c>
       <c r="I62" t="n">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="J62" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K62" t="n">
         <v>1.8</v>
@@ -9332,7 +9336,7 @@
         <v>1.33</v>
       </c>
       <c r="S62" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="T62" t="n">
         <v>1.16</v>
@@ -9344,10 +9348,10 @@
         <v>1.1</v>
       </c>
       <c r="W62" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="X62" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="Y62" t="n">
         <v>2.5</v>
@@ -9359,13 +9363,13 @@
         <v>6</v>
       </c>
       <c r="AB62" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC62" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD62" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE62" t="n">
         <v>34</v>
@@ -9389,10 +9393,10 @@
         <v>501</v>
       </c>
       <c r="AL62" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AM62" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN62" t="n">
         <v>12</v>
@@ -9401,7 +9405,7 @@
         <v>29</v>
       </c>
       <c r="AP62" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ62" t="n">
         <v>51</v>
@@ -9607,7 +9611,7 @@
         <v>1.06</v>
       </c>
       <c r="N64" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O64" t="n">
         <v>1.33</v>
@@ -9636,10 +9640,10 @@
         <v>2.63</v>
       </c>
       <c r="Y64" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Z64" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AA64" t="n">
         <v>8</v>
@@ -9872,28 +9876,28 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="H66" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I66" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="J66" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="K66" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L66" t="n">
-        <v>2.63</v>
+        <v>2.88</v>
       </c>
       <c r="M66" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N66" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O66" t="n">
         <v>1.2</v>
@@ -9916,10 +9920,10 @@
         <v>1.44</v>
       </c>
       <c r="W66" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X66" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Y66" t="n">
         <v>1.62</v>
@@ -9928,13 +9932,13 @@
         <v>2.2</v>
       </c>
       <c r="AA66" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB66" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC66" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD66" t="n">
         <v>34</v>
@@ -9946,7 +9950,7 @@
         <v>29</v>
       </c>
       <c r="AG66" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AH66" t="n">
         <v>7</v>
@@ -9964,19 +9968,19 @@
         <v>9.5</v>
       </c>
       <c r="AM66" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN66" t="n">
         <v>9</v>
       </c>
       <c r="AO66" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP66" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ66" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR66" t="inlineStr"/>
       <c r="AS66" t="inlineStr"/>
@@ -10287,92 +10291,92 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="H69" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I69" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="J69" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="K69" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="L69" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P69" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R69" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="V69" t="n">
         <v>1.3</v>
       </c>
       <c r="W69" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="X69" t="n">
-        <v>2.52</v>
+        <v>2.47</v>
       </c>
       <c r="Y69" t="n">
         <v>1.75</v>
       </c>
       <c r="Z69" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="AA69" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AB69" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AC69" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AD69" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AE69" t="n">
         <v>14</v>
       </c>
       <c r="AF69" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG69" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AH69" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="AI69" t="n">
         <v>14.5</v>
       </c>
       <c r="AJ69" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AK69" t="n">
         <v>500</v>
       </c>
       <c r="AL69" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AM69" t="n">
         <v>27</v>
@@ -10381,13 +10385,13 @@
         <v>14.5</v>
       </c>
       <c r="AO69" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AP69" t="n">
         <v>45</v>
       </c>
       <c r="AQ69" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AR69" t="inlineStr"/>
       <c r="AS69" t="inlineStr"/>
@@ -10424,22 +10428,22 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="H70" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I70" t="n">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="J70" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="K70" t="n">
         <v>2.1</v>
       </c>
       <c r="L70" t="n">
-        <v>3.25</v>
+        <v>2.88</v>
       </c>
       <c r="M70" t="n">
         <v>1.06</v>
@@ -10448,16 +10452,16 @@
         <v>10</v>
       </c>
       <c r="O70" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P70" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q70" t="n">
         <v>2.05</v>
       </c>
       <c r="R70" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
@@ -10468,37 +10472,37 @@
         <v>1.29</v>
       </c>
       <c r="W70" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X70" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Y70" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="Z70" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AA70" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB70" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AC70" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD70" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE70" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF70" t="n">
         <v>34</v>
       </c>
       <c r="AG70" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH70" t="n">
         <v>6</v>
@@ -10510,22 +10514,22 @@
         <v>51</v>
       </c>
       <c r="AK70" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AL70" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AM70" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN70" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AO70" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AP70" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ70" t="n">
         <v>29</v>
@@ -10565,28 +10569,28 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="H71" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I71" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J71" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K71" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L71" t="n">
         <v>4</v>
       </c>
       <c r="M71" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N71" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="O71" t="n">
         <v>1.36</v>
@@ -10595,30 +10599,30 @@
         <v>3</v>
       </c>
       <c r="Q71" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="R71" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V71" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W71" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X71" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Y71" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="Z71" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AA71" t="n">
         <v>7</v>
@@ -10633,13 +10637,13 @@
         <v>21</v>
       </c>
       <c r="AE71" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF71" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG71" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AH71" t="n">
         <v>6</v>
@@ -10651,16 +10655,16 @@
         <v>51</v>
       </c>
       <c r="AK71" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AL71" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AM71" t="n">
         <v>17</v>
       </c>
       <c r="AN71" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO71" t="n">
         <v>41</v>
@@ -10706,22 +10710,22 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="H72" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I72" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="J72" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K72" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L72" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M72" t="n">
         <v>1.07</v>
@@ -10730,16 +10734,16 @@
         <v>9</v>
       </c>
       <c r="O72" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P72" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q72" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="R72" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
@@ -10750,37 +10754,37 @@
         <v>1.22</v>
       </c>
       <c r="W72" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X72" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y72" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="Z72" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AA72" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB72" t="n">
         <v>15</v>
       </c>
       <c r="AC72" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD72" t="n">
         <v>34</v>
       </c>
       <c r="AE72" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF72" t="n">
         <v>41</v>
       </c>
       <c r="AG72" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AH72" t="n">
         <v>6</v>
@@ -10792,25 +10796,25 @@
         <v>51</v>
       </c>
       <c r="AK72" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AL72" t="n">
         <v>7</v>
       </c>
       <c r="AM72" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN72" t="n">
         <v>9.5</v>
       </c>
       <c r="AO72" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP72" t="n">
         <v>21</v>
       </c>
-      <c r="AP72" t="n">
-        <v>19</v>
-      </c>
       <c r="AQ72" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR72" t="inlineStr"/>
       <c r="AS72" t="inlineStr"/>
@@ -10847,66 +10851,66 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="H73" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="I73" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="J73" t="n">
         <v>3.5</v>
       </c>
       <c r="K73" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="L73" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M73" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="N73" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="O73" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="P73" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="Q73" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="R73" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="W73" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X73" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA73" t="n">
         <v>6.5</v>
       </c>
-      <c r="V73" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="W73" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="X73" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Y73" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Z73" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AA73" t="n">
-        <v>5.5</v>
-      </c>
       <c r="AB73" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC73" t="n">
         <v>11</v>
@@ -10915,19 +10919,19 @@
         <v>26</v>
       </c>
       <c r="AE73" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF73" t="n">
         <v>41</v>
       </c>
       <c r="AG73" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH73" t="n">
         <v>5.5</v>
       </c>
       <c r="AI73" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ73" t="n">
         <v>81</v>
@@ -10939,25 +10943,25 @@
         <v>7</v>
       </c>
       <c r="AM73" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN73" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO73" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP73" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ73" t="n">
         <v>41</v>
       </c>
-      <c r="AP73" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ73" t="n">
-        <v>51</v>
-      </c>
       <c r="AR73" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="74">
@@ -10992,13 +10996,13 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H74" t="n">
         <v>3.2</v>
       </c>
       <c r="I74" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J74" t="n">
         <v>2.75</v>
@@ -11007,7 +11011,7 @@
         <v>2.05</v>
       </c>
       <c r="L74" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M74" t="n">
         <v>1.07</v>
@@ -11036,10 +11040,10 @@
         <v>1.25</v>
       </c>
       <c r="W74" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X74" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Y74" t="n">
         <v>1.95</v>
@@ -11051,7 +11055,7 @@
         <v>6.5</v>
       </c>
       <c r="AB74" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AC74" t="n">
         <v>9</v>
@@ -11060,10 +11064,10 @@
         <v>17</v>
       </c>
       <c r="AE74" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF74" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG74" t="n">
         <v>8</v>
@@ -11072,7 +11076,7 @@
         <v>6</v>
       </c>
       <c r="AI74" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ74" t="n">
         <v>51</v>
@@ -11084,10 +11088,10 @@
         <v>10</v>
       </c>
       <c r="AM74" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN74" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO74" t="n">
         <v>41</v>
@@ -11278,16 +11282,16 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H76" t="n">
         <v>3.25</v>
       </c>
       <c r="I76" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="J76" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K76" t="n">
         <v>2.1</v>
@@ -11302,16 +11306,16 @@
         <v>10</v>
       </c>
       <c r="O76" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P76" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q76" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="R76" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr"/>
@@ -11328,22 +11332,22 @@
         <v>2.75</v>
       </c>
       <c r="Y76" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="Z76" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AA76" t="n">
         <v>9</v>
       </c>
       <c r="AB76" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC76" t="n">
         <v>10</v>
       </c>
       <c r="AD76" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE76" t="n">
         <v>21</v>
@@ -11367,13 +11371,13 @@
         <v>201</v>
       </c>
       <c r="AL76" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AM76" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN76" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO76" t="n">
         <v>29</v>
@@ -11437,30 +11441,30 @@
         <v>3.1</v>
       </c>
       <c r="M77" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N77" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O77" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P77" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q77" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R77" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="V77" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W77" t="n">
         <v>1.4</v>
@@ -12110,7 +12114,7 @@
         <v>4</v>
       </c>
       <c r="I82" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J82" t="n">
         <v>2.2</v>
@@ -12125,33 +12129,33 @@
         <v>1.04</v>
       </c>
       <c r="N82" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O82" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P82" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R82" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V82" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="W82" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X82" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Y82" t="n">
         <v>1.8</v>
@@ -12160,10 +12164,10 @@
         <v>1.95</v>
       </c>
       <c r="AA82" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB82" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AC82" t="n">
         <v>8.5</v>
@@ -12175,7 +12179,7 @@
         <v>13</v>
       </c>
       <c r="AF82" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG82" t="n">
         <v>12</v>
@@ -12184,7 +12188,7 @@
         <v>7.5</v>
       </c>
       <c r="AI82" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ82" t="n">
         <v>51</v>
@@ -12245,40 +12249,40 @@
         </is>
       </c>
       <c r="G83" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H83" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I83" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J83" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K83" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L83" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M83" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N83" t="n">
+        <v>13</v>
+      </c>
+      <c r="O83" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P83" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q83" t="n">
         <v>1.67</v>
       </c>
-      <c r="H83" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="I83" t="n">
-        <v>5</v>
-      </c>
-      <c r="J83" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K83" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L83" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M83" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N83" t="n">
-        <v>15</v>
-      </c>
-      <c r="O83" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P83" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q83" t="n">
-        <v>1.65</v>
-      </c>
       <c r="R83" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S83" t="n">
         <v>2.05</v>
@@ -12287,16 +12291,16 @@
         <v>1.8</v>
       </c>
       <c r="U83" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V83" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W83" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X83" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Y83" t="n">
         <v>1.62</v>
@@ -12308,25 +12312,25 @@
         <v>9</v>
       </c>
       <c r="AB83" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AC83" t="n">
         <v>8.5</v>
       </c>
       <c r="AD83" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE83" t="n">
         <v>13</v>
-      </c>
-      <c r="AE83" t="n">
-        <v>12</v>
       </c>
       <c r="AF83" t="n">
         <v>21</v>
       </c>
       <c r="AG83" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH83" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI83" t="n">
         <v>13</v>
@@ -12338,16 +12342,16 @@
         <v>151</v>
       </c>
       <c r="AL83" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM83" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AN83" t="n">
         <v>15</v>
       </c>
       <c r="AO83" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP83" t="n">
         <v>34</v>
@@ -12390,28 +12394,28 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H84" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I84" t="n">
         <v>6.5</v>
       </c>
       <c r="J84" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K84" t="n">
         <v>2.3</v>
       </c>
       <c r="L84" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M84" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N84" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O84" t="n">
         <v>1.29</v>
@@ -12420,10 +12424,10 @@
         <v>3.5</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R84" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr"/>
@@ -12434,10 +12438,10 @@
         <v>1.33</v>
       </c>
       <c r="W84" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X84" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y84" t="n">
         <v>2.05</v>
@@ -12455,7 +12459,7 @@
         <v>8.5</v>
       </c>
       <c r="AD84" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE84" t="n">
         <v>13</v>
@@ -12464,10 +12468,10 @@
         <v>29</v>
       </c>
       <c r="AG84" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH84" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI84" t="n">
         <v>21</v>
@@ -12476,7 +12480,7 @@
         <v>67</v>
       </c>
       <c r="AK84" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AL84" t="n">
         <v>15</v>
@@ -12555,22 +12559,22 @@
         <v>19</v>
       </c>
       <c r="O85" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P85" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R85" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S85" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="T85" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="U85" t="n">
         <v>2.25</v>
@@ -12676,7 +12680,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H86" t="n">
         <v>6.5</v>
@@ -12685,19 +12689,19 @@
         <v>1.22</v>
       </c>
       <c r="J86" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="K86" t="n">
         <v>2.75</v>
       </c>
       <c r="L86" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="M86" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N86" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O86" t="n">
         <v>1.17</v>
@@ -12706,22 +12710,22 @@
         <v>5</v>
       </c>
       <c r="Q86" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R86" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S86" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="T86" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U86" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V86" t="n">
         <v>1.57</v>
-      </c>
-      <c r="R86" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S86" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="T86" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="U86" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V86" t="n">
-        <v>1.53</v>
       </c>
       <c r="W86" t="n">
         <v>1.29</v>
@@ -12730,10 +12734,10 @@
         <v>3.5</v>
       </c>
       <c r="Y86" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="Z86" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="AA86" t="n">
         <v>23</v>
@@ -12745,40 +12749,40 @@
         <v>29</v>
       </c>
       <c r="AD86" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AE86" t="n">
+        <v>81</v>
+      </c>
+      <c r="AF86" t="n">
         <v>67</v>
       </c>
-      <c r="AF86" t="n">
-        <v>51</v>
-      </c>
       <c r="AG86" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH86" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI86" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ86" t="n">
         <v>81</v>
       </c>
       <c r="AK86" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AL86" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AM86" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AN86" t="n">
         <v>9.5</v>
       </c>
       <c r="AO86" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AP86" t="n">
         <v>11</v>
@@ -12962,22 +12966,22 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="H88" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I88" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="J88" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="K88" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L88" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M88" t="n">
         <v>1.07</v>
@@ -13021,13 +13025,13 @@
         <v>6.5</v>
       </c>
       <c r="AB88" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AC88" t="n">
         <v>9</v>
       </c>
       <c r="AD88" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE88" t="n">
         <v>17</v>
@@ -13036,13 +13040,13 @@
         <v>29</v>
       </c>
       <c r="AG88" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AH88" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI88" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ88" t="n">
         <v>51</v>
@@ -13051,19 +13055,19 @@
         <v>351</v>
       </c>
       <c r="AL88" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM88" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN88" t="n">
         <v>15</v>
       </c>
       <c r="AO88" t="n">
+        <v>51</v>
+      </c>
+      <c r="AP88" t="n">
         <v>41</v>
-      </c>
-      <c r="AP88" t="n">
-        <v>34</v>
       </c>
       <c r="AQ88" t="n">
         <v>41</v>
@@ -13103,28 +13107,28 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="H89" t="n">
         <v>3.2</v>
       </c>
       <c r="I89" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J89" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K89" t="n">
         <v>2.05</v>
       </c>
       <c r="L89" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M89" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N89" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O89" t="n">
         <v>1.36</v>
@@ -13133,10 +13137,10 @@
         <v>3</v>
       </c>
       <c r="Q89" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R89" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S89" t="inlineStr"/>
       <c r="T89" t="inlineStr"/>
@@ -13162,7 +13166,7 @@
         <v>7</v>
       </c>
       <c r="AB89" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC89" t="n">
         <v>9.5</v>
@@ -13189,10 +13193,10 @@
         <v>51</v>
       </c>
       <c r="AK89" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AL89" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AM89" t="n">
         <v>15</v>
@@ -13204,7 +13208,7 @@
         <v>34</v>
       </c>
       <c r="AP89" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ89" t="n">
         <v>41</v>
@@ -13244,7 +13248,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H90" t="n">
         <v>7.5</v>
@@ -13265,13 +13269,13 @@
         <v>1.02</v>
       </c>
       <c r="N90" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O90" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P90" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q90" t="n">
         <v>1.44</v>
@@ -13286,10 +13290,10 @@
         <v>2</v>
       </c>
       <c r="U90" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V90" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W90" t="n">
         <v>1.22</v>
@@ -13298,10 +13302,10 @@
         <v>4</v>
       </c>
       <c r="Y90" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="Z90" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="AA90" t="n">
         <v>29</v>
@@ -13331,22 +13335,22 @@
         <v>29</v>
       </c>
       <c r="AJ90" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AK90" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AL90" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AM90" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AN90" t="n">
         <v>10</v>
       </c>
       <c r="AO90" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AP90" t="n">
         <v>11</v>
@@ -13389,22 +13393,22 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="H91" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I91" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J91" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="K91" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L91" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M91" t="n">
         <v>1.02</v>
@@ -13419,30 +13423,30 @@
         <v>6.5</v>
       </c>
       <c r="Q91" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="R91" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="S91" t="inlineStr"/>
       <c r="T91" t="inlineStr"/>
       <c r="U91" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V91" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W91" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="X91" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Y91" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="Z91" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AA91" t="n">
         <v>9.5</v>
@@ -13451,49 +13455,49 @@
         <v>6.5</v>
       </c>
       <c r="AC91" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD91" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE91" t="n">
         <v>11</v>
       </c>
       <c r="AF91" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG91" t="n">
         <v>21</v>
       </c>
       <c r="AH91" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI91" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ91" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK91" t="n">
         <v>501</v>
       </c>
       <c r="AL91" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM91" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AN91" t="n">
         <v>41</v>
       </c>
       <c r="AO91" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AP91" t="n">
+        <v>126</v>
+      </c>
+      <c r="AQ91" t="n">
         <v>101</v>
-      </c>
-      <c r="AQ91" t="n">
-        <v>81</v>
       </c>
       <c r="AR91" t="inlineStr"/>
       <c r="AS91" t="inlineStr"/>
@@ -13530,111 +13534,111 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="H92" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="I92" t="n">
-        <v>7.3</v>
+        <v>9.5</v>
       </c>
       <c r="J92" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="K92" t="n">
-        <v>2.37</v>
+        <v>2.32</v>
       </c>
       <c r="L92" t="n">
-        <v>6.7</v>
+        <v>7.9</v>
       </c>
       <c r="M92" t="n">
         <v>1.04</v>
       </c>
       <c r="N92" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="O92" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P92" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="Q92" t="n">
         <v>1.65</v>
       </c>
       <c r="R92" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="S92" t="inlineStr"/>
       <c r="T92" t="inlineStr"/>
       <c r="U92" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="V92" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="W92" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="X92" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="Y92" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="Z92" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="AA92" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="AB92" t="n">
-        <v>6.6</v>
+        <v>6.1</v>
       </c>
       <c r="AC92" t="n">
         <v>8.25</v>
       </c>
       <c r="AD92" t="n">
-        <v>8.75</v>
+        <v>8</v>
       </c>
       <c r="AE92" t="n">
         <v>11</v>
       </c>
       <c r="AF92" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG92" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH92" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AI92" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ92" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK92" t="n">
+        <v>800</v>
+      </c>
+      <c r="AL92" t="n">
         <v>26</v>
       </c>
-      <c r="AG92" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AH92" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI92" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AJ92" t="n">
+      <c r="AM92" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN92" t="n">
+        <v>29</v>
+      </c>
+      <c r="AO92" t="n">
+        <v>300</v>
+      </c>
+      <c r="AP92" t="n">
+        <v>120</v>
+      </c>
+      <c r="AQ92" t="n">
         <v>90</v>
-      </c>
-      <c r="AK92" t="n">
-        <v>700</v>
-      </c>
-      <c r="AL92" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM92" t="n">
-        <v>50</v>
-      </c>
-      <c r="AN92" t="n">
-        <v>23</v>
-      </c>
-      <c r="AO92" t="n">
-        <v>200</v>
-      </c>
-      <c r="AP92" t="n">
-        <v>80</v>
-      </c>
-      <c r="AQ92" t="n">
-        <v>70</v>
       </c>
       <c r="AR92" t="inlineStr"/>
       <c r="AS92" t="inlineStr"/>
@@ -13671,111 +13675,111 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="H93" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I93" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="J93" t="n">
-        <v>5.1</v>
+        <v>4.85</v>
       </c>
       <c r="K93" t="n">
-        <v>2.62</v>
+        <v>2.57</v>
       </c>
       <c r="L93" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="M93" t="n">
         <v>1.03</v>
       </c>
       <c r="N93" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="O93" t="n">
         <v>1.14</v>
       </c>
       <c r="P93" t="n">
-        <v>4.85</v>
+        <v>5</v>
       </c>
       <c r="Q93" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="R93" t="n">
-        <v>2.57</v>
+        <v>2.62</v>
       </c>
       <c r="S93" t="inlineStr"/>
       <c r="T93" t="inlineStr"/>
       <c r="U93" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V93" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="W93" t="n">
         <v>1.23</v>
       </c>
       <c r="X93" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="Y93" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Z93" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="AA93" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AB93" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AC93" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AD93" t="n">
         <v>100</v>
       </c>
       <c r="AE93" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AF93" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AG93" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AH93" t="n">
         <v>9.25</v>
       </c>
       <c r="AI93" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AJ93" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AK93" t="n">
         <v>250</v>
       </c>
       <c r="AL93" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AM93" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AN93" t="n">
         <v>8.25</v>
       </c>
       <c r="AO93" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AP93" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AQ93" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AR93" t="inlineStr"/>
       <c r="AS93" t="inlineStr"/>
@@ -13812,10 +13816,10 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H94" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I94" t="n">
         <v>3.2</v>
@@ -13824,54 +13828,54 @@
         <v>2.72</v>
       </c>
       <c r="K94" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L94" t="n">
         <v>3.7</v>
       </c>
       <c r="M94" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N94" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="O94" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="P94" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="Q94" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="R94" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="S94" t="inlineStr"/>
       <c r="T94" t="inlineStr"/>
       <c r="U94" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="V94" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="W94" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="X94" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="Y94" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="Z94" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AA94" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB94" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AC94" t="n">
         <v>8.75</v>
@@ -13880,31 +13884,31 @@
         <v>20</v>
       </c>
       <c r="AE94" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF94" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AG94" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="AH94" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AI94" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AJ94" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AK94" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="AL94" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM94" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AN94" t="n">
         <v>11.25</v>
@@ -13913,10 +13917,10 @@
         <v>45</v>
       </c>
       <c r="AP94" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AQ94" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AR94" t="inlineStr"/>
       <c r="AS94" t="inlineStr"/>
@@ -13953,111 +13957,111 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="H95" t="n">
         <v>4.6</v>
       </c>
       <c r="I95" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="J95" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="K95" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="L95" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="M95" t="n">
         <v>1.06</v>
       </c>
       <c r="N95" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="O95" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="P95" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="Q95" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="R95" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="S95" t="inlineStr"/>
       <c r="T95" t="inlineStr"/>
       <c r="U95" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="V95" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="W95" t="n">
         <v>1.42</v>
       </c>
       <c r="X95" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="Y95" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="Z95" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="AA95" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="AB95" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="AC95" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AD95" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AE95" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF95" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AG95" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AH95" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AI95" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AJ95" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AK95" t="n">
         <v>900</v>
       </c>
       <c r="AL95" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AM95" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AN95" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AO95" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AP95" t="n">
+        <v>175</v>
+      </c>
+      <c r="AQ95" t="n">
         <v>150</v>
-      </c>
-      <c r="AQ95" t="n">
-        <v>120</v>
       </c>
       <c r="AR95" t="inlineStr"/>
       <c r="AS95" t="inlineStr"/>
@@ -14097,19 +14101,19 @@
         <v>1.91</v>
       </c>
       <c r="H96" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I96" t="n">
-        <v>3.9</v>
+        <v>4.05</v>
       </c>
       <c r="J96" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="K96" t="n">
         <v>2.12</v>
       </c>
       <c r="L96" t="n">
-        <v>4.25</v>
+        <v>4.4</v>
       </c>
       <c r="M96" t="n">
         <v>1.08</v>
@@ -14118,13 +14122,13 @@
         <v>6.6</v>
       </c>
       <c r="O96" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P96" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="Q96" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="R96" t="n">
         <v>1.7</v>
@@ -14132,70 +14136,70 @@
       <c r="S96" t="inlineStr"/>
       <c r="T96" t="inlineStr"/>
       <c r="U96" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="V96" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W96" t="n">
         <v>1.4</v>
       </c>
       <c r="X96" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="Y96" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="Z96" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="AA96" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AB96" t="n">
         <v>8.5</v>
       </c>
       <c r="AC96" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AD96" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE96" t="n">
         <v>16</v>
       </c>
-      <c r="AE96" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AF96" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG96" t="n">
         <v>6.6</v>
       </c>
       <c r="AH96" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AI96" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AJ96" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AK96" t="n">
         <v>700</v>
       </c>
       <c r="AL96" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AM96" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN96" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AO96" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AP96" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AQ96" t="n">
         <v>45</v>
@@ -14235,48 +14239,48 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="H97" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I97" t="n">
         <v>2</v>
       </c>
       <c r="J97" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="K97" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="L97" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="M97" t="n">
         <v>1.07</v>
       </c>
       <c r="N97" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="O97" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="P97" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="Q97" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="R97" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="S97" t="inlineStr"/>
       <c r="T97" t="inlineStr"/>
       <c r="U97" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="V97" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W97" t="n">
         <v>1.4</v>
@@ -14285,52 +14289,52 @@
         <v>2.7</v>
       </c>
       <c r="Y97" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="Z97" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="AA97" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="AB97" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AC97" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD97" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AE97" t="n">
         <v>35</v>
       </c>
       <c r="AF97" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AG97" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AH97" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AI97" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ97" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK97" t="n">
+        <v>600</v>
+      </c>
+      <c r="AL97" t="n">
         <v>6.7</v>
-      </c>
-      <c r="AH97" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AI97" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AJ97" t="n">
-        <v>80</v>
-      </c>
-      <c r="AK97" t="n">
-        <v>700</v>
-      </c>
-      <c r="AL97" t="n">
-        <v>6.6</v>
       </c>
       <c r="AM97" t="n">
         <v>9</v>
       </c>
       <c r="AN97" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AO97" t="n">
         <v>17.5</v>
@@ -14379,96 +14383,96 @@
         <v>2.1</v>
       </c>
       <c r="H98" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I98" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J98" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K98" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L98" t="n">
         <v>4</v>
       </c>
       <c r="M98" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N98" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O98" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="P98" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q98" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="R98" t="n">
-        <v>1.85</v>
+        <v>1.67</v>
       </c>
       <c r="S98" t="inlineStr"/>
       <c r="T98" t="inlineStr"/>
       <c r="U98" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="V98" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="W98" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X98" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y98" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="Z98" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AA98" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB98" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AC98" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD98" t="n">
         <v>19</v>
       </c>
       <c r="AE98" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF98" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG98" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AH98" t="n">
         <v>6</v>
       </c>
       <c r="AI98" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ98" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK98" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AL98" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM98" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN98" t="n">
         <v>13</v>
@@ -14480,7 +14484,7 @@
         <v>29</v>
       </c>
       <c r="AQ98" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR98" t="inlineStr"/>
       <c r="AS98" t="inlineStr"/>
@@ -14661,66 +14665,66 @@
         <v>4.5</v>
       </c>
       <c r="H100" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I100" t="n">
         <v>1.85</v>
       </c>
       <c r="J100" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="K100" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L100" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="M100" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N100" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="O100" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P100" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q100" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R100" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S100" t="inlineStr"/>
       <c r="T100" t="inlineStr"/>
       <c r="U100" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="V100" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="W100" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X100" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Y100" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Z100" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AA100" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB100" t="n">
         <v>21</v>
       </c>
       <c r="AC100" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD100" t="n">
         <v>51</v>
@@ -14732,43 +14736,43 @@
         <v>51</v>
       </c>
       <c r="AG100" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AH100" t="n">
         <v>6.5</v>
       </c>
       <c r="AI100" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ100" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AK100" t="n">
         <v>351</v>
       </c>
       <c r="AL100" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AM100" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AN100" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AO100" t="n">
         <v>15</v>
       </c>
       <c r="AP100" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ100" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR100" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="AS100" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="101">
@@ -14978,10 +14982,10 @@
         <v>2.5</v>
       </c>
       <c r="Q102" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R102" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S102" t="inlineStr"/>
       <c r="T102" t="inlineStr"/>
@@ -15055,10 +15059,10 @@
         <v>41</v>
       </c>
       <c r="AR102" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="103">
@@ -15093,22 +15097,22 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H103" t="n">
         <v>3.6</v>
       </c>
       <c r="I103" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="J103" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K103" t="n">
         <v>2.4</v>
       </c>
       <c r="L103" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M103" t="n">
         <v>1.03</v>
@@ -15117,10 +15121,10 @@
         <v>17</v>
       </c>
       <c r="O103" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P103" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q103" t="n">
         <v>1.53</v>
@@ -15129,10 +15133,10 @@
         <v>2.4</v>
       </c>
       <c r="S103" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="T103" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U103" t="n">
         <v>2.25</v>
@@ -15156,16 +15160,16 @@
         <v>12</v>
       </c>
       <c r="AB103" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC103" t="n">
         <v>9.5</v>
       </c>
       <c r="AD103" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE103" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF103" t="n">
         <v>21</v>
@@ -15189,13 +15193,13 @@
         <v>15</v>
       </c>
       <c r="AM103" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN103" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO103" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP103" t="n">
         <v>21</v>
@@ -15379,10 +15383,10 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="H105" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I105" t="n">
         <v>1.95</v>
@@ -15391,7 +15395,7 @@
         <v>4</v>
       </c>
       <c r="K105" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L105" t="n">
         <v>2.6</v>
@@ -15423,16 +15427,16 @@
         <v>1.44</v>
       </c>
       <c r="W105" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X105" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Y105" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="Z105" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="AA105" t="n">
         <v>13</v>
@@ -15447,31 +15451,31 @@
         <v>41</v>
       </c>
       <c r="AE105" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF105" t="n">
         <v>29</v>
       </c>
-      <c r="AF105" t="n">
-        <v>34</v>
-      </c>
       <c r="AG105" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH105" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI105" t="n">
         <v>12</v>
-      </c>
-      <c r="AH105" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI105" t="n">
-        <v>13</v>
       </c>
       <c r="AJ105" t="n">
         <v>41</v>
       </c>
       <c r="AK105" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AL105" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AM105" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN105" t="n">
         <v>9</v>
@@ -15483,7 +15487,7 @@
         <v>15</v>
       </c>
       <c r="AQ105" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR105" t="inlineStr"/>
       <c r="AS105" t="inlineStr"/>
@@ -15946,16 +15950,16 @@
         <v>4.25</v>
       </c>
       <c r="H109" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I109" t="n">
         <v>1.7</v>
       </c>
       <c r="J109" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="K109" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="L109" t="n">
         <v>2.22</v>
@@ -15970,18 +15974,18 @@
         <v>1.21</v>
       </c>
       <c r="P109" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="Q109" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R109" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="S109" t="inlineStr"/>
       <c r="T109" t="inlineStr"/>
       <c r="U109" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="V109" t="n">
         <v>1.47</v>
@@ -15999,10 +16003,10 @@
         <v>2.12</v>
       </c>
       <c r="AA109" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AB109" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC109" t="n">
         <v>14</v>
@@ -16011,16 +16015,16 @@
         <v>65</v>
       </c>
       <c r="AE109" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF109" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG109" t="n">
         <v>8.5</v>
       </c>
       <c r="AH109" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AI109" t="n">
         <v>14</v>
@@ -16041,7 +16045,7 @@
         <v>8.25</v>
       </c>
       <c r="AO109" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AP109" t="n">
         <v>12.5</v>
@@ -16084,19 +16088,19 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="H110" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I110" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="J110" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K110" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="L110" t="n">
         <v>2.47</v>
@@ -16111,21 +16115,21 @@
         <v>1.19</v>
       </c>
       <c r="P110" t="n">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
       <c r="Q110" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R110" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="S110" t="inlineStr"/>
       <c r="T110" t="inlineStr"/>
       <c r="U110" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="V110" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="W110" t="n">
         <v>1.31</v>
@@ -16134,22 +16138,22 @@
         <v>3.15</v>
       </c>
       <c r="Y110" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="Z110" t="n">
-        <v>2.37</v>
+        <v>2.32</v>
       </c>
       <c r="AA110" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AB110" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AC110" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AD110" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AE110" t="n">
         <v>26</v>
@@ -16173,22 +16177,22 @@
         <v>250</v>
       </c>
       <c r="AL110" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="AM110" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="AN110" t="n">
         <v>8.5</v>
       </c>
       <c r="AO110" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP110" t="n">
         <v>14</v>
       </c>
       <c r="AQ110" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AR110" t="inlineStr"/>
       <c r="AS110" t="inlineStr"/>
@@ -16370,28 +16374,28 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="H112" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I112" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="J112" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K112" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L112" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M112" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N112" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O112" t="n">
         <v>1.25</v>
@@ -16400,10 +16404,10 @@
         <v>3.75</v>
       </c>
       <c r="Q112" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R112" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S112" t="inlineStr"/>
       <c r="T112" t="inlineStr"/>
@@ -16435,7 +16439,7 @@
         <v>8.5</v>
       </c>
       <c r="AD112" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE112" t="n">
         <v>13</v>
@@ -16444,10 +16448,10 @@
         <v>26</v>
       </c>
       <c r="AG112" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH112" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI112" t="n">
         <v>17</v>
@@ -16456,7 +16460,7 @@
         <v>51</v>
       </c>
       <c r="AK112" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AL112" t="n">
         <v>15</v>
@@ -16468,7 +16472,7 @@
         <v>17</v>
       </c>
       <c r="AO112" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AP112" t="n">
         <v>41</v>
@@ -16541,22 +16545,22 @@
         <v>5</v>
       </c>
       <c r="Q113" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R113" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S113" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="T113" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U113" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V113" t="n">
         <v>1.57</v>
-      </c>
-      <c r="R113" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S113" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="T113" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U113" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V113" t="n">
-        <v>1.53</v>
       </c>
       <c r="W113" t="n">
         <v>1.29</v>
@@ -16938,22 +16942,22 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="H116" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I116" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="J116" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="K116" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L116" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M116" t="n">
         <v>1.05</v>
@@ -16968,10 +16972,10 @@
         <v>3.75</v>
       </c>
       <c r="Q116" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R116" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S116" t="n">
         <v>1.8</v>
@@ -16992,13 +16996,13 @@
         <v>2.75</v>
       </c>
       <c r="Y116" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Z116" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AA116" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB116" t="n">
         <v>8</v>
@@ -17007,10 +17011,10 @@
         <v>8.5</v>
       </c>
       <c r="AD116" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE116" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF116" t="n">
         <v>26</v>
@@ -17019,7 +17023,7 @@
         <v>10</v>
       </c>
       <c r="AH116" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI116" t="n">
         <v>15</v>
@@ -17034,7 +17038,7 @@
         <v>15</v>
       </c>
       <c r="AM116" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN116" t="n">
         <v>17</v>
@@ -17083,22 +17087,22 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="H117" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I117" t="n">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="J117" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="K117" t="n">
         <v>2.1</v>
       </c>
       <c r="L117" t="n">
-        <v>3.25</v>
+        <v>2.88</v>
       </c>
       <c r="M117" t="n">
         <v>1.05</v>
@@ -17139,22 +17143,22 @@
         <v>2</v>
       </c>
       <c r="AA117" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB117" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC117" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD117" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE117" t="n">
         <v>26</v>
       </c>
-      <c r="AE117" t="n">
-        <v>21</v>
-      </c>
       <c r="AF117" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG117" t="n">
         <v>11</v>
@@ -17163,31 +17167,31 @@
         <v>6.5</v>
       </c>
       <c r="AI117" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ117" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK117" t="n">
         <v>201</v>
       </c>
       <c r="AL117" t="n">
+        <v>8</v>
+      </c>
+      <c r="AM117" t="n">
+        <v>11</v>
+      </c>
+      <c r="AN117" t="n">
         <v>9</v>
       </c>
-      <c r="AM117" t="n">
-        <v>13</v>
-      </c>
-      <c r="AN117" t="n">
-        <v>10</v>
-      </c>
       <c r="AO117" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP117" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ117" t="n">
         <v>26</v>
-      </c>
-      <c r="AP117" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ117" t="n">
-        <v>29</v>
       </c>
       <c r="AR117" t="inlineStr"/>
       <c r="AS117" t="inlineStr"/>
@@ -17224,7 +17228,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H118" t="n">
         <v>3.1</v>
@@ -17233,7 +17237,7 @@
         <v>3</v>
       </c>
       <c r="J118" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K118" t="n">
         <v>2.1</v>
@@ -17248,48 +17252,48 @@
         <v>10</v>
       </c>
       <c r="O118" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P118" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q118" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="R118" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="S118" t="inlineStr"/>
       <c r="T118" t="inlineStr"/>
       <c r="U118" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="V118" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W118" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X118" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y118" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Z118" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AA118" t="n">
         <v>8</v>
       </c>
       <c r="AB118" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC118" t="n">
         <v>9.5</v>
       </c>
       <c r="AD118" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE118" t="n">
         <v>19</v>
@@ -17298,7 +17302,7 @@
         <v>29</v>
       </c>
       <c r="AG118" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH118" t="n">
         <v>6</v>
@@ -17307,25 +17311,25 @@
         <v>13</v>
       </c>
       <c r="AJ118" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK118" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL118" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM118" t="n">
         <v>15</v>
       </c>
       <c r="AN118" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO118" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP118" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ118" t="n">
         <v>34</v>
@@ -17502,30 +17506,30 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H120" t="n">
         <v>2.9</v>
       </c>
       <c r="I120" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="J120" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="K120" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="L120" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="M120" t="inlineStr"/>
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="P120" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="Q120" t="n">
         <v>2.32</v>
@@ -17545,7 +17549,7 @@
         <v>1.5</v>
       </c>
       <c r="X120" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="Y120" t="n">
         <v>1.98</v>
@@ -17554,16 +17558,16 @@
         <v>1.65</v>
       </c>
       <c r="AA120" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AB120" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AC120" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AD120" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE120" t="n">
         <v>22</v>
@@ -17572,37 +17576,37 @@
         <v>40</v>
       </c>
       <c r="AG120" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AH120" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AI120" t="n">
         <v>17</v>
       </c>
       <c r="AJ120" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AK120" t="n">
         <v>101</v>
       </c>
       <c r="AL120" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="AM120" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AN120" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AO120" t="n">
+        <v>45</v>
+      </c>
+      <c r="AP120" t="n">
+        <v>35</v>
+      </c>
+      <c r="AQ120" t="n">
         <v>50</v>
-      </c>
-      <c r="AP120" t="n">
-        <v>37</v>
-      </c>
-      <c r="AQ120" t="n">
-        <v>55</v>
       </c>
       <c r="AR120" t="inlineStr"/>
       <c r="AS120" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-02.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-02.xlsx
@@ -692,19 +692,19 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H2" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J2" t="n">
         <v>2.4</v>
       </c>
       <c r="K2" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="L2" t="n">
         <v>3.4</v>
@@ -713,19 +713,19 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O2" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="P2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="R2" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="S2" t="n">
         <v>1.85</v>
@@ -740,22 +740,22 @@
         <v>2.1</v>
       </c>
       <c r="W2" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="X2" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="Z2" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="AA2" t="n">
         <v>19</v>
       </c>
       <c r="AB2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC2" t="n">
         <v>11</v>
@@ -773,19 +773,19 @@
         <v>29</v>
       </c>
       <c r="AH2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI2" t="n">
         <v>11</v>
       </c>
       <c r="AJ2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AK2" t="n">
         <v>67</v>
       </c>
       <c r="AL2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM2" t="n">
         <v>29</v>
@@ -837,22 +837,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H3" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J3" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K3" t="n">
         <v>2.2</v>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
@@ -861,16 +861,16 @@
         <v>11</v>
       </c>
       <c r="O3" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P3" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R3" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
@@ -881,10 +881,10 @@
         <v>1.33</v>
       </c>
       <c r="W3" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X3" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y3" t="n">
         <v>1.8</v>
@@ -899,7 +899,7 @@
         <v>9</v>
       </c>
       <c r="AC3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD3" t="n">
         <v>15</v>
@@ -923,13 +923,13 @@
         <v>51</v>
       </c>
       <c r="AK3" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AL3" t="n">
         <v>15</v>
       </c>
       <c r="AM3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN3" t="n">
         <v>17</v>
@@ -978,66 +978,70 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="H4" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I4" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="K4" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L4" t="n">
         <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O4" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P4" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="R4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
+        <v>2.3</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.86</v>
+      </c>
       <c r="U4" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V4" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="W4" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X4" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AA4" t="n">
         <v>10</v>
       </c>
       <c r="AB4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC4" t="n">
         <v>9.5</v>
@@ -1046,16 +1050,16 @@
         <v>19</v>
       </c>
       <c r="AE4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF4" t="n">
         <v>23</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI4" t="n">
         <v>13</v>
@@ -1067,10 +1071,10 @@
         <v>151</v>
       </c>
       <c r="AL4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN4" t="n">
         <v>15</v>
@@ -1079,7 +1083,7 @@
         <v>41</v>
       </c>
       <c r="AP4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ4" t="n">
         <v>34</v>
@@ -1119,7 +1123,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
         <v>3.3</v>
@@ -1134,7 +1138,7 @@
         <v>2.2</v>
       </c>
       <c r="L5" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
@@ -1208,7 +1212,7 @@
         <v>201</v>
       </c>
       <c r="AL5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM5" t="n">
         <v>12</v>
@@ -1260,22 +1264,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="H6" t="n">
         <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="J6" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K6" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L6" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M6" t="n">
         <v>1.08</v>
@@ -1284,16 +1288,16 @@
         <v>8</v>
       </c>
       <c r="O6" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P6" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="R6" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
@@ -1310,16 +1314,16 @@
         <v>2.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AA6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AC6" t="n">
         <v>9</v>
@@ -1334,7 +1338,7 @@
         <v>34</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AH6" t="n">
         <v>6.5</v>
@@ -1346,25 +1350,25 @@
         <v>67</v>
       </c>
       <c r="AK6" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AL6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN6" t="n">
         <v>15</v>
       </c>
       <c r="AO6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP6" t="n">
         <v>41</v>
       </c>
       <c r="AQ6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR6" t="inlineStr"/>
       <c r="AS6" t="inlineStr"/>
@@ -1404,7 +1408,7 @@
         <v>2.2</v>
       </c>
       <c r="H7" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I7" t="n">
         <v>3.4</v>
@@ -1413,7 +1417,7 @@
         <v>3</v>
       </c>
       <c r="K7" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L7" t="n">
         <v>4</v>
@@ -1439,16 +1443,16 @@
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="V7" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W7" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X7" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y7" t="n">
         <v>1.95</v>
@@ -1457,10 +1461,10 @@
         <v>1.8</v>
       </c>
       <c r="AA7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AC7" t="n">
         <v>9.5</v>
@@ -1469,28 +1473,28 @@
         <v>21</v>
       </c>
       <c r="AE7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG7" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AH7" t="n">
         <v>6</v>
       </c>
       <c r="AI7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ7" t="n">
         <v>51</v>
       </c>
       <c r="AK7" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AL7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM7" t="n">
         <v>15</v>
@@ -1499,7 +1503,7 @@
         <v>12</v>
       </c>
       <c r="AO7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP7" t="n">
         <v>29</v>
@@ -1545,63 +1549,63 @@
         <v>1.95</v>
       </c>
       <c r="H8" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J8" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K8" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O8" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="P8" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.95</v>
+        <v>2.07</v>
       </c>
       <c r="R8" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V8" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W8" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="X8" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Z8" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AA8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AC8" t="n">
         <v>8.5</v>
@@ -1610,31 +1614,31 @@
         <v>17</v>
       </c>
       <c r="AE8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AH8" t="n">
         <v>6.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK8" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN8" t="n">
         <v>13</v>
@@ -1643,10 +1647,10 @@
         <v>41</v>
       </c>
       <c r="AP8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR8" t="inlineStr"/>
       <c r="AS8" t="inlineStr"/>
@@ -1683,16 +1687,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
         <v>3.7</v>
       </c>
       <c r="I9" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J9" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K9" t="n">
         <v>2.3</v>
@@ -1743,13 +1747,13 @@
         <v>2.2</v>
       </c>
       <c r="AA9" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB9" t="n">
         <v>11</v>
       </c>
       <c r="AC9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD9" t="n">
         <v>19</v>
@@ -1761,10 +1765,10 @@
         <v>21</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH9" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI9" t="n">
         <v>13</v>
@@ -1776,7 +1780,7 @@
         <v>151</v>
       </c>
       <c r="AL9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM9" t="n">
         <v>19</v>
@@ -1785,10 +1789,10 @@
         <v>12</v>
       </c>
       <c r="AO9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ9" t="n">
         <v>29</v>
@@ -1828,28 +1832,28 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H10" t="n">
         <v>3.6</v>
       </c>
       <c r="I10" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="J10" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K10" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L10" t="n">
         <v>3.75</v>
       </c>
       <c r="M10" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O10" t="n">
         <v>1.2</v>
@@ -1858,22 +1862,22 @@
         <v>4.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="R10" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="S10" t="n">
-        <v>2.06</v>
+        <v>2.07</v>
       </c>
       <c r="T10" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="U10" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V10" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W10" t="n">
         <v>1.3</v>
@@ -1882,16 +1886,16 @@
         <v>3.4</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Z10" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AA10" t="n">
         <v>10</v>
       </c>
       <c r="AB10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC10" t="n">
         <v>9</v>
@@ -1909,13 +1913,13 @@
         <v>15</v>
       </c>
       <c r="AH10" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ10" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK10" t="n">
         <v>126</v>
@@ -1973,72 +1977,72 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="H11" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I11" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J11" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="K11" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="L11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M11" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="O11" t="n">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="P11" t="n">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="R11" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="V11" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="W11" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="X11" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AA11" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AB11" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD11" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE11" t="n">
         <v>10</v>
@@ -2047,34 +2051,34 @@
         <v>26</v>
       </c>
       <c r="AG11" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AH11" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AI11" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ11" t="n">
         <v>67</v>
       </c>
       <c r="AK11" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AL11" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AM11" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AO11" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AP11" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AQ11" t="n">
         <v>51</v>
@@ -2255,13 +2259,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="H13" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I13" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="J13" t="n">
         <v>2.5</v>
@@ -2270,13 +2274,13 @@
         <v>2.2</v>
       </c>
       <c r="L13" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O13" t="n">
         <v>1.3</v>
@@ -2314,7 +2318,7 @@
         <v>7</v>
       </c>
       <c r="AB13" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AC13" t="n">
         <v>8.5</v>
@@ -2329,10 +2333,10 @@
         <v>26</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH13" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI13" t="n">
         <v>15</v>
@@ -2344,7 +2348,7 @@
         <v>251</v>
       </c>
       <c r="AL13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM13" t="n">
         <v>21</v>
@@ -2408,7 +2412,7 @@
         <v>4.33</v>
       </c>
       <c r="K14" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L14" t="n">
         <v>2.5</v>
@@ -2426,10 +2430,10 @@
         <v>4</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="R14" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
@@ -2467,10 +2471,10 @@
         <v>34</v>
       </c>
       <c r="AF14" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH14" t="n">
         <v>6.5</v>
@@ -2482,7 +2486,7 @@
         <v>41</v>
       </c>
       <c r="AK14" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL14" t="n">
         <v>8</v>
@@ -2602,7 +2606,7 @@
         <v>11</v>
       </c>
       <c r="AD15" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE15" t="n">
         <v>26</v>
@@ -3113,28 +3117,28 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="H19" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I19" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="J19" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="K19" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L19" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M19" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O19" t="n">
         <v>1.3</v>
@@ -3143,24 +3147,24 @@
         <v>3.4</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R19" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="V19" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W19" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X19" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Y19" t="n">
         <v>1.91</v>
@@ -3172,28 +3176,28 @@
         <v>7</v>
       </c>
       <c r="AB19" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AC19" t="n">
         <v>8.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE19" t="n">
         <v>15</v>
       </c>
       <c r="AF19" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG19" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH19" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ19" t="n">
         <v>51</v>
@@ -3202,19 +3206,19 @@
         <v>301</v>
       </c>
       <c r="AL19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN19" t="n">
         <v>15</v>
       </c>
       <c r="AO19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AP19" t="n">
         <v>41</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>34</v>
       </c>
       <c r="AQ19" t="n">
         <v>41</v>
@@ -3278,16 +3282,16 @@
         <v>9</v>
       </c>
       <c r="O20" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P20" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R20" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
@@ -3536,16 +3540,16 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H22" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I22" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J22" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K22" t="n">
         <v>2</v>
@@ -3554,16 +3558,16 @@
         <v>4</v>
       </c>
       <c r="M22" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N22" t="n">
         <v>7</v>
       </c>
       <c r="O22" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="P22" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="Q22" t="n">
         <v>2.3</v>
@@ -3577,7 +3581,7 @@
         <v>4.33</v>
       </c>
       <c r="V22" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="W22" t="n">
         <v>1.5</v>
@@ -3595,7 +3599,7 @@
         <v>6.5</v>
       </c>
       <c r="AB22" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AC22" t="n">
         <v>9.5</v>
@@ -3604,7 +3608,7 @@
         <v>21</v>
       </c>
       <c r="AE22" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF22" t="n">
         <v>34</v>
@@ -3622,7 +3626,7 @@
         <v>51</v>
       </c>
       <c r="AK22" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AL22" t="n">
         <v>9</v>
@@ -3637,7 +3641,7 @@
         <v>41</v>
       </c>
       <c r="AP22" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ22" t="n">
         <v>41</v>
@@ -3695,16 +3699,16 @@
         <v>3.25</v>
       </c>
       <c r="M23" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N23" t="n">
         <v>7</v>
       </c>
       <c r="O23" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="P23" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="Q23" t="n">
         <v>2.5</v>
@@ -3718,7 +3722,7 @@
         <v>5</v>
       </c>
       <c r="V23" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="W23" t="n">
         <v>1.57</v>
@@ -3784,10 +3788,10 @@
         <v>41</v>
       </c>
       <c r="AR23" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="AS23" t="n">
-        <v>2</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="24">
@@ -3840,13 +3844,13 @@
         <v>3.2</v>
       </c>
       <c r="M24" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N24" t="n">
         <v>8</v>
       </c>
       <c r="O24" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P24" t="n">
         <v>3</v>
@@ -3863,7 +3867,7 @@
         <v>4.33</v>
       </c>
       <c r="V24" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="W24" t="n">
         <v>1.5</v>
@@ -3985,10 +3989,10 @@
         <v>2.5</v>
       </c>
       <c r="M25" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N25" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O25" t="n">
         <v>1.5</v>
@@ -4078,10 +4082,10 @@
         <v>41</v>
       </c>
       <c r="AR25" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="26">
@@ -4134,10 +4138,10 @@
         <v>4.75</v>
       </c>
       <c r="M26" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N26" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O26" t="n">
         <v>1.57</v>
@@ -4712,33 +4716,33 @@
         </is>
       </c>
       <c r="G30" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J30" t="n">
         <v>4.35</v>
       </c>
-      <c r="H30" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I30" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="J30" t="n">
-        <v>4.65</v>
-      </c>
       <c r="K30" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="L30" t="n">
-        <v>2.4</v>
+        <v>2.52</v>
       </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P30" t="n">
-        <v>2.67</v>
+        <v>2.62</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="R30" t="n">
         <v>1.6</v>
@@ -4746,16 +4750,16 @@
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="V30" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="W30" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="X30" t="n">
-        <v>2.47</v>
+        <v>2.42</v>
       </c>
       <c r="Y30" t="n">
         <v>1.9</v>
@@ -4764,28 +4768,28 @@
         <v>1.72</v>
       </c>
       <c r="AA30" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="AB30" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AC30" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AE30" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AF30" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AG30" t="n">
         <v>8</v>
       </c>
       <c r="AH30" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AI30" t="n">
         <v>16.5</v>
@@ -4797,19 +4801,19 @@
         <v>800</v>
       </c>
       <c r="AL30" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AM30" t="n">
-        <v>7.7</v>
+        <v>8.25</v>
       </c>
       <c r="AN30" t="n">
         <v>8.5</v>
       </c>
       <c r="AO30" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AP30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ30" t="n">
         <v>32</v>
@@ -4990,58 +4994,58 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="H32" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="I32" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J32" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="K32" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L32" t="n">
+        <v>7</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N32" t="n">
+        <v>17</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R32" t="n">
         <v>2.5</v>
       </c>
-      <c r="L32" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N32" t="n">
-        <v>13</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P32" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q32" t="n">
+      <c r="S32" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T32" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="U32" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V32" t="n">
         <v>1.62</v>
       </c>
-      <c r="R32" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S32" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="T32" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U32" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V32" t="n">
-        <v>1.5</v>
-      </c>
       <c r="W32" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X32" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y32" t="n">
         <v>1.8</v>
@@ -5050,7 +5054,7 @@
         <v>1.95</v>
       </c>
       <c r="AA32" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB32" t="n">
         <v>7.5</v>
@@ -5059,7 +5063,7 @@
         <v>8.5</v>
       </c>
       <c r="AD32" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE32" t="n">
         <v>11</v>
@@ -5068,10 +5072,10 @@
         <v>23</v>
       </c>
       <c r="AG32" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH32" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AI32" t="n">
         <v>17</v>
@@ -5083,13 +5087,13 @@
         <v>201</v>
       </c>
       <c r="AL32" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM32" t="n">
         <v>41</v>
       </c>
       <c r="AN32" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO32" t="n">
         <v>81</v>
@@ -5191,7 +5195,7 @@
         <v>2.1</v>
       </c>
       <c r="AA33" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB33" t="n">
         <v>11</v>
@@ -5209,7 +5213,7 @@
         <v>23</v>
       </c>
       <c r="AG33" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH33" t="n">
         <v>7</v>
@@ -5227,7 +5231,7 @@
         <v>12</v>
       </c>
       <c r="AM33" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN33" t="n">
         <v>12</v>
@@ -5300,22 +5304,22 @@
         <v>15</v>
       </c>
       <c r="O34" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P34" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R34" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S34" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T34" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U34" t="n">
         <v>2.5</v>
@@ -5583,7 +5587,7 @@
         <v>1.04</v>
       </c>
       <c r="N36" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O36" t="n">
         <v>1.25</v>
@@ -5724,7 +5728,7 @@
         <v>1.04</v>
       </c>
       <c r="N37" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O37" t="n">
         <v>1.22</v>
@@ -5844,22 +5848,22 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="H38" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I38" t="n">
         <v>2.88</v>
       </c>
-      <c r="I38" t="n">
-        <v>3.1</v>
-      </c>
       <c r="J38" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="K38" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L38" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M38" t="n">
         <v>1.1</v>
@@ -5880,10 +5884,10 @@
         <v>1.53</v>
       </c>
       <c r="S38" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="T38" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="U38" t="n">
         <v>4.5</v>
@@ -5892,10 +5896,10 @@
         <v>1.18</v>
       </c>
       <c r="W38" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="X38" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Y38" t="n">
         <v>2</v>
@@ -5904,19 +5908,19 @@
         <v>1.73</v>
       </c>
       <c r="AA38" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB38" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC38" t="n">
         <v>11</v>
       </c>
-      <c r="AC38" t="n">
-        <v>10</v>
-      </c>
       <c r="AD38" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE38" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF38" t="n">
         <v>41</v>
@@ -5937,16 +5941,16 @@
         <v>1000</v>
       </c>
       <c r="AL38" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AM38" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN38" t="n">
         <v>12</v>
       </c>
       <c r="AO38" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP38" t="n">
         <v>29</v>
@@ -6029,10 +6033,10 @@
         <v>1.65</v>
       </c>
       <c r="S39" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T39" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="U39" t="n">
         <v>4</v>
@@ -6104,10 +6108,10 @@
         <v>51</v>
       </c>
       <c r="AR39" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.19</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="40">
@@ -6297,7 +6301,7 @@
         <v>3.1</v>
       </c>
       <c r="I41" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="J41" t="n">
         <v>4</v>
@@ -6306,13 +6310,13 @@
         <v>1.91</v>
       </c>
       <c r="L41" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M41" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N41" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O41" t="n">
         <v>1.5</v>
@@ -6378,19 +6382,19 @@
         <v>19</v>
       </c>
       <c r="AJ41" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK41" t="n">
         <v>700</v>
       </c>
       <c r="AL41" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AM41" t="n">
         <v>10</v>
       </c>
       <c r="AN41" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO41" t="n">
         <v>23</v>
@@ -6605,10 +6609,10 @@
         <v>13</v>
       </c>
       <c r="O43" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P43" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q43" t="n">
         <v>1.7</v>
@@ -6619,10 +6623,10 @@
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V43" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="W43" t="n">
         <v>1.33</v>
@@ -6728,13 +6732,13 @@
         <v>3.55</v>
       </c>
       <c r="I44" t="n">
-        <v>4.85</v>
+        <v>4.9</v>
       </c>
       <c r="J44" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="K44" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L44" t="n">
         <v>5</v>
@@ -6746,54 +6750,54 @@
         <v>7.4</v>
       </c>
       <c r="O44" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P44" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R44" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="V44" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="W44" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="X44" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="Y44" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="Z44" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="AA44" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="AB44" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AC44" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AD44" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AE44" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AF44" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AG44" t="n">
         <v>7.4</v>
@@ -6826,7 +6830,7 @@
         <v>55</v>
       </c>
       <c r="AQ44" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AR44" t="inlineStr"/>
       <c r="AS44" t="inlineStr"/>
@@ -6863,22 +6867,22 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="H45" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="I45" t="n">
-        <v>7.9</v>
+        <v>8.75</v>
       </c>
       <c r="J45" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="K45" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="L45" t="n">
-        <v>6.8</v>
+        <v>7.3</v>
       </c>
       <c r="M45" t="n">
         <v>1.04</v>
@@ -6887,48 +6891,48 @@
         <v>9.25</v>
       </c>
       <c r="O45" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P45" t="n">
-        <v>3.95</v>
+        <v>4.05</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R45" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="n">
-        <v>2.62</v>
+        <v>2.55</v>
       </c>
       <c r="V45" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="W45" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="X45" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="Y45" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="Z45" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="AA45" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AB45" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AC45" t="n">
         <v>9.25</v>
       </c>
       <c r="AD45" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AE45" t="n">
         <v>12</v>
@@ -6940,34 +6944,34 @@
         <v>9.25</v>
       </c>
       <c r="AH45" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AI45" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AJ45" t="n">
         <v>120</v>
       </c>
       <c r="AK45" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AL45" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AM45" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AN45" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO45" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AP45" t="n">
+        <v>120</v>
+      </c>
+      <c r="AQ45" t="n">
         <v>100</v>
-      </c>
-      <c r="AQ45" t="n">
-        <v>90</v>
       </c>
       <c r="AR45" t="inlineStr"/>
       <c r="AS45" t="inlineStr"/>
@@ -7004,22 +7008,22 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="H46" t="n">
-        <v>4.75</v>
+        <v>4.85</v>
       </c>
       <c r="I46" t="n">
-        <v>7.5</v>
+        <v>7.9</v>
       </c>
       <c r="J46" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="K46" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="L46" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="M46" t="n">
         <v>1.04</v>
@@ -7028,7 +7032,7 @@
         <v>9</v>
       </c>
       <c r="O46" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P46" t="n">
         <v>3.85</v>
@@ -7054,22 +7058,22 @@
         <v>3</v>
       </c>
       <c r="Y46" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="Z46" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="AA46" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AB46" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AC46" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AD46" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AE46" t="n">
         <v>12.5</v>
@@ -7081,34 +7085,34 @@
         <v>9</v>
       </c>
       <c r="AH46" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AI46" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ46" t="n">
         <v>120</v>
       </c>
       <c r="AK46" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AL46" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AM46" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AN46" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AO46" t="n">
         <v>200</v>
       </c>
       <c r="AP46" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AQ46" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AR46" t="inlineStr"/>
       <c r="AS46" t="inlineStr"/>
@@ -7286,40 +7290,40 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H48" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I48" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J48" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="K48" t="n">
         <v>2.25</v>
       </c>
       <c r="L48" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M48" t="n">
         <v>1.04</v>
       </c>
       <c r="N48" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O48" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P48" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R48" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
@@ -7345,16 +7349,16 @@
         <v>8</v>
       </c>
       <c r="AB48" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AC48" t="n">
         <v>8.5</v>
       </c>
       <c r="AD48" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE48" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF48" t="n">
         <v>23</v>
@@ -7363,13 +7367,13 @@
         <v>12</v>
       </c>
       <c r="AH48" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI48" t="n">
         <v>15</v>
       </c>
       <c r="AJ48" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK48" t="n">
         <v>201</v>
@@ -7378,19 +7382,19 @@
         <v>13</v>
       </c>
       <c r="AM48" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN48" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO48" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP48" t="n">
         <v>34</v>
       </c>
       <c r="AQ48" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR48" t="inlineStr"/>
       <c r="AS48" t="inlineStr"/>
@@ -7445,10 +7449,10 @@
         <v>9.5</v>
       </c>
       <c r="M49" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N49" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O49" t="n">
         <v>1.13</v>
@@ -7457,10 +7461,10 @@
         <v>6</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="R49" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="S49" t="n">
         <v>1.83</v>
@@ -7572,63 +7576,63 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="H50" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="I50" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="J50" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="K50" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="L50" t="n">
-        <v>4.55</v>
+        <v>4.6</v>
       </c>
       <c r="M50" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N50" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="O50" t="n">
         <v>1.42</v>
       </c>
       <c r="P50" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="R50" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="V50" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W50" t="n">
         <v>1.47</v>
       </c>
       <c r="X50" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="Y50" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="Z50" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="AA50" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AB50" t="n">
         <v>8.5</v>
@@ -7640,19 +7644,19 @@
         <v>17.5</v>
       </c>
       <c r="AE50" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AF50" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AG50" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AH50" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AI50" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AJ50" t="n">
         <v>90</v>
@@ -7661,16 +7665,16 @@
         <v>800</v>
       </c>
       <c r="AL50" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AM50" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AN50" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AO50" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AP50" t="n">
         <v>45</v>
@@ -7713,87 +7717,87 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>5.7</v>
+        <v>5.2</v>
       </c>
       <c r="H51" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="I51" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="J51" t="n">
-        <v>6.1</v>
+        <v>5.6</v>
       </c>
       <c r="K51" t="n">
         <v>1.98</v>
       </c>
       <c r="L51" t="n">
-        <v>2.27</v>
+        <v>2.37</v>
       </c>
       <c r="M51" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N51" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="O51" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="P51" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="R51" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="n">
-        <v>4.4</v>
+        <v>4.55</v>
       </c>
       <c r="V51" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W51" t="n">
         <v>1.53</v>
       </c>
       <c r="X51" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Y51" t="n">
         <v>2.32</v>
       </c>
-      <c r="Y51" t="n">
-        <v>2.35</v>
-      </c>
       <c r="Z51" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="AA51" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AB51" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AC51" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AD51" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AE51" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF51" t="n">
         <v>90</v>
       </c>
-      <c r="AF51" t="n">
-        <v>110</v>
-      </c>
       <c r="AG51" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="AH51" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="AI51" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ51" t="n">
         <v>175</v>
@@ -7802,19 +7806,19 @@
         <v>101</v>
       </c>
       <c r="AL51" t="n">
-        <v>4.85</v>
+        <v>4.8</v>
       </c>
       <c r="AM51" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="AN51" t="n">
         <v>9</v>
       </c>
       <c r="AO51" t="n">
-        <v>11.75</v>
+        <v>13</v>
       </c>
       <c r="AP51" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AQ51" t="n">
         <v>45</v>
@@ -7854,22 +7858,22 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H52" t="n">
         <v>3.3</v>
       </c>
       <c r="I52" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="J52" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K52" t="n">
         <v>2.25</v>
       </c>
       <c r="L52" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M52" t="n">
         <v>1.04</v>
@@ -7878,24 +7882,24 @@
         <v>13</v>
       </c>
       <c r="O52" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P52" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R52" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V52" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W52" t="n">
         <v>1.33</v>
@@ -7904,10 +7908,10 @@
         <v>3.25</v>
       </c>
       <c r="Y52" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Z52" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AA52" t="n">
         <v>12</v>
@@ -7916,7 +7920,7 @@
         <v>17</v>
       </c>
       <c r="AC52" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD52" t="n">
         <v>34</v>
@@ -7940,16 +7944,16 @@
         <v>41</v>
       </c>
       <c r="AK52" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AL52" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM52" t="n">
         <v>12</v>
       </c>
       <c r="AN52" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AO52" t="n">
         <v>21</v>
@@ -8567,22 +8571,22 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="H57" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I57" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J57" t="n">
         <v>3.6</v>
-      </c>
-      <c r="I57" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="J57" t="n">
-        <v>3.75</v>
       </c>
       <c r="K57" t="n">
         <v>2.25</v>
       </c>
       <c r="L57" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M57" t="n">
         <v>1.04</v>
@@ -8617,25 +8621,25 @@
         <v>3</v>
       </c>
       <c r="Y57" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Z57" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AA57" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB57" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC57" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD57" t="n">
         <v>34</v>
       </c>
       <c r="AE57" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF57" t="n">
         <v>29</v>
@@ -8665,10 +8669,10 @@
         <v>9</v>
       </c>
       <c r="AO57" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP57" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ57" t="n">
         <v>23</v>
@@ -8714,10 +8718,10 @@
         <v>3.6</v>
       </c>
       <c r="I58" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J58" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K58" t="n">
         <v>2.3</v>
@@ -8795,16 +8799,16 @@
         <v>12</v>
       </c>
       <c r="AJ58" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK58" t="n">
         <v>126</v>
       </c>
       <c r="AL58" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM58" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN58" t="n">
         <v>9</v>
@@ -8813,7 +8817,7 @@
         <v>21</v>
       </c>
       <c r="AP58" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ58" t="n">
         <v>21</v>
@@ -8853,64 +8857,64 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H59" t="n">
         <v>4.33</v>
       </c>
       <c r="I59" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="J59" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K59" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L59" t="n">
         <v>1.91</v>
       </c>
       <c r="M59" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N59" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="O59" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P59" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.03</v>
+        <v>2.08</v>
       </c>
       <c r="R59" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="S59" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="T59" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="U59" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V59" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W59" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X59" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y59" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="Z59" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AA59" t="n">
         <v>17</v>
@@ -8919,37 +8923,37 @@
         <v>41</v>
       </c>
       <c r="AC59" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AD59" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AE59" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AF59" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG59" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AH59" t="n">
         <v>8.5</v>
       </c>
       <c r="AI59" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ59" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK59" t="n">
         <v>501</v>
       </c>
       <c r="AL59" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM59" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AN59" t="n">
         <v>9</v>
@@ -8961,13 +8965,13 @@
         <v>13</v>
       </c>
       <c r="AQ59" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR59" t="n">
-        <v>1.51</v>
+        <v>1.57</v>
       </c>
       <c r="AS59" t="n">
-        <v>2.6</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="60">
@@ -9002,22 +9006,22 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H60" t="n">
         <v>3</v>
       </c>
       <c r="I60" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="J60" t="n">
         <v>4</v>
       </c>
       <c r="K60" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L60" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M60" t="n">
         <v>1.1</v>
@@ -9056,25 +9060,25 @@
         <v>2.38</v>
       </c>
       <c r="Y60" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="Z60" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AA60" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB60" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC60" t="n">
         <v>13</v>
       </c>
       <c r="AD60" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE60" t="n">
         <v>34</v>
-      </c>
-      <c r="AE60" t="n">
-        <v>29</v>
       </c>
       <c r="AF60" t="n">
         <v>41</v>
@@ -9083,10 +9087,10 @@
         <v>7</v>
       </c>
       <c r="AH60" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AI60" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ60" t="n">
         <v>51</v>
@@ -9151,13 +9155,13 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="H61" t="n">
         <v>3.1</v>
       </c>
       <c r="I61" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="J61" t="n">
         <v>3.4</v>
@@ -9166,7 +9170,7 @@
         <v>2</v>
       </c>
       <c r="L61" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M61" t="n">
         <v>1.08</v>
@@ -9181,16 +9185,16 @@
         <v>3</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R61" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S61" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T61" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="U61" t="n">
         <v>4</v>
@@ -9205,22 +9209,22 @@
         <v>2.5</v>
       </c>
       <c r="Y61" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="Z61" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AA61" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB61" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC61" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD61" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE61" t="n">
         <v>23</v>
@@ -9241,19 +9245,19 @@
         <v>51</v>
       </c>
       <c r="AK61" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AL61" t="n">
         <v>8</v>
       </c>
       <c r="AM61" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN61" t="n">
         <v>11</v>
       </c>
       <c r="AO61" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP61" t="n">
         <v>23</v>
@@ -9262,10 +9266,10 @@
         <v>34</v>
       </c>
       <c r="AR61" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="62">
@@ -9300,16 +9304,16 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H62" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="I62" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J62" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K62" t="n">
         <v>1.8</v>
@@ -9348,10 +9352,10 @@
         <v>1.1</v>
       </c>
       <c r="W62" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="X62" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="Y62" t="n">
         <v>2.5</v>
@@ -9369,7 +9373,7 @@
         <v>12</v>
       </c>
       <c r="AD62" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE62" t="n">
         <v>34</v>
@@ -9396,7 +9400,7 @@
         <v>6</v>
       </c>
       <c r="AM62" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN62" t="n">
         <v>12</v>
@@ -9611,7 +9615,7 @@
         <v>1.06</v>
       </c>
       <c r="N64" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O64" t="n">
         <v>1.33</v>
@@ -9620,18 +9624,18 @@
         <v>3.25</v>
       </c>
       <c r="Q64" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R64" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V64" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W64" t="n">
         <v>1.44</v>
@@ -9731,16 +9735,16 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H65" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I65" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J65" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K65" t="n">
         <v>2.4</v>
@@ -9779,10 +9783,10 @@
         <v>1.44</v>
       </c>
       <c r="W65" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X65" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Y65" t="n">
         <v>1.8</v>
@@ -9794,7 +9798,7 @@
         <v>8</v>
       </c>
       <c r="AB65" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AC65" t="n">
         <v>8.5</v>
@@ -9815,7 +9819,7 @@
         <v>8</v>
       </c>
       <c r="AI65" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ65" t="n">
         <v>51</v>
@@ -10452,24 +10456,24 @@
         <v>10</v>
       </c>
       <c r="O70" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P70" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q70" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="R70" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="V70" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W70" t="n">
         <v>1.4</v>
@@ -10478,7 +10482,7 @@
         <v>2.75</v>
       </c>
       <c r="Y70" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="Z70" t="n">
         <v>2</v>
@@ -10863,16 +10867,16 @@
         <v>3.5</v>
       </c>
       <c r="K73" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="L73" t="n">
         <v>3.75</v>
       </c>
       <c r="M73" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N73" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O73" t="n">
         <v>1.53</v>
@@ -10901,10 +10905,10 @@
         <v>2.2</v>
       </c>
       <c r="Y73" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Z73" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AA73" t="n">
         <v>6.5</v>
@@ -10934,7 +10938,7 @@
         <v>19</v>
       </c>
       <c r="AJ73" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AK73" t="n">
         <v>501</v>
@@ -10996,13 +11000,13 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H74" t="n">
         <v>3.2</v>
       </c>
       <c r="I74" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J74" t="n">
         <v>2.75</v>
@@ -11011,13 +11015,13 @@
         <v>2.05</v>
       </c>
       <c r="L74" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M74" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N74" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O74" t="n">
         <v>1.36</v>
@@ -11026,24 +11030,24 @@
         <v>3</v>
       </c>
       <c r="Q74" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R74" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V74" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W74" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X74" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y74" t="n">
         <v>1.95</v>
@@ -11055,7 +11059,7 @@
         <v>6.5</v>
       </c>
       <c r="AB74" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AC74" t="n">
         <v>9</v>
@@ -11064,10 +11068,10 @@
         <v>17</v>
       </c>
       <c r="AE74" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF74" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG74" t="n">
         <v>8</v>
@@ -11076,7 +11080,7 @@
         <v>6</v>
       </c>
       <c r="AI74" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ74" t="n">
         <v>51</v>
@@ -11088,10 +11092,10 @@
         <v>10</v>
       </c>
       <c r="AM74" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN74" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO74" t="n">
         <v>41</v>
@@ -11300,10 +11304,10 @@
         <v>3.4</v>
       </c>
       <c r="M76" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N76" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O76" t="n">
         <v>1.29</v>
@@ -11312,10 +11316,10 @@
         <v>3.5</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R76" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr"/>
@@ -11423,7 +11427,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="H77" t="n">
         <v>3.4</v>
@@ -11432,7 +11436,7 @@
         <v>2.45</v>
       </c>
       <c r="J77" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K77" t="n">
         <v>2.1</v>
@@ -11441,10 +11445,10 @@
         <v>3.1</v>
       </c>
       <c r="M77" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N77" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O77" t="n">
         <v>1.29</v>
@@ -11473,19 +11477,19 @@
         <v>2.75</v>
       </c>
       <c r="Y77" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Z77" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AA77" t="n">
         <v>9</v>
       </c>
       <c r="AB77" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC77" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD77" t="n">
         <v>29</v>
@@ -11494,7 +11498,7 @@
         <v>23</v>
       </c>
       <c r="AF77" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG77" t="n">
         <v>10</v>
@@ -11509,10 +11513,10 @@
         <v>51</v>
       </c>
       <c r="AK77" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AL77" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AM77" t="n">
         <v>12</v>
@@ -11967,111 +11971,111 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="H81" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="I81" t="n">
-        <v>2.8</v>
+        <v>2.63</v>
       </c>
       <c r="J81" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="K81" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L81" t="n">
         <v>3.4</v>
       </c>
       <c r="M81" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N81" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O81" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="P81" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="R81" t="n">
-        <v>2.03</v>
+        <v>1.75</v>
       </c>
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="V81" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="W81" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="X81" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="Y81" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="Z81" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AA81" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE81" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF81" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG81" t="n">
         <v>9</v>
       </c>
-      <c r="AB81" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC81" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD81" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE81" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF81" t="n">
+      <c r="AH81" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI81" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ81" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK81" t="n">
+        <v>251</v>
+      </c>
+      <c r="AL81" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AM81" t="n">
+        <v>13</v>
+      </c>
+      <c r="AN81" t="n">
+        <v>10</v>
+      </c>
+      <c r="AO81" t="n">
         <v>26</v>
-      </c>
-      <c r="AG81" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH81" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI81" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ81" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK81" t="n">
-        <v>151</v>
-      </c>
-      <c r="AL81" t="n">
-        <v>10</v>
-      </c>
-      <c r="AM81" t="n">
-        <v>15</v>
-      </c>
-      <c r="AN81" t="n">
-        <v>11</v>
-      </c>
-      <c r="AO81" t="n">
-        <v>29</v>
       </c>
       <c r="AP81" t="n">
         <v>21</v>
       </c>
       <c r="AQ81" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR81" t="inlineStr"/>
       <c r="AS81" t="inlineStr"/>
@@ -12394,66 +12398,66 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="H84" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I84" t="n">
         <v>6.5</v>
       </c>
       <c r="J84" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="K84" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L84" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M84" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N84" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O84" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="P84" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="R84" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V84" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W84" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X84" t="n">
         <v>3.25</v>
       </c>
-      <c r="V84" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="W84" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="X84" t="n">
-        <v>3</v>
-      </c>
       <c r="Y84" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="Z84" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AA84" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB84" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AC84" t="n">
         <v>8.5</v>
@@ -12462,13 +12466,13 @@
         <v>9.5</v>
       </c>
       <c r="AE84" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF84" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG84" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH84" t="n">
         <v>8.5</v>
@@ -12480,16 +12484,16 @@
         <v>67</v>
       </c>
       <c r="AK84" t="n">
-        <v>451</v>
+        <v>351</v>
       </c>
       <c r="AL84" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM84" t="n">
         <v>34</v>
       </c>
       <c r="AN84" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO84" t="n">
         <v>81</v>
@@ -12535,10 +12539,10 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="H85" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="I85" t="n">
         <v>17</v>
@@ -12550,7 +12554,7 @@
         <v>2.88</v>
       </c>
       <c r="L85" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M85" t="n">
         <v>1.02</v>
@@ -12571,10 +12575,10 @@
         <v>2.4</v>
       </c>
       <c r="S85" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="T85" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="U85" t="n">
         <v>2.25</v>
@@ -12607,7 +12611,7 @@
         <v>6.5</v>
       </c>
       <c r="AE85" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF85" t="n">
         <v>34</v>
@@ -12616,7 +12620,7 @@
         <v>15</v>
       </c>
       <c r="AH85" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI85" t="n">
         <v>34</v>
@@ -12631,16 +12635,16 @@
         <v>34</v>
       </c>
       <c r="AM85" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AN85" t="n">
         <v>41</v>
       </c>
       <c r="AO85" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AP85" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AQ85" t="n">
         <v>101</v>
@@ -12683,13 +12687,13 @@
         <v>11</v>
       </c>
       <c r="H86" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="I86" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="J86" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K86" t="n">
         <v>2.75</v>
@@ -12698,10 +12702,10 @@
         <v>1.62</v>
       </c>
       <c r="M86" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N86" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O86" t="n">
         <v>1.17</v>
@@ -12740,13 +12744,13 @@
         <v>1.62</v>
       </c>
       <c r="AA86" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB86" t="n">
         <v>51</v>
       </c>
       <c r="AC86" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AD86" t="n">
         <v>151</v>
@@ -12758,7 +12762,7 @@
         <v>67</v>
       </c>
       <c r="AG86" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH86" t="n">
         <v>13</v>
@@ -13107,54 +13111,54 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="H89" t="n">
         <v>3.2</v>
       </c>
       <c r="I89" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="J89" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K89" t="n">
         <v>2.05</v>
       </c>
       <c r="L89" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M89" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N89" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="O89" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P89" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q89" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R89" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S89" t="inlineStr"/>
       <c r="T89" t="inlineStr"/>
       <c r="U89" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V89" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W89" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X89" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Y89" t="n">
         <v>1.83</v>
@@ -13163,16 +13167,16 @@
         <v>1.83</v>
       </c>
       <c r="AA89" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB89" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC89" t="n">
         <v>10</v>
       </c>
-      <c r="AC89" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AD89" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE89" t="n">
         <v>21</v>
@@ -13181,7 +13185,7 @@
         <v>34</v>
       </c>
       <c r="AG89" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AH89" t="n">
         <v>6</v>
@@ -13193,7 +13197,7 @@
         <v>51</v>
       </c>
       <c r="AK89" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AL89" t="n">
         <v>9</v>
@@ -13202,16 +13206,16 @@
         <v>15</v>
       </c>
       <c r="AN89" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO89" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP89" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ89" t="n">
         <v>34</v>
-      </c>
-      <c r="AP89" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ89" t="n">
-        <v>41</v>
       </c>
       <c r="AR89" t="inlineStr"/>
       <c r="AS89" t="inlineStr"/>
@@ -13263,7 +13267,7 @@
         <v>2.88</v>
       </c>
       <c r="L90" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="M90" t="n">
         <v>1.02</v>
@@ -13278,16 +13282,16 @@
         <v>5.5</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="R90" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="S90" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T90" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="U90" t="n">
         <v>2.2</v>
@@ -13296,10 +13300,10 @@
         <v>1.67</v>
       </c>
       <c r="W90" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="X90" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Y90" t="n">
         <v>2.2</v>
@@ -13326,31 +13330,31 @@
         <v>67</v>
       </c>
       <c r="AG90" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AH90" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI90" t="n">
         <v>29</v>
       </c>
       <c r="AJ90" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK90" t="n">
-        <v>401</v>
+        <v>501</v>
       </c>
       <c r="AL90" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AM90" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AN90" t="n">
         <v>10</v>
       </c>
       <c r="AO90" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AP90" t="n">
         <v>11</v>
@@ -13393,40 +13397,40 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="H91" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I91" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J91" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="K91" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L91" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M91" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N91" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O91" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="P91" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q91" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="R91" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="S91" t="inlineStr"/>
       <c r="T91" t="inlineStr"/>
@@ -13443,13 +13447,13 @@
         <v>4.33</v>
       </c>
       <c r="Y91" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="Z91" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AA91" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB91" t="n">
         <v>6.5</v>
@@ -13458,22 +13462,22 @@
         <v>12</v>
       </c>
       <c r="AD91" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE91" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF91" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG91" t="n">
         <v>21</v>
       </c>
       <c r="AH91" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI91" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ91" t="n">
         <v>101</v>
@@ -13485,16 +13489,16 @@
         <v>41</v>
       </c>
       <c r="AM91" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AN91" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AO91" t="n">
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="AP91" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AQ91" t="n">
         <v>101</v>
@@ -13675,25 +13679,25 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>5.2</v>
+        <v>4.85</v>
       </c>
       <c r="H93" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I93" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="J93" t="n">
-        <v>4.85</v>
+        <v>4.65</v>
       </c>
       <c r="K93" t="n">
-        <v>2.57</v>
+        <v>2.62</v>
       </c>
       <c r="L93" t="n">
         <v>1.95</v>
       </c>
       <c r="M93" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N93" t="n">
         <v>9.75</v>
@@ -13722,25 +13726,25 @@
         <v>1.23</v>
       </c>
       <c r="X93" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="Y93" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="Z93" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="AA93" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AB93" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC93" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AD93" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AE93" t="n">
         <v>40</v>
@@ -13752,25 +13756,25 @@
         <v>9.75</v>
       </c>
       <c r="AH93" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AI93" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AJ93" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AK93" t="n">
         <v>250</v>
       </c>
       <c r="AL93" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AM93" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AN93" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AO93" t="n">
         <v>12.5</v>
@@ -13779,7 +13783,7 @@
         <v>10.75</v>
       </c>
       <c r="AQ93" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AR93" t="inlineStr"/>
       <c r="AS93" t="inlineStr"/>
@@ -13816,45 +13820,45 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="H94" t="n">
-        <v>3.2</v>
+        <v>2.82</v>
       </c>
       <c r="I94" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="J94" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="K94" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="L94" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="M94" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N94" t="n">
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
       <c r="O94" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P94" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="Q94" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="R94" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S94" t="inlineStr"/>
       <c r="T94" t="inlineStr"/>
       <c r="U94" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="V94" t="n">
         <v>1.31</v>
@@ -13863,64 +13867,64 @@
         <v>1.39</v>
       </c>
       <c r="X94" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="Y94" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="Z94" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AA94" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AB94" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC94" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD94" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE94" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF94" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG94" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AH94" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AI94" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AJ94" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK94" t="n">
+        <v>400</v>
+      </c>
+      <c r="AL94" t="n">
         <v>10.25</v>
       </c>
-      <c r="AC94" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AD94" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE94" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF94" t="n">
-        <v>27</v>
-      </c>
-      <c r="AG94" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AH94" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AI94" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AJ94" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK94" t="n">
-        <v>450</v>
-      </c>
-      <c r="AL94" t="n">
-        <v>10</v>
-      </c>
       <c r="AM94" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="AN94" t="n">
         <v>11.25</v>
       </c>
       <c r="AO94" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AP94" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AQ94" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AR94" t="inlineStr"/>
       <c r="AS94" t="inlineStr"/>
@@ -14239,22 +14243,22 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="H97" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I97" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="J97" t="n">
-        <v>4.05</v>
+        <v>3.85</v>
       </c>
       <c r="K97" t="n">
         <v>2.1</v>
       </c>
       <c r="L97" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="M97" t="n">
         <v>1.07</v>
@@ -14263,21 +14267,21 @@
         <v>6.8</v>
       </c>
       <c r="O97" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P97" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="Q97" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R97" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="S97" t="inlineStr"/>
       <c r="T97" t="inlineStr"/>
       <c r="U97" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="V97" t="n">
         <v>1.27</v>
@@ -14292,22 +14296,22 @@
         <v>1.83</v>
       </c>
       <c r="Z97" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="AA97" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="AB97" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC97" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AD97" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AE97" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AF97" t="n">
         <v>40</v>
@@ -14328,19 +14332,19 @@
         <v>600</v>
       </c>
       <c r="AL97" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AM97" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AN97" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AO97" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP97" t="n">
         <v>17.5</v>
-      </c>
-      <c r="AP97" t="n">
-        <v>17</v>
       </c>
       <c r="AQ97" t="n">
         <v>30</v>
@@ -14521,48 +14525,48 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="H99" t="n">
         <v>3.1</v>
       </c>
       <c r="I99" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="J99" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K99" t="n">
         <v>2</v>
       </c>
       <c r="L99" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M99" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N99" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O99" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P99" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q99" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="R99" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S99" t="inlineStr"/>
       <c r="T99" t="inlineStr"/>
       <c r="U99" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="V99" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="W99" t="n">
         <v>1.5</v>
@@ -14571,37 +14575,37 @@
         <v>2.5</v>
       </c>
       <c r="Y99" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="Z99" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AA99" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB99" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AC99" t="n">
         <v>9.5</v>
       </c>
       <c r="AD99" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE99" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF99" t="n">
         <v>34</v>
       </c>
       <c r="AG99" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH99" t="n">
         <v>6</v>
       </c>
       <c r="AI99" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ99" t="n">
         <v>51</v>
@@ -14613,22 +14617,26 @@
         <v>9</v>
       </c>
       <c r="AM99" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN99" t="n">
         <v>13</v>
       </c>
       <c r="AO99" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP99" t="n">
         <v>34</v>
-      </c>
-      <c r="AP99" t="n">
-        <v>29</v>
       </c>
       <c r="AQ99" t="n">
         <v>41</v>
       </c>
-      <c r="AR99" t="inlineStr"/>
-      <c r="AS99" t="inlineStr"/>
+      <c r="AR99" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AS99" t="n">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -14662,13 +14670,13 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="H100" t="n">
         <v>3.3</v>
       </c>
       <c r="I100" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="J100" t="n">
         <v>5</v>
@@ -14677,19 +14685,19 @@
         <v>2</v>
       </c>
       <c r="L100" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="M100" t="n">
         <v>1.08</v>
       </c>
       <c r="N100" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O100" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P100" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q100" t="n">
         <v>2.35</v>
@@ -14700,16 +14708,16 @@
       <c r="S100" t="inlineStr"/>
       <c r="T100" t="inlineStr"/>
       <c r="U100" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="V100" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="W100" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X100" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Y100" t="n">
         <v>2.1</v>
@@ -14718,7 +14726,7 @@
         <v>1.67</v>
       </c>
       <c r="AA100" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB100" t="n">
         <v>21</v>
@@ -14763,16 +14771,16 @@
         <v>15</v>
       </c>
       <c r="AP100" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ100" t="n">
         <v>34</v>
       </c>
       <c r="AR100" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="AS100" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="101">
@@ -14813,7 +14821,7 @@
         <v>3</v>
       </c>
       <c r="I101" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J101" t="n">
         <v>3</v>
@@ -14914,10 +14922,10 @@
         <v>51</v>
       </c>
       <c r="AR101" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="102">
@@ -14952,13 +14960,13 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H102" t="n">
         <v>3</v>
       </c>
       <c r="I102" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J102" t="n">
         <v>3.1</v>
@@ -14967,7 +14975,7 @@
         <v>1.95</v>
       </c>
       <c r="L102" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M102" t="n">
         <v>1.1</v>
@@ -15050,7 +15058,7 @@
         <v>13</v>
       </c>
       <c r="AO102" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP102" t="n">
         <v>34</v>
@@ -15242,28 +15250,28 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="H104" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I104" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="J104" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="K104" t="n">
         <v>2.2</v>
       </c>
       <c r="L104" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M104" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N104" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O104" t="n">
         <v>1.29</v>
@@ -15272,10 +15280,10 @@
         <v>3.5</v>
       </c>
       <c r="Q104" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R104" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S104" t="inlineStr"/>
       <c r="T104" t="inlineStr"/>
@@ -15298,19 +15306,19 @@
         <v>2</v>
       </c>
       <c r="AA104" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB104" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC104" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD104" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE104" t="n">
         <v>19</v>
-      </c>
-      <c r="AE104" t="n">
-        <v>17</v>
       </c>
       <c r="AF104" t="n">
         <v>26</v>
@@ -15319,7 +15327,7 @@
         <v>10</v>
       </c>
       <c r="AH104" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI104" t="n">
         <v>13</v>
@@ -15340,10 +15348,10 @@
         <v>12</v>
       </c>
       <c r="AO104" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP104" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AQ104" t="n">
         <v>34</v>
@@ -15386,60 +15394,64 @@
         <v>3.75</v>
       </c>
       <c r="H105" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I105" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J105" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K105" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L105" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M105" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N105" t="n">
+        <v>17</v>
+      </c>
+      <c r="O105" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P105" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R105" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S105" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="T105" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U105" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V105" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W105" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X105" t="n">
         <v>3.5</v>
       </c>
-      <c r="I105" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="J105" t="n">
-        <v>4</v>
-      </c>
-      <c r="K105" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L105" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="M105" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N105" t="n">
-        <v>13</v>
-      </c>
-      <c r="O105" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P105" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q105" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R105" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S105" t="inlineStr"/>
-      <c r="T105" t="inlineStr"/>
-      <c r="U105" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="V105" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="W105" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X105" t="n">
-        <v>3.25</v>
-      </c>
       <c r="Y105" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="Z105" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="AA105" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB105" t="n">
         <v>21</v>
@@ -15454,25 +15466,25 @@
         <v>26</v>
       </c>
       <c r="AF105" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG105" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AH105" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI105" t="n">
         <v>12</v>
       </c>
       <c r="AJ105" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK105" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AL105" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AM105" t="n">
         <v>11</v>
@@ -15484,10 +15496,10 @@
         <v>17</v>
       </c>
       <c r="AP105" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ105" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR105" t="inlineStr"/>
       <c r="AS105" t="inlineStr"/>
@@ -16515,13 +16527,13 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="H113" t="n">
         <v>4.75</v>
       </c>
       <c r="I113" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="J113" t="n">
         <v>1.8</v>
@@ -16539,28 +16551,28 @@
         <v>17</v>
       </c>
       <c r="O113" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P113" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q113" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R113" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S113" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="T113" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="U113" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V113" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W113" t="n">
         <v>1.29</v>
@@ -16569,19 +16581,19 @@
         <v>3.5</v>
       </c>
       <c r="Y113" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Z113" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AA113" t="n">
         <v>8.5</v>
       </c>
       <c r="AB113" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AC113" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD113" t="n">
         <v>9</v>
@@ -16596,16 +16608,16 @@
         <v>15</v>
       </c>
       <c r="AH113" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI113" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ113" t="n">
         <v>51</v>
       </c>
       <c r="AK113" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AL113" t="n">
         <v>23</v>
@@ -17228,22 +17240,22 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="H118" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I118" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J118" t="n">
         <v>3.1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>3</v>
-      </c>
-      <c r="J118" t="n">
-        <v>3</v>
       </c>
       <c r="K118" t="n">
         <v>2.1</v>
       </c>
       <c r="L118" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M118" t="n">
         <v>1.06</v>
@@ -17252,16 +17264,16 @@
         <v>10</v>
       </c>
       <c r="O118" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P118" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q118" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R118" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S118" t="inlineStr"/>
       <c r="T118" t="inlineStr"/>
@@ -17272,28 +17284,28 @@
         <v>1.3</v>
       </c>
       <c r="W118" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X118" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Y118" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="Z118" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AA118" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB118" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC118" t="n">
         <v>9.5</v>
       </c>
       <c r="AD118" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE118" t="n">
         <v>19</v>
@@ -17302,7 +17314,7 @@
         <v>29</v>
       </c>
       <c r="AG118" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH118" t="n">
         <v>6</v>
@@ -17311,10 +17323,10 @@
         <v>13</v>
       </c>
       <c r="AJ118" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK118" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AL118" t="n">
         <v>9.5</v>
@@ -17323,13 +17335,13 @@
         <v>15</v>
       </c>
       <c r="AN118" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO118" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP118" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ118" t="n">
         <v>34</v>
@@ -17642,43 +17654,109 @@
           <t>Portuguesa</t>
         </is>
       </c>
-      <c r="G121" t="inlineStr"/>
-      <c r="H121" t="inlineStr"/>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="G121" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H121" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I121" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J121" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="K121" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="L121" t="n">
+        <v>5.4</v>
+      </c>
       <c r="M121" t="inlineStr"/>
       <c r="N121" t="inlineStr"/>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
+      <c r="O121" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="P121" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="R121" t="n">
+        <v>1.57</v>
+      </c>
       <c r="S121" t="inlineStr"/>
       <c r="T121" t="inlineStr"/>
-      <c r="U121" t="inlineStr"/>
-      <c r="V121" t="inlineStr"/>
-      <c r="W121" t="inlineStr"/>
-      <c r="X121" t="inlineStr"/>
-      <c r="Y121" t="inlineStr"/>
-      <c r="Z121" t="inlineStr"/>
-      <c r="AA121" t="inlineStr"/>
-      <c r="AB121" t="inlineStr"/>
-      <c r="AC121" t="inlineStr"/>
-      <c r="AD121" t="inlineStr"/>
-      <c r="AE121" t="inlineStr"/>
-      <c r="AF121" t="inlineStr"/>
-      <c r="AG121" t="inlineStr"/>
-      <c r="AH121" t="inlineStr"/>
-      <c r="AI121" t="inlineStr"/>
-      <c r="AJ121" t="inlineStr"/>
-      <c r="AK121" t="inlineStr"/>
-      <c r="AL121" t="inlineStr"/>
-      <c r="AM121" t="inlineStr"/>
-      <c r="AN121" t="inlineStr"/>
-      <c r="AO121" t="inlineStr"/>
-      <c r="AP121" t="inlineStr"/>
-      <c r="AQ121" t="inlineStr"/>
+      <c r="U121" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="V121" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W121" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X121" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y121" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Z121" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AA121" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AB121" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AC121" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD121" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE121" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF121" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG121" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AH121" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI121" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ121" t="n">
+        <v>101</v>
+      </c>
+      <c r="AK121" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL121" t="n">
+        <v>8</v>
+      </c>
+      <c r="AM121" t="n">
+        <v>20</v>
+      </c>
+      <c r="AN121" t="n">
+        <v>13</v>
+      </c>
+      <c r="AO121" t="n">
+        <v>80</v>
+      </c>
+      <c r="AP121" t="n">
+        <v>50</v>
+      </c>
+      <c r="AQ121" t="n">
+        <v>70</v>
+      </c>
       <c r="AR121" t="inlineStr"/>
       <c r="AS121" t="inlineStr"/>
     </row>

--- a/Jogos_da_Semana_FlashScore_2025-02-02.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-02.xlsx
@@ -978,13 +978,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H4" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="J4" t="n">
         <v>2.4</v>
@@ -1002,28 +1002,28 @@
         <v>15</v>
       </c>
       <c r="O4" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P4" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R4" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="S4" t="n">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="T4" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="U4" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V4" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W4" t="n">
         <v>1.3</v>
@@ -1032,16 +1032,16 @@
         <v>3.4</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AA4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC4" t="n">
         <v>9.5</v>
@@ -1053,10 +1053,10 @@
         <v>15</v>
       </c>
       <c r="AF4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH4" t="n">
         <v>8</v>
@@ -1083,7 +1083,7 @@
         <v>41</v>
       </c>
       <c r="AP4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ4" t="n">
         <v>34</v>
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H8" t="n">
         <v>3.5</v>
@@ -1555,13 +1555,13 @@
         <v>4.1</v>
       </c>
       <c r="J8" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K8" t="n">
         <v>2.1</v>
       </c>
       <c r="L8" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M8" t="n">
         <v>1.06</v>
@@ -1576,10 +1576,10 @@
         <v>3.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="R8" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
@@ -1590,10 +1590,10 @@
         <v>1.3</v>
       </c>
       <c r="W8" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X8" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Y8" t="n">
         <v>1.8</v>
@@ -1614,13 +1614,13 @@
         <v>17</v>
       </c>
       <c r="AE8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH8" t="n">
         <v>6.5</v>
@@ -1687,16 +1687,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H9" t="n">
         <v>3.7</v>
       </c>
       <c r="I9" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J9" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K9" t="n">
         <v>2.3</v>
@@ -1705,22 +1705,22 @@
         <v>3.75</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O9" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P9" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="R9" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S9" t="n">
         <v>2.08</v>
@@ -1729,10 +1729,10 @@
         <v>1.82</v>
       </c>
       <c r="U9" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V9" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W9" t="n">
         <v>1.33</v>
@@ -1741,19 +1741,19 @@
         <v>3.25</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Z9" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AA9" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB9" t="n">
         <v>11</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD9" t="n">
         <v>19</v>
@@ -1765,10 +1765,10 @@
         <v>21</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH9" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI9" t="n">
         <v>13</v>
@@ -1777,7 +1777,7 @@
         <v>41</v>
       </c>
       <c r="AK9" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AL9" t="n">
         <v>13</v>
@@ -1789,10 +1789,10 @@
         <v>12</v>
       </c>
       <c r="AO9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ9" t="n">
         <v>29</v>
@@ -1980,10 +1980,10 @@
         <v>1.14</v>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="I11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J11" t="n">
         <v>1.44</v>
@@ -1992,7 +1992,7 @@
         <v>3.4</v>
       </c>
       <c r="L11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M11" t="n">
         <v>1.01</v>
@@ -2027,10 +2027,10 @@
         <v>5</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AA11" t="n">
         <v>13</v>
@@ -2048,7 +2048,7 @@
         <v>10</v>
       </c>
       <c r="AF11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG11" t="n">
         <v>34</v>
@@ -2060,7 +2060,7 @@
         <v>29</v>
       </c>
       <c r="AJ11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK11" t="n">
         <v>251</v>
@@ -2412,7 +2412,7 @@
         <v>4.33</v>
       </c>
       <c r="K14" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L14" t="n">
         <v>2.5</v>
@@ -2430,10 +2430,10 @@
         <v>4</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R14" t="n">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
@@ -2462,7 +2462,7 @@
         <v>21</v>
       </c>
       <c r="AC14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD14" t="n">
         <v>41</v>
@@ -2471,10 +2471,10 @@
         <v>34</v>
       </c>
       <c r="AF14" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH14" t="n">
         <v>6.5</v>
@@ -2486,7 +2486,7 @@
         <v>41</v>
       </c>
       <c r="AK14" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AL14" t="n">
         <v>8</v>
@@ -2541,28 +2541,28 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="H15" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I15" t="n">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="J15" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="K15" t="n">
         <v>2.05</v>
       </c>
       <c r="L15" t="n">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="M15" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O15" t="n">
         <v>1.36</v>
@@ -2571,10 +2571,10 @@
         <v>3.2</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R15" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
@@ -2597,25 +2597,25 @@
         <v>1.91</v>
       </c>
       <c r="AA15" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD15" t="n">
         <v>34</v>
       </c>
       <c r="AE15" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF15" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG15" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH15" t="n">
         <v>6</v>
@@ -2630,22 +2630,22 @@
         <v>301</v>
       </c>
       <c r="AL15" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AM15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ15" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR15" t="inlineStr"/>
       <c r="AS15" t="inlineStr"/>
@@ -3258,13 +3258,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="H20" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I20" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="J20" t="n">
         <v>6</v>
@@ -3308,19 +3308,19 @@
         <v>2.63</v>
       </c>
       <c r="Y20" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="Z20" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AA20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB20" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD20" t="n">
         <v>51</v>
@@ -3362,7 +3362,7 @@
         <v>15</v>
       </c>
       <c r="AQ20" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR20" t="inlineStr"/>
       <c r="AS20" t="inlineStr"/>
@@ -3719,22 +3719,22 @@
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="V23" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="W23" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="X23" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Y23" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Z23" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AA23" t="n">
         <v>7.5</v>
@@ -3767,7 +3767,7 @@
         <v>67</v>
       </c>
       <c r="AK23" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AL23" t="n">
         <v>6.5</v>
@@ -3788,10 +3788,10 @@
         <v>41</v>
       </c>
       <c r="AR23" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.01</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="24">
@@ -3826,13 +3826,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="H24" t="n">
         <v>3.3</v>
       </c>
       <c r="I24" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="J24" t="n">
         <v>3.75</v>
@@ -3841,7 +3841,7 @@
         <v>2</v>
       </c>
       <c r="L24" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M24" t="n">
         <v>1.08</v>
@@ -3882,22 +3882,22 @@
         <v>1.8</v>
       </c>
       <c r="AA24" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE24" t="n">
         <v>29</v>
       </c>
-      <c r="AE24" t="n">
-        <v>26</v>
-      </c>
       <c r="AF24" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG24" t="n">
         <v>8.5</v>
@@ -3918,13 +3918,13 @@
         <v>7</v>
       </c>
       <c r="AM24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN24" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AO24" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP24" t="n">
         <v>21</v>
@@ -4120,22 +4120,22 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I26" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J26" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K26" t="n">
         <v>1.83</v>
       </c>
       <c r="L26" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M26" t="n">
         <v>1.13</v>
@@ -4156,7 +4156,7 @@
         <v>1.4</v>
       </c>
       <c r="S26" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="T26" t="n">
         <v>1.18</v>
@@ -4168,10 +4168,10 @@
         <v>1.13</v>
       </c>
       <c r="W26" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="X26" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y26" t="n">
         <v>2.38</v>
@@ -4183,7 +4183,7 @@
         <v>5</v>
       </c>
       <c r="AB26" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AC26" t="n">
         <v>10</v>
@@ -4192,13 +4192,13 @@
         <v>19</v>
       </c>
       <c r="AE26" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF26" t="n">
         <v>41</v>
       </c>
       <c r="AG26" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AH26" t="n">
         <v>6</v>
@@ -4213,10 +4213,10 @@
         <v>101</v>
       </c>
       <c r="AL26" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AM26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN26" t="n">
         <v>15</v>
@@ -4269,28 +4269,28 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H27" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I27" t="n">
         <v>4.75</v>
       </c>
       <c r="J27" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K27" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L27" t="n">
         <v>5.5</v>
       </c>
       <c r="M27" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N27" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O27" t="n">
         <v>1.5</v>
@@ -4332,7 +4332,7 @@
         <v>5</v>
       </c>
       <c r="AB27" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AC27" t="n">
         <v>9.5</v>
@@ -4362,10 +4362,10 @@
         <v>101</v>
       </c>
       <c r="AL27" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AM27" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN27" t="n">
         <v>17</v>
@@ -4436,10 +4436,10 @@
         <v>6.5</v>
       </c>
       <c r="M28" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N28" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O28" t="n">
         <v>1.5</v>
@@ -4502,7 +4502,7 @@
         <v>7</v>
       </c>
       <c r="AI28" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ28" t="n">
         <v>101</v>
@@ -4514,10 +4514,10 @@
         <v>10</v>
       </c>
       <c r="AM28" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN28" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO28" t="n">
         <v>67</v>
@@ -4529,10 +4529,10 @@
         <v>67</v>
       </c>
       <c r="AR28" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="29">
@@ -4567,16 +4567,16 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="H29" t="n">
         <v>3.2</v>
       </c>
       <c r="I29" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J29" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K29" t="n">
         <v>1.91</v>
@@ -4645,7 +4645,7 @@
         <v>41</v>
       </c>
       <c r="AG29" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AH29" t="n">
         <v>6</v>
@@ -4654,7 +4654,7 @@
         <v>19</v>
       </c>
       <c r="AJ29" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK29" t="n">
         <v>501</v>
@@ -4663,7 +4663,7 @@
         <v>7</v>
       </c>
       <c r="AM29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN29" t="n">
         <v>11</v>
@@ -4672,7 +4672,7 @@
         <v>29</v>
       </c>
       <c r="AP29" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ29" t="n">
         <v>41</v>
@@ -5142,63 +5142,63 @@
         <v>2.05</v>
       </c>
       <c r="H33" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I33" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J33" t="n">
         <v>2.75</v>
       </c>
       <c r="K33" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L33" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M33" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N33" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O33" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="P33" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q33" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R33" t="n">
         <v>1.83</v>
-      </c>
-      <c r="R33" t="n">
-        <v>2.03</v>
       </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="V33" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="W33" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X33" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y33" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="Z33" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AA33" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB33" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC33" t="n">
         <v>9</v>
@@ -5207,28 +5207,28 @@
         <v>19</v>
       </c>
       <c r="AE33" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF33" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG33" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AH33" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI33" t="n">
         <v>13</v>
       </c>
       <c r="AJ33" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK33" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL33" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM33" t="n">
         <v>17</v>
@@ -5237,13 +5237,13 @@
         <v>12</v>
       </c>
       <c r="AO33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ33" t="n">
         <v>34</v>
-      </c>
-      <c r="AP33" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ33" t="n">
-        <v>29</v>
       </c>
       <c r="AR33" t="inlineStr"/>
       <c r="AS33" t="inlineStr"/>
@@ -5280,73 +5280,73 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="H34" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I34" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="J34" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="K34" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L34" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N34" t="n">
+        <v>13</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R34" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U34" t="n">
         <v>2.63</v>
       </c>
-      <c r="M34" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N34" t="n">
-        <v>15</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P34" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R34" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="S34" t="n">
-        <v>2</v>
-      </c>
-      <c r="T34" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="U34" t="n">
-        <v>2.5</v>
-      </c>
       <c r="V34" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W34" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X34" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Y34" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Z34" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AA34" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB34" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC34" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD34" t="n">
         <v>34</v>
@@ -5355,19 +5355,19 @@
         <v>23</v>
       </c>
       <c r="AF34" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG34" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH34" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI34" t="n">
         <v>12</v>
       </c>
       <c r="AJ34" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK34" t="n">
         <v>126</v>
@@ -5382,13 +5382,13 @@
         <v>9</v>
       </c>
       <c r="AO34" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP34" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ34" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR34" t="inlineStr"/>
       <c r="AS34" t="inlineStr"/>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H37" t="n">
         <v>3.4</v>
@@ -5716,7 +5716,7 @@
         <v>2.2</v>
       </c>
       <c r="J37" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K37" t="n">
         <v>2.25</v>
@@ -5751,10 +5751,10 @@
         <v>1.4</v>
       </c>
       <c r="W37" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X37" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Y37" t="n">
         <v>1.62</v>
@@ -5781,7 +5781,7 @@
         <v>29</v>
       </c>
       <c r="AG37" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH37" t="n">
         <v>6.5</v>
@@ -5848,22 +5848,22 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H38" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I38" t="n">
         <v>2.8</v>
-      </c>
-      <c r="I38" t="n">
-        <v>2.88</v>
       </c>
       <c r="J38" t="n">
         <v>3.5</v>
       </c>
       <c r="K38" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L38" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M38" t="n">
         <v>1.1</v>
@@ -5896,10 +5896,10 @@
         <v>1.18</v>
       </c>
       <c r="W38" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="X38" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Y38" t="n">
         <v>2</v>
@@ -5908,7 +5908,7 @@
         <v>1.73</v>
       </c>
       <c r="AA38" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB38" t="n">
         <v>12</v>
@@ -5917,7 +5917,7 @@
         <v>11</v>
       </c>
       <c r="AD38" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE38" t="n">
         <v>26</v>
@@ -5944,16 +5944,16 @@
         <v>7.5</v>
       </c>
       <c r="AM38" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN38" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO38" t="n">
         <v>29</v>
       </c>
       <c r="AP38" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ38" t="n">
         <v>41</v>
@@ -5997,16 +5997,16 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H39" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I39" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J39" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K39" t="n">
         <v>2.1</v>
@@ -6051,10 +6051,10 @@
         <v>2.5</v>
       </c>
       <c r="Y39" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Z39" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AA39" t="n">
         <v>5.5</v>
@@ -6099,7 +6099,7 @@
         <v>21</v>
       </c>
       <c r="AO39" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AP39" t="n">
         <v>51</v>
@@ -6295,13 +6295,13 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H41" t="n">
         <v>3.1</v>
       </c>
       <c r="I41" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="J41" t="n">
         <v>4</v>
@@ -7008,22 +7008,22 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="H46" t="n">
-        <v>4.85</v>
+        <v>5</v>
       </c>
       <c r="I46" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="J46" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="K46" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="L46" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="M46" t="n">
         <v>1.04</v>
@@ -7032,10 +7032,10 @@
         <v>9</v>
       </c>
       <c r="O46" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P46" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="Q46" t="n">
         <v>1.7</v>
@@ -7046,16 +7046,16 @@
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="V46" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="W46" t="n">
         <v>1.35</v>
       </c>
       <c r="X46" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="Y46" t="n">
         <v>2.05</v>
@@ -7067,16 +7067,16 @@
         <v>6.4</v>
       </c>
       <c r="AB46" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AC46" t="n">
         <v>9.25</v>
       </c>
       <c r="AD46" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AE46" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AF46" t="n">
         <v>32</v>
@@ -7085,31 +7085,31 @@
         <v>9</v>
       </c>
       <c r="AH46" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AI46" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ46" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AK46" t="n">
         <v>1250</v>
       </c>
       <c r="AL46" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AM46" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AN46" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO46" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AP46" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AQ46" t="n">
         <v>100</v>
@@ -7431,22 +7431,22 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="H49" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I49" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J49" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="K49" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="L49" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="M49" t="n">
         <v>1.01</v>
@@ -7455,16 +7455,16 @@
         <v>23</v>
       </c>
       <c r="O49" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P49" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="R49" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="S49" t="n">
         <v>1.83</v>
@@ -7473,16 +7473,16 @@
         <v>2.03</v>
       </c>
       <c r="U49" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V49" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W49" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="X49" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Y49" t="n">
         <v>2</v>
@@ -7491,7 +7491,7 @@
         <v>1.75</v>
       </c>
       <c r="AA49" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB49" t="n">
         <v>7</v>
@@ -7509,13 +7509,13 @@
         <v>26</v>
       </c>
       <c r="AG49" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH49" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI49" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ49" t="n">
         <v>67</v>
@@ -7524,16 +7524,16 @@
         <v>351</v>
       </c>
       <c r="AL49" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM49" t="n">
         <v>51</v>
       </c>
       <c r="AN49" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO49" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AP49" t="n">
         <v>67</v>
@@ -7717,22 +7717,22 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="H51" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I51" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="J51" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="K51" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="L51" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="M51" t="n">
         <v>1.12</v>
@@ -7755,34 +7755,34 @@
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="V51" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W51" t="n">
         <v>1.53</v>
       </c>
       <c r="X51" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="Y51" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="Z51" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="AA51" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB51" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AC51" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AD51" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AE51" t="n">
         <v>70</v>
@@ -7794,28 +7794,28 @@
         <v>5.4</v>
       </c>
       <c r="AH51" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AI51" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ51" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AK51" t="n">
         <v>101</v>
       </c>
       <c r="AL51" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="AM51" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AN51" t="n">
         <v>9</v>
       </c>
       <c r="AO51" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP51" t="n">
         <v>18</v>
@@ -8718,10 +8718,10 @@
         <v>3.6</v>
       </c>
       <c r="I58" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J58" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K58" t="n">
         <v>2.3</v>
@@ -8748,10 +8748,10 @@
         <v>2.25</v>
       </c>
       <c r="S58" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="T58" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="U58" t="n">
         <v>2.5</v>
@@ -8799,16 +8799,16 @@
         <v>12</v>
       </c>
       <c r="AJ58" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK58" t="n">
         <v>126</v>
       </c>
       <c r="AL58" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM58" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN58" t="n">
         <v>9</v>
@@ -8817,7 +8817,7 @@
         <v>21</v>
       </c>
       <c r="AP58" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ58" t="n">
         <v>21</v>
@@ -9155,28 +9155,28 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H61" t="n">
         <v>3.1</v>
       </c>
       <c r="I61" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="J61" t="n">
         <v>3.4</v>
       </c>
       <c r="K61" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L61" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M61" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N61" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O61" t="n">
         <v>1.36</v>
@@ -9185,43 +9185,43 @@
         <v>3</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="R61" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S61" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="T61" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="U61" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V61" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W61" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X61" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Y61" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="Z61" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AA61" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB61" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC61" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD61" t="n">
         <v>26</v>
@@ -9233,7 +9233,7 @@
         <v>34</v>
       </c>
       <c r="AG61" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AH61" t="n">
         <v>6</v>
@@ -9245,7 +9245,7 @@
         <v>51</v>
       </c>
       <c r="AK61" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AL61" t="n">
         <v>8</v>
@@ -9257,7 +9257,7 @@
         <v>11</v>
       </c>
       <c r="AO61" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP61" t="n">
         <v>23</v>
@@ -9266,10 +9266,10 @@
         <v>34</v>
       </c>
       <c r="AR61" t="n">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="62">
@@ -9304,16 +9304,16 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H62" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I62" t="n">
         <v>2.88</v>
       </c>
-      <c r="I62" t="n">
-        <v>2.75</v>
-      </c>
       <c r="J62" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K62" t="n">
         <v>1.8</v>
@@ -9322,40 +9322,40 @@
         <v>3.75</v>
       </c>
       <c r="M62" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N62" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O62" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="P62" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q62" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R62" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="S62" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="T62" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="U62" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V62" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="W62" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="X62" t="n">
-        <v>2.08</v>
+        <v>2.03</v>
       </c>
       <c r="Y62" t="n">
         <v>2.5</v>
@@ -9373,7 +9373,7 @@
         <v>12</v>
       </c>
       <c r="AD62" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE62" t="n">
         <v>34</v>
@@ -9400,7 +9400,7 @@
         <v>6</v>
       </c>
       <c r="AM62" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN62" t="n">
         <v>12</v>
@@ -9753,10 +9753,10 @@
         <v>6</v>
       </c>
       <c r="M65" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N65" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O65" t="n">
         <v>1.2</v>
@@ -10482,7 +10482,7 @@
         <v>2.75</v>
       </c>
       <c r="Y70" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="Z70" t="n">
         <v>2</v>
@@ -11336,13 +11336,13 @@
         <v>2.75</v>
       </c>
       <c r="Y76" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="Z76" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AA76" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB76" t="n">
         <v>12</v>
@@ -11387,7 +11387,7 @@
         <v>29</v>
       </c>
       <c r="AP76" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ76" t="n">
         <v>29</v>
@@ -11427,13 +11427,13 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H77" t="n">
         <v>3.4</v>
       </c>
       <c r="I77" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="J77" t="n">
         <v>3.4</v>
@@ -11442,7 +11442,7 @@
         <v>2.1</v>
       </c>
       <c r="L77" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M77" t="n">
         <v>1.06</v>
@@ -11495,7 +11495,7 @@
         <v>29</v>
       </c>
       <c r="AE77" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF77" t="n">
         <v>29</v>
@@ -11522,10 +11522,10 @@
         <v>12</v>
       </c>
       <c r="AN77" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AO77" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP77" t="n">
         <v>21</v>
@@ -12539,70 +12539,70 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="H85" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="I85" t="n">
         <v>17</v>
       </c>
       <c r="J85" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="K85" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="L85" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M85" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N85" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O85" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P85" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="R85" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="S85" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="T85" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="U85" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V85" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="W85" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="X85" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Y85" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Z85" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AA85" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB85" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AC85" t="n">
         <v>10</v>
@@ -12611,13 +12611,13 @@
         <v>6.5</v>
       </c>
       <c r="AE85" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF85" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG85" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH85" t="n">
         <v>13</v>
@@ -12632,7 +12632,7 @@
         <v>501</v>
       </c>
       <c r="AL85" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM85" t="n">
         <v>67</v>
@@ -12687,13 +12687,13 @@
         <v>11</v>
       </c>
       <c r="H86" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="I86" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="J86" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K86" t="n">
         <v>2.75</v>
@@ -12702,10 +12702,10 @@
         <v>1.62</v>
       </c>
       <c r="M86" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N86" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O86" t="n">
         <v>1.17</v>
@@ -12738,25 +12738,25 @@
         <v>3.5</v>
       </c>
       <c r="Y86" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Z86" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AA86" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB86" t="n">
         <v>51</v>
       </c>
       <c r="AC86" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AD86" t="n">
         <v>151</v>
       </c>
       <c r="AE86" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AF86" t="n">
         <v>67</v>
@@ -12777,7 +12777,7 @@
         <v>501</v>
       </c>
       <c r="AL86" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AM86" t="n">
         <v>6</v>
@@ -14670,22 +14670,22 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="H100" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I100" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="J100" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="K100" t="n">
         <v>2</v>
       </c>
       <c r="L100" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="M100" t="n">
         <v>1.08</v>
@@ -14694,30 +14694,30 @@
         <v>8</v>
       </c>
       <c r="O100" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P100" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q100" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R100" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S100" t="inlineStr"/>
       <c r="T100" t="inlineStr"/>
       <c r="U100" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="V100" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="W100" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X100" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Y100" t="n">
         <v>2.1</v>
@@ -14726,13 +14726,13 @@
         <v>1.67</v>
       </c>
       <c r="AA100" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB100" t="n">
         <v>21</v>
       </c>
       <c r="AC100" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD100" t="n">
         <v>51</v>
@@ -14759,10 +14759,10 @@
         <v>351</v>
       </c>
       <c r="AL100" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AM100" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AN100" t="n">
         <v>9</v>
@@ -14771,16 +14771,16 @@
         <v>15</v>
       </c>
       <c r="AP100" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ100" t="n">
         <v>34</v>
       </c>
       <c r="AR100" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="AS100" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="101">
@@ -14960,19 +14960,19 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H102" t="n">
         <v>3</v>
       </c>
       <c r="I102" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J102" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K102" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L102" t="n">
         <v>4.33</v>
@@ -15019,7 +15019,7 @@
         <v>6</v>
       </c>
       <c r="AB102" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AC102" t="n">
         <v>10</v>
@@ -15049,10 +15049,10 @@
         <v>301</v>
       </c>
       <c r="AL102" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AM102" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN102" t="n">
         <v>13</v>
@@ -15067,10 +15067,10 @@
         <v>41</v>
       </c>
       <c r="AR102" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="103">
@@ -17521,7 +17521,7 @@
         <v>2.3</v>
       </c>
       <c r="H120" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="I120" t="n">
         <v>3.25</v>
@@ -17530,10 +17530,10 @@
         <v>2.92</v>
       </c>
       <c r="K120" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="L120" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="M120" t="inlineStr"/>
       <c r="N120" t="inlineStr"/>
@@ -17561,7 +17561,7 @@
         <v>1.5</v>
       </c>
       <c r="X120" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="Y120" t="n">
         <v>1.98</v>
@@ -17573,22 +17573,22 @@
         <v>6.2</v>
       </c>
       <c r="AB120" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AC120" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AD120" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE120" t="n">
         <v>22</v>
       </c>
       <c r="AF120" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG120" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AH120" t="n">
         <v>5.7</v>
@@ -17603,7 +17603,7 @@
         <v>101</v>
       </c>
       <c r="AL120" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AM120" t="n">
         <v>15.5</v>
@@ -17615,10 +17615,10 @@
         <v>45</v>
       </c>
       <c r="AP120" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AQ120" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AR120" t="inlineStr"/>
       <c r="AS120" t="inlineStr"/>
@@ -17664,10 +17664,10 @@
         <v>4.5</v>
       </c>
       <c r="J121" t="n">
-        <v>2.35</v>
+        <v>2.36</v>
       </c>
       <c r="K121" t="n">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="L121" t="n">
         <v>5.4</v>
@@ -17675,16 +17675,16 @@
       <c r="M121" t="inlineStr"/>
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P121" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="Q121" t="n">
-        <v>2.31</v>
+        <v>2.34</v>
       </c>
       <c r="R121" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="S121" t="inlineStr"/>
       <c r="T121" t="inlineStr"/>
@@ -17692,22 +17692,22 @@
         <v>4.3</v>
       </c>
       <c r="V121" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="W121" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X121" t="n">
         <v>2.4</v>
       </c>
       <c r="Y121" t="n">
-        <v>2.15</v>
+        <v>2.17</v>
       </c>
       <c r="Z121" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="AA121" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="AB121" t="n">
         <v>5.6</v>
@@ -17725,7 +17725,7 @@
         <v>35</v>
       </c>
       <c r="AG121" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AH121" t="n">
         <v>6</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-02.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-02.xlsx
@@ -1705,22 +1705,22 @@
         <v>3.75</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O9" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P9" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="R9" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S9" t="n">
         <v>2.08</v>
@@ -1729,10 +1729,10 @@
         <v>1.82</v>
       </c>
       <c r="U9" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V9" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W9" t="n">
         <v>1.33</v>
@@ -1741,10 +1741,10 @@
         <v>3.25</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Z9" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AA9" t="n">
         <v>9.5</v>
@@ -1765,10 +1765,10 @@
         <v>21</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH9" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI9" t="n">
         <v>13</v>
@@ -1777,10 +1777,10 @@
         <v>41</v>
       </c>
       <c r="AK9" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AL9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM9" t="n">
         <v>19</v>
@@ -2571,10 +2571,10 @@
         <v>3.2</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R15" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
@@ -2615,7 +2615,7 @@
         <v>41</v>
       </c>
       <c r="AG15" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH15" t="n">
         <v>6</v>
@@ -2636,7 +2636,7 @@
         <v>10</v>
       </c>
       <c r="AN15" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AO15" t="n">
         <v>21</v>
@@ -3288,10 +3288,10 @@
         <v>3</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R20" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
@@ -3826,13 +3826,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H24" t="n">
         <v>3.3</v>
       </c>
       <c r="I24" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="J24" t="n">
         <v>3.75</v>
@@ -3882,19 +3882,19 @@
         <v>1.8</v>
       </c>
       <c r="AA24" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB24" t="n">
         <v>15</v>
       </c>
       <c r="AC24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD24" t="n">
         <v>34</v>
       </c>
       <c r="AE24" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF24" t="n">
         <v>41</v>
@@ -3918,13 +3918,13 @@
         <v>7</v>
       </c>
       <c r="AM24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN24" t="n">
         <v>9.5</v>
       </c>
       <c r="AO24" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP24" t="n">
         <v>21</v>
@@ -3971,70 +3971,70 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="H25" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I25" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="J25" t="n">
         <v>6</v>
       </c>
       <c r="K25" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L25" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N25" t="n">
+        <v>6</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="U25" t="n">
+        <v>6</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X25" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y25" t="n">
         <v>2.5</v>
       </c>
-      <c r="M25" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N25" t="n">
-        <v>7</v>
-      </c>
-      <c r="O25" t="n">
+      <c r="Z25" t="n">
         <v>1.5</v>
       </c>
-      <c r="P25" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S25" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="T25" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="U25" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="W25" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="X25" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>1.53</v>
-      </c>
       <c r="AA25" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB25" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC25" t="n">
         <v>17</v>
@@ -4043,28 +4043,28 @@
         <v>51</v>
       </c>
       <c r="AE25" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AF25" t="n">
         <v>51</v>
       </c>
       <c r="AG25" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH25" t="n">
         <v>6.5</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>7</v>
       </c>
       <c r="AI25" t="n">
         <v>23</v>
       </c>
       <c r="AJ25" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK25" t="n">
         <v>101</v>
       </c>
       <c r="AL25" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AM25" t="n">
         <v>7</v>
@@ -4073,19 +4073,19 @@
         <v>9.5</v>
       </c>
       <c r="AO25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP25" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ25" t="n">
         <v>41</v>
       </c>
       <c r="AR25" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="26">
@@ -4120,28 +4120,28 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="H26" t="n">
         <v>3.1</v>
       </c>
       <c r="I26" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="J26" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K26" t="n">
         <v>1.83</v>
       </c>
       <c r="L26" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M26" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N26" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O26" t="n">
         <v>1.57</v>
@@ -4150,16 +4150,16 @@
         <v>2.25</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="R26" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="S26" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="T26" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="U26" t="n">
         <v>6</v>
@@ -4183,13 +4183,13 @@
         <v>5</v>
       </c>
       <c r="AB26" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AC26" t="n">
         <v>10</v>
       </c>
       <c r="AD26" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE26" t="n">
         <v>21</v>
@@ -4201,10 +4201,10 @@
         <v>6</v>
       </c>
       <c r="AH26" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI26" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ26" t="n">
         <v>101</v>
@@ -4219,10 +4219,10 @@
         <v>19</v>
       </c>
       <c r="AN26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO26" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP26" t="n">
         <v>41</v>
@@ -4436,10 +4436,10 @@
         <v>6.5</v>
       </c>
       <c r="M28" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N28" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O28" t="n">
         <v>1.5</v>
@@ -4448,10 +4448,10 @@
         <v>2.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R28" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S28" t="n">
         <v>4.2</v>
@@ -4460,10 +4460,10 @@
         <v>1.23</v>
       </c>
       <c r="U28" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="V28" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="W28" t="n">
         <v>1.57</v>
@@ -4529,10 +4529,10 @@
         <v>67</v>
       </c>
       <c r="AR28" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="29">
@@ -4678,10 +4678,10 @@
         <v>41</v>
       </c>
       <c r="AR29" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="30">
@@ -5997,13 +5997,13 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="H39" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I39" t="n">
-        <v>6.25</v>
+        <v>7</v>
       </c>
       <c r="J39" t="n">
         <v>2.1</v>
@@ -6012,13 +6012,13 @@
         <v>2.1</v>
       </c>
       <c r="L39" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M39" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N39" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O39" t="n">
         <v>1.36</v>
@@ -6027,16 +6027,16 @@
         <v>3</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R39" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S39" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="T39" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="U39" t="n">
         <v>4</v>
@@ -6051,13 +6051,13 @@
         <v>2.5</v>
       </c>
       <c r="Y39" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Z39" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AA39" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AB39" t="n">
         <v>6</v>
@@ -6066,34 +6066,34 @@
         <v>9</v>
       </c>
       <c r="AD39" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE39" t="n">
         <v>15</v>
       </c>
       <c r="AF39" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG39" t="n">
         <v>8</v>
       </c>
       <c r="AH39" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI39" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ39" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK39" t="n">
         <v>1250</v>
       </c>
       <c r="AL39" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM39" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN39" t="n">
         <v>21</v>
@@ -6105,13 +6105,13 @@
         <v>51</v>
       </c>
       <c r="AQ39" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR39" t="n">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="40">
@@ -6155,7 +6155,7 @@
         <v>10</v>
       </c>
       <c r="J40" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="K40" t="n">
         <v>2.3</v>
@@ -6295,22 +6295,22 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H41" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="I41" t="n">
-        <v>2.38</v>
+        <v>2.6</v>
       </c>
       <c r="J41" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K41" t="n">
         <v>1.91</v>
       </c>
       <c r="L41" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M41" t="n">
         <v>1.11</v>
@@ -6364,7 +6364,7 @@
         <v>12</v>
       </c>
       <c r="AD41" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE41" t="n">
         <v>29</v>
@@ -6382,25 +6382,25 @@
         <v>19</v>
       </c>
       <c r="AJ41" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AK41" t="n">
         <v>700</v>
       </c>
       <c r="AL41" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AM41" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN41" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO41" t="n">
         <v>23</v>
       </c>
       <c r="AP41" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ41" t="n">
         <v>41</v>
@@ -11427,10 +11427,10 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H77" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I77" t="n">
         <v>2.55</v>
@@ -11442,7 +11442,7 @@
         <v>2.1</v>
       </c>
       <c r="L77" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M77" t="n">
         <v>1.06</v>
@@ -11451,39 +11451,39 @@
         <v>10</v>
       </c>
       <c r="O77" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="P77" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q77" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="R77" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="V77" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="W77" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X77" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y77" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Z77" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AA77" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB77" t="n">
         <v>13</v>
@@ -11495,13 +11495,13 @@
         <v>29</v>
       </c>
       <c r="AE77" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF77" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG77" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH77" t="n">
         <v>6.5</v>
@@ -11513,10 +11513,10 @@
         <v>51</v>
       </c>
       <c r="AK77" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL77" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AM77" t="n">
         <v>12</v>
@@ -12687,13 +12687,13 @@
         <v>11</v>
       </c>
       <c r="H86" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="I86" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="J86" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K86" t="n">
         <v>2.75</v>
@@ -12708,22 +12708,22 @@
         <v>19</v>
       </c>
       <c r="O86" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P86" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R86" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S86" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="T86" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="U86" t="n">
         <v>2.25</v>
@@ -12732,31 +12732,31 @@
         <v>1.57</v>
       </c>
       <c r="W86" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="X86" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Y86" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Z86" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AA86" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB86" t="n">
         <v>51</v>
       </c>
       <c r="AC86" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AD86" t="n">
         <v>151</v>
       </c>
       <c r="AE86" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AF86" t="n">
         <v>67</v>
@@ -14960,22 +14960,22 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I102" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="J102" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K102" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L102" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M102" t="n">
         <v>1.1</v>
@@ -15004,10 +15004,10 @@
         <v>1.17</v>
       </c>
       <c r="W102" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="X102" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Y102" t="n">
         <v>2.1</v>
@@ -15022,10 +15022,10 @@
         <v>9</v>
       </c>
       <c r="AC102" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD102" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE102" t="n">
         <v>21</v>
@@ -15049,13 +15049,13 @@
         <v>301</v>
       </c>
       <c r="AL102" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AM102" t="n">
         <v>17</v>
       </c>
       <c r="AN102" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO102" t="n">
         <v>41</v>
@@ -17381,22 +17381,22 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="H119" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I119" t="n">
         <v>3.05</v>
       </c>
-      <c r="I119" t="n">
-        <v>3</v>
-      </c>
       <c r="J119" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="K119" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="L119" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="M119" t="inlineStr"/>
       <c r="N119" t="inlineStr"/>
@@ -17404,7 +17404,7 @@
         <v>1.33</v>
       </c>
       <c r="P119" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="Q119" t="n">
         <v>1.98</v>
@@ -17421,67 +17421,67 @@
         <v>1.26</v>
       </c>
       <c r="W119" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="X119" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="Y119" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="Z119" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="AA119" t="n">
-        <v>7.2</v>
+        <v>7.7</v>
       </c>
       <c r="AB119" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC119" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AD119" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AE119" t="n">
         <v>20</v>
       </c>
       <c r="AF119" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AG119" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AH119" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="AI119" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AJ119" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AK119" t="n">
         <v>500</v>
       </c>
       <c r="AL119" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AM119" t="n">
         <v>16</v>
       </c>
       <c r="AN119" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AO119" t="n">
         <v>40</v>
       </c>
       <c r="AP119" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AQ119" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AR119" t="inlineStr"/>
       <c r="AS119" t="inlineStr"/>
@@ -17518,36 +17518,40 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.3</v>
+        <v>2.47</v>
       </c>
       <c r="H120" t="n">
-        <v>2.87</v>
+        <v>2.55</v>
       </c>
       <c r="I120" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="J120" t="n">
-        <v>2.92</v>
+        <v>3.15</v>
       </c>
       <c r="K120" t="n">
-        <v>1.91</v>
+        <v>1.82</v>
       </c>
       <c r="L120" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
-      <c r="N120" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="M120" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N120" t="n">
+        <v>6.4</v>
+      </c>
       <c r="O120" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P120" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="R120" t="n">
         <v>1.45</v>
-      </c>
-      <c r="P120" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="Q120" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="R120" t="n">
-        <v>1.47</v>
       </c>
       <c r="S120" t="inlineStr"/>
       <c r="T120" t="inlineStr"/>
@@ -17558,67 +17562,67 @@
         <v>1.17</v>
       </c>
       <c r="W120" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X120" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y120" t="n">
-        <v>1.98</v>
+        <v>1.87</v>
       </c>
       <c r="Z120" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="AA120" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AB120" t="n">
-        <v>10.25</v>
+        <v>11.5</v>
       </c>
       <c r="AC120" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AD120" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE120" t="n">
         <v>24</v>
-      </c>
-      <c r="AE120" t="n">
-        <v>22</v>
       </c>
       <c r="AF120" t="n">
         <v>37</v>
       </c>
       <c r="AG120" t="n">
-        <v>6.5</v>
+        <v>5.9</v>
       </c>
       <c r="AH120" t="n">
-        <v>5.7</v>
+        <v>5.1</v>
       </c>
       <c r="AI120" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="AJ120" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK120" t="n">
-        <v>101</v>
+        <v>800</v>
       </c>
       <c r="AL120" t="n">
-        <v>7.4</v>
+        <v>7.9</v>
       </c>
       <c r="AM120" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AN120" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AO120" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AP120" t="n">
         <v>37</v>
       </c>
       <c r="AQ120" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AR120" t="inlineStr"/>
       <c r="AS120" t="inlineStr"/>
@@ -17655,19 +17659,19 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="H121" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="I121" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="J121" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="K121" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="L121" t="n">
         <v>5.4</v>
@@ -17675,39 +17679,39 @@
       <c r="M121" t="inlineStr"/>
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="P121" t="n">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="Q121" t="n">
-        <v>2.34</v>
+        <v>2.29</v>
       </c>
       <c r="R121" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="S121" t="inlineStr"/>
       <c r="T121" t="inlineStr"/>
       <c r="U121" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="V121" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W121" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="X121" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="Y121" t="n">
-        <v>2.17</v>
+        <v>2.12</v>
       </c>
       <c r="Z121" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="AA121" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="AB121" t="n">
         <v>5.6</v>
@@ -17716,22 +17720,22 @@
         <v>7</v>
       </c>
       <c r="AD121" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE121" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF121" t="n">
         <v>35</v>
       </c>
       <c r="AG121" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AH121" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AI121" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ121" t="n">
         <v>101</v>
@@ -17740,13 +17744,13 @@
         <v>101</v>
       </c>
       <c r="AL121" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AM121" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN121" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO121" t="n">
         <v>80</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-02.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-02.xlsx
@@ -4120,34 +4120,34 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H26" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I26" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J26" t="n">
         <v>2.75</v>
       </c>
       <c r="K26" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="L26" t="n">
         <v>5.5</v>
       </c>
       <c r="M26" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N26" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O26" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P26" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Q26" t="n">
         <v>2.7</v>
@@ -4156,16 +4156,16 @@
         <v>1.44</v>
       </c>
       <c r="S26" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="T26" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="U26" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="V26" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W26" t="n">
         <v>1.62</v>
@@ -4186,10 +4186,10 @@
         <v>7.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE26" t="n">
         <v>21</v>
@@ -4204,19 +4204,19 @@
         <v>6.5</v>
       </c>
       <c r="AI26" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ26" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK26" t="n">
         <v>101</v>
       </c>
       <c r="AL26" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AM26" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN26" t="n">
         <v>17</v>
@@ -4231,10 +4231,10 @@
         <v>51</v>
       </c>
       <c r="AR26" t="n">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="27">
@@ -4269,88 +4269,88 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="H27" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="I27" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="J27" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="K27" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L27" t="n">
+        <v>6</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N27" t="n">
+        <v>8</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="U27" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X27" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA27" t="n">
         <v>5.5</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N27" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P27" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S27" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="T27" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="U27" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="V27" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="W27" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="X27" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>5</v>
       </c>
       <c r="AB27" t="n">
         <v>7</v>
       </c>
       <c r="AC27" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE27" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF27" t="n">
         <v>41</v>
       </c>
       <c r="AG27" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AH27" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI27" t="n">
         <v>21</v>
@@ -4362,28 +4362,28 @@
         <v>101</v>
       </c>
       <c r="AL27" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AM27" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN27" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO27" t="n">
         <v>51</v>
       </c>
       <c r="AP27" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AQ27" t="n">
         <v>51</v>
       </c>
       <c r="AR27" t="n">
-        <v>1.98</v>
+        <v>1.78</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.88</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="28">
@@ -4502,7 +4502,7 @@
         <v>7</v>
       </c>
       <c r="AI28" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ28" t="n">
         <v>101</v>
@@ -4514,10 +4514,10 @@
         <v>10</v>
       </c>
       <c r="AM28" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN28" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO28" t="n">
         <v>67</v>
@@ -4567,16 +4567,16 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="H29" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I29" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J29" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="K29" t="n">
         <v>1.91</v>
@@ -4585,28 +4585,28 @@
         <v>3.75</v>
       </c>
       <c r="M29" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N29" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O29" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P29" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R29" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S29" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="T29" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="U29" t="n">
         <v>5.5</v>
@@ -4615,16 +4615,16 @@
         <v>1.14</v>
       </c>
       <c r="W29" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="X29" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y29" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Z29" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AA29" t="n">
         <v>6.5</v>
@@ -4636,7 +4636,7 @@
         <v>11</v>
       </c>
       <c r="AD29" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE29" t="n">
         <v>26</v>
@@ -4660,10 +4660,10 @@
         <v>501</v>
       </c>
       <c r="AL29" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AM29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN29" t="n">
         <v>11</v>
@@ -4678,10 +4678,10 @@
         <v>41</v>
       </c>
       <c r="AR29" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="30">
@@ -6146,22 +6146,22 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H40" t="n">
         <v>4.75</v>
       </c>
       <c r="I40" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J40" t="n">
         <v>1.8</v>
       </c>
       <c r="K40" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L40" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M40" t="n">
         <v>1.05</v>
@@ -6176,22 +6176,22 @@
         <v>3.5</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="R40" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="S40" t="n">
-        <v>2.65</v>
+        <v>2.55</v>
       </c>
       <c r="T40" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="U40" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V40" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W40" t="n">
         <v>1.4</v>
@@ -6200,10 +6200,10 @@
         <v>2.75</v>
       </c>
       <c r="Y40" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Z40" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AA40" t="n">
         <v>5.5</v>
@@ -6215,22 +6215,22 @@
         <v>9.5</v>
       </c>
       <c r="AD40" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE40" t="n">
         <v>13</v>
       </c>
       <c r="AF40" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG40" t="n">
         <v>9.5</v>
       </c>
       <c r="AH40" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI40" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ40" t="n">
         <v>101</v>
@@ -6242,13 +6242,13 @@
         <v>19</v>
       </c>
       <c r="AM40" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN40" t="n">
         <v>29</v>
       </c>
       <c r="AO40" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AP40" t="n">
         <v>81</v>
@@ -6257,10 +6257,10 @@
         <v>81</v>
       </c>
       <c r="AR40" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AS40" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="41">
@@ -6295,16 +6295,16 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H41" t="n">
         <v>2.88</v>
       </c>
       <c r="I41" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="J41" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K41" t="n">
         <v>1.91</v>
@@ -6337,10 +6337,10 @@
         <v>1.22</v>
       </c>
       <c r="U41" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="V41" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="W41" t="n">
         <v>1.57</v>
@@ -6349,22 +6349,22 @@
         <v>2.25</v>
       </c>
       <c r="Y41" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Z41" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AA41" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB41" t="n">
         <v>13</v>
       </c>
       <c r="AC41" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD41" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE41" t="n">
         <v>29</v>
@@ -6373,13 +6373,13 @@
         <v>41</v>
       </c>
       <c r="AG41" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AH41" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AI41" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ41" t="n">
         <v>67</v>
@@ -6400,7 +6400,7 @@
         <v>23</v>
       </c>
       <c r="AP41" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ41" t="n">
         <v>41</v>
@@ -11286,22 +11286,22 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="H76" t="n">
         <v>3.25</v>
       </c>
       <c r="I76" t="n">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="J76" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="K76" t="n">
         <v>2.1</v>
       </c>
       <c r="L76" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M76" t="n">
         <v>1.05</v>
@@ -11316,18 +11316,18 @@
         <v>3.5</v>
       </c>
       <c r="Q76" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R76" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V76" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W76" t="n">
         <v>1.4</v>
@@ -11342,16 +11342,16 @@
         <v>2</v>
       </c>
       <c r="AA76" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB76" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC76" t="n">
         <v>10</v>
       </c>
       <c r="AD76" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AE76" t="n">
         <v>21</v>
@@ -11375,19 +11375,19 @@
         <v>201</v>
       </c>
       <c r="AL76" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AM76" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN76" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO76" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP76" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ76" t="n">
         <v>29</v>
@@ -11430,45 +11430,45 @@
         <v>2.75</v>
       </c>
       <c r="H77" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I77" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="J77" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K77" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L77" t="n">
         <v>3.25</v>
       </c>
       <c r="M77" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N77" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O77" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P77" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q77" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="R77" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V77" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W77" t="n">
         <v>1.44</v>
@@ -11477,19 +11477,19 @@
         <v>2.63</v>
       </c>
       <c r="Y77" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="Z77" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AA77" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB77" t="n">
         <v>13</v>
       </c>
       <c r="AC77" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD77" t="n">
         <v>29</v>
@@ -11501,10 +11501,10 @@
         <v>34</v>
       </c>
       <c r="AG77" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AH77" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI77" t="n">
         <v>15</v>
@@ -11513,10 +11513,10 @@
         <v>51</v>
       </c>
       <c r="AK77" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AL77" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AM77" t="n">
         <v>12</v>
@@ -11531,7 +11531,7 @@
         <v>21</v>
       </c>
       <c r="AQ77" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR77" t="inlineStr"/>
       <c r="AS77" t="inlineStr"/>
@@ -11834,62 +11834,62 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="H80" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I80" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="J80" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="K80" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L80" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P80" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="Q80" t="n">
         <v>1.82</v>
       </c>
       <c r="R80" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="V80" t="n">
         <v>1.31</v>
       </c>
       <c r="W80" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="X80" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="Y80" t="n">
         <v>1.7</v>
       </c>
       <c r="Z80" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="AA80" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AB80" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AC80" t="n">
         <v>12.5</v>
@@ -11898,7 +11898,7 @@
         <v>60</v>
       </c>
       <c r="AE80" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AF80" t="n">
         <v>37</v>
@@ -11907,16 +11907,16 @@
         <v>10</v>
       </c>
       <c r="AH80" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AI80" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AJ80" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AK80" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AL80" t="n">
         <v>7.3</v>
@@ -11928,13 +11928,13 @@
         <v>8.25</v>
       </c>
       <c r="AO80" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AP80" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AQ80" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR80" t="inlineStr"/>
       <c r="AS80" t="inlineStr"/>
@@ -17518,22 +17518,22 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="H120" t="n">
         <v>2.55</v>
       </c>
       <c r="I120" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="J120" t="n">
         <v>3.15</v>
       </c>
       <c r="K120" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="L120" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="M120" t="n">
         <v>1.1</v>
@@ -17562,16 +17562,16 @@
         <v>1.17</v>
       </c>
       <c r="W120" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="X120" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Y120" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="Z120" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="AA120" t="n">
         <v>6.3</v>
@@ -17583,13 +17583,13 @@
         <v>9.5</v>
       </c>
       <c r="AD120" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE120" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AF120" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG120" t="n">
         <v>5.9</v>
@@ -17601,25 +17601,25 @@
         <v>14.5</v>
       </c>
       <c r="AJ120" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AK120" t="n">
         <v>800</v>
       </c>
       <c r="AL120" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AM120" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AN120" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AO120" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AP120" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AQ120" t="n">
         <v>45</v>
@@ -17659,83 +17659,83 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.72</v>
+        <v>1.6</v>
       </c>
       <c r="H121" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="I121" t="n">
-        <v>4.6</v>
+        <v>5.2</v>
       </c>
       <c r="J121" t="n">
-        <v>2.32</v>
+        <v>2.16</v>
       </c>
       <c r="K121" t="n">
-        <v>2.05</v>
+        <v>2.11</v>
       </c>
       <c r="L121" t="n">
-        <v>5.4</v>
+        <v>6.2</v>
       </c>
       <c r="M121" t="inlineStr"/>
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="P121" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q121" t="n">
-        <v>2.29</v>
+        <v>2.24</v>
       </c>
       <c r="R121" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="S121" t="inlineStr"/>
       <c r="T121" t="inlineStr"/>
       <c r="U121" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="V121" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="W121" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X121" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y121" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z121" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA121" t="n">
         <v>4.2</v>
       </c>
-      <c r="V121" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="W121" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="X121" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="Y121" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="Z121" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AA121" t="n">
-        <v>4.4</v>
-      </c>
       <c r="AB121" t="n">
-        <v>5.6</v>
+        <v>5</v>
       </c>
       <c r="AC121" t="n">
         <v>7</v>
       </c>
       <c r="AD121" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE121" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF121" t="n">
         <v>35</v>
       </c>
       <c r="AG121" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AH121" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="AI121" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AJ121" t="n">
         <v>101</v>
@@ -17744,22 +17744,22 @@
         <v>101</v>
       </c>
       <c r="AL121" t="n">
-        <v>8.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AM121" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AN121" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AO121" t="n">
+        <v>101</v>
+      </c>
+      <c r="AP121" t="n">
+        <v>70</v>
+      </c>
+      <c r="AQ121" t="n">
         <v>80</v>
-      </c>
-      <c r="AP121" t="n">
-        <v>50</v>
-      </c>
-      <c r="AQ121" t="n">
-        <v>70</v>
       </c>
       <c r="AR121" t="inlineStr"/>
       <c r="AS121" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-02.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-02.xlsx
@@ -4418,16 +4418,16 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H28" t="n">
         <v>3.5</v>
       </c>
       <c r="I28" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J28" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K28" t="n">
         <v>1.95</v>
@@ -4448,10 +4448,10 @@
         <v>2.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R28" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S28" t="n">
         <v>4.2</v>
@@ -4460,10 +4460,10 @@
         <v>1.23</v>
       </c>
       <c r="U28" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="V28" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="W28" t="n">
         <v>1.57</v>
@@ -4472,13 +4472,13 @@
         <v>2.25</v>
       </c>
       <c r="Y28" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Z28" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AA28" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AB28" t="n">
         <v>6.5</v>
@@ -4502,7 +4502,7 @@
         <v>7</v>
       </c>
       <c r="AI28" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ28" t="n">
         <v>101</v>
@@ -4514,10 +4514,10 @@
         <v>10</v>
       </c>
       <c r="AM28" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN28" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO28" t="n">
         <v>67</v>
@@ -4529,10 +4529,10 @@
         <v>67</v>
       </c>
       <c r="AR28" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="29">
@@ -4567,19 +4567,19 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H29" t="n">
         <v>3</v>
       </c>
       <c r="I29" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J29" t="n">
         <v>3.6</v>
       </c>
       <c r="K29" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L29" t="n">
         <v>3.75</v>
@@ -4591,10 +4591,10 @@
         <v>6.5</v>
       </c>
       <c r="O29" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P29" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q29" t="n">
         <v>2.7</v>
@@ -4603,16 +4603,16 @@
         <v>1.44</v>
       </c>
       <c r="S29" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="T29" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="U29" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="V29" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W29" t="n">
         <v>1.62</v>
@@ -4627,7 +4627,7 @@
         <v>1.62</v>
       </c>
       <c r="AA29" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB29" t="n">
         <v>11</v>
@@ -4636,22 +4636,22 @@
         <v>11</v>
       </c>
       <c r="AD29" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE29" t="n">
         <v>29</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>26</v>
       </c>
       <c r="AF29" t="n">
         <v>41</v>
       </c>
       <c r="AG29" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AH29" t="n">
         <v>6</v>
       </c>
       <c r="AI29" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ29" t="n">
         <v>81</v>
@@ -4666,7 +4666,7 @@
         <v>12</v>
       </c>
       <c r="AN29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO29" t="n">
         <v>29</v>
@@ -4678,10 +4678,10 @@
         <v>41</v>
       </c>
       <c r="AR29" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="30">
@@ -6313,22 +6313,22 @@
         <v>3.4</v>
       </c>
       <c r="M41" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N41" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O41" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P41" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R41" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S41" t="n">
         <v>4.2</v>
@@ -6337,22 +6337,22 @@
         <v>1.22</v>
       </c>
       <c r="U41" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="V41" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="W41" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="X41" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y41" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Z41" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AA41" t="n">
         <v>7.5</v>
@@ -6367,7 +6367,7 @@
         <v>34</v>
       </c>
       <c r="AE41" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF41" t="n">
         <v>41</v>
@@ -6379,7 +6379,7 @@
         <v>5.5</v>
       </c>
       <c r="AI41" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ41" t="n">
         <v>67</v>
@@ -6388,7 +6388,7 @@
         <v>700</v>
       </c>
       <c r="AL41" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AM41" t="n">
         <v>11</v>
@@ -6400,16 +6400,16 @@
         <v>23</v>
       </c>
       <c r="AP41" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ41" t="n">
         <v>41</v>
       </c>
       <c r="AR41" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="42">
@@ -11427,22 +11427,22 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="H77" t="n">
         <v>3.25</v>
       </c>
       <c r="I77" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="J77" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="K77" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L77" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M77" t="n">
         <v>1.07</v>
@@ -11457,30 +11457,30 @@
         <v>3</v>
       </c>
       <c r="Q77" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R77" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V77" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W77" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X77" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y77" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="Z77" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AA77" t="n">
         <v>8</v>
@@ -11492,40 +11492,40 @@
         <v>11</v>
       </c>
       <c r="AD77" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE77" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF77" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG77" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AH77" t="n">
         <v>6</v>
       </c>
       <c r="AI77" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ77" t="n">
         <v>51</v>
       </c>
       <c r="AK77" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AL77" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AM77" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN77" t="n">
         <v>10</v>
       </c>
       <c r="AO77" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP77" t="n">
         <v>21</v>
@@ -11834,22 +11834,22 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="H80" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I80" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="J80" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="K80" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L80" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr"/>
@@ -11860,7 +11860,7 @@
         <v>3.1</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="R80" t="n">
         <v>1.8</v>
@@ -11868,16 +11868,16 @@
       <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="V80" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W80" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="X80" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="Y80" t="n">
         <v>1.7</v>
@@ -11886,28 +11886,28 @@
         <v>1.93</v>
       </c>
       <c r="AA80" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AB80" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AC80" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD80" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AE80" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AF80" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG80" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AH80" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AI80" t="n">
         <v>13.5</v>
@@ -11919,22 +11919,22 @@
         <v>450</v>
       </c>
       <c r="AL80" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AM80" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AN80" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AO80" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AP80" t="n">
         <v>15.5</v>
       </c>
       <c r="AQ80" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR80" t="inlineStr"/>
       <c r="AS80" t="inlineStr"/>
